--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/UX-Guide-Metadata/draft/localizations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A005B1-C04F-094E-A59A-EB7BCFA0C838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7280D7-2F89-EE44-B719-63646870B6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -78,21 +78,12 @@
     <t>nonvisual-reading-readable</t>
   </si>
   <si>
-    <t>Readable in read aloud and braille</t>
-  </si>
-  <si>
     <t>nonvisual-reading-not-fully</t>
   </si>
   <si>
-    <t>Not fully readable in read aloud and braille</t>
-  </si>
-  <si>
     <t>nonvisual-reading-may-not-fully</t>
   </si>
   <si>
-    <t>May not be fully readable in read aloud and braille</t>
-  </si>
-  <si>
     <t>conformance-aaa</t>
   </si>
   <si>
@@ -201,42 +192,21 @@
     <t>on</t>
   </si>
   <si>
-    <t>conformance-certifier-prefix</t>
-  </si>
-  <si>
-    <t>by</t>
-  </si>
-  <si>
     <t>conformance-certifier-credentials-prefix</t>
   </si>
   <si>
-    <t>with a credential of</t>
-  </si>
-  <si>
     <t>conformance-certifier-report</t>
   </si>
   <si>
-    <t>pre-recorded-audio-only</t>
-  </si>
-  <si>
     <t>Audio only</t>
   </si>
   <si>
-    <t>pre-recorded-audio-synchronized</t>
-  </si>
-  <si>
     <t>Synchronized audio and text</t>
   </si>
   <si>
-    <t>pre-recorded-audio-complementary</t>
-  </si>
-  <si>
     <t>Complementary audio and text</t>
   </si>
   <si>
-    <t>pre-recorded-audio-no-metadata</t>
-  </si>
-  <si>
     <t>navigation-toc</t>
   </si>
   <si>
@@ -270,21 +240,12 @@
     <t>navigation-no-metadata</t>
   </si>
   <si>
-    <t>charts-diagrams-formulas-extended</t>
-  </si>
-  <si>
     <t>Charts and diagrams have extended descriptions</t>
   </si>
   <si>
-    <t>charts-diagrams-formulas-accessible-chemistry</t>
-  </si>
-  <si>
     <t>Accessible chemistry content</t>
   </si>
   <si>
-    <t>charts-diagrams-formulas-accessible-math</t>
-  </si>
-  <si>
     <t>Accessible math content</t>
   </si>
   <si>
@@ -411,12 +372,6 @@
     <t>, and</t>
   </si>
   <si>
-    <t>charts-diagrams-formulas-non-graphical-data</t>
-  </si>
-  <si>
-    <t>Visualized data also available as non-graphical data</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-adaptation-dyslexia-readability</t>
   </si>
   <si>
@@ -456,9 +411,6 @@
     <t>supports page navigation</t>
   </si>
   <si>
-    <t>charts-diagrams-formulas-unknown</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-page-breaks</t>
   </si>
   <si>
@@ -537,21 +489,12 @@
     <t>Conformance</t>
   </si>
   <si>
-    <t>pre-recorded-audio-title</t>
-  </si>
-  <si>
-    <t>Pre-recorded audio</t>
-  </si>
-  <si>
     <t>navigation-title</t>
   </si>
   <si>
     <t>Navigation</t>
   </si>
   <si>
-    <t>charts-diagrams-formulas-title</t>
-  </si>
-  <si>
     <t>hazards-title</t>
   </si>
   <si>
@@ -573,18 +516,6 @@
     <t>Web Accessibility Content Guidelines (WCAG) 2.1</t>
   </si>
   <si>
-    <t>The publication contains</t>
-  </si>
-  <si>
-    <t>rapidly changing lights,</t>
-  </si>
-  <si>
-    <t>visual stimuli or simulated movements,</t>
-  </si>
-  <si>
-    <t>Flashing</t>
-  </si>
-  <si>
     <t>/strings/string/mode</t>
   </si>
   <si>
@@ -597,24 +528,12 @@
     <t>compact</t>
   </si>
   <si>
-    <t>hasards-explanatory</t>
-  </si>
-  <si>
     <t>Web Content Accessibility Guidelines (WCAG) 2.2</t>
   </si>
   <si>
-    <t>No information about pre-recorded audio is available.</t>
-  </si>
-  <si>
-    <t>No information about navigation is available.</t>
-  </si>
-  <si>
     <t>headings</t>
   </si>
   <si>
-    <t>No information about possible hazards is available.</t>
-  </si>
-  <si>
     <t>No accessibility summary is available.</t>
   </si>
   <si>
@@ -654,15 +573,6 @@
     <t>Text and page layout cannot be modified as the reading experience is close to a print version, but reading systems can still provide zooming options</t>
   </si>
   <si>
-    <t>All content is available in generated read aloud speech and electronic braille</t>
-  </si>
-  <si>
-    <t>Portions of the content may not be available in generated read aloud speech and electronic braille</t>
-  </si>
-  <si>
-    <t>Not all of the content will be available in generated read aloud speech and electronic braille</t>
-  </si>
-  <si>
     <t>The publication contains a conformance statement that it meets the EPUB Accessibility and WCAG 2 Level AAA standard</t>
   </si>
   <si>
@@ -672,42 +582,9 @@
     <t>The publication contains a conformance statement that it meets the EPUB Accessibility and WCAG 2 Level A standard</t>
   </si>
   <si>
-    <t>The conformance metadata is missing and conformity to a standard of this publication is unknown</t>
-  </si>
-  <si>
     <t>Audiobook with no text alternative</t>
   </si>
   <si>
-    <t>Contents available as complementary audio and text</t>
-  </si>
-  <si>
-    <t>All the content is available as pre-recorded audio synchronized with text</t>
-  </si>
-  <si>
-    <t>Contains a table of contents that provides direct access to all chapters of the text via links</t>
-  </si>
-  <si>
-    <t>Contains book elements such as headings, tables, etc for structured navigation</t>
-  </si>
-  <si>
-    <t>Index provides links to item references</t>
-  </si>
-  <si>
-    <t>A page list enables users to navigate directly to pages from the identified print source version</t>
-  </si>
-  <si>
-    <t>Charts and diagrams are present and described by extended descriptions</t>
-  </si>
-  <si>
-    <t>Contains math formulas in accessible format</t>
-  </si>
-  <si>
-    <t>Chemistry is in an accessible format</t>
-  </si>
-  <si>
-    <t>which can cause discomfort, distraction, photosensitive seizures, or motion sickness</t>
-  </si>
-  <si>
     <t>The presence of hazards is unknown</t>
   </si>
   <si>
@@ -718,6 +595,324 @@
   </si>
   <si>
     <t>accessibility of formulas, charts, math, and diagrams not identified as being accessible</t>
+  </si>
+  <si>
+    <t>No information is available</t>
+  </si>
+  <si>
+    <t>Support for nonvisual reading</t>
+  </si>
+  <si>
+    <t>has-alt-text</t>
+  </si>
+  <si>
+    <t>Has alt text on images</t>
+  </si>
+  <si>
+    <t>All content can be read as read aloud speech or dynamic braille</t>
+  </si>
+  <si>
+    <t>Portions of the content may not be readable as read aloud speech or dynamic braille</t>
+  </si>
+  <si>
+    <t>Not all of the content will be readable as read aloud speech or dynamic braille</t>
+  </si>
+  <si>
+    <t>Has alt text</t>
+  </si>
+  <si>
+    <t>Readable in read aloud or dynamic braille</t>
+  </si>
+  <si>
+    <t>May not be fully readable in read aloud or dynamic braille</t>
+  </si>
+  <si>
+    <t>Not fully readable in read aloud or dynamic braille</t>
+  </si>
+  <si>
+    <t>The publication was certified by</t>
+  </si>
+  <si>
+    <t>The certifier 's credential is</t>
+  </si>
+  <si>
+    <t>Detailed conformance information</t>
+  </si>
+  <si>
+    <t>The publication was certified on</t>
+  </si>
+  <si>
+    <t>prerecorded-audio-title</t>
+  </si>
+  <si>
+    <t>Prerecorded audio</t>
+  </si>
+  <si>
+    <t>prerecorded-audio-no-metadata</t>
+  </si>
+  <si>
+    <t>prerecorded-audio-only</t>
+  </si>
+  <si>
+    <t>prerecorded-audio-synchronized</t>
+  </si>
+  <si>
+    <t>All the content is available as prerecorded audio synchronized with text</t>
+  </si>
+  <si>
+    <t>Audiobook</t>
+  </si>
+  <si>
+    <t>Prerecorded audio synchronized with text</t>
+  </si>
+  <si>
+    <t>Table of contents to all chapters of the text via links</t>
+  </si>
+  <si>
+    <t>Index with links to referenced entries</t>
+  </si>
+  <si>
+    <t>Elements such as headings, tables, etc for structured navigation</t>
+  </si>
+  <si>
+    <t>Page list to go to pages from the print source version</t>
+  </si>
+  <si>
+    <t>Table of contents</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Headings</t>
+  </si>
+  <si>
+    <t>Go to page</t>
+  </si>
+  <si>
+    <t>Rich-content-title</t>
+  </si>
+  <si>
+    <t>Rich content</t>
+  </si>
+  <si>
+    <t>rich-content-unknown</t>
+  </si>
+  <si>
+    <t>rich-content-accessible-math-as-mathml</t>
+  </si>
+  <si>
+    <t>Math formulas in accessible format (MathML)</t>
+  </si>
+  <si>
+    <t>rich-content-accessible-math-as-latex</t>
+  </si>
+  <si>
+    <t>Math formulas in accessible format (LaTex)</t>
+  </si>
+  <si>
+    <t>rich-content-accessible-math-described</t>
+  </si>
+  <si>
+    <t>Math formulas in accessible format (formulas as images with textual description)</t>
+  </si>
+  <si>
+    <t>rich-content-accessible-chemistry-as-mathml</t>
+  </si>
+  <si>
+    <t>Chemical formulas in accessible format (MathML)</t>
+  </si>
+  <si>
+    <t>rich-content-accessible-chemistry-as-latex</t>
+  </si>
+  <si>
+    <t>Chemical formulas in accessible format (LaTex)</t>
+  </si>
+  <si>
+    <t>rich-content-extended</t>
+  </si>
+  <si>
+    <t>Information-rich images are described by extended descriptions</t>
+  </si>
+  <si>
+    <t>Videos included in publications have closed captions</t>
+  </si>
+  <si>
+    <t>Videos included in publications have open captions</t>
+  </si>
+  <si>
+    <t>Has a transcript</t>
+  </si>
+  <si>
+    <t>Math as MathML</t>
+  </si>
+  <si>
+    <t>Math as LaTex</t>
+  </si>
+  <si>
+    <t>Math as images with text description</t>
+  </si>
+  <si>
+    <t>Chemical formulas in MathML</t>
+  </si>
+  <si>
+    <t>Chemical formulas in LaTex</t>
+  </si>
+  <si>
+    <t>Videos have closed captions</t>
+  </si>
+  <si>
+    <t>Videos have open captions</t>
+  </si>
+  <si>
+    <t>Has transcript</t>
+  </si>
+  <si>
+    <t>The publication contains flashing content which can cause photosensitive seizures</t>
+  </si>
+  <si>
+    <t>The publication contains motion simulations that can cause motion sickness</t>
+  </si>
+  <si>
+    <t>The publication contains loud sounds which can be uncomfortable</t>
+  </si>
+  <si>
+    <t>The presents of hazards is unknown</t>
+  </si>
+  <si>
+    <t>hazards-no-metadata].</t>
+  </si>
+  <si>
+    <t>Flashing content</t>
+  </si>
+  <si>
+    <t>Motion simulation</t>
+  </si>
+  <si>
+    <t>Loud sounds</t>
+  </si>
+  <si>
+    <t>legal-considerations-exempt</t>
+  </si>
+  <si>
+    <t>This publication claims an accessibility exemption in some jurisdictions</t>
+  </si>
+  <si>
+    <t>This publication was certified by</t>
+  </si>
+  <si>
+    <t>conformance-epub10-wcag20a</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.0 WCAG 2.0 Level</t>
+  </si>
+  <si>
+    <t>conformance-epub10-wcag20aa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.0 WCAG 2.0 Level A</t>
+  </si>
+  <si>
+    <t>conformance-epub10-wcag20aaa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.0 WCAG 2.0 Level AA</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag20a</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.0 Level</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag20aa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.0 Level A</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag20aaa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.0 Level AA</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag21a</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.1 Level</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag21aa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.1 Level A</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag21aaa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.1 Level AA</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag22a</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.2 Level</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag22aa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.2 Level A</t>
+  </si>
+  <si>
+    <t>conformance-epub11-wcag22aaa</t>
+  </si>
+  <si>
+    <t>PUB Accessibility 1.1 WCAG 2.2 Level AA</t>
+  </si>
+  <si>
+    <t>prerecorded-audio-complementary</t>
+  </si>
+  <si>
+    <t>No information about prerecorded audio is available</t>
+  </si>
+  <si>
+    <t>No information about navigation is available</t>
+  </si>
+  <si>
+    <t>rich-content-title</t>
+  </si>
+  <si>
+    <t>rich-content-accessible-chemistry</t>
+  </si>
+  <si>
+    <t>rich-content-accessible-math</t>
+  </si>
+  <si>
+    <t>No information about possible hazards is available</t>
+  </si>
+  <si>
+    <t>read aloud or dynamic braille</t>
+  </si>
+  <si>
+    <t>go to page</t>
+  </si>
+  <si>
+    <t>rich-content-described-math</t>
+  </si>
+  <si>
+    <t>Complex images are described by extended descriptions</t>
+  </si>
+  <si>
+    <t>rich-content-closed-captions</t>
+  </si>
+  <si>
+    <t>rich-content-open-captions</t>
+  </si>
+  <si>
+    <t>rich-content-transcript</t>
   </si>
 </sst>
 </file>
@@ -779,7 +974,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -791,6 +986,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1171,10 +1372,10 @@
   <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,24 +1391,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A89">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$104,'epub-metadata-strings'!$D$2:$D$80,'onix-metadata-strings'!$D$2:$D$76))</f>
+        <f t="array" ref="A2:A110">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$112,'epub-metadata-strings'!$D$2:$D$81,'onix-metadata-strings'!$D$2:$D$76))</f>
         <v>visual-adjustments-title</v>
       </c>
       <c r="B2" s="6" t="str">
@@ -1223,12 +1424,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f>VLOOKUP($A2,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Visual adjustments</v>
+        <f>IFERROR(VLOOKUP($A2,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F2" s="3" t="b">
         <f>IF($B2="","",$B2=E2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1248,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f>VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="F3" s="3" t="b">
@@ -1273,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f>VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="F4" s="3" t="b">
@@ -1287,7 +1488,7 @@
       </c>
       <c r="B5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Appearance modifiability not known</v>
+        <v>No information is available</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
@@ -1295,15 +1496,15 @@
       </c>
       <c r="D5" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f>VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
         <v>Appearance modifiability not known</v>
       </c>
       <c r="F5" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1312,7 +1513,7 @@
       </c>
       <c r="B6" s="6" t="str">
         <f>IFERROR(VLOOKUP($A6&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Supports nonvisual reading</v>
+        <v>Support for nonvisual reading</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
@@ -1320,86 +1521,86 @@
       </c>
       <c r="D6" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="6" t="str">
-        <f>VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Supports nonvisual reading</v>
+        <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F6" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <v>nonvisual-reading-readable</v>
+        <v>has-alt-text</v>
       </c>
       <c r="B7" s="6" t="str">
         <f>IFERROR(VLOOKUP($A7&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Readable in read aloud and braille</v>
+        <v>Has alt text</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Readable in read aloud and braille</v>
+        <v/>
       </c>
       <c r="D7" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f>VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Readable in read aloud and braille</v>
+        <f>IFERROR(VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F7" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <v>nonvisual-reading-may-not-fully</v>
+        <v>nonvisual-reading-readable</v>
       </c>
       <c r="B8" s="6" t="str">
         <f>IFERROR(VLOOKUP($A8&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>May not be fully readable in read aloud and braille</v>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="C8" s="6" t="str">
         <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>May not be fully readable in read aloud and braille</v>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="D8" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f>VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>May not be fully readable in read aloud and braille</v>
+        <f>IFERROR(VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>read aloud or dynamic braille</v>
       </c>
       <c r="F8" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <v>nonvisual-reading-not-fully</v>
+        <v>nonvisual-reading-may-not-fully</v>
       </c>
       <c r="B9" s="6" t="str">
         <f>IFERROR(VLOOKUP($A9&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Not fully readable in read aloud and braille</v>
+        <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Not fully readable in read aloud and braille</v>
+        <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D9" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f>VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Not fully readable in read aloud and braille</v>
+        <f>IFERROR(VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F9" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1408,23 +1609,23 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <v>conformance-title</v>
+        <v>nonvisual-reading-not-fully</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>IFERROR(VLOOKUP($A10&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D10" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f>VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Conformance</v>
+        <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F10" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1433,48 +1634,48 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <v>conformance-aaa</v>
+        <v>conformance-title</v>
       </c>
       <c r="B11" s="6" t="str">
         <f>IFERROR(VLOOKUP($A11&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>Conformance</v>
       </c>
       <c r="C11" s="6" t="str">
         <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>Conformance</v>
       </c>
       <c r="D11" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f>VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <v>conformance-aa</v>
+        <v>conformance-aaa</v>
       </c>
       <c r="B12" s="6" t="str">
         <f>IFERROR(VLOOKUP($A12&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C12" s="6" t="str">
         <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="D12" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f>VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <f>IFERROR(VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="F12" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1483,23 +1684,23 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <v>conformance-a</v>
+        <v>conformance-aa</v>
       </c>
       <c r="B13" s="6" t="str">
         <f>IFERROR(VLOOKUP($A13&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C13" s="6" t="str">
         <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="D13" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f>VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="F13" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1508,23 +1709,23 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>conformance-no</v>
+        <v>conformance-a</v>
       </c>
       <c r="B14" s="6" t="str">
         <f>IFERROR(VLOOKUP($A14&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication does not include a conformance statement</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C14" s="6" t="str">
         <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>The publication does not include a conformance statement</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="D14" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f>VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>The publication does not include a conformance statement</v>
+        <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="F14" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1533,86 +1734,86 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>conformance-certification-info</v>
+        <v>conformance-no</v>
       </c>
       <c r="B15" s="6" t="str">
         <f>IFERROR(VLOOKUP($A15&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified</v>
+        <v>No information is available</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>The publication was certified</v>
+        <v>The publication does not include a conformance statement</v>
       </c>
       <c r="D15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f>VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>The publication was certified</v>
+        <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>The publication does not include a conformance statement</v>
       </c>
       <c r="F15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <v>conformance-certifier-prefix</v>
-      </c>
-      <c r="B16" s="6" t="str">
+        <v>conformance-certification-info</v>
+      </c>
+      <c r="B16" s="7" t="str">
         <f>IFERROR(VLOOKUP($A16&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>by</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="C16" s="6" t="str">
         <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>by</v>
+        <v>The publication was certified</v>
       </c>
       <c r="D16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f>VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>by</v>
+        <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>The publication was certified on</v>
       </c>
       <c r="F16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <v>conformance-certifier-credentials-prefix</v>
       </c>
-      <c r="B17" s="6" t="str">
+      <c r="B17" s="7" t="str">
         <f>IFERROR(VLOOKUP($A17&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>with a credential of</v>
+        <v>The certifier 's credential is</v>
       </c>
       <c r="C17" s="6" t="str">
         <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>with a credential of</v>
+        <v/>
       </c>
       <c r="D17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f>VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>with a credential of</v>
+        <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>conformance-details</v>
       </c>
-      <c r="B18" s="6" t="str">
+      <c r="B18" s="7" t="str">
         <f>IFERROR(VLOOKUP($A18&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Detailed Conformance Information</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="C18" s="6" t="str">
         <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
@@ -1623,8 +1824,8 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f>VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Detailed Conformance Information</v>
+        <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Detailed conformance information</v>
       </c>
       <c r="F18" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1635,7 +1836,7 @@
       <c r="A19" t="str">
         <v>conformance-claim</v>
       </c>
-      <c r="B19" s="6" t="str">
+      <c r="B19" s="7" t="str">
         <f>IFERROR(VLOOKUP($A19&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
@@ -1648,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f>VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
       <c r="F19" s="3" t="b">
@@ -1660,20 +1861,20 @@
       <c r="A20" t="str">
         <v>conformance-epub-accessibility-1-1</v>
       </c>
-      <c r="B20" s="6" t="str">
+      <c r="B20" s="7" t="str">
         <f>IFERROR(VLOOKUP($A20&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C20" s="6" t="str">
         <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v/>
       </c>
       <c r="D20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f>VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
         <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="F20" s="3" t="b">
@@ -1685,20 +1886,20 @@
       <c r="A21" t="str">
         <v>conformance-wcag-2-1</v>
       </c>
-      <c r="B21" s="6" t="str">
+      <c r="B21" s="7" t="str">
         <f>IFERROR(VLOOKUP($A21&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C21" s="6" t="str">
         <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
+        <v/>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E21" s="6" t="str">
-        <f>VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
         <v>WCAG 2.1</v>
       </c>
       <c r="F21" s="3" t="str">
@@ -1710,20 +1911,20 @@
       <c r="A22" t="str">
         <v>conformance-level-aa</v>
       </c>
-      <c r="B22" s="6" t="str">
+      <c r="B22" s="7" t="str">
         <f>IFERROR(VLOOKUP($A22&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Level AA</v>
       </c>
       <c r="C22" s="6" t="str">
         <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <v/>
       </c>
       <c r="D22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
+        <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
         <v>Level AA</v>
       </c>
       <c r="F22" s="3" t="b">
@@ -1733,23 +1934,23 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <v>conformance-certification-date-prefix</v>
-      </c>
-      <c r="B23" s="6" t="str">
+        <v>conformance-certifier-report</v>
+      </c>
+      <c r="B23" s="7" t="str">
         <f>IFERROR(VLOOKUP($A23&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>on</v>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C23" s="6" t="str">
         <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>on</v>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="D23" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>on</v>
+        <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="F23" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1758,23 +1959,23 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>conformance-certifier-report</v>
-      </c>
-      <c r="B24" s="6" t="str">
+        <v>conformance-epub-accessibility-1-0</v>
+      </c>
+      <c r="B24" s="7" t="str">
         <f>IFERROR(VLOOKUP($A24&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="C24" s="6" t="str">
         <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v/>
       </c>
       <c r="D24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f>VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>For more information refer to the certifier's report</v>
+        <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="F24" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1783,173 +1984,173 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>conformance-epub-accessibility-1-0</v>
-      </c>
-      <c r="B25" s="6" t="str">
+        <v>conformance-wcag-2-2</v>
+      </c>
+      <c r="B25" s="7" t="str">
         <f>IFERROR(VLOOKUP($A25&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v/>
       </c>
       <c r="C25" s="6" t="str">
         <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
-      </c>
-      <c r="D25" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="D25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E25" s="6" t="str">
-        <f>VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>EPUB Accessibility 1.0</v>
-      </c>
-      <c r="F25" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>WCAG 2.2</v>
+      </c>
+      <c r="F25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>conformance-wcag-2-2</v>
-      </c>
-      <c r="B26" s="6" t="str">
+        <v>conformance-level-a</v>
+      </c>
+      <c r="B26" s="7" t="str">
         <f>IFERROR(VLOOKUP($A26&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Level A</v>
       </c>
       <c r="C26" s="6" t="str">
         <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
-      </c>
-      <c r="D26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v/>
+      </c>
+      <c r="D26" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f>VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>WCAG 2.2</v>
-      </c>
-      <c r="F26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Level A</v>
+      </c>
+      <c r="F26" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <v>conformance-level-a</v>
-      </c>
-      <c r="B27" s="6" t="str">
+        <v>conformance-unknown-standard</v>
+      </c>
+      <c r="B27" s="7" t="str">
         <f>IFERROR(VLOOKUP($A27&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level A</v>
+        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="C27" s="6" t="str">
         <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Level A</v>
+        <v/>
       </c>
       <c r="D27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f>VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Level A</v>
+        <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>conformance-unknown-standard</v>
-      </c>
-      <c r="B28" s="6" t="str">
+        <v>conformance-certifier</v>
+      </c>
+      <c r="B28" s="7" t="str">
         <f>IFERROR(VLOOKUP($A28&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
+        <v>This publication is certified by</v>
       </c>
       <c r="C28" s="6" t="str">
         <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
+        <v>This publication was certified by</v>
       </c>
       <c r="D28" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="e">
-        <f>VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F28" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>The publication was certified by</v>
+      </c>
+      <c r="F28" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>conformance-certifier</v>
-      </c>
-      <c r="B29" s="6" t="str">
+        <v>conformance-certifier-credentials</v>
+      </c>
+      <c r="B29" s="7" t="str">
         <f>IFERROR(VLOOKUP($A29&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication is certified by</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="C29" s="6" t="str">
         <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>This publication is certified by</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="D29" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f>VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>This publication is certified by</v>
+        <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>The certifier 's credential is</v>
       </c>
       <c r="F29" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>conformance-certifier-credentials</v>
+        <v>prerecorded-audio-title</v>
       </c>
       <c r="B30" s="6" t="str">
         <f>IFERROR(VLOOKUP($A30&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>Prerecorded audio</v>
       </c>
       <c r="C30" s="6" t="str">
         <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>Prerecorded audio</v>
       </c>
       <c r="D30" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f>VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>The certifier's credential is</v>
+        <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F30" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>pre-recorded-audio-title</v>
+        <v>prerecorded-audio-no-metadata</v>
       </c>
       <c r="B31" s="6" t="str">
         <f>IFERROR(VLOOKUP($A31&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Pre-recorded audio</v>
+        <v>No information is available</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Pre-recorded audio</v>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="D31" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f>VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Pre-recorded audio</v>
+        <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="F31" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1958,98 +2159,98 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>pre-recorded-audio-no-metadata</v>
+        <v>prerecorded-audio-only</v>
       </c>
       <c r="B32" s="6" t="str">
         <f>IFERROR(VLOOKUP($A32&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Audiobook</v>
       </c>
       <c r="C32" s="6" t="str">
         <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No information about pre-recorded audio is available.</v>
-      </c>
-      <c r="D32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Audio only</v>
+      </c>
+      <c r="D32" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E32" s="6" t="str">
-        <f>VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>No information about pre-recorded audio is available.</v>
-      </c>
-      <c r="F32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Audio only</v>
+      </c>
+      <c r="F32" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>pre-recorded-audio-only</v>
+        <v>prerecorded-audio-synchronized</v>
       </c>
       <c r="B33" s="6" t="str">
         <f>IFERROR(VLOOKUP($A33&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Audio only</v>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Audio only</v>
+        <v>Synchronized audio and text</v>
       </c>
       <c r="D33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="6" t="str">
-        <f>VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Audio only</v>
+        <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Synchronized audio and text</v>
       </c>
       <c r="F33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>pre-recorded-audio-complementary</v>
+        <v>navigation-title</v>
       </c>
       <c r="B34" s="6" t="str">
         <f>IFERROR(VLOOKUP($A34&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <v>Navigation</v>
       </c>
       <c r="C34" s="6" t="str">
         <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <v>Navigation</v>
       </c>
       <c r="D34" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E34" s="6" t="str">
-        <f>VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Complementary audio and text</v>
+        <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F34" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>pre-recorded-audio-synchronized</v>
+        <v>navigation-no-metadata</v>
       </c>
       <c r="B35" s="6" t="str">
         <f>IFERROR(VLOOKUP($A35&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Synchronized audio and text</v>
+        <v>No information is available</v>
       </c>
       <c r="C35" s="6" t="str">
         <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Synchronized audio and text</v>
+        <v>No information about navigation is available</v>
       </c>
       <c r="D35" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f>VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Synchronized audio and text</v>
+        <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="F35" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2058,23 +2259,23 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>navigation-title</v>
+        <v>navigation-toc</v>
       </c>
       <c r="B36" s="6" t="str">
         <f>IFERROR(VLOOKUP($A36&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Table of contents</v>
       </c>
       <c r="C36" s="6" t="str">
         <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>table of contents</v>
       </c>
       <c r="D36" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f>VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Navigation</v>
+        <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>table of contents</v>
       </c>
       <c r="F36" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2083,48 +2284,48 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>navigation-no-metadata</v>
+        <v>navigation-index</v>
       </c>
       <c r="B37" s="6" t="str">
         <f>IFERROR(VLOOKUP($A37&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Index</v>
       </c>
       <c r="C37" s="6" t="str">
         <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No information about navigation is available.</v>
-      </c>
-      <c r="D37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>index</v>
+      </c>
+      <c r="D37" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E37" s="6" t="str">
-        <f>VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>No information about navigation is available.</v>
-      </c>
-      <c r="F37" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>index</v>
+      </c>
+      <c r="F37" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>navigation-toc</v>
+        <v>navigation-structural</v>
       </c>
       <c r="B38" s="6" t="str">
         <f>IFERROR(VLOOKUP($A38&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>table of contents</v>
+        <v>Headings</v>
       </c>
       <c r="C38" s="6" t="str">
         <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>table of contents</v>
+        <v>headings</v>
       </c>
       <c r="D38" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E38" s="6" t="str">
-        <f>VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>table of contents</v>
+        <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>headings</v>
       </c>
       <c r="F38" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2133,73 +2334,73 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>navigation-structural</v>
+        <v>navigation-page-navigation</v>
       </c>
       <c r="B39" s="6" t="str">
         <f>IFERROR(VLOOKUP($A39&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>headings</v>
+        <v>Go to page</v>
       </c>
       <c r="C39" s="6" t="str">
         <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>headings</v>
+        <v>supports page navigation</v>
       </c>
       <c r="D39" s="3" t="b">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>go to page</v>
+      </c>
+      <c r="F39" s="3" t="b">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E39" s="6" t="str">
-        <f>VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>headings</v>
-      </c>
-      <c r="F39" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="str">
-        <v>navigation-index</v>
+      <c r="A40" s="4" t="str">
+        <v>Rich-content-title</v>
       </c>
       <c r="B40" s="6" t="str">
         <f>IFERROR(VLOOKUP($A40&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>index</v>
+        <v>Rich content</v>
       </c>
       <c r="C40" s="6" t="str">
         <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>index</v>
+        <v>Charts, diagrams, math, and formulas</v>
       </c>
       <c r="D40" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="6" t="str">
-        <f>VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>index</v>
+        <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F40" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>navigation-page-navigation</v>
+        <v>rich-content-unknown</v>
       </c>
       <c r="B41" s="6" t="str">
         <f>IFERROR(VLOOKUP($A41&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>supports page navigation</v>
+        <v>No information is available</v>
       </c>
       <c r="C41" s="6" t="str">
         <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>supports page navigation</v>
+        <v>accessibility of formulas, charts, math, and diagrams not identified as being accessible</v>
       </c>
       <c r="D41" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" s="6" t="str">
-        <f>VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>supports page navigation</v>
+        <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="F41" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2208,23 +2409,23 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>navigation-intro</v>
+        <v>rich-content-accessible-math-as-mathml</v>
       </c>
       <c r="B42" s="6" t="str">
         <f>IFERROR(VLOOKUP($A42&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Navigation by</v>
+        <v>Math as MathML</v>
       </c>
       <c r="C42" s="6" t="str">
         <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Navigation by</v>
+        <v/>
       </c>
       <c r="D42" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="6" t="str">
-        <f>VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Navigation by</v>
+        <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Math as MathML</v>
       </c>
       <c r="F42" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2233,23 +2434,23 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <v>join-array-and</v>
+        <v>rich-content-accessible-math-as-latex</v>
       </c>
       <c r="B43" s="6" t="str">
         <f>IFERROR(VLOOKUP($A43&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>, and</v>
+        <v>Math as LaTex</v>
       </c>
       <c r="C43" s="6" t="str">
         <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>, and</v>
+        <v/>
       </c>
       <c r="D43" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="6" t="str">
-        <f>VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>, and</v>
+        <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Math as LaTex</v>
       </c>
       <c r="F43" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2258,48 +2459,48 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <v>charts-diagrams-formulas-title</v>
+        <v>rich-content-accessible-math-described</v>
       </c>
       <c r="B44" s="6" t="str">
         <f>IFERROR(VLOOKUP($A44&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Charts, diagrams, math, and formulas</v>
+        <v>Math as images with text description</v>
       </c>
       <c r="C44" s="6" t="str">
         <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Charts, diagrams, math, and formulas</v>
+        <v/>
       </c>
       <c r="D44" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="str">
-        <f>VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Charts, diagrams, math, and formulas</v>
+        <v>0</v>
+      </c>
+      <c r="E44" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F44" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>charts-diagrams-formulas-unknown</v>
+        <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
       <c r="B45" s="6" t="str">
         <f>IFERROR(VLOOKUP($A45&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>accessibility of formulas, charts, math, and diagrams not identified as being accessible</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="C45" s="6" t="str">
         <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>accessibility of formulas, charts, math, and diagrams not identified as being accessible</v>
+        <v/>
       </c>
       <c r="D45" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="6" t="str">
-        <f>VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>accessibility of formulas, charts, math, and diagrams not identified as being accessible</v>
+        <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="F45" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2308,173 +2509,173 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>charts-diagrams-formulas-extended</v>
+        <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
       <c r="B46" s="6" t="str">
         <f>IFERROR(VLOOKUP($A46&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Charts and diagrams have extended descriptions</v>
+        <v>Chemical formulas in LaTex</v>
       </c>
       <c r="C46" s="6" t="str">
         <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Charts and diagrams have extended descriptions</v>
+        <v/>
       </c>
       <c r="D46" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="6" t="str">
-        <f>VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Charts and diagrams have extended descriptions</v>
+        <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F46" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>charts-diagrams-formulas-accessible-math</v>
+        <v>rich-content-extended</v>
       </c>
       <c r="B47" s="6" t="str">
         <f>IFERROR(VLOOKUP($A47&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Accessible math content</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Accessible math content</v>
+        <v>Charts and diagrams have extended descriptions</v>
       </c>
       <c r="D47" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" s="6" t="str">
-        <f>VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Accessible math content</v>
+        <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Complex images are described by extended descriptions</v>
       </c>
       <c r="F47" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" t="str">
-        <v>charts-diagrams-formulas-accessible-chemistry</v>
+      <c r="A48" s="4" t="str">
+        <v>additional-accessibility-information-adaptation-closed-captions</v>
       </c>
       <c r="B48" s="6" t="str">
         <f>IFERROR(VLOOKUP($A48&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Accessible chemistry content</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="C48" s="6" t="str">
         <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Accessible chemistry content</v>
+        <v>closed captions</v>
       </c>
       <c r="D48" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="6" t="str">
-        <f>VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Accessible chemistry content</v>
+        <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>closed captions</v>
       </c>
       <c r="F48" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
-        <v>hazards-title</v>
+      <c r="A49" s="4" t="str">
+        <v>additional-accessibility-information-adaptation-open-captions</v>
       </c>
       <c r="B49" s="6" t="str">
         <f>IFERROR(VLOOKUP($A49&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="C49" s="6" t="str">
         <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>open captions</v>
       </c>
       <c r="D49" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="6" t="str">
-        <f>VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Hazards</v>
+        <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>open captions</v>
       </c>
       <c r="F49" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
-        <v>hazards-no-metadata</v>
+      <c r="A50" s="4" t="str">
+        <v>additional-accessibility-information-adaptation-full-transcript</v>
       </c>
       <c r="B50" s="6" t="str">
         <f>IFERROR(VLOOKUP($A50&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Has transcript</v>
       </c>
       <c r="C50" s="6" t="str">
         <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No information about possible hazards is available.</v>
-      </c>
-      <c r="D50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v/>
+      </c>
+      <c r="D50" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E50" s="6" t="str">
-        <f>VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>No information about possible hazards is available.</v>
-      </c>
-      <c r="F50" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>full transcript</v>
+      </c>
+      <c r="F50" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <v>hazards-none</v>
+        <v>hazards-title</v>
       </c>
       <c r="B51" s="6" t="str">
         <f>IFERROR(VLOOKUP($A51&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Hazards</v>
       </c>
       <c r="C51" s="6" t="str">
         <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Hazards</v>
       </c>
       <c r="D51" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E51" s="6" t="str">
-        <f>VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>No hazards</v>
+        <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F51" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <v>hazards-flashing</v>
+        <v>hazards-no-metadata</v>
       </c>
       <c r="B52" s="6" t="str">
         <f>IFERROR(VLOOKUP($A52&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Flashing</v>
+        <v>No information is available</v>
       </c>
       <c r="C52" s="6" t="str">
         <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>flashing</v>
+        <v>No information about possible hazards is available</v>
       </c>
       <c r="D52" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6" t="str">
-        <f>VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>flashing</v>
+        <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="F52" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2483,48 +2684,48 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <v>hazards-sound</v>
+        <v>hazards-none</v>
       </c>
       <c r="B53" s="6" t="str">
         <f>IFERROR(VLOOKUP($A53&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>No hazards</v>
       </c>
       <c r="C53" s="6" t="str">
         <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>sound</v>
-      </c>
-      <c r="D53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>No hazards</v>
+      </c>
+      <c r="D53" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E53" s="6" t="str">
-        <f>VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>sound</v>
-      </c>
-      <c r="F53" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>No hazards</v>
+      </c>
+      <c r="F53" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <v>hazards-motion</v>
+        <v>hazards-flashing</v>
       </c>
       <c r="B54" s="6" t="str">
         <f>IFERROR(VLOOKUP($A54&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>motion simulation</v>
+        <v>Flashing content</v>
       </c>
       <c r="C54" s="6" t="str">
         <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>motion simulation</v>
+        <v>flashing</v>
       </c>
       <c r="D54" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="6" t="str">
-        <f>VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>motion simulation</v>
+        <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Flashing content</v>
       </c>
       <c r="F54" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2533,48 +2734,48 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <v>hasards-explanatory</v>
+        <v>hazards-motion</v>
       </c>
       <c r="B55" s="6" t="str">
         <f>IFERROR(VLOOKUP($A55&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Motion simulation</v>
       </c>
       <c r="C55" s="6" t="str">
         <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="E55" s="6" t="e">
-        <f>VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>motion simulation</v>
+      </c>
+      <c r="D55" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Motion simulation</v>
+      </c>
+      <c r="F55" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <v>hazards-unknown</v>
+        <v>hazards-sound</v>
       </c>
       <c r="B56" s="6" t="str">
         <f>IFERROR(VLOOKUP($A56&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>Loud sounds</v>
       </c>
       <c r="C56" s="6" t="str">
         <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>sound</v>
       </c>
       <c r="D56" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="6" t="str">
-        <f>VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>The presence of hazards is unknown</v>
+        <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Loud sounds</v>
       </c>
       <c r="F56" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2583,132 +2784,132 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <v>hazards-plural</v>
-      </c>
-      <c r="B57" s="6" t="str">
+        <v>hazards-unknown</v>
+      </c>
+      <c r="B57" s="7">
         <f>IFERROR(VLOOKUP($A57&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>hazards</v>
+        <v>0</v>
       </c>
       <c r="C57" s="6" t="str">
         <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>hazards</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="D57" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="6" t="str">
-        <f>VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>hazards</v>
+        <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="F57" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <v>accessibility-summary-title</v>
+        <v>hazards-no-metadata].</v>
       </c>
       <c r="B58" s="6" t="str">
         <f>IFERROR(VLOOKUP($A58&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v/>
       </c>
       <c r="C58" s="6" t="str">
         <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
-      </c>
-      <c r="D58" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="D58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E58" s="6" t="str">
-        <f>VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Accessibility summary</v>
-      </c>
-      <c r="F58" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <v>accessibility-summary-no-metadata</v>
+        <v>accessibility-summary-title</v>
       </c>
       <c r="B59" s="6" t="str">
         <f>IFERROR(VLOOKUP($A59&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Accessibility summary</v>
       </c>
       <c r="C59" s="6" t="str">
         <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No accessibility summary is available.</v>
-      </c>
-      <c r="D59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Accessibility summary</v>
+      </c>
+      <c r="D59" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E59" s="6" t="str">
-        <f>VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>No accessibility summary is available.</v>
-      </c>
-      <c r="F59" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F59" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <v>legal-considerations-title</v>
+        <v>accessibility-summary-no-metadata</v>
       </c>
       <c r="B60" s="6" t="str">
         <f>IFERROR(VLOOKUP($A60&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v/>
       </c>
       <c r="C60" s="6" t="str">
         <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Legal considerations</v>
-      </c>
-      <c r="D60" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>No accessibility summary is available.</v>
+      </c>
+      <c r="D60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E60" s="6" t="str">
-        <f>VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Legal considerations</v>
-      </c>
-      <c r="F60" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>No accessibility summary is available.</v>
+      </c>
+      <c r="F60" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <v>additional-accessibility-information-title</v>
+        <v>legal-considerations-title</v>
       </c>
       <c r="B61" s="6" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>Legal considerations</v>
       </c>
       <c r="C61" s="6" t="str">
         <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>Legal considerations</v>
       </c>
       <c r="D61" s="3" t="b">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="3" t="b">
+        <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E61" s="6" t="e">
-        <f>VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F61" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <v>conformance-wcag-2-0</v>
+        <v>legal-considerations-exempt</v>
       </c>
       <c r="B62" s="6" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2716,15 +2917,15 @@
       </c>
       <c r="C62" s="6" t="str">
         <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
+        <v/>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E62" s="6" t="str">
-        <f>VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>WCAG 2.0</v>
+        <f>IFERROR(VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2733,32 +2934,32 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <v>conformance-level-aaa</v>
+        <v>additional-accessibility-information-title</v>
       </c>
       <c r="B63" s="6" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Additional accessibility information</v>
       </c>
       <c r="C63" s="6" t="str">
         <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Level AAA</v>
-      </c>
-      <c r="D63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v/>
+      </c>
+      <c r="D63" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E63" s="6" t="str">
-        <f>VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Level AAA</v>
-      </c>
-      <c r="F63" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="3" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <v>hazards-singular</v>
+        <v>join-array-and</v>
       </c>
       <c r="B64" s="6" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2766,15 +2967,15 @@
       </c>
       <c r="C64" s="6" t="str">
         <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>hazard</v>
+        <v>, and</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E64" s="6" t="str">
-        <f>VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>hazard</v>
+        <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>, and</v>
       </c>
       <c r="F64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2783,7 +2984,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <v>tbd</v>
+        <v>conformance-epub10-wcag20a</v>
       </c>
       <c r="B65" s="6" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2791,15 +2992,15 @@
       </c>
       <c r="C65" s="6" t="str">
         <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>TBD</v>
+        <v>PUB Accessibility 1.0 WCAG 2.0 Level</v>
       </c>
       <c r="D65" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E65" s="6" t="str">
-        <f>VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>TBD</v>
+        <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2808,7 +3009,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <v>legal-considerations-no-metadata</v>
+        <v>conformance-epub10-wcag20aa</v>
       </c>
       <c r="B66" s="6" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2816,15 +3017,15 @@
       </c>
       <c r="C66" s="6" t="str">
         <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No legal considerations</v>
+        <v>PUB Accessibility 1.0 WCAG 2.0 Level A</v>
       </c>
       <c r="D66" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E66" s="6" t="str">
-        <f>VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>No legal considerations</v>
+        <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F66" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2833,7 +3034,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
+        <v>conformance-epub10-wcag20aaa</v>
       </c>
       <c r="B67" s="6" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2841,24 +3042,24 @@
       </c>
       <c r="C67" s="6" t="str">
         <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>audio descriptions</v>
+        <v>PUB Accessibility 1.0 WCAG 2.0 Level AA</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" ref="D67:F90" si="1">IF($B67="","",$B67=C67)</f>
-        <v/>
-      </c>
-      <c r="E67" s="6" t="e">
-        <f>VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+        <f t="shared" ref="D67:D110" si="1">IF($B67="","",$B67=C67)</f>
+        <v/>
+      </c>
+      <c r="E67" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F67:F110" si="2">IF($B67="","",$B67=E67)</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <v>additional-accessibility-information-adaptation-braille</v>
+        <v>conformance-epub11-wcag20a</v>
       </c>
       <c r="B68" s="6" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2866,24 +3067,24 @@
       </c>
       <c r="C68" s="6" t="str">
         <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>braille</v>
+        <v>PUB Accessibility 1.1 WCAG 2.0 Level</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E68" s="6" t="e">
-        <f>VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E68" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F68" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <v>additional-accessibility-information-adaptation-closed-captions</v>
+        <v>conformance-epub11-wcag20aa</v>
       </c>
       <c r="B69" s="6" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2891,24 +3092,24 @@
       </c>
       <c r="C69" s="6" t="str">
         <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>closed captions</v>
+        <v>PUB Accessibility 1.1 WCAG 2.0 Level A</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E69" s="6" t="str">
-        <f>VLOOKUP($A69,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>closed captions</v>
+        <f>IFERROR(VLOOKUP($A69,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F69" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <v>additional-accessibility-information-adaptation-open-captions</v>
+        <v>conformance-epub11-wcag20aaa</v>
       </c>
       <c r="B70" s="6" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2916,24 +3117,24 @@
       </c>
       <c r="C70" s="6" t="str">
         <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>open captions</v>
+        <v>PUB Accessibility 1.1 WCAG 2.0 Level AA</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E70" s="6" t="str">
-        <f>VLOOKUP($A70,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>open captions</v>
+        <f>IFERROR(VLOOKUP($A70,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F70" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_graphic</v>
+        <v>conformance-epub11-wcag21a</v>
       </c>
       <c r="B71" s="6" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2941,24 +3142,24 @@
       </c>
       <c r="C71" s="6" t="str">
         <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>tactile graphic</v>
+        <v>PUB Accessibility 1.1 WCAG 2.1 Level</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E71" s="6" t="e">
-        <f>VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E71" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F71" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_object</v>
+        <v>conformance-epub11-wcag21aa</v>
       </c>
       <c r="B72" s="6" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2966,24 +3167,24 @@
       </c>
       <c r="C72" s="6" t="str">
         <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>tactile 3D object</v>
+        <v>PUB Accessibility 1.1 WCAG 2.1 Level A</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E72" s="6" t="e">
-        <f>VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E72" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F72" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <v>additional-accessibility-information-adaptation-transcript</v>
+        <v>conformance-epub11-wcag21aaa</v>
       </c>
       <c r="B73" s="6" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2991,24 +3192,24 @@
       </c>
       <c r="C73" s="6" t="str">
         <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>transcript</v>
+        <v>PUB Accessibility 1.1 WCAG 2.1 Level AA</v>
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E73" s="6" t="e">
-        <f>VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E73" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F73" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <v>additional-accessibility-information-adaptation-sign-language</v>
+        <v>conformance-epub11-wcag22a</v>
       </c>
       <c r="B74" s="6" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3016,24 +3217,24 @@
       </c>
       <c r="C74" s="6" t="str">
         <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>sign language</v>
+        <v>PUB Accessibility 1.1 WCAG 2.2 Level</v>
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E74" s="6" t="str">
-        <f>VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>sign language</v>
+        <f>IFERROR(VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F74" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
+        <v>conformance-epub11-wcag22aa</v>
       </c>
       <c r="B75" s="6" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3041,24 +3242,24 @@
       </c>
       <c r="C75" s="6" t="str">
         <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>aria</v>
+        <v>PUB Accessibility 1.1 WCAG 2.2 Level A</v>
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E75" s="6" t="e">
-        <f>VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E75" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F75" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
+        <v>conformance-epub11-wcag22aaa</v>
       </c>
       <c r="B76" s="6" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3066,24 +3267,24 @@
       </c>
       <c r="C76" s="6" t="str">
         <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>full ruby annotations</v>
+        <v>PUB Accessibility 1.1 WCAG 2.2 Level AA</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E76" s="6" t="e">
-        <f>VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E76" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F76" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
+        <v>conformance-certification-date-prefix</v>
       </c>
       <c r="B77" s="6" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3091,49 +3292,49 @@
       </c>
       <c r="C77" s="6" t="str">
         <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>text-to-speech hinting provided</v>
+        <v>on</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E77" s="6" t="str">
-        <f>VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>text-to-speech hinting provided</v>
+        <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F77" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
-      </c>
-      <c r="B78" s="6" t="str">
+        <v>prerecorded-audio-complementary</v>
+      </c>
+      <c r="B78" s="7" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" s="6" t="str">
         <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>high contrast between foreground and background audio</v>
+        <v>Complementary audio and text</v>
       </c>
       <c r="D78" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E78" s="6" t="str">
-        <f>VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>high contrast between foreground and background audio</v>
+        <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Complementary audio and text</v>
       </c>
       <c r="F78" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
+        <v>navigation-intro</v>
       </c>
       <c r="B79" s="6" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3141,24 +3342,24 @@
       </c>
       <c r="C79" s="6" t="str">
         <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>high contrast between text and background</v>
+        <v>Navigation by</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E79" s="6" t="str">
-        <f>VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>high contrast between text and background</v>
+        <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F79" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <v>additional-accessibility-information-clarity-large-print</v>
+        <v>rich-content-accessible-chemistry</v>
       </c>
       <c r="B80" s="6" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3166,24 +3367,24 @@
       </c>
       <c r="C80" s="6" t="str">
         <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>large print</v>
+        <v>Accessible chemistry content</v>
       </c>
       <c r="D80" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E80" s="6" t="e">
-        <f>VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E80" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F80" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
+        <v>rich-content-accessible-math</v>
       </c>
       <c r="B81" s="6" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3191,24 +3392,24 @@
       </c>
       <c r="C81" s="6" t="str">
         <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>page breaks</v>
+        <v>Accessible math content</v>
       </c>
       <c r="D81" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E81" s="6" t="e">
-        <f>VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E81" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F81" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <v>additional-accessibility-information-clarity-ruby-annotations</v>
+        <v>hazards-plural</v>
       </c>
       <c r="B82" s="6" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3216,24 +3417,24 @@
       </c>
       <c r="C82" s="6" t="str">
         <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>ruby annotations</v>
+        <v>hazards</v>
       </c>
       <c r="D82" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E82" s="6" t="e">
-        <f>VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="E82" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F82" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <v>charts-diagrams-formulas-non-graphical-data</v>
+        <v>hazards-singular</v>
       </c>
       <c r="B83" s="6" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3241,24 +3442,24 @@
       </c>
       <c r="C83" s="6" t="str">
         <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>hazard</v>
       </c>
       <c r="D83" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E83" s="6" t="str">
-        <f>VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>Visualized data also available as non-graphical data</v>
+        <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F83" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
+        <v>tbd</v>
       </c>
       <c r="B84" s="6" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3266,24 +3467,24 @@
       </c>
       <c r="C84" s="6" t="str">
         <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>TBD</v>
       </c>
       <c r="D84" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E84" s="6" t="str">
-        <f>VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>dyslexia readability</v>
+        <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>TBD</v>
       </c>
       <c r="F84" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <v>additional-accessibility-information-adaptation-full-transcript</v>
+        <v>legal-considerations-no-metadata</v>
       </c>
       <c r="B85" s="6" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3291,24 +3492,24 @@
       </c>
       <c r="C85" s="6" t="str">
         <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>No legal considerations</v>
       </c>
       <c r="D85" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E85" s="6" t="str">
-        <f>VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>full transcript</v>
+        <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>No legal considerations</v>
       </c>
       <c r="F85" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
+        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
       </c>
       <c r="B86" s="6" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3316,24 +3517,24 @@
       </c>
       <c r="C86" s="6" t="str">
         <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>audio descriptions</v>
       </c>
       <c r="D86" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E86" s="6" t="str">
-        <f>VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>color is not the sole means of conveying information</v>
+        <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F86" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
+        <v>additional-accessibility-information-adaptation-braille</v>
       </c>
       <c r="B87" s="6" t="str">
         <f>IFERROR(VLOOKUP($A87&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3341,24 +3542,24 @@
       </c>
       <c r="C87" s="6" t="str">
         <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>braille</v>
       </c>
       <c r="D87" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E87" s="6" t="str">
-        <f>VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>ultra high contrast between text and background</v>
+        <f>IFERROR(VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F87" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
+        <v>additional-accessibility-information-adaptation-tactile_graphic</v>
       </c>
       <c r="B88" s="6" t="str">
         <f>IFERROR(VLOOKUP($A88&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3366,24 +3567,24 @@
       </c>
       <c r="C88" s="6" t="str">
         <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>tactile graphic</v>
       </c>
       <c r="D88" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E88" s="6" t="str">
-        <f>VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>visible page numbering</v>
+        <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F88" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <v>additional-accessibility-information-clarity-without-background-sounds</v>
+        <v>additional-accessibility-information-adaptation-tactile_object</v>
       </c>
       <c r="B89" s="6" t="str">
         <f>IFERROR(VLOOKUP($A89&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3391,188 +3592,554 @@
       </c>
       <c r="C89" s="6" t="str">
         <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <v>tactile 3D object</v>
       </c>
       <c r="D89" s="3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E89" s="6" t="str">
-        <f>VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE)</f>
-        <v>without background sounds</v>
+        <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F89" s="3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <v>additional-accessibility-information-adaptation-transcript</v>
+      </c>
       <c r="B90" s="6" t="str">
         <f>IFERROR(VLOOKUP($A90&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C90" s="6" t="str">
         <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D90" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6" t="str">
-        <f t="shared" si="1"/>
+        <v>transcript</v>
+      </c>
+      <c r="D90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E90" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A90,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F90" s="3" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="A91" t="str">
+        <v>additional-accessibility-information-adaptation-sign-language</v>
+      </c>
+      <c r="B91" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A91&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C91" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>sign language</v>
+      </c>
+      <c r="D91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E91" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>sign language</v>
+      </c>
+      <c r="F91" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
+      <c r="A92" t="str">
+        <v>additional-accessibility-information-clarity-aria</v>
+      </c>
+      <c r="B92" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A92&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C92" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>aria</v>
+      </c>
+      <c r="D92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E92" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A92,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F92" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
+      <c r="A93" t="str">
+        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
+      </c>
+      <c r="B93" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A93&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C93" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>full ruby annotations</v>
+      </c>
+      <c r="D93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E93" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F93" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
+      <c r="A94" t="str">
+        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
+      </c>
+      <c r="B94" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A94&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C94" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>text-to-speech hinting provided</v>
+      </c>
+      <c r="D94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E94" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>text-to-speech hinting provided</v>
+      </c>
+      <c r="F94" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
+      <c r="A95" t="str">
+        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
+      </c>
+      <c r="B95" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A95&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C95" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>high contrast between foreground and background audio</v>
+      </c>
+      <c r="D95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E95" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>high contrast between foreground and background audio</v>
+      </c>
+      <c r="F95" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
+      </c>
+      <c r="B96" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A96&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C96" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>high contrast between text and background</v>
+      </c>
+      <c r="D96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E96" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>high contrast between text and background</v>
+      </c>
+      <c r="F96" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <v>additional-accessibility-information-clarity-large-print</v>
+      </c>
+      <c r="B97" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A97&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C97" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>large print</v>
+      </c>
+      <c r="D97" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E97" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F97" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <v>additional-accessibility-information-clarity-page-breaks</v>
+      </c>
+      <c r="B98" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A98&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C98" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>page breaks</v>
+      </c>
+      <c r="D98" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E98" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F98" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <v>additional-accessibility-information-clarity-ruby-annotations</v>
+      </c>
+      <c r="B99" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A99&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C99" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>ruby annotations</v>
+      </c>
+      <c r="D99" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E99" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A99,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F99" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <v>conformance-wcag-2-0</v>
+      </c>
+      <c r="B100" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A100&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C100" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D100" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E100" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>WCAG 2.0</v>
+      </c>
+      <c r="F100" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <v>conformance-level-aaa</v>
+      </c>
+      <c r="B101" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A101&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C101" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D101" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E101" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Level AAA</v>
+      </c>
+      <c r="F101" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <v>rich-content-described-math</v>
+      </c>
+      <c r="B102" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A102&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C102" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D102" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Math as images with text description</v>
+      </c>
+      <c r="F102" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <v>rich-content-closed-captions</v>
+      </c>
+      <c r="B103" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A103&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C103" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D103" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E103" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Videos have closed captions</v>
+      </c>
+      <c r="F103" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <v>rich-content-open-captions</v>
+      </c>
+      <c r="B104" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A104&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C104" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A104,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D104" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E104" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A104,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Videos have open captions</v>
+      </c>
+      <c r="F104" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="str">
+        <v>rich-content-transcript</v>
+      </c>
+      <c r="B105" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A105&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C105" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A105,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D105" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E105" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A105,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>Has transcript</v>
+      </c>
+      <c r="F105" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="str">
+        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
+      </c>
+      <c r="B106" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A106&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C106" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A106,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D106" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E106" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A106,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>dyslexia readability</v>
+      </c>
+      <c r="F106" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="str">
+        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
+      </c>
+      <c r="B107" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A107&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C107" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A107,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D107" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E107" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A107,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>color is not the sole means of conveying information</v>
+      </c>
+      <c r="F107" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="str">
+        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
+      </c>
+      <c r="B108" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A108&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C108" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A108,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D108" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E108" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A108,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>ultra high contrast between text and background</v>
+      </c>
+      <c r="F108" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="str">
+        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
+      </c>
+      <c r="B109" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A109&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C109" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A109,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D109" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E109" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A109,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>visible page numbering</v>
+      </c>
+      <c r="F109" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" t="str">
+        <v>additional-accessibility-information-clarity-without-background-sounds</v>
+      </c>
+      <c r="B110" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A110&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C110" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A110,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D110" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="E110" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A110,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <v>without background sounds</v>
+      </c>
+      <c r="F110" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -3896,7 +4463,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E90" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
-  <conditionalFormatting sqref="D2:D89">
+  <conditionalFormatting sqref="D2:D110">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -3904,7 +4471,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F89">
+  <conditionalFormatting sqref="F2:F110">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -3918,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3933,25 +4500,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F1" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3960,16 +4527,16 @@
         <v>visual-adjustments-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3978,16 +4545,16 @@
         <v>visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3996,16 +4563,16 @@
         <v>visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4014,16 +4581,16 @@
         <v>visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4032,16 +4599,16 @@
         <v>visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4050,13 +4617,13 @@
         <v>visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -4068,16 +4635,16 @@
         <v>visual-adjustments-unknown-compact</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>2</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4086,334 +4653,334 @@
         <v>nonvisual-reading-title-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>nonvisual-reading-readable-descriptive</v>
+        <v>has-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>nonvisual-reading-may-not-fully-descriptive</v>
+        <v>nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G11" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>nonvisual-reading-not-fully-descriptive</v>
+        <v>nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>nonvisual-reading-readable-compact</v>
+        <v>nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>nonvisual-reading-may-not-fully-compact</v>
+        <v>has-alt-text-compact</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="F14" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>nonvisual-reading-not-fully-compact</v>
+        <v>nonvisual-reading-readable-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>155</v>
+        <v>5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-compact</v>
+        <v>nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-descriptive</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-aaa-compact</v>
       </c>
       <c r="D19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-descriptive</v>
+        <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D20" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-descriptive</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G22" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-descriptive</v>
+        <v>conformance-a-descriptive</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-prefix-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4422,16 +4989,16 @@
         <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4440,13 +5007,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4455,13 +5022,13 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4470,13 +5037,13 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D31" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4485,16 +5052,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -4503,13 +5070,13 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D33" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4518,529 +5085,535 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D34" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-date-prefix-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-prefix-descriptive</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-prefix-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="F37" t="s">
+        <v>153</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>153</v>
       </c>
       <c r="G38" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" t="s">
-        <v>176</v>
+        <v>21</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-prefix-compact</v>
+        <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-prefix-compact</v>
+        <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-level-a-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="F44" t="s">
+        <v>152</v>
       </c>
       <c r="G44" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-0-compact</v>
+        <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s">
-        <v>27</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-2-descriptive</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-level-a-compact</v>
+        <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="G47" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-descriptive</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>42</v>
-      </c>
-      <c r="F48" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="G48" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-date-prefix-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-prefix-descriptive</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-prefix-compact</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>153</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>prerecorded-audio-title-compact</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="G52" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-unknown-standard-compact</v>
+        <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>186</v>
+        <v>194</v>
+      </c>
+      <c r="F53" t="s">
+        <v>152</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>18</v>
+        <v>195</v>
+      </c>
+      <c r="F54" t="s">
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>20</v>
+        <v>196</v>
+      </c>
+      <c r="F55" t="s">
+        <v>152</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="F56" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-title-compact</v>
+        <v>prerecorded-audio-only-compact</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>157</v>
+        <v>195</v>
+      </c>
+      <c r="F57" t="s">
+        <v>153</v>
       </c>
       <c r="G57" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-no-metadata-descriptive</v>
+        <v>prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-only-descriptive</v>
+        <v>prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G59" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-complementary-descriptive</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
-      </c>
-      <c r="F60" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="G60" t="s">
-        <v>204</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-synchronized-descriptive</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F61" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-only-compact</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G62" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-complementary-compact</v>
+        <v>navigation-index-descriptive</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G63" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>pre-recorded-audio-synchronized-compact</v>
+        <v>navigation-structural-descriptive</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F64" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G64" t="s">
-        <v>53</v>
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>52</v>
+      </c>
+      <c r="F65" t="s">
+        <v>152</v>
       </c>
       <c r="G65" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5049,676 +5622,826 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F66" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G66" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="str">
-        <f t="shared" ref="A67:A104" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
-        <v>navigation-toc-descriptive</v>
+        <f t="shared" ref="A67:A112" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-descriptive</v>
+        <v>navigation-index-compact</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F68" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-descriptive</v>
+        <v>navigation-structural-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E69" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-descriptive</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-intro-compact</v>
+        <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F71" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G71" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>Rich-content-title-compact</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="F73" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G73" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-compact</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G74" t="s">
-        <v>60</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>join-array-and-compact</v>
+        <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D75" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>64</v>
+        <v>213</v>
+      </c>
+      <c r="F75" t="s">
+        <v>152</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c r="F76" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G76" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-title-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
-        <v>161</v>
+        <v>217</v>
+      </c>
+      <c r="F77" t="s">
+        <v>152</v>
       </c>
       <c r="G77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-unknown-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-extended-descriptive</v>
+        <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G79" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-accessible-math-descriptive</v>
+        <v>additional-accessibility-information-adaptation-closed-captions-descriptive</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G80" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-accessible-chemistry-descriptive</v>
+        <v>additional-accessibility-information-adaptation-open-captions-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E81" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F81" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G81" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-unknown-descriptive</v>
+        <v>additional-accessibility-information-adaptation-full-transcript-descriptive</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G82" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-extended-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E83" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G83" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-accessible-math-compact</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G84" t="s">
-        <v>73</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-accessible-chemistry-compact</v>
+        <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E85" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="F85" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G85" t="s">
-        <v>71</v>
+        <v>227</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>charts-diagrams-formulas-unknown-compact</v>
+        <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="F86" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="G86" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E87" t="s">
-        <v>162</v>
+        <v>217</v>
+      </c>
+      <c r="F87" t="s">
+        <v>153</v>
       </c>
       <c r="G87" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G88" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-descriptive</v>
+        <v>rich-content-extended-compact</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G89" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-descriptive</v>
+        <v>additional-accessibility-information-adaptation-closed-captions-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F90" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G90" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-sound-descriptive</v>
+        <v>additional-accessibility-information-adaptation-open-captions-compact</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E91" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G91" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-descriptive</v>
+        <v>additional-accessibility-information-adaptation-full-transcript-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="F92" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G92" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hasards-explanatory-descriptive</v>
+        <v>rich-content-unknown-compact</v>
       </c>
       <c r="D93" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
+        <v>210</v>
+      </c>
+      <c r="F93" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>175</v>
-      </c>
-      <c r="G93" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-descriptive</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D94" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>85</v>
-      </c>
-      <c r="F94" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="G94" t="s">
-        <v>214</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D95" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G95" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D96" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G96" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>join-array-and-compact</v>
+        <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D97" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="F97" t="s">
+        <v>152</v>
       </c>
       <c r="G97" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-compact</v>
+        <v>hazards-motion-descriptive</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G98" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-plural-compact</v>
+        <v>hazards-sound-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>81</v>
+        <v>66</v>
+      </c>
+      <c r="F99" t="s">
+        <v>152</v>
       </c>
       <c r="G99" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-compact</v>
+        <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D100" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E100" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F100" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G100" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>hazards-no-metadata].-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E101" t="s">
-        <v>164</v>
+        <v>238</v>
+      </c>
+      <c r="F101" t="s">
+        <v>152</v>
       </c>
       <c r="G101" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>accessibility-summary-no-metadata-descriptive</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="F102" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G102" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>legal-considerations-title-compact</v>
+        <v>hazards-flashing-compact</v>
       </c>
       <c r="D103" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E103" t="s">
-        <v>184</v>
+        <v>63</v>
+      </c>
+      <c r="F103" t="s">
+        <v>153</v>
       </c>
       <c r="G103" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="str">
         <f t="shared" si="1"/>
+        <v>hazards-motion-compact</v>
+      </c>
+      <c r="D104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" t="s">
+        <v>65</v>
+      </c>
+      <c r="F104" t="s">
+        <v>153</v>
+      </c>
+      <c r="G104" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>hazards-sound-compact</v>
+      </c>
+      <c r="D105" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" t="s">
+        <v>153</v>
+      </c>
+      <c r="G105" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>hazards-unknown-compact</v>
+      </c>
+      <c r="D106" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>hazards-no-metadata-compact</v>
+      </c>
+      <c r="D107" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" t="s">
+        <v>73</v>
+      </c>
+      <c r="F107" t="s">
+        <v>153</v>
+      </c>
+      <c r="G107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>accessibility-summary-title-compact</v>
+      </c>
+      <c r="D108" t="s">
+        <v>122</v>
+      </c>
+      <c r="E108" t="s">
+        <v>145</v>
+      </c>
+      <c r="G108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>accessibility-summary-no-metadata-descriptive</v>
+      </c>
+      <c r="D109" t="s">
+        <v>122</v>
+      </c>
+      <c r="E109" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" t="s">
+        <v>152</v>
+      </c>
+      <c r="G109" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>legal-considerations-title-compact</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" t="s">
+        <v>157</v>
+      </c>
+      <c r="G110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>legal-considerations-exempt-descriptive</v>
+      </c>
+      <c r="D111" t="s">
+        <v>122</v>
+      </c>
+      <c r="E111" t="s">
+        <v>242</v>
+      </c>
+      <c r="F111" t="s">
+        <v>152</v>
+      </c>
+      <c r="G111" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="str">
+        <f t="shared" si="1"/>
         <v>additional-accessibility-information-title-compact</v>
       </c>
-      <c r="D104" t="s">
-        <v>138</v>
-      </c>
-      <c r="E104" t="s">
-        <v>166</v>
-      </c>
-      <c r="G104" t="s">
-        <v>167</v>
+      <c r="D112" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -5728,10 +6451,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection sqref="A1:E80"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5742,63 +6465,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -5806,10 +6529,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -5817,816 +6540,827 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
         <v>138</v>
-      </c>
-      <c r="D7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>186</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
         <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
         <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
-      </c>
-      <c r="E19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>248</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>253</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>256</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="E33" t="s">
-        <v>215</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E43" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>216</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>221</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="E66" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" t="s">
+        <v>134</v>
+      </c>
+      <c r="E81" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -6638,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:E76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6650,346 +7384,346 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D11" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
         <v>34</v>
-      </c>
-      <c r="E22" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>196</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D31" t="s">
         <v>47</v>
@@ -7000,497 +7734,497 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
         <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>158</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>221</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="E42" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>66</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D54" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E59" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="E62" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E68" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7280D7-2F89-EE44-B719-63646870B6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732BB31E-49AD-5440-B8A3-A9B139B81601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -1375,7 +1375,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732BB31E-49AD-5440-B8A3-A9B139B81601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA1FEF-6287-1347-9C93-13FF5AB03131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="onix-metadata-strings" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$E$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$E$109</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="271">
   <si>
     <t>id</t>
   </si>
@@ -72,9 +72,6 @@
     <t>Appearance cannot be modified</t>
   </si>
   <si>
-    <t>Appearance modifiability not known</t>
-  </si>
-  <si>
     <t>nonvisual-reading-readable</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>conformance-no</t>
   </si>
   <si>
-    <t>The publication does not include a conformance statement</t>
-  </si>
-  <si>
     <t>conformance-certifier</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>Audio only</t>
   </si>
   <si>
-    <t>Synchronized audio and text</t>
-  </si>
-  <si>
     <t>Complementary audio and text</t>
   </si>
   <si>
@@ -240,9 +231,6 @@
     <t>navigation-no-metadata</t>
   </si>
   <si>
-    <t>Charts and diagrams have extended descriptions</t>
-  </si>
-  <si>
     <t>Accessible chemistry content</t>
   </si>
   <si>
@@ -408,9 +396,6 @@
     <t>without background sounds</t>
   </si>
   <si>
-    <t>supports page navigation</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-page-breaks</t>
   </si>
   <si>
@@ -594,9 +579,6 @@
     <t>Charts, diagrams, math, and formulas</t>
   </si>
   <si>
-    <t>accessibility of formulas, charts, math, and diagrams not identified as being accessible</t>
-  </si>
-  <si>
     <t>No information is available</t>
   </si>
   <si>
@@ -876,12 +858,6 @@
     <t>prerecorded-audio-complementary</t>
   </si>
   <si>
-    <t>No information about prerecorded audio is available</t>
-  </si>
-  <si>
-    <t>No information about navigation is available</t>
-  </si>
-  <si>
     <t>rich-content-title</t>
   </si>
   <si>
@@ -891,21 +867,6 @@
     <t>rich-content-accessible-math</t>
   </si>
   <si>
-    <t>No information about possible hazards is available</t>
-  </si>
-  <si>
-    <t>read aloud or dynamic braille</t>
-  </si>
-  <si>
-    <t>go to page</t>
-  </si>
-  <si>
-    <t>rich-content-described-math</t>
-  </si>
-  <si>
-    <t>Complex images are described by extended descriptions</t>
-  </si>
-  <si>
     <t>rich-content-closed-captions</t>
   </si>
   <si>
@@ -913,6 +874,9 @@
   </si>
   <si>
     <t>rich-content-transcript</t>
+  </si>
+  <si>
+    <t>Read aloud or dynamic braille</t>
   </si>
 </sst>
 </file>
@@ -974,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -988,12 +952,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1369,18 +1337,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}">
-  <dimension ref="A1:F157"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="50.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
@@ -1390,28 +1361,28 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>164</v>
+      <c r="B1" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A110">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$112,'epub-metadata-strings'!$D$2:$D$81,'onix-metadata-strings'!$D$2:$D$76))</f>
+        <f t="array" ref="A2:A109">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$112,'epub-metadata-strings'!$D$2:$D$81,'onix-metadata-strings'!$D$2:$D$65))</f>
         <v>visual-adjustments-title</v>
       </c>
-      <c r="B2" s="6" t="str">
+      <c r="B2" s="8" t="str">
         <f>IFERROR(VLOOKUP($A2&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Visual adjustments</v>
       </c>
@@ -1424,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A2,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A2,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F2" s="3" t="b">
@@ -1432,11 +1403,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <v>visual-adjustments-modifiable</v>
       </c>
-      <c r="B3" s="6" t="str">
+      <c r="B3" s="8" t="str">
         <f>IFERROR(VLOOKUP($A3&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
@@ -1449,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="F3" s="3" t="b">
@@ -1457,11 +1428,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <v>visual-adjustments-unmodifiable</v>
       </c>
-      <c r="B4" s="6" t="str">
+      <c r="B4" s="8" t="str">
         <f>IFERROR(VLOOKUP($A4&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
@@ -1474,7 +1445,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="F4" s="3" t="b">
@@ -1482,36 +1453,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <v>visual-adjustments-unknown</v>
       </c>
-      <c r="B5" s="6" t="str">
+      <c r="B5" s="8" t="str">
         <f>IFERROR(VLOOKUP($A5&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Appearance modifiability not known</v>
+        <v>No information is available</v>
       </c>
       <c r="D5" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Appearance modifiability not known</v>
+        <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="F5" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <v>nonvisual-reading-title</v>
       </c>
-      <c r="B6" s="6" t="str">
+      <c r="B6" s="8" t="str">
         <f>IFERROR(VLOOKUP($A6&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Support for nonvisual reading</v>
       </c>
@@ -1524,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F6" s="3" t="b">
@@ -1536,7 +1507,7 @@
       <c r="A7" t="str">
         <v>has-alt-text</v>
       </c>
-      <c r="B7" s="6" t="str">
+      <c r="B7" s="8" t="str">
         <f>IFERROR(VLOOKUP($A7&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Has alt text</v>
       </c>
@@ -1549,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F7" s="3" t="b">
@@ -1557,11 +1528,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <v>nonvisual-reading-readable</v>
       </c>
-      <c r="B8" s="6" t="str">
+      <c r="B8" s="8" t="str">
         <f>IFERROR(VLOOKUP($A8&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Readable in read aloud or dynamic braille</v>
       </c>
@@ -1574,19 +1545,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>read aloud or dynamic braille</v>
+        <f>IFERROR(VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Read aloud or dynamic braille</v>
       </c>
       <c r="F8" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <v>nonvisual-reading-may-not-fully</v>
       </c>
-      <c r="B9" s="6" t="str">
+      <c r="B9" s="8" t="str">
         <f>IFERROR(VLOOKUP($A9&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
@@ -1599,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F9" s="3" t="b">
@@ -1607,11 +1578,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <v>nonvisual-reading-not-fully</v>
       </c>
-      <c r="B10" s="6" t="str">
+      <c r="B10" s="8" t="str">
         <f>IFERROR(VLOOKUP($A10&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
@@ -1624,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F10" s="3" t="b">
@@ -1632,11 +1603,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <v>conformance-title</v>
       </c>
-      <c r="B11" s="6" t="str">
+      <c r="B11" s="8" t="str">
         <f>IFERROR(VLOOKUP($A11&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Conformance</v>
       </c>
@@ -1649,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F11" s="3" t="b">
@@ -1657,11 +1628,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <v>conformance-aaa</v>
       </c>
-      <c r="B12" s="6" t="str">
+      <c r="B12" s="8" t="str">
         <f>IFERROR(VLOOKUP($A12&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
@@ -1674,7 +1645,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="F12" s="3" t="b">
@@ -1682,11 +1653,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <v>conformance-aa</v>
       </c>
-      <c r="B13" s="6" t="str">
+      <c r="B13" s="8" t="str">
         <f>IFERROR(VLOOKUP($A13&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
@@ -1699,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="F13" s="3" t="b">
@@ -1707,11 +1678,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <v>conformance-a</v>
       </c>
-      <c r="B14" s="6" t="str">
+      <c r="B14" s="8" t="str">
         <f>IFERROR(VLOOKUP($A14&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
@@ -1724,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="F14" s="3" t="b">
@@ -1732,36 +1703,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <v>conformance-no</v>
       </c>
-      <c r="B15" s="6" t="str">
+      <c r="B15" s="8" t="str">
         <f>IFERROR(VLOOKUP($A15&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C15" s="6" t="str">
         <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>The publication does not include a conformance statement</v>
+        <v>No information is available</v>
       </c>
       <c r="D15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>The publication does not include a conformance statement</v>
+        <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="F15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <v>conformance-certification-info</v>
       </c>
-      <c r="B16" s="7" t="str">
+      <c r="B16" s="8" t="str">
         <f>IFERROR(VLOOKUP($A16&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>The publication was certified by</v>
       </c>
@@ -1774,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>The publication was certified on</v>
       </c>
       <c r="F16" s="3" t="b">
@@ -1786,7 +1757,7 @@
       <c r="A17" t="str">
         <v>conformance-certifier-credentials-prefix</v>
       </c>
-      <c r="B17" s="7" t="str">
+      <c r="B17" s="8" t="str">
         <f>IFERROR(VLOOKUP($A17&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>The certifier 's credential is</v>
       </c>
@@ -1799,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F17" s="3" t="b">
@@ -1807,11 +1778,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>conformance-details</v>
       </c>
-      <c r="B18" s="7" t="str">
+      <c r="B18" s="8" t="str">
         <f>IFERROR(VLOOKUP($A18&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Detailed conformance information</v>
       </c>
@@ -1824,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Detailed conformance information</v>
       </c>
       <c r="F18" s="3" t="b">
@@ -1832,11 +1803,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <v>conformance-claim</v>
       </c>
-      <c r="B19" s="7" t="str">
+      <c r="B19" s="8" t="str">
         <f>IFERROR(VLOOKUP($A19&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
@@ -1849,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
       <c r="F19" s="3" t="b">
@@ -1861,7 +1832,7 @@
       <c r="A20" t="str">
         <v>conformance-epub-accessibility-1-1</v>
       </c>
-      <c r="B20" s="7" t="str">
+      <c r="B20" s="8" t="str">
         <f>IFERROR(VLOOKUP($A20&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>EPUB Accessibility 1.1</v>
       </c>
@@ -1874,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="F20" s="3" t="b">
@@ -1882,11 +1853,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <v>conformance-wcag-2-1</v>
       </c>
-      <c r="B21" s="7" t="str">
+      <c r="B21" s="8" t="str">
         <f>IFERROR(VLOOKUP($A21&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -1899,7 +1870,7 @@
         <v/>
       </c>
       <c r="E21" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>WCAG 2.1</v>
       </c>
       <c r="F21" s="3" t="str">
@@ -1911,7 +1882,7 @@
       <c r="A22" t="str">
         <v>conformance-level-aa</v>
       </c>
-      <c r="B22" s="7" t="str">
+      <c r="B22" s="8" t="str">
         <f>IFERROR(VLOOKUP($A22&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Level AA</v>
       </c>
@@ -1924,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Level AA</v>
       </c>
       <c r="F22" s="3" t="b">
@@ -1932,11 +1903,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <v>conformance-certifier-report</v>
       </c>
-      <c r="B23" s="7" t="str">
+      <c r="B23" s="8" t="str">
         <f>IFERROR(VLOOKUP($A23&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>For more information refer to the certifier's report</v>
       </c>
@@ -1949,7 +1920,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>For more information refer to the certifier's report</v>
       </c>
       <c r="F23" s="3" t="b">
@@ -1961,7 +1932,7 @@
       <c r="A24" t="str">
         <v>conformance-epub-accessibility-1-0</v>
       </c>
-      <c r="B24" s="7" t="str">
+      <c r="B24" s="8" t="str">
         <f>IFERROR(VLOOKUP($A24&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>EPUB Accessibility 1.0</v>
       </c>
@@ -1974,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="F24" s="3" t="b">
@@ -1982,11 +1953,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <v>conformance-wcag-2-2</v>
       </c>
-      <c r="B25" s="7" t="str">
+      <c r="B25" s="8" t="str">
         <f>IFERROR(VLOOKUP($A25&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -1999,7 +1970,7 @@
         <v/>
       </c>
       <c r="E25" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>WCAG 2.2</v>
       </c>
       <c r="F25" s="3" t="str">
@@ -2011,7 +1982,7 @@
       <c r="A26" t="str">
         <v>conformance-level-a</v>
       </c>
-      <c r="B26" s="7" t="str">
+      <c r="B26" s="8" t="str">
         <f>IFERROR(VLOOKUP($A26&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Level A</v>
       </c>
@@ -2024,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Level A</v>
       </c>
       <c r="F26" s="3" t="b">
@@ -2036,7 +2007,7 @@
       <c r="A27" t="str">
         <v>conformance-unknown-standard</v>
       </c>
-      <c r="B27" s="7" t="str">
+      <c r="B27" s="8" t="str">
         <f>IFERROR(VLOOKUP($A27&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
@@ -2049,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F27" s="3" t="b">
@@ -2061,7 +2032,7 @@
       <c r="A28" t="str">
         <v>conformance-certifier</v>
       </c>
-      <c r="B28" s="7" t="str">
+      <c r="B28" s="8" t="str">
         <f>IFERROR(VLOOKUP($A28&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication is certified by</v>
       </c>
@@ -2074,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>The publication was certified by</v>
       </c>
       <c r="F28" s="3" t="b">
@@ -2082,11 +2053,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <v>conformance-certifier-credentials</v>
       </c>
-      <c r="B29" s="7" t="str">
+      <c r="B29" s="8" t="str">
         <f>IFERROR(VLOOKUP($A29&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>The certifier's credential is</v>
       </c>
@@ -2099,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>The certifier 's credential is</v>
       </c>
       <c r="F29" s="3" t="b">
@@ -2107,11 +2078,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <v>prerecorded-audio-title</v>
       </c>
-      <c r="B30" s="6" t="str">
+      <c r="B30" s="8" t="str">
         <f>IFERROR(VLOOKUP($A30&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Prerecorded audio</v>
       </c>
@@ -2124,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F30" s="3" t="b">
@@ -2132,24 +2103,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <v>prerecorded-audio-no-metadata</v>
       </c>
-      <c r="B31" s="6" t="str">
+      <c r="B31" s="8" t="str">
         <f>IFERROR(VLOOKUP($A31&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C31" s="6" t="str">
         <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>No information is available</v>
       </c>
       <c r="D31" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F31" s="3" t="b">
@@ -2161,7 +2132,7 @@
       <c r="A32" t="str">
         <v>prerecorded-audio-only</v>
       </c>
-      <c r="B32" s="6" t="str">
+      <c r="B32" s="8" t="str">
         <f>IFERROR(VLOOKUP($A32&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Audiobook</v>
       </c>
@@ -2174,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Audio only</v>
       </c>
       <c r="F32" s="3" t="b">
@@ -2182,36 +2153,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <v>prerecorded-audio-synchronized</v>
       </c>
-      <c r="B33" s="6" t="str">
+      <c r="B33" s="8" t="str">
         <f>IFERROR(VLOOKUP($A33&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C33" s="6" t="str">
         <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Synchronized audio and text</v>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="D33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Synchronized audio and text</v>
+        <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="F33" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <v>navigation-title</v>
       </c>
-      <c r="B34" s="6" t="str">
+      <c r="B34" s="8" t="str">
         <f>IFERROR(VLOOKUP($A34&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Navigation</v>
       </c>
@@ -2224,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F34" s="3" t="b">
@@ -2232,24 +2203,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <v>navigation-no-metadata</v>
       </c>
-      <c r="B35" s="6" t="str">
+      <c r="B35" s="8" t="str">
         <f>IFERROR(VLOOKUP($A35&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C35" s="6" t="str">
         <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No information about navigation is available</v>
+        <v>No information is available</v>
       </c>
       <c r="D35" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F35" s="3" t="b">
@@ -2257,11 +2228,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <v>navigation-toc</v>
       </c>
-      <c r="B36" s="6" t="str">
+      <c r="B36" s="8" t="str">
         <f>IFERROR(VLOOKUP($A36&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Table of contents</v>
       </c>
@@ -2274,19 +2245,19 @@
         <v>1</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>table of contents</v>
+        <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Table of contents</v>
       </c>
       <c r="F36" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <v>navigation-index</v>
       </c>
-      <c r="B37" s="6" t="str">
+      <c r="B37" s="8" t="str">
         <f>IFERROR(VLOOKUP($A37&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Index</v>
       </c>
@@ -2299,19 +2270,19 @@
         <v>1</v>
       </c>
       <c r="E37" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>index</v>
+        <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Index</v>
       </c>
       <c r="F37" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <v>navigation-structural</v>
       </c>
-      <c r="B38" s="6" t="str">
+      <c r="B38" s="8" t="str">
         <f>IFERROR(VLOOKUP($A38&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Headings</v>
       </c>
@@ -2324,33 +2295,33 @@
         <v>1</v>
       </c>
       <c r="E38" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>headings</v>
+        <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Headings</v>
       </c>
       <c r="F38" s="3" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <v>navigation-page-navigation</v>
       </c>
-      <c r="B39" s="6" t="str">
+      <c r="B39" s="8" t="str">
         <f>IFERROR(VLOOKUP($A39&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Go to page</v>
       </c>
       <c r="C39" s="6" t="str">
         <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>supports page navigation</v>
+        <v>Go to page</v>
       </c>
       <c r="D39" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>go to page</v>
+        <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Go to page</v>
       </c>
       <c r="F39" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2361,7 +2332,7 @@
       <c r="A40" s="4" t="str">
         <v>Rich-content-title</v>
       </c>
-      <c r="B40" s="6" t="str">
+      <c r="B40" s="8" t="str">
         <f>IFERROR(VLOOKUP($A40&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Rich content</v>
       </c>
@@ -2374,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F40" s="3" t="b">
@@ -2382,24 +2353,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <v>rich-content-unknown</v>
       </c>
-      <c r="B41" s="6" t="str">
+      <c r="B41" s="8" t="str">
         <f>IFERROR(VLOOKUP($A41&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C41" s="6" t="str">
         <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>accessibility of formulas, charts, math, and diagrams not identified as being accessible</v>
+        <v>No information is available</v>
       </c>
       <c r="D41" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F41" s="3" t="b">
@@ -2411,7 +2382,7 @@
       <c r="A42" t="str">
         <v>rich-content-accessible-math-as-mathml</v>
       </c>
-      <c r="B42" s="6" t="str">
+      <c r="B42" s="8" t="str">
         <f>IFERROR(VLOOKUP($A42&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Math as MathML</v>
       </c>
@@ -2424,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Math as MathML</v>
       </c>
       <c r="F42" s="3" t="b">
@@ -2436,7 +2407,7 @@
       <c r="A43" t="str">
         <v>rich-content-accessible-math-as-latex</v>
       </c>
-      <c r="B43" s="6" t="str">
+      <c r="B43" s="8" t="str">
         <f>IFERROR(VLOOKUP($A43&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Math as LaTex</v>
       </c>
@@ -2449,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Math as LaTex</v>
       </c>
       <c r="F43" s="3" t="b">
@@ -2461,7 +2432,7 @@
       <c r="A44" t="str">
         <v>rich-content-accessible-math-described</v>
       </c>
-      <c r="B44" s="6" t="str">
+      <c r="B44" s="8" t="str">
         <f>IFERROR(VLOOKUP($A44&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Math as images with text description</v>
       </c>
@@ -2473,20 +2444,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E44" s="8" t="str">
-        <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+      <c r="E44" s="6" t="str">
+        <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Math as images with text description</v>
       </c>
       <c r="F44" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
-      <c r="B45" s="6" t="str">
+      <c r="B45" s="8" t="str">
         <f>IFERROR(VLOOKUP($A45&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Chemical formulas in MathML</v>
       </c>
@@ -2499,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Chemical formulas in MathML</v>
       </c>
       <c r="F45" s="3" t="b">
@@ -2511,7 +2482,7 @@
       <c r="A46" t="str">
         <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
-      <c r="B46" s="6" t="str">
+      <c r="B46" s="8" t="str">
         <f>IFERROR(VLOOKUP($A46&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Chemical formulas in LaTex</v>
       </c>
@@ -2524,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F46" s="3" t="b">
@@ -2532,36 +2503,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <v>rich-content-extended</v>
       </c>
-      <c r="B47" s="6" t="str">
+      <c r="B47" s="8" t="str">
         <f>IFERROR(VLOOKUP($A47&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C47" s="6" t="str">
         <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Charts and diagrams have extended descriptions</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="D47" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Complex images are described by extended descriptions</v>
+        <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="F47" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="str">
         <v>additional-accessibility-information-adaptation-closed-captions</v>
       </c>
-      <c r="B48" s="6" t="str">
+      <c r="B48" s="8" t="str">
         <f>IFERROR(VLOOKUP($A48&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Videos have closed captions</v>
       </c>
@@ -2574,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>closed captions</v>
       </c>
       <c r="F48" s="3" t="b">
@@ -2586,7 +2557,7 @@
       <c r="A49" s="4" t="str">
         <v>additional-accessibility-information-adaptation-open-captions</v>
       </c>
-      <c r="B49" s="6" t="str">
+      <c r="B49" s="8" t="str">
         <f>IFERROR(VLOOKUP($A49&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Videos have open captions</v>
       </c>
@@ -2599,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>open captions</v>
       </c>
       <c r="F49" s="3" t="b">
@@ -2611,7 +2582,7 @@
       <c r="A50" s="4" t="str">
         <v>additional-accessibility-information-adaptation-full-transcript</v>
       </c>
-      <c r="B50" s="6" t="str">
+      <c r="B50" s="8" t="str">
         <f>IFERROR(VLOOKUP($A50&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Has transcript</v>
       </c>
@@ -2624,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>full transcript</v>
       </c>
       <c r="F50" s="3" t="b">
@@ -2632,11 +2603,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <v>hazards-title</v>
       </c>
-      <c r="B51" s="6" t="str">
+      <c r="B51" s="8" t="str">
         <f>IFERROR(VLOOKUP($A51&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Hazards</v>
       </c>
@@ -2649,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F51" s="3" t="b">
@@ -2657,24 +2628,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <v>hazards-no-metadata</v>
       </c>
-      <c r="B52" s="6" t="str">
+      <c r="B52" s="8" t="str">
         <f>IFERROR(VLOOKUP($A52&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C52" s="6" t="str">
         <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>No information about possible hazards is available</v>
+        <v>No information is available</v>
       </c>
       <c r="D52" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F52" s="3" t="b">
@@ -2682,11 +2653,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <v>hazards-none</v>
       </c>
-      <c r="B53" s="6" t="str">
+      <c r="B53" s="8" t="str">
         <f>IFERROR(VLOOKUP($A53&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No hazards</v>
       </c>
@@ -2699,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>No hazards</v>
       </c>
       <c r="F53" s="3" t="b">
@@ -2711,7 +2682,7 @@
       <c r="A54" t="str">
         <v>hazards-flashing</v>
       </c>
-      <c r="B54" s="6" t="str">
+      <c r="B54" s="8" t="str">
         <f>IFERROR(VLOOKUP($A54&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Flashing content</v>
       </c>
@@ -2724,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Flashing content</v>
       </c>
       <c r="F54" s="3" t="b">
@@ -2732,11 +2703,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <v>hazards-motion</v>
       </c>
-      <c r="B55" s="6" t="str">
+      <c r="B55" s="8" t="str">
         <f>IFERROR(VLOOKUP($A55&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Motion simulation</v>
       </c>
@@ -2749,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Motion simulation</v>
       </c>
       <c r="F55" s="3" t="b">
@@ -2761,7 +2732,7 @@
       <c r="A56" t="str">
         <v>hazards-sound</v>
       </c>
-      <c r="B56" s="6" t="str">
+      <c r="B56" s="8" t="str">
         <f>IFERROR(VLOOKUP($A56&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Loud sounds</v>
       </c>
@@ -2774,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Loud sounds</v>
       </c>
       <c r="F56" s="3" t="b">
@@ -2786,7 +2757,7 @@
       <c r="A57" t="str">
         <v>hazards-unknown</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="8">
         <f>IFERROR(VLOOKUP($A57&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>0</v>
       </c>
@@ -2799,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>The presence of hazards is unknown</v>
       </c>
       <c r="F57" s="3" t="b">
@@ -2807,11 +2778,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <v>hazards-no-metadata].</v>
       </c>
-      <c r="B58" s="6" t="str">
+      <c r="B58" s="8" t="str">
         <f>IFERROR(VLOOKUP($A58&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -2824,7 +2795,7 @@
         <v/>
       </c>
       <c r="E58" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F58" s="3" t="str">
@@ -2832,11 +2803,11 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <v>accessibility-summary-title</v>
       </c>
-      <c r="B59" s="6" t="str">
+      <c r="B59" s="8" t="str">
         <f>IFERROR(VLOOKUP($A59&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Accessibility summary</v>
       </c>
@@ -2849,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F59" s="3" t="b">
@@ -2857,11 +2828,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <v>accessibility-summary-no-metadata</v>
       </c>
-      <c r="B60" s="6" t="str">
+      <c r="B60" s="8" t="str">
         <f>IFERROR(VLOOKUP($A60&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -2874,7 +2845,7 @@
         <v/>
       </c>
       <c r="E60" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>No accessibility summary is available.</v>
       </c>
       <c r="F60" s="3" t="str">
@@ -2882,11 +2853,11 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <v>legal-considerations-title</v>
       </c>
-      <c r="B61" s="6" t="str">
+      <c r="B61" s="8" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Legal considerations</v>
       </c>
@@ -2899,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F61" s="3" t="b">
@@ -2907,11 +2878,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <v>legal-considerations-exempt</v>
       </c>
-      <c r="B62" s="6" t="str">
+      <c r="B62" s="8" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -2924,7 +2895,7 @@
         <v/>
       </c>
       <c r="E62" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F62" s="3" t="str">
@@ -2936,7 +2907,7 @@
       <c r="A63" t="str">
         <v>additional-accessibility-information-title</v>
       </c>
-      <c r="B63" s="6" t="str">
+      <c r="B63" s="8" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Additional accessibility information</v>
       </c>
@@ -2949,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F63" s="3" t="b">
@@ -2957,11 +2928,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <v>join-array-and</v>
       </c>
-      <c r="B64" s="6" t="str">
+      <c r="B64" s="8" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -2974,7 +2945,7 @@
         <v/>
       </c>
       <c r="E64" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>, and</v>
       </c>
       <c r="F64" s="3" t="str">
@@ -2982,11 +2953,11 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <v>conformance-epub10-wcag20a</v>
       </c>
-      <c r="B65" s="6" t="str">
+      <c r="B65" s="8" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -2999,7 +2970,7 @@
         <v/>
       </c>
       <c r="E65" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F65" s="3" t="str">
@@ -3007,11 +2978,11 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <v>conformance-epub10-wcag20aa</v>
       </c>
-      <c r="B66" s="6" t="str">
+      <c r="B66" s="8" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3024,7 +2995,7 @@
         <v/>
       </c>
       <c r="E66" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F66" s="3" t="str">
@@ -3032,11 +3003,11 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <v>conformance-epub10-wcag20aaa</v>
       </c>
-      <c r="B67" s="6" t="str">
+      <c r="B67" s="8" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3045,23 +3016,23 @@
         <v>PUB Accessibility 1.0 WCAG 2.0 Level AA</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f t="shared" ref="D67:D110" si="1">IF($B67="","",$B67=C67)</f>
+        <f t="shared" ref="D67:D109" si="1">IF($B67="","",$B67=C67)</f>
         <v/>
       </c>
       <c r="E67" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F67" s="3" t="str">
-        <f t="shared" ref="F67:F110" si="2">IF($B67="","",$B67=E67)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F67:F109" si="2">IF($B67="","",$B67=E67)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <v>conformance-epub11-wcag20a</v>
       </c>
-      <c r="B68" s="6" t="str">
+      <c r="B68" s="8" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3074,7 +3045,7 @@
         <v/>
       </c>
       <c r="E68" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F68" s="3" t="str">
@@ -3082,11 +3053,11 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <v>conformance-epub11-wcag20aa</v>
       </c>
-      <c r="B69" s="6" t="str">
+      <c r="B69" s="8" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3099,7 +3070,7 @@
         <v/>
       </c>
       <c r="E69" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A69,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A69,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F69" s="3" t="str">
@@ -3107,11 +3078,11 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <v>conformance-epub11-wcag20aaa</v>
       </c>
-      <c r="B70" s="6" t="str">
+      <c r="B70" s="8" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3124,7 +3095,7 @@
         <v/>
       </c>
       <c r="E70" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A70,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A70,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F70" s="3" t="str">
@@ -3132,11 +3103,11 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <v>conformance-epub11-wcag21a</v>
       </c>
-      <c r="B71" s="6" t="str">
+      <c r="B71" s="8" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3149,7 +3120,7 @@
         <v/>
       </c>
       <c r="E71" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F71" s="3" t="str">
@@ -3157,11 +3128,11 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <v>conformance-epub11-wcag21aa</v>
       </c>
-      <c r="B72" s="6" t="str">
+      <c r="B72" s="8" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3174,7 +3145,7 @@
         <v/>
       </c>
       <c r="E72" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F72" s="3" t="str">
@@ -3182,11 +3153,11 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <v>conformance-epub11-wcag21aaa</v>
       </c>
-      <c r="B73" s="6" t="str">
+      <c r="B73" s="8" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3199,7 +3170,7 @@
         <v/>
       </c>
       <c r="E73" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F73" s="3" t="str">
@@ -3207,11 +3178,11 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <v>conformance-epub11-wcag22a</v>
       </c>
-      <c r="B74" s="6" t="str">
+      <c r="B74" s="8" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3224,7 +3195,7 @@
         <v/>
       </c>
       <c r="E74" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F74" s="3" t="str">
@@ -3232,11 +3203,11 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <v>conformance-epub11-wcag22aa</v>
       </c>
-      <c r="B75" s="6" t="str">
+      <c r="B75" s="8" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3249,7 +3220,7 @@
         <v/>
       </c>
       <c r="E75" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F75" s="3" t="str">
@@ -3257,11 +3228,11 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <v>conformance-epub11-wcag22aaa</v>
       </c>
-      <c r="B76" s="6" t="str">
+      <c r="B76" s="8" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3274,7 +3245,7 @@
         <v/>
       </c>
       <c r="E76" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F76" s="3" t="str">
@@ -3282,11 +3253,11 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <v>conformance-certification-date-prefix</v>
       </c>
-      <c r="B77" s="6" t="str">
+      <c r="B77" s="8" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3299,7 +3270,7 @@
         <v/>
       </c>
       <c r="E77" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F77" s="3" t="str">
@@ -3307,11 +3278,11 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <v>prerecorded-audio-complementary</v>
       </c>
-      <c r="B78" s="7" t="str">
+      <c r="B78" s="8" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3324,7 +3295,7 @@
         <v/>
       </c>
       <c r="E78" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Complementary audio and text</v>
       </c>
       <c r="F78" s="3" t="str">
@@ -3332,11 +3303,11 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <v>navigation-intro</v>
       </c>
-      <c r="B79" s="6" t="str">
+      <c r="B79" s="8" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3349,7 +3320,7 @@
         <v/>
       </c>
       <c r="E79" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F79" s="3" t="str">
@@ -3357,11 +3328,11 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <v>rich-content-accessible-chemistry</v>
       </c>
-      <c r="B80" s="6" t="str">
+      <c r="B80" s="8" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3374,7 +3345,7 @@
         <v/>
       </c>
       <c r="E80" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F80" s="3" t="str">
@@ -3382,11 +3353,11 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <v>rich-content-accessible-math</v>
       </c>
-      <c r="B81" s="6" t="str">
+      <c r="B81" s="8" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3399,7 +3370,7 @@
         <v/>
       </c>
       <c r="E81" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F81" s="3" t="str">
@@ -3407,11 +3378,11 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <v>hazards-plural</v>
       </c>
-      <c r="B82" s="6" t="str">
+      <c r="B82" s="8" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3424,7 +3395,7 @@
         <v/>
       </c>
       <c r="E82" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F82" s="3" t="str">
@@ -3432,11 +3403,11 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <v>hazards-singular</v>
       </c>
-      <c r="B83" s="6" t="str">
+      <c r="B83" s="8" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3449,7 +3420,7 @@
         <v/>
       </c>
       <c r="E83" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F83" s="3" t="str">
@@ -3457,11 +3428,11 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <v>tbd</v>
       </c>
-      <c r="B84" s="6" t="str">
+      <c r="B84" s="8" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3474,7 +3445,7 @@
         <v/>
       </c>
       <c r="E84" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>TBD</v>
       </c>
       <c r="F84" s="3" t="str">
@@ -3482,11 +3453,11 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <v>legal-considerations-no-metadata</v>
       </c>
-      <c r="B85" s="6" t="str">
+      <c r="B85" s="8" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3499,7 +3470,7 @@
         <v/>
       </c>
       <c r="E85" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>No legal considerations</v>
       </c>
       <c r="F85" s="3" t="str">
@@ -3507,11 +3478,11 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <v>additional-accessibility-information-adaptation-audio-descriptions</v>
       </c>
-      <c r="B86" s="6" t="str">
+      <c r="B86" s="8" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3524,7 +3495,7 @@
         <v/>
       </c>
       <c r="E86" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F86" s="3" t="str">
@@ -3532,11 +3503,11 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <v>additional-accessibility-information-adaptation-braille</v>
       </c>
-      <c r="B87" s="6" t="str">
+      <c r="B87" s="8" t="str">
         <f>IFERROR(VLOOKUP($A87&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3549,7 +3520,7 @@
         <v/>
       </c>
       <c r="E87" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F87" s="3" t="str">
@@ -3557,11 +3528,11 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <v>additional-accessibility-information-adaptation-tactile_graphic</v>
       </c>
-      <c r="B88" s="6" t="str">
+      <c r="B88" s="8" t="str">
         <f>IFERROR(VLOOKUP($A88&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3574,7 +3545,7 @@
         <v/>
       </c>
       <c r="E88" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F88" s="3" t="str">
@@ -3582,11 +3553,11 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <v>additional-accessibility-information-adaptation-tactile_object</v>
       </c>
-      <c r="B89" s="6" t="str">
+      <c r="B89" s="8" t="str">
         <f>IFERROR(VLOOKUP($A89&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3599,7 +3570,7 @@
         <v/>
       </c>
       <c r="E89" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F89" s="3" t="str">
@@ -3607,11 +3578,11 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <v>additional-accessibility-information-adaptation-transcript</v>
       </c>
-      <c r="B90" s="6" t="str">
+      <c r="B90" s="8" t="str">
         <f>IFERROR(VLOOKUP($A90&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3624,7 +3595,7 @@
         <v/>
       </c>
       <c r="E90" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A90,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A90,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F90" s="3" t="str">
@@ -3632,11 +3603,11 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <v>additional-accessibility-information-adaptation-sign-language</v>
       </c>
-      <c r="B91" s="6" t="str">
+      <c r="B91" s="8" t="str">
         <f>IFERROR(VLOOKUP($A91&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3649,7 +3620,7 @@
         <v/>
       </c>
       <c r="E91" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>sign language</v>
       </c>
       <c r="F91" s="3" t="str">
@@ -3657,11 +3628,11 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <v>additional-accessibility-information-clarity-aria</v>
       </c>
-      <c r="B92" s="6" t="str">
+      <c r="B92" s="8" t="str">
         <f>IFERROR(VLOOKUP($A92&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3674,7 +3645,7 @@
         <v/>
       </c>
       <c r="E92" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A92,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A92,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F92" s="3" t="str">
@@ -3682,11 +3653,11 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
       </c>
-      <c r="B93" s="6" t="str">
+      <c r="B93" s="8" t="str">
         <f>IFERROR(VLOOKUP($A93&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3699,7 +3670,7 @@
         <v/>
       </c>
       <c r="E93" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F93" s="3" t="str">
@@ -3707,11 +3678,11 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
       </c>
-      <c r="B94" s="6" t="str">
+      <c r="B94" s="8" t="str">
         <f>IFERROR(VLOOKUP($A94&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3724,7 +3695,7 @@
         <v/>
       </c>
       <c r="E94" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>text-to-speech hinting provided</v>
       </c>
       <c r="F94" s="3" t="str">
@@ -3732,11 +3703,11 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
       </c>
-      <c r="B95" s="6" t="str">
+      <c r="B95" s="8" t="str">
         <f>IFERROR(VLOOKUP($A95&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3749,7 +3720,7 @@
         <v/>
       </c>
       <c r="E95" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>high contrast between foreground and background audio</v>
       </c>
       <c r="F95" s="3" t="str">
@@ -3757,11 +3728,11 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
       </c>
-      <c r="B96" s="6" t="str">
+      <c r="B96" s="8" t="str">
         <f>IFERROR(VLOOKUP($A96&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3774,7 +3745,7 @@
         <v/>
       </c>
       <c r="E96" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>high contrast between text and background</v>
       </c>
       <c r="F96" s="3" t="str">
@@ -3782,11 +3753,11 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <v>additional-accessibility-information-clarity-large-print</v>
       </c>
-      <c r="B97" s="6" t="str">
+      <c r="B97" s="8" t="str">
         <f>IFERROR(VLOOKUP($A97&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3799,7 +3770,7 @@
         <v/>
       </c>
       <c r="E97" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F97" s="3" t="str">
@@ -3807,11 +3778,11 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <v>additional-accessibility-information-clarity-page-breaks</v>
       </c>
-      <c r="B98" s="6" t="str">
+      <c r="B98" s="8" t="str">
         <f>IFERROR(VLOOKUP($A98&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3824,7 +3795,7 @@
         <v/>
       </c>
       <c r="E98" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F98" s="3" t="str">
@@ -3832,11 +3803,11 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <v>additional-accessibility-information-clarity-ruby-annotations</v>
       </c>
-      <c r="B99" s="6" t="str">
+      <c r="B99" s="8" t="str">
         <f>IFERROR(VLOOKUP($A99&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3849,7 +3820,7 @@
         <v/>
       </c>
       <c r="E99" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A99,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A99,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F99" s="3" t="str">
@@ -3857,11 +3828,11 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <v>conformance-wcag-2-0</v>
       </c>
-      <c r="B100" s="6" t="str">
+      <c r="B100" s="8" t="str">
         <f>IFERROR(VLOOKUP($A100&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3874,7 +3845,7 @@
         <v/>
       </c>
       <c r="E100" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>WCAG 2.0</v>
       </c>
       <c r="F100" s="3" t="str">
@@ -3882,11 +3853,11 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <v>conformance-level-aaa</v>
       </c>
-      <c r="B101" s="6" t="str">
+      <c r="B101" s="8" t="str">
         <f>IFERROR(VLOOKUP($A101&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3899,7 +3870,7 @@
         <v/>
       </c>
       <c r="E101" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
         <v>Level AAA</v>
       </c>
       <c r="F101" s="3" t="str">
@@ -3907,11 +3878,11 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <v>rich-content-described-math</v>
-      </c>
-      <c r="B102" s="6" t="str">
+        <v>rich-content-closed-captions</v>
+      </c>
+      <c r="B102" s="8" t="str">
         <f>IFERROR(VLOOKUP($A102&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3924,19 +3895,19 @@
         <v/>
       </c>
       <c r="E102" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Math as images with text description</v>
+        <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Videos have closed captions</v>
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <v>rich-content-closed-captions</v>
-      </c>
-      <c r="B103" s="6" t="str">
+        <v>rich-content-open-captions</v>
+      </c>
+      <c r="B103" s="8" t="str">
         <f>IFERROR(VLOOKUP($A103&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3949,19 +3920,19 @@
         <v/>
       </c>
       <c r="E103" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Videos have open captions</v>
       </c>
       <c r="F103" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <v>rich-content-open-captions</v>
-      </c>
-      <c r="B104" s="6" t="str">
+        <v>rich-content-transcript</v>
+      </c>
+      <c r="B104" s="8" t="str">
         <f>IFERROR(VLOOKUP($A104&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3974,19 +3945,19 @@
         <v/>
       </c>
       <c r="E104" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A104,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <f>IFERROR(VLOOKUP($A104,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>Has transcript</v>
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <v>rich-content-transcript</v>
-      </c>
-      <c r="B105" s="6" t="str">
+        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
+      </c>
+      <c r="B105" s="8" t="str">
         <f>IFERROR(VLOOKUP($A105&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -3999,19 +3970,19 @@
         <v/>
       </c>
       <c r="E105" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A105,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Has transcript</v>
+        <f>IFERROR(VLOOKUP($A105,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>dyslexia readability</v>
       </c>
       <c r="F105" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
-      </c>
-      <c r="B106" s="6" t="str">
+        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
+      </c>
+      <c r="B106" s="8" t="str">
         <f>IFERROR(VLOOKUP($A106&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -4024,19 +3995,19 @@
         <v/>
       </c>
       <c r="E106" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A106,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>dyslexia readability</v>
+        <f>IFERROR(VLOOKUP($A106,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>color is not the sole means of conveying information</v>
       </c>
       <c r="F106" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
-        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
-      </c>
-      <c r="B107" s="6" t="str">
+        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
+      </c>
+      <c r="B107" s="8" t="str">
         <f>IFERROR(VLOOKUP($A107&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -4049,19 +4020,19 @@
         <v/>
       </c>
       <c r="E107" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A107,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>color is not the sole means of conveying information</v>
+        <f>IFERROR(VLOOKUP($A107,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>ultra high contrast between text and background</v>
       </c>
       <c r="F107" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
-        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
-      </c>
-      <c r="B108" s="6" t="str">
+        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
+      </c>
+      <c r="B108" s="8" t="str">
         <f>IFERROR(VLOOKUP($A108&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -4074,19 +4045,19 @@
         <v/>
       </c>
       <c r="E108" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A108,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>ultra high contrast between text and background</v>
+        <f>IFERROR(VLOOKUP($A108,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>visible page numbering</v>
       </c>
       <c r="F108" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
-        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
-      </c>
-      <c r="B109" s="6" t="str">
+        <v>additional-accessibility-information-clarity-without-background-sounds</v>
+      </c>
+      <c r="B109" s="8" t="str">
         <f>IFERROR(VLOOKUP($A109&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
@@ -4099,8 +4070,8 @@
         <v/>
       </c>
       <c r="E109" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A109,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>visible page numbering</v>
+        <f>IFERROR(VLOOKUP($A109,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <v>without background sounds</v>
       </c>
       <c r="F109" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4108,362 +4079,343 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" t="str">
-        <v>additional-accessibility-information-clarity-without-background-sounds</v>
-      </c>
-      <c r="B110" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A110&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C110" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A110,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D110" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E110" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A110,'onix-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>without background sounds</v>
-      </c>
-      <c r="F110" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="3"/>
+      <c r="B111" s="9"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="3"/>
+      <c r="B112" s="9"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113" s="3"/>
+      <c r="B113" s="9"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" s="3"/>
+      <c r="B114" s="9"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" s="3"/>
+      <c r="B115" s="9"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" s="3"/>
+      <c r="B116" s="9"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B117" s="3"/>
+      <c r="B117" s="9"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" s="3"/>
+      <c r="B118" s="9"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B119" s="3"/>
+      <c r="B119" s="9"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" s="3"/>
+      <c r="B120" s="9"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B121" s="3"/>
+      <c r="B121" s="9"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="3"/>
+      <c r="B122" s="9"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123" s="3"/>
+      <c r="B123" s="9"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="3"/>
+      <c r="B124" s="9"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" s="3"/>
+      <c r="B125" s="9"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="3"/>
+      <c r="B126" s="9"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127" s="3"/>
+      <c r="B127" s="9"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="3"/>
+      <c r="B128" s="9"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="3"/>
+      <c r="B129" s="9"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="3"/>
+      <c r="B130" s="9"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="3"/>
+      <c r="B131" s="9"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="3"/>
+      <c r="B132" s="9"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="3"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="3"/>
+      <c r="B134" s="9"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" s="3"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" s="3"/>
+      <c r="B136" s="9"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B137" s="3"/>
+      <c r="B137" s="9"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" s="3"/>
+      <c r="B138" s="9"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B139" s="3"/>
+      <c r="B139" s="9"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="3"/>
+      <c r="B140" s="9"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="3"/>
+      <c r="B141" s="9"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" s="3"/>
+      <c r="B142" s="9"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" s="3"/>
+      <c r="B143" s="9"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" s="3"/>
+      <c r="B144" s="9"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B145" s="3"/>
+      <c r="B145" s="9"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B146" s="3"/>
+      <c r="B146" s="9"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B147" s="3"/>
+      <c r="B147" s="9"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B148" s="3"/>
+      <c r="B148" s="9"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B149" s="3"/>
+      <c r="B149" s="9"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" s="3"/>
+      <c r="B150" s="9"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B151" s="3"/>
+      <c r="B151" s="9"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B152" s="3"/>
+      <c r="B152" s="9"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B153" s="3"/>
+      <c r="B153" s="9"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="3"/>
+      <c r="B154" s="9"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B155" s="3"/>
+      <c r="B155" s="9"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" s="3"/>
+      <c r="B156" s="9"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E90" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
-  <conditionalFormatting sqref="D2:D110">
+  <autoFilter ref="A1:E109" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="FALSO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="D2:D109">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4471,7 +4423,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F110">
+  <conditionalFormatting sqref="F2:F109">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4487,8 +4439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4500,25 +4452,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4527,16 +4479,16 @@
         <v>visual-adjustments-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4545,16 +4497,16 @@
         <v>visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4563,16 +4515,16 @@
         <v>visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4581,16 +4533,16 @@
         <v>visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4599,16 +4551,16 @@
         <v>visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4617,13 +4569,13 @@
         <v>visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -4635,16 +4587,16 @@
         <v>visual-adjustments-unknown-compact</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4653,13 +4605,13 @@
         <v>nonvisual-reading-title-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4668,16 +4620,16 @@
         <v>has-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4686,16 +4638,16 @@
         <v>nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4704,16 +4656,16 @@
         <v>nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4722,16 +4674,16 @@
         <v>nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4740,16 +4692,16 @@
         <v>has-alt-text-compact</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4758,16 +4710,16 @@
         <v>nonvisual-reading-readable-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4776,16 +4728,16 @@
         <v>nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4794,16 +4746,16 @@
         <v>nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4812,13 +4764,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4827,16 +4779,16 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
         <v>6</v>
-      </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4845,16 +4797,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4863,16 +4815,16 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" t="s">
         <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4881,16 +4833,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4899,16 +4851,16 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" t="s">
         <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>153</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4917,16 +4869,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4935,16 +4887,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G25" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4953,16 +4905,16 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" t="s">
         <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>153</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4971,16 +4923,16 @@
         <v>conformance-certification-info-compact</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4989,16 +4941,16 @@
         <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G28" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -5007,13 +4959,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -5022,13 +4974,13 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -5037,13 +4989,13 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -5052,16 +5004,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5070,13 +5022,13 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -5085,16 +5037,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -5103,13 +5055,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5118,16 +5070,16 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36" t="s">
         <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -5136,16 +5088,16 @@
         <v>conformance-certification-info-compact</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G37" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5154,16 +5106,16 @@
         <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -5172,13 +5124,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -5187,13 +5139,13 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -5202,13 +5154,13 @@
         <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -5217,16 +5169,16 @@
         <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -5235,13 +5187,13 @@
         <v>conformance-level-a-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -5250,16 +5202,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -5268,13 +5220,13 @@
         <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -5283,13 +5235,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -5298,13 +5250,13 @@
         <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -5313,13 +5265,13 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -5328,13 +5280,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -5343,13 +5295,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5358,16 +5310,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G51" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5376,13 +5328,13 @@
         <v>prerecorded-audio-title-compact</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G52" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -5391,16 +5343,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5409,16 +5361,16 @@
         <v>prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G54" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5427,16 +5379,16 @@
         <v>prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G55" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -5445,16 +5397,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F56" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G56" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5463,16 +5415,16 @@
         <v>prerecorded-audio-only-compact</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F57" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G57" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5481,16 +5433,16 @@
         <v>prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5499,16 +5451,16 @@
         <v>prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F59" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G59" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5517,13 +5469,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G60" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5532,16 +5484,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5550,16 +5502,16 @@
         <v>navigation-toc-descriptive</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G62" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5568,16 +5520,16 @@
         <v>navigation-index-descriptive</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G63" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5586,16 +5538,16 @@
         <v>navigation-structural-descriptive</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G64" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5604,16 +5556,16 @@
         <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5622,16 +5574,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G66" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -5640,16 +5592,16 @@
         <v>navigation-toc-compact</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G67" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5658,16 +5610,16 @@
         <v>navigation-index-compact</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G68" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5676,16 +5628,16 @@
         <v>navigation-structural-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G69" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5694,16 +5646,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E70" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5712,16 +5664,16 @@
         <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G71" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5730,13 +5682,13 @@
         <v>Rich-content-title-compact</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E72" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G72" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5745,16 +5697,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E73" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F73" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G73" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5763,16 +5715,16 @@
         <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F74" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G74" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5781,16 +5733,16 @@
         <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E75" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F75" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G75" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -5799,16 +5751,16 @@
         <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E76" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G76" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5817,16 +5769,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G77" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5835,16 +5787,16 @@
         <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G78" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5853,16 +5805,16 @@
         <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E79" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G79" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5871,16 +5823,16 @@
         <v>additional-accessibility-information-adaptation-closed-captions-descriptive</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E80" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G80" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5889,16 +5841,16 @@
         <v>additional-accessibility-information-adaptation-open-captions-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G81" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5907,16 +5859,16 @@
         <v>additional-accessibility-information-adaptation-full-transcript-descriptive</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G82" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5925,16 +5877,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G83" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5943,16 +5895,16 @@
         <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G84" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -5961,16 +5913,16 @@
         <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F85" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G85" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -5979,16 +5931,16 @@
         <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E86" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F86" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G86" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5997,16 +5949,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F87" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G87" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -6015,16 +5967,16 @@
         <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F88" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G88" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -6033,16 +5985,16 @@
         <v>rich-content-extended-compact</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E89" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F89" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G89" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -6051,16 +6003,16 @@
         <v>additional-accessibility-information-adaptation-closed-captions-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F90" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G90" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -6069,16 +6021,16 @@
         <v>additional-accessibility-information-adaptation-open-captions-compact</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G91" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -6087,16 +6039,16 @@
         <v>additional-accessibility-information-adaptation-full-transcript-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G92" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -6105,16 +6057,16 @@
         <v>rich-content-unknown-compact</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E93" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F93" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -6123,13 +6075,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E94" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G94" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -6138,16 +6090,16 @@
         <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E95" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G95" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -6156,16 +6108,16 @@
         <v>hazards-none-descriptive</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G96" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -6174,16 +6126,16 @@
         <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G97" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6192,16 +6144,16 @@
         <v>hazards-motion-descriptive</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E98" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G98" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -6210,16 +6162,16 @@
         <v>hazards-sound-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E99" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G99" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -6228,16 +6180,16 @@
         <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E100" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F100" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G100" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -6246,16 +6198,16 @@
         <v>hazards-no-metadata].-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E101" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F101" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G101" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -6264,16 +6216,16 @@
         <v>hazards-none-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E102" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F102" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G102" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -6282,16 +6234,16 @@
         <v>hazards-flashing-compact</v>
       </c>
       <c r="D103" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E103" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G103" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -6300,16 +6252,16 @@
         <v>hazards-motion-compact</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E104" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F104" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G104" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -6318,16 +6270,16 @@
         <v>hazards-sound-compact</v>
       </c>
       <c r="D105" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E105" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G105" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -6336,13 +6288,13 @@
         <v>hazards-unknown-compact</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E106" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F106" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -6351,16 +6303,16 @@
         <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E107" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F107" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="G107" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -6369,13 +6321,13 @@
         <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E108" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G108" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6384,16 +6336,16 @@
         <v>accessibility-summary-no-metadata-descriptive</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E109" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F109" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G109" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -6402,13 +6354,13 @@
         <v>legal-considerations-title-compact</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -6417,16 +6369,16 @@
         <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E111" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F111" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G111" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -6435,13 +6387,13 @@
         <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6453,8 +6405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6465,63 +6417,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -6529,838 +6481,838 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
         <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
         <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
         <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E24" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E26" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E30" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E55" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E59" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E63" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D67" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
         <v>122</v>
-      </c>
-      <c r="D70" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D71" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D72" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D73" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E73" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D76" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E77" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7370,10 +7322,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection sqref="A1:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7384,52 +7336,52 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -7437,794 +7389,673 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E36" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D37" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E37" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>209</v>
       </c>
       <c r="E38" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D39" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E40" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D41" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D42" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E44" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D45" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E47" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D60" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
-      <c r="E66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C67" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" t="s">
-        <v>83</v>
-      </c>
-      <c r="E67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" t="s">
-        <v>104</v>
-      </c>
-      <c r="E68" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C69" t="s">
-        <v>122</v>
-      </c>
-      <c r="D69" t="s">
-        <v>87</v>
-      </c>
-      <c r="E69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>122</v>
-      </c>
-      <c r="D70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D71" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>122</v>
-      </c>
-      <c r="D72" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E74" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" t="s">
-        <v>112</v>
-      </c>
-      <c r="E76" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA1FEF-6287-1347-9C93-13FF5AB03131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C7E12D-13B3-444B-B657-DC03E559AA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="onix-metadata-strings" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$E$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$109</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="265">
   <si>
     <t>id</t>
   </si>
@@ -246,18 +246,12 @@
     <t>hazards-flashing</t>
   </si>
   <si>
-    <t>flashing</t>
-  </si>
-  <si>
     <t>hazards-motion</t>
   </si>
   <si>
     <t>hazards-sound</t>
   </si>
   <si>
-    <t>sound</t>
-  </si>
-  <si>
     <t>hazards-plural</t>
   </si>
   <si>
@@ -465,9 +459,6 @@
     <t>nonvisual-reading-title</t>
   </si>
   <si>
-    <t>Supports nonvisual reading</t>
-  </si>
-  <si>
     <t>conformance-title</t>
   </si>
   <si>
@@ -531,9 +522,6 @@
     <t>conformance-unknown-standard</t>
   </si>
   <si>
-    <t>motion simulation</t>
-  </si>
-  <si>
     <t>key</t>
   </si>
   <si>
@@ -576,9 +564,6 @@
     <t>For more information refer to the certifier's report</t>
   </si>
   <si>
-    <t>Charts, diagrams, math, and formulas</t>
-  </si>
-  <si>
     <t>No information is available</t>
   </si>
   <si>
@@ -670,9 +655,6 @@
   </si>
   <si>
     <t>Go to page</t>
-  </si>
-  <si>
-    <t>Rich-content-title</t>
   </si>
   <si>
     <t>Rich content</t>
@@ -938,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -952,16 +934,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1337,21 +1313,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A48" sqref="A48"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="50.83203125" customWidth="1"/>
+    <col min="1" max="3" width="50.83203125" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="50.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.83203125" customWidth="1"/>
@@ -1361,38 +1334,38 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>159</v>
+      <c r="B1" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A109">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$112,'epub-metadata-strings'!$D$2:$D$81,'onix-metadata-strings'!$D$2:$D$65))</f>
+        <f t="array" ref="A2:A109">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$112,'epub-metadata-strings'!$D$2:$D$72,'onix-metadata-strings'!$D$2:$D$65))</f>
         <v>visual-adjustments-title</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="6" t="str">
         <f>IFERROR(VLOOKUP($A2&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Visual adjustments</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Visual adjustments</v>
+        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D2" s="3" t="b">
         <f>IF($B2="","",$B2=C2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="6" t="str">
         <f>IFERROR(VLOOKUP($A2,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -1403,16 +1376,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <v>visual-adjustments-modifiable</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="6" t="str">
         <f>IFERROR(VLOOKUP($A3&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="C3" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="D3" s="3" t="b">
@@ -1428,16 +1401,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <v>visual-adjustments-unmodifiable</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="6" t="str">
         <f>IFERROR(VLOOKUP($A4&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="C4" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="D4" s="3" t="b">
@@ -1453,16 +1426,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <v>visual-adjustments-unknown</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="6" t="str">
         <f>IFERROR(VLOOKUP($A5&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C5" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D5" s="3" t="b">
@@ -1482,13 +1455,13 @@
       <c r="A6" t="str">
         <v>nonvisual-reading-title</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="6" t="str">
         <f>IFERROR(VLOOKUP($A6&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Support for nonvisual reading</v>
       </c>
       <c r="C6" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Supports nonvisual reading</v>
+        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D6" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1507,12 +1480,12 @@
       <c r="A7" t="str">
         <v>has-alt-text</v>
       </c>
-      <c r="B7" s="8" t="str">
+      <c r="B7" s="6" t="str">
         <f>IFERROR(VLOOKUP($A7&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Has alt text</v>
       </c>
       <c r="C7" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D7" s="3" t="b">
@@ -1528,16 +1501,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <v>nonvisual-reading-readable</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="6" t="str">
         <f>IFERROR(VLOOKUP($A8&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="D8" s="3" t="b">
@@ -1553,16 +1526,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <v>nonvisual-reading-may-not-fully</v>
       </c>
-      <c r="B9" s="8" t="str">
+      <c r="B9" s="6" t="str">
         <f>IFERROR(VLOOKUP($A9&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D9" s="3" t="b">
@@ -1578,16 +1551,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <v>nonvisual-reading-not-fully</v>
       </c>
-      <c r="B10" s="8" t="str">
+      <c r="B10" s="6" t="str">
         <f>IFERROR(VLOOKUP($A10&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D10" s="3" t="b">
@@ -1603,21 +1576,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <v>conformance-title</v>
       </c>
-      <c r="B11" s="8" t="str">
+      <c r="B11" s="6" t="str">
         <f>IFERROR(VLOOKUP($A11&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Conformance</v>
       </c>
       <c r="C11" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D11" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="6" t="str">
         <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -1628,16 +1601,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <v>conformance-aaa</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B12" s="6" t="str">
         <f>IFERROR(VLOOKUP($A12&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="D12" s="3" t="b">
@@ -1653,16 +1626,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <v>conformance-aa</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B13" s="6" t="str">
         <f>IFERROR(VLOOKUP($A13&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="D13" s="3" t="b">
@@ -1678,16 +1651,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <v>conformance-a</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B14" s="6" t="str">
         <f>IFERROR(VLOOKUP($A14&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="D14" s="3" t="b">
@@ -1703,16 +1676,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <v>conformance-no</v>
       </c>
-      <c r="B15" s="8" t="str">
+      <c r="B15" s="6" t="str">
         <f>IFERROR(VLOOKUP($A15&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C15" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D15" s="3" t="b">
@@ -1729,15 +1702,15 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="str">
+      <c r="A16" s="4" t="str">
         <v>conformance-certification-info</v>
       </c>
-      <c r="B16" s="8" t="str">
+      <c r="B16" s="6" t="str">
         <f>IFERROR(VLOOKUP($A16&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>The publication was certified by</v>
       </c>
       <c r="C16" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>The publication was certified</v>
       </c>
       <c r="D16" s="3" t="b">
@@ -1754,15 +1727,15 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
+      <c r="A17" s="4" t="str">
         <v>conformance-certifier-credentials-prefix</v>
       </c>
-      <c r="B17" s="8" t="str">
+      <c r="B17" s="6" t="str">
         <f>IFERROR(VLOOKUP($A17&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>The certifier 's credential is</v>
       </c>
       <c r="C17" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D17" s="3" t="b">
@@ -1778,16 +1751,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <v>conformance-details</v>
       </c>
-      <c r="B18" s="8" t="str">
+      <c r="B18" s="6" t="str">
         <f>IFERROR(VLOOKUP($A18&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Detailed conformance information</v>
       </c>
       <c r="C18" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Detailed Conformance Information</v>
       </c>
       <c r="D18" s="3" t="b">
@@ -1803,16 +1776,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <v>conformance-claim</v>
       </c>
-      <c r="B19" s="8" t="str">
+      <c r="B19" s="6" t="str">
         <f>IFERROR(VLOOKUP($A19&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
       <c r="C19" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
       <c r="D19" s="3" t="b">
@@ -1829,15 +1802,15 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
+      <c r="A20" s="4" t="str">
         <v>conformance-epub-accessibility-1-1</v>
       </c>
-      <c r="B20" s="8" t="str">
+      <c r="B20" s="6" t="str">
         <f>IFERROR(VLOOKUP($A20&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D20" s="3" t="b">
@@ -1853,16 +1826,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <v>conformance-wcag-2-1</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B21" s="6" t="str">
         <f>IFERROR(VLOOKUP($A21&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C21" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D21" s="3" t="str">
@@ -1879,15 +1852,15 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
+      <c r="A22" s="4" t="str">
         <v>conformance-level-aa</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B22" s="6" t="str">
         <f>IFERROR(VLOOKUP($A22&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Level AA</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D22" s="3" t="b">
@@ -1903,16 +1876,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <v>conformance-certifier-report</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B23" s="6" t="str">
         <f>IFERROR(VLOOKUP($A23&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>For more information refer to the certifier's report</v>
       </c>
       <c r="D23" s="3" t="b">
@@ -1929,15 +1902,15 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
+      <c r="A24" s="4" t="str">
         <v>conformance-epub-accessibility-1-0</v>
       </c>
-      <c r="B24" s="8" t="str">
+      <c r="B24" s="6" t="str">
         <f>IFERROR(VLOOKUP($A24&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D24" s="3" t="b">
@@ -1953,16 +1926,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <v>conformance-wcag-2-2</v>
       </c>
-      <c r="B25" s="8" t="str">
+      <c r="B25" s="6" t="str">
         <f>IFERROR(VLOOKUP($A25&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C25" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D25" s="3" t="str">
@@ -1979,15 +1952,15 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
+      <c r="A26" s="4" t="str">
         <v>conformance-level-a</v>
       </c>
-      <c r="B26" s="8" t="str">
+      <c r="B26" s="6" t="str">
         <f>IFERROR(VLOOKUP($A26&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Level A</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D26" s="3" t="b">
@@ -2004,15 +1977,15 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
+      <c r="A27" s="4" t="str">
         <v>conformance-unknown-standard</v>
       </c>
-      <c r="B27" s="8" t="str">
+      <c r="B27" s="6" t="str">
         <f>IFERROR(VLOOKUP($A27&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="C27" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D27" s="3" t="b">
@@ -2029,15 +2002,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
+      <c r="A28" s="4" t="str">
         <v>conformance-certifier</v>
       </c>
-      <c r="B28" s="8" t="str">
+      <c r="B28" s="6" t="str">
         <f>IFERROR(VLOOKUP($A28&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>This publication is certified by</v>
       </c>
       <c r="C28" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>This publication was certified by</v>
       </c>
       <c r="D28" s="3" t="b">
@@ -2053,16 +2026,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <v>conformance-certifier-credentials</v>
       </c>
-      <c r="B29" s="8" t="str">
+      <c r="B29" s="6" t="str">
         <f>IFERROR(VLOOKUP($A29&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>The certifier's credential is</v>
       </c>
       <c r="C29" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>The certifier's credential is</v>
       </c>
       <c r="D29" s="3" t="b">
@@ -2078,21 +2051,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <v>prerecorded-audio-title</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B30" s="6" t="str">
         <f>IFERROR(VLOOKUP($A30&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Prerecorded audio</v>
       </c>
       <c r="C30" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Prerecorded audio</v>
+        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D30" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="6" t="str">
         <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2103,16 +2076,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <v>prerecorded-audio-no-metadata</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B31" s="6" t="str">
         <f>IFERROR(VLOOKUP($A31&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C31" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D31" s="3" t="b">
@@ -2132,12 +2105,12 @@
       <c r="A32" t="str">
         <v>prerecorded-audio-only</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B32" s="6" t="str">
         <f>IFERROR(VLOOKUP($A32&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Audiobook</v>
       </c>
       <c r="C32" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Audio only</v>
       </c>
       <c r="D32" s="3" t="b">
@@ -2153,16 +2126,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <v>prerecorded-audio-synchronized</v>
       </c>
-      <c r="B33" s="8" t="str">
+      <c r="B33" s="6" t="str">
         <f>IFERROR(VLOOKUP($A33&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C33" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="D33" s="3" t="b">
@@ -2178,21 +2151,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <v>navigation-title</v>
       </c>
-      <c r="B34" s="8" t="str">
+      <c r="B34" s="6" t="str">
         <f>IFERROR(VLOOKUP($A34&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Navigation</v>
       </c>
       <c r="C34" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D34" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="6" t="str">
         <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2203,16 +2176,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <v>navigation-no-metadata</v>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="6" t="str">
         <f>IFERROR(VLOOKUP($A35&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C35" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D35" s="3" t="b">
@@ -2228,16 +2201,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <v>navigation-toc</v>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="6" t="str">
         <f>IFERROR(VLOOKUP($A36&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Table of contents</v>
       </c>
       <c r="C36" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>table of contents</v>
       </c>
       <c r="D36" s="3" t="b">
@@ -2253,16 +2226,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <v>navigation-index</v>
       </c>
-      <c r="B37" s="8" t="str">
+      <c r="B37" s="6" t="str">
         <f>IFERROR(VLOOKUP($A37&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Index</v>
       </c>
       <c r="C37" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>index</v>
       </c>
       <c r="D37" s="3" t="b">
@@ -2278,16 +2251,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <v>navigation-structural</v>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="6" t="str">
         <f>IFERROR(VLOOKUP($A38&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Headings</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>headings</v>
       </c>
       <c r="D38" s="3" t="b">
@@ -2303,16 +2276,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <v>navigation-page-navigation</v>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="6" t="str">
         <f>IFERROR(VLOOKUP($A39&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Go to page</v>
       </c>
       <c r="C39" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Go to page</v>
       </c>
       <c r="D39" s="3" t="b">
@@ -2329,16 +2302,16 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="str">
-        <v>Rich-content-title</v>
-      </c>
-      <c r="B40" s="8" t="str">
+      <c r="A40" s="7" t="str">
+        <v>rich-content-title</v>
+      </c>
+      <c r="B40" s="6" t="str">
         <f>IFERROR(VLOOKUP($A40&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Rich content</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Charts, diagrams, math, and formulas</v>
+        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D40" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2353,16 +2326,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <v>rich-content-unknown</v>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B41" s="6" t="str">
         <f>IFERROR(VLOOKUP($A41&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D41" s="3" t="b">
@@ -2382,12 +2355,12 @@
       <c r="A42" t="str">
         <v>rich-content-accessible-math-as-mathml</v>
       </c>
-      <c r="B42" s="8" t="str">
+      <c r="B42" s="6" t="str">
         <f>IFERROR(VLOOKUP($A42&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Math as MathML</v>
       </c>
-      <c r="C42" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+      <c r="C42" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D42" s="3" t="b">
@@ -2407,12 +2380,12 @@
       <c r="A43" t="str">
         <v>rich-content-accessible-math-as-latex</v>
       </c>
-      <c r="B43" s="8" t="str">
+      <c r="B43" s="6" t="str">
         <f>IFERROR(VLOOKUP($A43&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Math as LaTex</v>
       </c>
-      <c r="C43" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+      <c r="C43" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D43" s="3" t="b">
@@ -2432,12 +2405,12 @@
       <c r="A44" t="str">
         <v>rich-content-accessible-math-described</v>
       </c>
-      <c r="B44" s="8" t="str">
+      <c r="B44" s="6" t="str">
         <f>IFERROR(VLOOKUP($A44&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Math as images with text description</v>
       </c>
-      <c r="C44" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+      <c r="C44" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D44" s="3" t="b">
@@ -2457,12 +2430,12 @@
       <c r="A45" t="str">
         <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
-      <c r="B45" s="8" t="str">
+      <c r="B45" s="6" t="str">
         <f>IFERROR(VLOOKUP($A45&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Chemical formulas in MathML</v>
       </c>
-      <c r="C45" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+      <c r="C45" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D45" s="3" t="b">
@@ -2482,12 +2455,12 @@
       <c r="A46" t="str">
         <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
-      <c r="B46" s="8" t="str">
+      <c r="B46" s="6" t="str">
         <f>IFERROR(VLOOKUP($A46&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Chemical formulas in LaTex</v>
       </c>
-      <c r="C46" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+      <c r="C46" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D46" s="3" t="b">
@@ -2503,16 +2476,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <v>rich-content-extended</v>
       </c>
-      <c r="B47" s="8" t="str">
+      <c r="B47" s="6" t="str">
         <f>IFERROR(VLOOKUP($A47&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C47" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="D47" s="3" t="b">
@@ -2529,16 +2502,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="str">
-        <v>additional-accessibility-information-adaptation-closed-captions</v>
-      </c>
-      <c r="B48" s="8" t="str">
+      <c r="A48" s="7" t="str">
+        <v>rich-content-closed-captions</v>
+      </c>
+      <c r="B48" s="6" t="str">
         <f>IFERROR(VLOOKUP($A48&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Videos have closed captions</v>
       </c>
-      <c r="C48" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>closed captions</v>
+      <c r="C48" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D48" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2546,24 +2519,24 @@
       </c>
       <c r="E48" s="6" t="str">
         <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>closed captions</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="F48" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="str">
-        <v>additional-accessibility-information-adaptation-open-captions</v>
-      </c>
-      <c r="B49" s="8" t="str">
+      <c r="A49" s="7" t="str">
+        <v>rich-content-open-captions</v>
+      </c>
+      <c r="B49" s="6" t="str">
         <f>IFERROR(VLOOKUP($A49&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Videos have open captions</v>
       </c>
-      <c r="C49" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>open captions</v>
+      <c r="C49" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D49" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2571,23 +2544,23 @@
       </c>
       <c r="E49" s="6" t="str">
         <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>open captions</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="F49" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="str">
-        <v>additional-accessibility-information-adaptation-full-transcript</v>
-      </c>
-      <c r="B50" s="8" t="str">
+      <c r="A50" s="7" t="str">
+        <v>rich-content-transcript</v>
+      </c>
+      <c r="B50" s="6" t="str">
         <f>IFERROR(VLOOKUP($A50&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Has transcript</v>
       </c>
-      <c r="C50" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+      <c r="C50" s="8" t="str">
+        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D50" s="3" t="b">
@@ -2596,28 +2569,28 @@
       </c>
       <c r="E50" s="6" t="str">
         <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>full transcript</v>
+        <v>Has transcript</v>
       </c>
       <c r="F50" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <v>hazards-title</v>
       </c>
-      <c r="B51" s="8" t="str">
+      <c r="B51" s="6" t="str">
         <f>IFERROR(VLOOKUP($A51&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Hazards</v>
       </c>
       <c r="C51" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D51" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="6" t="str">
         <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2628,16 +2601,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <v>hazards-no-metadata</v>
       </c>
-      <c r="B52" s="8" t="str">
+      <c r="B52" s="6" t="str">
         <f>IFERROR(VLOOKUP($A52&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C52" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D52" s="3" t="b">
@@ -2653,16 +2626,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <v>hazards-none</v>
       </c>
-      <c r="B53" s="8" t="str">
+      <c r="B53" s="6" t="str">
         <f>IFERROR(VLOOKUP($A53&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No hazards</v>
       </c>
       <c r="C53" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No hazards</v>
       </c>
       <c r="D53" s="3" t="b">
@@ -2682,17 +2655,17 @@
       <c r="A54" t="str">
         <v>hazards-flashing</v>
       </c>
-      <c r="B54" s="8" t="str">
+      <c r="B54" s="6" t="str">
         <f>IFERROR(VLOOKUP($A54&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Flashing content</v>
       </c>
       <c r="C54" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>flashing</v>
+        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>Flashing content</v>
       </c>
       <c r="D54" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="6" t="str">
         <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2703,17 +2676,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <v>hazards-motion</v>
       </c>
-      <c r="B55" s="8" t="str">
+      <c r="B55" s="6" t="str">
         <f>IFERROR(VLOOKUP($A55&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Motion simulation</v>
       </c>
       <c r="C55" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>motion simulation</v>
+        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>Motion simulation</v>
       </c>
       <c r="D55" s="3" t="b">
         <f t="shared" si="0"/>
@@ -2732,17 +2705,17 @@
       <c r="A56" t="str">
         <v>hazards-sound</v>
       </c>
-      <c r="B56" s="8" t="str">
+      <c r="B56" s="6" t="str">
         <f>IFERROR(VLOOKUP($A56&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Loud sounds</v>
       </c>
       <c r="C56" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>sound</v>
+        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>Loud sounds</v>
       </c>
       <c r="D56" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="6" t="str">
         <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2757,17 +2730,17 @@
       <c r="A57" t="str">
         <v>hazards-unknown</v>
       </c>
-      <c r="B57" s="8">
+      <c r="B57" s="6" t="str">
         <f>IFERROR(VLOOKUP($A57&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>0</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="C57" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>The presence of hazards is unknown</v>
       </c>
       <c r="D57" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="6" t="str">
         <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2775,19 +2748,19 @@
       </c>
       <c r="F57" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <v>hazards-no-metadata].</v>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B58" s="6" t="str">
         <f>IFERROR(VLOOKUP($A58&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C58" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D58" s="3" t="str">
@@ -2803,21 +2776,21 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <v>accessibility-summary-title</v>
       </c>
-      <c r="B59" s="8" t="str">
+      <c r="B59" s="6" t="str">
         <f>IFERROR(VLOOKUP($A59&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Accessibility summary</v>
       </c>
       <c r="C59" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D59" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="6" t="str">
         <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2828,16 +2801,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <v>accessibility-summary-no-metadata</v>
       </c>
-      <c r="B60" s="8" t="str">
+      <c r="B60" s="6" t="str">
         <f>IFERROR(VLOOKUP($A60&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C60" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No accessibility summary is available.</v>
       </c>
       <c r="D60" s="3" t="str">
@@ -2853,21 +2826,21 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <v>legal-considerations-title</v>
       </c>
-      <c r="B61" s="8" t="str">
+      <c r="B61" s="6" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Legal considerations</v>
       </c>
       <c r="C61" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D61" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="6" t="str">
         <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
@@ -2878,16 +2851,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <v>legal-considerations-exempt</v>
       </c>
-      <c r="B62" s="8" t="str">
+      <c r="B62" s="6" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C62" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D62" s="3" t="str">
@@ -2907,12 +2880,12 @@
       <c r="A63" t="str">
         <v>additional-accessibility-information-title</v>
       </c>
-      <c r="B63" s="8" t="str">
+      <c r="B63" s="6" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Additional accessibility information</v>
       </c>
       <c r="C63" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D63" s="3" t="b">
@@ -2928,16 +2901,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <v>join-array-and</v>
       </c>
-      <c r="B64" s="8" t="str">
+      <c r="B64" s="6" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C64" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>, and</v>
       </c>
       <c r="D64" s="3" t="str">
@@ -2953,16 +2926,16 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <v>conformance-epub10-wcag20a</v>
       </c>
-      <c r="B65" s="8" t="str">
+      <c r="B65" s="6" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C65" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.0 WCAG 2.0 Level</v>
       </c>
       <c r="D65" s="3" t="str">
@@ -2978,16 +2951,16 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <v>conformance-epub10-wcag20aa</v>
       </c>
-      <c r="B66" s="8" t="str">
+      <c r="B66" s="6" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C66" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.0 WCAG 2.0 Level A</v>
       </c>
       <c r="D66" s="3" t="str">
@@ -3003,16 +2976,16 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <v>conformance-epub10-wcag20aaa</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B67" s="6" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C67" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.0 WCAG 2.0 Level AA</v>
       </c>
       <c r="D67" s="3" t="str">
@@ -3028,16 +3001,16 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <v>conformance-epub11-wcag20a</v>
       </c>
-      <c r="B68" s="8" t="str">
+      <c r="B68" s="6" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C68" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.0 Level</v>
       </c>
       <c r="D68" s="3" t="str">
@@ -3053,16 +3026,16 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <v>conformance-epub11-wcag20aa</v>
       </c>
-      <c r="B69" s="8" t="str">
+      <c r="B69" s="6" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C69" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.0 Level A</v>
       </c>
       <c r="D69" s="3" t="str">
@@ -3078,16 +3051,16 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <v>conformance-epub11-wcag20aaa</v>
       </c>
-      <c r="B70" s="8" t="str">
+      <c r="B70" s="6" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C70" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.0 Level AA</v>
       </c>
       <c r="D70" s="3" t="str">
@@ -3103,16 +3076,16 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <v>conformance-epub11-wcag21a</v>
       </c>
-      <c r="B71" s="8" t="str">
+      <c r="B71" s="6" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C71" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.1 Level</v>
       </c>
       <c r="D71" s="3" t="str">
@@ -3128,16 +3101,16 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <v>conformance-epub11-wcag21aa</v>
       </c>
-      <c r="B72" s="8" t="str">
+      <c r="B72" s="6" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C72" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.1 Level A</v>
       </c>
       <c r="D72" s="3" t="str">
@@ -3153,16 +3126,16 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <v>conformance-epub11-wcag21aaa</v>
       </c>
-      <c r="B73" s="8" t="str">
+      <c r="B73" s="6" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C73" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.1 Level AA</v>
       </c>
       <c r="D73" s="3" t="str">
@@ -3178,16 +3151,16 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <v>conformance-epub11-wcag22a</v>
       </c>
-      <c r="B74" s="8" t="str">
+      <c r="B74" s="6" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C74" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.2 Level</v>
       </c>
       <c r="D74" s="3" t="str">
@@ -3203,16 +3176,16 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <v>conformance-epub11-wcag22aa</v>
       </c>
-      <c r="B75" s="8" t="str">
+      <c r="B75" s="6" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C75" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.2 Level A</v>
       </c>
       <c r="D75" s="3" t="str">
@@ -3228,16 +3201,16 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <v>conformance-epub11-wcag22aaa</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B76" s="6" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C76" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>PUB Accessibility 1.1 WCAG 2.2 Level AA</v>
       </c>
       <c r="D76" s="3" t="str">
@@ -3253,16 +3226,16 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <v>conformance-certification-date-prefix</v>
       </c>
-      <c r="B77" s="8" t="str">
+      <c r="B77" s="6" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C77" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>on</v>
       </c>
       <c r="D77" s="3" t="str">
@@ -3278,16 +3251,16 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <v>prerecorded-audio-complementary</v>
       </c>
-      <c r="B78" s="8" t="str">
+      <c r="B78" s="6" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Complementary audio and text</v>
       </c>
       <c r="D78" s="3" t="str">
@@ -3303,16 +3276,16 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <v>navigation-intro</v>
       </c>
-      <c r="B79" s="8" t="str">
+      <c r="B79" s="6" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C79" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Navigation by</v>
       </c>
       <c r="D79" s="3" t="str">
@@ -3328,16 +3301,16 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <v>rich-content-accessible-chemistry</v>
       </c>
-      <c r="B80" s="8" t="str">
+      <c r="B80" s="6" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C80" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Accessible chemistry content</v>
       </c>
       <c r="D80" s="3" t="str">
@@ -3353,16 +3326,16 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <v>rich-content-accessible-math</v>
       </c>
-      <c r="B81" s="8" t="str">
+      <c r="B81" s="6" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C81" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>Accessible math content</v>
       </c>
       <c r="D81" s="3" t="str">
@@ -3378,16 +3351,16 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <v>hazards-plural</v>
       </c>
-      <c r="B82" s="8" t="str">
+      <c r="B82" s="6" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C82" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>hazards</v>
       </c>
       <c r="D82" s="3" t="str">
@@ -3403,16 +3376,16 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <v>hazards-singular</v>
       </c>
-      <c r="B83" s="8" t="str">
+      <c r="B83" s="6" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C83" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>hazard</v>
       </c>
       <c r="D83" s="3" t="str">
@@ -3428,16 +3401,16 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <v>tbd</v>
       </c>
-      <c r="B84" s="8" t="str">
+      <c r="B84" s="6" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C84" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>TBD</v>
       </c>
       <c r="D84" s="3" t="str">
@@ -3453,16 +3426,16 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <v>legal-considerations-no-metadata</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B85" s="6" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C85" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>No legal considerations</v>
       </c>
       <c r="D85" s="3" t="str">
@@ -3478,16 +3451,16 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <v>additional-accessibility-information-adaptation-audio-descriptions</v>
       </c>
-      <c r="B86" s="8" t="str">
+      <c r="B86" s="6" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C86" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>audio descriptions</v>
       </c>
       <c r="D86" s="3" t="str">
@@ -3503,16 +3476,16 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <v>additional-accessibility-information-adaptation-braille</v>
       </c>
-      <c r="B87" s="8" t="str">
+      <c r="B87" s="6" t="str">
         <f>IFERROR(VLOOKUP($A87&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C87" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v>braille</v>
       </c>
       <c r="D87" s="3" t="str">
@@ -3528,17 +3501,17 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_graphic</v>
-      </c>
-      <c r="B88" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-closed-captions</v>
+      </c>
+      <c r="B88" s="6" t="str">
         <f>IFERROR(VLOOKUP($A88&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C88" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>tactile graphic</v>
+        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>closed captions</v>
       </c>
       <c r="D88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3546,24 +3519,24 @@
       </c>
       <c r="E88" s="6" t="str">
         <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <v>closed captions</v>
       </c>
       <c r="F88" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_object</v>
-      </c>
-      <c r="B89" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-open-captions</v>
+      </c>
+      <c r="B89" s="6" t="str">
         <f>IFERROR(VLOOKUP($A89&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C89" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>tactile 3D object</v>
+        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>open captions</v>
       </c>
       <c r="D89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3571,24 +3544,24 @@
       </c>
       <c r="E89" s="6" t="str">
         <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <v>open captions</v>
       </c>
       <c r="F89" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <v>additional-accessibility-information-adaptation-transcript</v>
-      </c>
-      <c r="B90" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-tactile_graphic</v>
+      </c>
+      <c r="B90" s="6" t="str">
         <f>IFERROR(VLOOKUP($A90&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C90" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>transcript</v>
+        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>tactile graphic</v>
       </c>
       <c r="D90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3603,17 +3576,17 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <v>additional-accessibility-information-adaptation-sign-language</v>
-      </c>
-      <c r="B91" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-tactile_object</v>
+      </c>
+      <c r="B91" s="6" t="str">
         <f>IFERROR(VLOOKUP($A91&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C91" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>sign language</v>
+        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>tactile 3D object</v>
       </c>
       <c r="D91" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3621,24 +3594,24 @@
       </c>
       <c r="E91" s="6" t="str">
         <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>sign language</v>
+        <v/>
       </c>
       <c r="F91" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
-      </c>
-      <c r="B92" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-transcript</v>
+      </c>
+      <c r="B92" s="6" t="str">
         <f>IFERROR(VLOOKUP($A92&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C92" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>aria</v>
+        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>transcript</v>
       </c>
       <c r="D92" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3653,17 +3626,17 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
-      </c>
-      <c r="B93" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-sign-language</v>
+      </c>
+      <c r="B93" s="6" t="str">
         <f>IFERROR(VLOOKUP($A93&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C93" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>full ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>sign language</v>
       </c>
       <c r="D93" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3671,24 +3644,24 @@
       </c>
       <c r="E93" s="6" t="str">
         <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <v>sign language</v>
       </c>
       <c r="F93" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
-      </c>
-      <c r="B94" s="8" t="str">
+        <v>additional-accessibility-information-clarity-aria</v>
+      </c>
+      <c r="B94" s="6" t="str">
         <f>IFERROR(VLOOKUP($A94&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C94" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>text-to-speech hinting provided</v>
+        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>aria</v>
       </c>
       <c r="D94" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3696,24 +3669,24 @@
       </c>
       <c r="E94" s="6" t="str">
         <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>text-to-speech hinting provided</v>
+        <v/>
       </c>
       <c r="F94" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
-      </c>
-      <c r="B95" s="8" t="str">
+        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
+      </c>
+      <c r="B95" s="6" t="str">
         <f>IFERROR(VLOOKUP($A95&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C95" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>high contrast between foreground and background audio</v>
+        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>full ruby annotations</v>
       </c>
       <c r="D95" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3721,24 +3694,24 @@
       </c>
       <c r="E95" s="6" t="str">
         <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>high contrast between foreground and background audio</v>
+        <v/>
       </c>
       <c r="F95" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
-      </c>
-      <c r="B96" s="8" t="str">
+        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
+      </c>
+      <c r="B96" s="6" t="str">
         <f>IFERROR(VLOOKUP($A96&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C96" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>high contrast between text and background</v>
+        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>text-to-speech hinting provided</v>
       </c>
       <c r="D96" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3746,24 +3719,24 @@
       </c>
       <c r="E96" s="6" t="str">
         <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>high contrast between text and background</v>
+        <v>text-to-speech hinting provided</v>
       </c>
       <c r="F96" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <v>additional-accessibility-information-clarity-large-print</v>
-      </c>
-      <c r="B97" s="8" t="str">
+        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
+      </c>
+      <c r="B97" s="6" t="str">
         <f>IFERROR(VLOOKUP($A97&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C97" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>large print</v>
+        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>high contrast between foreground and background audio</v>
       </c>
       <c r="D97" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3771,24 +3744,24 @@
       </c>
       <c r="E97" s="6" t="str">
         <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <v>high contrast between foreground and background audio</v>
       </c>
       <c r="F97" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
-      </c>
-      <c r="B98" s="8" t="str">
+        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
+      </c>
+      <c r="B98" s="6" t="str">
         <f>IFERROR(VLOOKUP($A98&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C98" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>page breaks</v>
+        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>high contrast between text and background</v>
       </c>
       <c r="D98" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3796,24 +3769,24 @@
       </c>
       <c r="E98" s="6" t="str">
         <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <v>high contrast between text and background</v>
       </c>
       <c r="F98" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <v>additional-accessibility-information-clarity-ruby-annotations</v>
-      </c>
-      <c r="B99" s="8" t="str">
+        <v>additional-accessibility-information-clarity-large-print</v>
+      </c>
+      <c r="B99" s="6" t="str">
         <f>IFERROR(VLOOKUP($A99&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C99" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v>ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>large print</v>
       </c>
       <c r="D99" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3828,17 +3801,17 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <v>conformance-wcag-2-0</v>
-      </c>
-      <c r="B100" s="8" t="str">
+        <v>additional-accessibility-information-clarity-page-breaks</v>
+      </c>
+      <c r="B100" s="6" t="str">
         <f>IFERROR(VLOOKUP($A100&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C100" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>page breaks</v>
       </c>
       <c r="D100" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3846,24 +3819,24 @@
       </c>
       <c r="E100" s="6" t="str">
         <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
+        <v/>
       </c>
       <c r="F100" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <v>conformance-level-aaa</v>
-      </c>
-      <c r="B101" s="8" t="str">
+        <v>additional-accessibility-information-clarity-ruby-annotations</v>
+      </c>
+      <c r="B101" s="6" t="str">
         <f>IFERROR(VLOOKUP($A101&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C101" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <v>ruby annotations</v>
       </c>
       <c r="D101" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3871,23 +3844,23 @@
       </c>
       <c r="E101" s="6" t="str">
         <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <v/>
       </c>
       <c r="F101" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <v>rich-content-closed-captions</v>
-      </c>
-      <c r="B102" s="8" t="str">
+        <v>conformance-wcag-2-0</v>
+      </c>
+      <c r="B102" s="6" t="str">
         <f>IFERROR(VLOOKUP($A102&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C102" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D102" s="3" t="str">
@@ -3896,23 +3869,23 @@
       </c>
       <c r="E102" s="6" t="str">
         <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>WCAG 2.0</v>
       </c>
       <c r="F102" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <v>rich-content-open-captions</v>
-      </c>
-      <c r="B103" s="8" t="str">
+        <v>conformance-level-aaa</v>
+      </c>
+      <c r="B103" s="6" t="str">
         <f>IFERROR(VLOOKUP($A103&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C103" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D103" s="3" t="str">
@@ -3921,23 +3894,23 @@
       </c>
       <c r="E103" s="6" t="str">
         <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Level AAA</v>
       </c>
       <c r="F103" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
-        <v>rich-content-transcript</v>
-      </c>
-      <c r="B104" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
+      </c>
+      <c r="B104" s="6" t="str">
         <f>IFERROR(VLOOKUP($A104&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C104" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A104,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A104,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D104" s="3" t="str">
@@ -3946,23 +3919,23 @@
       </c>
       <c r="E104" s="6" t="str">
         <f>IFERROR(VLOOKUP($A104,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>Has transcript</v>
+        <v>dyslexia readability</v>
       </c>
       <c r="F104" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
-      </c>
-      <c r="B105" s="8" t="str">
+        <v>additional-accessibility-information-adaptation-full-transcript</v>
+      </c>
+      <c r="B105" s="6" t="str">
         <f>IFERROR(VLOOKUP($A105&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C105" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A105,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A105,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D105" s="3" t="str">
@@ -3971,23 +3944,23 @@
       </c>
       <c r="E105" s="6" t="str">
         <f>IFERROR(VLOOKUP($A105,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>dyslexia readability</v>
+        <v>full transcript</v>
       </c>
       <c r="F105" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
       </c>
-      <c r="B106" s="8" t="str">
+      <c r="B106" s="6" t="str">
         <f>IFERROR(VLOOKUP($A106&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C106" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A106,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A106,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D106" s="3" t="str">
@@ -4003,16 +3976,16 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
       </c>
-      <c r="B107" s="8" t="str">
+      <c r="B107" s="6" t="str">
         <f>IFERROR(VLOOKUP($A107&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C107" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A107,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A107,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D107" s="3" t="str">
@@ -4028,16 +4001,16 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <v>additional-accessibility-information-clarity-visible-page-numbering</v>
       </c>
-      <c r="B108" s="8" t="str">
+      <c r="B108" s="6" t="str">
         <f>IFERROR(VLOOKUP($A108&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C108" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A108,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A108,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D108" s="3" t="str">
@@ -4053,16 +4026,16 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <v>additional-accessibility-information-clarity-without-background-sounds</v>
       </c>
-      <c r="B109" s="8" t="str">
+      <c r="B109" s="6" t="str">
         <f>IFERROR(VLOOKUP($A109&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C109" s="6" t="str">
-        <f>IFERROR(VLOOKUP($A109,'epub-metadata-strings'!$D$2:$E$1000,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A109,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D109" s="3" t="str">
@@ -4079,342 +4052,336 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="9"/>
+      <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="9"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="9"/>
+      <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B113" s="9"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B114" s="9"/>
+      <c r="B114" s="3"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B115" s="9"/>
+      <c r="B115" s="3"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B116" s="9"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B117" s="9"/>
+      <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B118" s="9"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B119" s="9"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B120" s="9"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B121" s="9"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B122" s="9"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B123" s="9"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B124" s="9"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B125" s="9"/>
+      <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B126" s="9"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B127" s="9"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="9"/>
+      <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="9"/>
+      <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="9"/>
+      <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="9"/>
+      <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="9"/>
+      <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="9"/>
+      <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="9"/>
+      <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" s="9"/>
+      <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" s="9"/>
+      <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B137" s="9"/>
+      <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" s="9"/>
+      <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B139" s="9"/>
+      <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="9"/>
+      <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="9"/>
+      <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" s="9"/>
+      <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" s="9"/>
+      <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" s="9"/>
+      <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B145" s="9"/>
+      <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B146" s="9"/>
+      <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B147" s="9"/>
+      <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B148" s="9"/>
+      <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B149" s="9"/>
+      <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" s="9"/>
+      <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B151" s="9"/>
+      <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B152" s="9"/>
+      <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B153" s="9"/>
+      <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="9"/>
+      <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B155" s="9"/>
+      <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" s="9"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E109" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="FALSO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F109" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
   <conditionalFormatting sqref="D2:D109">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
@@ -4439,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
   <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4452,25 +4419,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
         <v>111</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" t="s">
         <v>113</v>
-      </c>
-      <c r="E1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4479,16 +4446,16 @@
         <v>visual-adjustments-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4497,16 +4464,16 @@
         <v>visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4515,16 +4482,16 @@
         <v>visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4533,16 +4500,16 @@
         <v>visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4551,16 +4518,16 @@
         <v>visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4569,13 +4536,13 @@
         <v>visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -4587,16 +4554,16 @@
         <v>visual-adjustments-unknown-compact</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4605,13 +4572,13 @@
         <v>nonvisual-reading-title-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4620,16 +4587,16 @@
         <v>has-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4638,16 +4605,16 @@
         <v>nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4656,16 +4623,16 @@
         <v>nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4674,16 +4641,16 @@
         <v>nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4692,16 +4659,16 @@
         <v>has-alt-text-compact</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
         <v>173</v>
-      </c>
-      <c r="F14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4710,16 +4677,16 @@
         <v>nonvisual-reading-readable-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4728,16 +4695,16 @@
         <v>nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4746,16 +4713,16 @@
         <v>nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G17" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4764,13 +4731,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4779,13 +4746,13 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -4797,16 +4764,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4815,13 +4782,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -4833,16 +4800,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4851,13 +4818,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -4869,16 +4836,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4887,16 +4854,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4905,13 +4872,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -4923,16 +4890,16 @@
         <v>conformance-certification-info-compact</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G27" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4941,16 +4908,16 @@
         <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
         <v>40</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G28" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4959,13 +4926,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4974,7 +4941,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -4989,7 +4956,7 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -5004,16 +4971,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -5022,7 +4989,7 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -5037,16 +5004,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -5055,13 +5022,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5070,13 +5037,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -5088,16 +5055,16 @@
         <v>conformance-certification-info-compact</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
         <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5106,16 +5073,16 @@
         <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>40</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -5124,13 +5091,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -5139,7 +5106,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -5154,7 +5121,7 @@
         <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -5169,16 +5136,16 @@
         <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E42" t="s">
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G42" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -5187,7 +5154,7 @@
         <v>conformance-level-a-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
         <v>35</v>
@@ -5202,16 +5169,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -5220,13 +5187,13 @@
         <v>conformance-certifier-credentials-prefix-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -5235,13 +5202,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
         <v>41</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -5250,10 +5217,10 @@
         <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -5265,7 +5232,7 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -5280,7 +5247,7 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
@@ -5295,13 +5262,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5310,16 +5277,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G51" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5328,13 +5295,13 @@
         <v>prerecorded-audio-title-compact</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G52" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -5343,16 +5310,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G53" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5361,16 +5328,16 @@
         <v>prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G54" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5379,16 +5346,16 @@
         <v>prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -5397,16 +5364,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5415,16 +5382,16 @@
         <v>prerecorded-audio-only-compact</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G57" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5433,16 +5400,16 @@
         <v>prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F58" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G58" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5451,16 +5418,16 @@
         <v>prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E59" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G59" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5469,13 +5436,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G60" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5484,16 +5451,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>54</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G61" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5502,16 +5469,16 @@
         <v>navigation-toc-descriptive</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E62" t="s">
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5520,16 +5487,16 @@
         <v>navigation-index-descriptive</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
         <v>46</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5538,16 +5505,16 @@
         <v>navigation-structural-descriptive</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
         <v>50</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5556,16 +5523,16 @@
         <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
         <v>49</v>
       </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G65" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5574,16 +5541,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
         <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G66" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -5592,16 +5559,16 @@
         <v>navigation-toc-compact</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G67" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5610,16 +5577,16 @@
         <v>navigation-index-compact</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
         <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G68" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5628,16 +5595,16 @@
         <v>navigation-structural-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E69" t="s">
         <v>50</v>
       </c>
       <c r="F69" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G69" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5646,16 +5613,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E70" t="s">
         <v>49</v>
       </c>
       <c r="F70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5664,31 +5631,31 @@
         <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E71" t="s">
         <v>54</v>
       </c>
       <c r="F71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G71" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>Rich-content-title-compact</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="G72" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5697,16 +5664,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G73" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5715,16 +5682,16 @@
         <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E74" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F74" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G74" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5733,16 +5700,16 @@
         <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F75" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -5751,16 +5718,16 @@
         <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E76" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G76" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5769,16 +5736,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F77" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G77" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5787,16 +5754,16 @@
         <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E78" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G78" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5805,70 +5772,70 @@
         <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E79" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G79" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>additional-accessibility-information-adaptation-closed-captions-descriptive</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="F80" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G80" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>additional-accessibility-information-adaptation-open-captions-descriptive</v>
+        <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="F81" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G81" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>additional-accessibility-information-adaptation-full-transcript-descriptive</v>
+        <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G82" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5877,16 +5844,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F83" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G83" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5895,16 +5862,16 @@
         <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E84" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G84" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -5913,16 +5880,16 @@
         <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G85" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -5931,16 +5898,16 @@
         <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G86" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5949,16 +5916,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G87" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5967,16 +5934,16 @@
         <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E88" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F88" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G88" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5985,70 +5952,70 @@
         <v>rich-content-extended-compact</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E89" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F89" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G89" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>additional-accessibility-information-adaptation-closed-captions-compact</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E90" t="s">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="F90" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G90" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>additional-accessibility-information-adaptation-open-captions-compact</v>
+        <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E91" t="s">
-        <v>79</v>
+        <v>262</v>
       </c>
       <c r="F91" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G91" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>additional-accessibility-information-adaptation-full-transcript-compact</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E92" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G92" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -6057,16 +6024,16 @@
         <v>rich-content-unknown-compact</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E93" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F93" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G93" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -6075,13 +6042,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G94" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -6090,16 +6057,16 @@
         <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E95" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F95" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G95" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -6108,13 +6075,13 @@
         <v>hazards-none-descriptive</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E96" t="s">
         <v>57</v>
       </c>
       <c r="F96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G96" t="s">
         <v>58</v>
@@ -6126,16 +6093,16 @@
         <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E97" t="s">
         <v>59</v>
       </c>
       <c r="F97" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G97" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6144,16 +6111,16 @@
         <v>hazards-motion-descriptive</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G98" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -6162,16 +6129,16 @@
         <v>hazards-sound-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G99" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -6180,16 +6147,16 @@
         <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G100" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -6198,16 +6165,16 @@
         <v>hazards-no-metadata].-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E101" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -6216,13 +6183,13 @@
         <v>hazards-none-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E102" t="s">
         <v>57</v>
       </c>
       <c r="F102" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G102" t="s">
         <v>58</v>
@@ -6234,16 +6201,16 @@
         <v>hazards-flashing-compact</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E103" t="s">
         <v>59</v>
       </c>
       <c r="F103" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G103" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -6252,16 +6219,16 @@
         <v>hazards-motion-compact</v>
       </c>
       <c r="D104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F104" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G104" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -6270,16 +6237,16 @@
         <v>hazards-sound-compact</v>
       </c>
       <c r="D105" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G105" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -6288,13 +6255,16 @@
         <v>hazards-unknown-compact</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F106" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="G106" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -6303,16 +6273,16 @@
         <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E107" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G107" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -6321,13 +6291,13 @@
         <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D108" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G108" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6336,16 +6306,16 @@
         <v>accessibility-summary-no-metadata-descriptive</v>
       </c>
       <c r="D109" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F109" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G109" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -6354,13 +6324,13 @@
         <v>legal-considerations-title-compact</v>
       </c>
       <c r="D110" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E110" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G110" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -6369,16 +6339,16 @@
         <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G111" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -6387,13 +6357,13 @@
         <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G112" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -6403,10 +6373,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6417,225 +6387,225 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
         <v>239</v>
@@ -6646,7 +6616,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>241</v>
@@ -6657,7 +6627,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
         <v>243</v>
@@ -6668,7 +6638,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>245</v>
@@ -6679,7 +6649,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>247</v>
@@ -6690,7 +6660,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>249</v>
@@ -6701,7 +6671,7 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>251</v>
@@ -6712,7 +6682,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
         <v>253</v>
@@ -6723,7 +6693,7 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
         <v>255</v>
@@ -6734,585 +6704,486 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>44</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>188</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
-        <v>52</v>
+        <v>198</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="E48" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>265</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>62</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>171</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E57" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
         <v>117</v>
       </c>
-      <c r="D58" t="s">
-        <v>66</v>
-      </c>
       <c r="E58" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E64" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D66" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E71" t="s">
-        <v>124</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D72" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" t="s">
-        <v>83</v>
-      </c>
-      <c r="E73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C74" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" t="s">
-        <v>125</v>
-      </c>
-      <c r="E74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C75" t="s">
-        <v>117</v>
-      </c>
-      <c r="D75" t="s">
-        <v>127</v>
-      </c>
-      <c r="E75" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>117</v>
-      </c>
-      <c r="D76" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" t="s">
-        <v>87</v>
-      </c>
-      <c r="E77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>117</v>
-      </c>
-      <c r="D78" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>117</v>
-      </c>
-      <c r="D79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" t="s">
-        <v>110</v>
-      </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
-        <v>117</v>
-      </c>
-      <c r="D81" t="s">
-        <v>129</v>
-      </c>
-      <c r="E81" t="s">
-        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7324,8 +7195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection sqref="A1:E65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7336,52 +7207,52 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
         <v>111</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
         <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -7389,51 +7260,51 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -7444,7 +7315,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -7455,7 +7326,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -7466,51 +7337,51 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -7521,7 +7392,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
@@ -7532,7 +7403,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
         <v>23</v>
@@ -7543,7 +7414,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
@@ -7554,7 +7425,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
@@ -7565,7 +7436,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -7576,7 +7447,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -7587,7 +7458,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -7598,7 +7469,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
@@ -7609,32 +7480,32 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
         <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
         <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E27" t="s">
         <v>42</v>
@@ -7642,10 +7513,10 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D28" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E28" t="s">
         <v>43</v>
@@ -7653,183 +7524,183 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E29" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D31" t="s">
         <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
         <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
       </c>
       <c r="E33" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D35" t="s">
         <v>54</v>
       </c>
       <c r="E35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E44" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D45" t="s">
         <v>57</v>
@@ -7840,222 +7711,222 @@
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
         <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E56" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E64" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7164D72-5FAE-B048-8B8B-50E1F92C50F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4151AA1-7B44-234F-8375-46314D65C377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="onix-metadata-strings" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="252">
   <si>
     <t>id</t>
   </si>
@@ -264,42 +264,15 @@
     <t>accessibility-summary-no-metadata</t>
   </si>
   <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>legal-considerations-no-metadata</t>
   </si>
   <si>
-    <t>No legal considerations</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-adaptation-audio-descriptions</t>
   </si>
   <si>
     <t>audio descriptions</t>
   </si>
   <si>
-    <t>additional-accessibility-information-adaptation-closed-captions</t>
-  </si>
-  <si>
-    <t>closed captions</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-adaptation-open-captions</t>
-  </si>
-  <si>
-    <t>open captions</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-adaptation-transcript</t>
-  </si>
-  <si>
-    <t>transcript</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-adaptation-sign-language</t>
   </si>
   <si>
@@ -348,39 +321,18 @@
     <t>additional-accessibility-information-adaptation-dyslexia-readability</t>
   </si>
   <si>
-    <t>dyslexia readability</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-adaptation-full-transcript</t>
-  </si>
-  <si>
-    <t>full transcript</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</t>
   </si>
   <si>
-    <t>color is not the sole means of conveying information</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</t>
   </si>
   <si>
-    <t>ultra high contrast between text and background</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-visible-page-numbering</t>
   </si>
   <si>
-    <t>visible page numbering</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-without-background-sounds</t>
   </si>
   <si>
-    <t>without background sounds</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-page-breaks</t>
   </si>
   <si>
@@ -841,6 +793,33 @@
   </si>
   <si>
     <t>nonvisual-reading-alt-text</t>
+  </si>
+  <si>
+    <t>Dyslexia readability</t>
+  </si>
+  <si>
+    <t>Sign language</t>
+  </si>
+  <si>
+    <t>Text-to-speech hinting provided</t>
+  </si>
+  <si>
+    <t>Color is not the sole means of conveying information</t>
+  </si>
+  <si>
+    <t>High contrast between text and background</t>
+  </si>
+  <si>
+    <t>Ultra high contrast between text and background</t>
+  </si>
+  <si>
+    <t>Visible page numbering</t>
+  </si>
+  <si>
+    <t>High contrast between foreground and background audio</t>
+  </si>
+  <si>
+    <t>Without background sounds</t>
   </si>
 </sst>
 </file>
@@ -1291,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1313,24 +1292,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A108">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$112,'epub-metadata-strings'!$D$2:$D$72,'onix-metadata-strings'!$D$2:$D$66))</f>
+        <f t="array" ref="A2:A103">_xlfn.UNIQUE(_xlfn.VSTACK('principles-string'!$E$2:$E$113,'epub-metadata-strings'!$D$2:$D$69,'onix-metadata-strings'!$D$2:$D$63))</f>
         <v>visual-adjustments-title</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -1338,7 +1317,7 @@
         <v>Visual adjustments</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D2" s="2" t="b">
@@ -1346,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A2,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A2,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F2" s="2" t="b">
@@ -1363,7 +1342,7 @@
         <v>Appearance can be modified</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="D3" s="2" t="b">
@@ -1371,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="F3" s="2" t="b">
@@ -1388,7 +1367,7 @@
         <v>Appearance cannot be modified</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -1396,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="F4" s="2" t="b">
@@ -1413,7 +1392,7 @@
         <v>No information is available</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -1421,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F5" s="2" t="b">
@@ -1438,7 +1417,7 @@
         <v>Support for nonvisual reading</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D6" s="2" t="b">
@@ -1446,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F6" s="2" t="b">
@@ -1463,7 +1442,7 @@
         <v>Has alt text</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D7" s="2" t="b">
@@ -1471,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Has alt text</v>
       </c>
       <c r="F7" s="2" t="b">
@@ -1488,7 +1467,7 @@
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="D8" s="2" t="b">
@@ -1496,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="F8" s="2" t="b">
@@ -1513,7 +1492,7 @@
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D9" s="2" t="b">
@@ -1521,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F9" s="2" t="b">
@@ -1538,7 +1517,7 @@
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D10" s="2" t="b">
@@ -1546,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F10" s="2" t="b">
@@ -1563,7 +1542,7 @@
         <v>Conformance</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D11" s="2" t="b">
@@ -1571,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F11" s="2" t="b">
@@ -1588,7 +1567,7 @@
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="D12" s="2" t="b">
@@ -1596,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="F12" s="2" t="b">
@@ -1613,7 +1592,7 @@
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="D13" s="2" t="b">
@@ -1621,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="F13" s="2" t="b">
@@ -1638,7 +1617,7 @@
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="D14" s="2" t="b">
@@ -1646,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="F14" s="2" t="b">
@@ -1663,7 +1642,7 @@
         <v>No information is available</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D15" s="2" t="b">
@@ -1671,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F15" s="2" t="b">
@@ -1688,7 +1667,7 @@
         <v>The publication was certified by</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>This publication was certified by</v>
       </c>
       <c r="D16" s="2" t="b">
@@ -1696,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>The publication was certified by</v>
       </c>
       <c r="F16" s="2" t="b">
@@ -1713,7 +1692,7 @@
         <v>The certifier's credential is</v>
       </c>
       <c r="C17" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>The certifier's credential is</v>
       </c>
       <c r="D17" s="2" t="b">
@@ -1721,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>The certifier's credential is</v>
       </c>
       <c r="F17" s="2" t="b">
@@ -1738,7 +1717,7 @@
         <v>Detailed conformance information</v>
       </c>
       <c r="C18" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Detailed Conformance Information</v>
       </c>
       <c r="D18" s="2" t="b">
@@ -1746,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Detailed conformance information</v>
       </c>
       <c r="F18" s="2" t="b">
@@ -1763,7 +1742,7 @@
         <v>This publication claims to meet</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
       <c r="D19" s="2" t="b">
@@ -1771,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>This publication claims to meet</v>
       </c>
       <c r="F19" s="2" t="b">
@@ -1788,7 +1767,7 @@
         <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D20" s="2" t="b">
@@ -1796,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="F20" s="2" t="b">
@@ -1813,7 +1792,7 @@
         <v/>
       </c>
       <c r="C21" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D21" s="2" t="str">
@@ -1821,7 +1800,7 @@
         <v/>
       </c>
       <c r="E21" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>WCAG 2.1</v>
       </c>
       <c r="F21" s="2" t="str">
@@ -1838,7 +1817,7 @@
         <v>Level AA</v>
       </c>
       <c r="C22" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D22" s="2" t="b">
@@ -1846,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Level AA</v>
       </c>
       <c r="F22" s="2" t="b">
@@ -1863,7 +1842,7 @@
         <v/>
       </c>
       <c r="C23" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>The publication was certified</v>
       </c>
       <c r="D23" s="2" t="str">
@@ -1871,7 +1850,7 @@
         <v/>
       </c>
       <c r="E23" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>The publication was certified on</v>
       </c>
       <c r="F23" s="2" t="str">
@@ -1888,7 +1867,7 @@
         <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C24" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>For more information refer to the certifier's report</v>
       </c>
       <c r="D24" s="2" t="b">
@@ -1896,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>For more information refer to the certifier's report</v>
       </c>
       <c r="F24" s="2" t="b">
@@ -1913,7 +1892,7 @@
         <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D25" s="2" t="b">
@@ -1921,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="F25" s="2" t="b">
@@ -1938,7 +1917,7 @@
         <v/>
       </c>
       <c r="C26" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D26" s="2" t="str">
@@ -1946,7 +1925,7 @@
         <v/>
       </c>
       <c r="E26" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>WCAG 2.2</v>
       </c>
       <c r="F26" s="2" t="str">
@@ -1963,7 +1942,7 @@
         <v>Level A</v>
       </c>
       <c r="C27" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D27" s="2" t="b">
@@ -1971,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Level A</v>
       </c>
       <c r="F27" s="2" t="b">
@@ -1988,7 +1967,7 @@
         <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="C28" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D28" s="2" t="b">
@@ -1996,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F28" s="2" t="b">
@@ -2013,7 +1992,7 @@
         <v>Prerecorded audio</v>
       </c>
       <c r="C29" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D29" s="2" t="b">
@@ -2021,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F29" s="2" t="b">
@@ -2038,7 +2017,7 @@
         <v>No information is available</v>
       </c>
       <c r="C30" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D30" s="2" t="b">
@@ -2046,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F30" s="2" t="b">
@@ -2063,7 +2042,7 @@
         <v>Audiobook</v>
       </c>
       <c r="C31" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Audio only</v>
       </c>
       <c r="D31" s="2" t="b">
@@ -2071,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Audio only</v>
       </c>
       <c r="F31" s="2" t="b">
@@ -2088,7 +2067,7 @@
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C32" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="D32" s="2" t="b">
@@ -2096,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="F32" s="2" t="b">
@@ -2113,7 +2092,7 @@
         <v>Navigation</v>
       </c>
       <c r="C33" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D33" s="2" t="b">
@@ -2121,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F33" s="2" t="b">
@@ -2138,7 +2117,7 @@
         <v>No information is available</v>
       </c>
       <c r="C34" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D34" s="2" t="b">
@@ -2146,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F34" s="2" t="b">
@@ -2163,7 +2142,7 @@
         <v>Table of contents</v>
       </c>
       <c r="C35" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Table of contents</v>
       </c>
       <c r="D35" s="2" t="b">
@@ -2171,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Table of contents</v>
       </c>
       <c r="F35" s="2" t="b">
@@ -2188,7 +2167,7 @@
         <v>Index</v>
       </c>
       <c r="C36" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Index</v>
       </c>
       <c r="D36" s="2" t="b">
@@ -2196,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Index</v>
       </c>
       <c r="F36" s="2" t="b">
@@ -2213,7 +2192,7 @@
         <v>Headings</v>
       </c>
       <c r="C37" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Headings</v>
       </c>
       <c r="D37" s="2" t="b">
@@ -2221,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Headings</v>
       </c>
       <c r="F37" s="2" t="b">
@@ -2238,7 +2217,7 @@
         <v>Go to page</v>
       </c>
       <c r="C38" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Go to page</v>
       </c>
       <c r="D38" s="2" t="b">
@@ -2246,7 +2225,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Go to page</v>
       </c>
       <c r="F38" s="2" t="b">
@@ -2263,7 +2242,7 @@
         <v>Rich content</v>
       </c>
       <c r="C39" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D39" s="2" t="b">
@@ -2271,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F39" s="2" t="b">
@@ -2288,7 +2267,7 @@
         <v>No information is available</v>
       </c>
       <c r="C40" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D40" s="2" t="b">
@@ -2296,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F40" s="2" t="b">
@@ -2313,7 +2292,7 @@
         <v>Math as MathML</v>
       </c>
       <c r="C41" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D41" s="2" t="b">
@@ -2321,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Math as MathML</v>
       </c>
       <c r="F41" s="2" t="b">
@@ -2338,7 +2317,7 @@
         <v>Math as LaTex</v>
       </c>
       <c r="C42" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D42" s="2" t="b">
@@ -2346,7 +2325,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Math as LaTex</v>
       </c>
       <c r="F42" s="2" t="b">
@@ -2363,7 +2342,7 @@
         <v>Math as images with text description</v>
       </c>
       <c r="C43" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D43" s="2" t="b">
@@ -2371,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Math as images with text description</v>
       </c>
       <c r="F43" s="2" t="b">
@@ -2388,7 +2367,7 @@
         <v>Chemical formulas in MathML</v>
       </c>
       <c r="C44" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D44" s="2" t="b">
@@ -2396,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Chemical formulas in MathML</v>
       </c>
       <c r="F44" s="2" t="b">
@@ -2413,7 +2392,7 @@
         <v>Chemical formulas in LaTex</v>
       </c>
       <c r="C45" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D45" s="2" t="b">
@@ -2421,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F45" s="2" t="b">
@@ -2438,7 +2417,7 @@
         <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C46" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="D46" s="2" t="b">
@@ -2446,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="F46" s="2" t="b">
@@ -2463,7 +2442,7 @@
         <v>Videos have closed captions</v>
       </c>
       <c r="C47" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D47" s="2" t="b">
@@ -2471,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Videos have closed captions</v>
       </c>
       <c r="F47" s="2" t="b">
@@ -2488,7 +2467,7 @@
         <v>Videos have open captions</v>
       </c>
       <c r="C48" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D48" s="2" t="b">
@@ -2496,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Videos have open captions</v>
       </c>
       <c r="F48" s="2" t="b">
@@ -2513,7 +2492,7 @@
         <v>Has transcript</v>
       </c>
       <c r="C49" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D49" s="2" t="b">
@@ -2521,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Has transcript</v>
       </c>
       <c r="F49" s="2" t="b">
@@ -2538,7 +2517,7 @@
         <v>Hazards</v>
       </c>
       <c r="C50" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D50" s="2" t="b">
@@ -2546,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F50" s="2" t="b">
@@ -2563,7 +2542,7 @@
         <v>No information is available</v>
       </c>
       <c r="C51" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D51" s="2" t="b">
@@ -2571,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="F51" s="2" t="b">
@@ -2588,7 +2567,7 @@
         <v>No hazards</v>
       </c>
       <c r="C52" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No hazards</v>
       </c>
       <c r="D52" s="2" t="b">
@@ -2596,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No hazards</v>
       </c>
       <c r="F52" s="2" t="b">
@@ -2613,7 +2592,7 @@
         <v>Flashing content</v>
       </c>
       <c r="C53" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Flashing content</v>
       </c>
       <c r="D53" s="2" t="b">
@@ -2621,7 +2600,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Flashing content</v>
       </c>
       <c r="F53" s="2" t="b">
@@ -2638,7 +2617,7 @@
         <v>Motion simulation</v>
       </c>
       <c r="C54" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Motion simulation</v>
       </c>
       <c r="D54" s="2" t="b">
@@ -2646,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Motion simulation</v>
       </c>
       <c r="F54" s="2" t="b">
@@ -2663,7 +2642,7 @@
         <v>Loud sounds</v>
       </c>
       <c r="C55" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>Loud sounds</v>
       </c>
       <c r="D55" s="2" t="b">
@@ -2671,7 +2650,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Loud sounds</v>
       </c>
       <c r="F55" s="2" t="b">
@@ -2688,7 +2667,7 @@
         <v>The presence of hazards is unknown</v>
       </c>
       <c r="C56" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>The presence of hazards is unknown</v>
       </c>
       <c r="D56" s="2" t="b">
@@ -2696,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>The presence of hazards is unknown</v>
       </c>
       <c r="F56" s="2" t="b">
@@ -2713,7 +2692,7 @@
         <v/>
       </c>
       <c r="C57" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D57" s="2" t="str">
@@ -2721,7 +2700,7 @@
         <v/>
       </c>
       <c r="E57" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F57" s="2" t="str">
@@ -2738,7 +2717,7 @@
         <v>Accessibility summary</v>
       </c>
       <c r="C58" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D58" s="2" t="b">
@@ -2746,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F58" s="2" t="b">
@@ -2763,7 +2742,7 @@
         <v/>
       </c>
       <c r="C59" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v>No accessibility summary is available.</v>
       </c>
       <c r="D59" s="2" t="str">
@@ -2771,7 +2750,7 @@
         <v/>
       </c>
       <c r="E59" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>No accessibility summary is available.</v>
       </c>
       <c r="F59" s="2" t="str">
@@ -2788,7 +2767,7 @@
         <v>Legal considerations</v>
       </c>
       <c r="C60" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D60" s="2" t="b">
@@ -2796,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F60" s="2" t="b">
@@ -2813,16 +2792,16 @@
         <v/>
       </c>
       <c r="C61" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>This publication claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="D61" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E61" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>This publication claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="F61" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2831,73 +2810,73 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <v>additional-accessibility-information-title</v>
+        <v>legal-considerations-no-metadata</v>
       </c>
       <c r="B62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>No information is available</v>
       </c>
       <c r="C62" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D62" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="F62" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <v>join-array-and</v>
+        <v>additional-accessibility-information-title</v>
       </c>
       <c r="B63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Additional accessibility information</v>
       </c>
       <c r="C63" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>, and</v>
-      </c>
-      <c r="D63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D63" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E63" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>, and</v>
-      </c>
-      <c r="F63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="F63" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <v>conformance-epub10-wcag20a</v>
+        <v>join-array-and</v>
       </c>
       <c r="B64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C64" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.0 WCAG 2.0 Level</v>
+        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>, and</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E64" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>, and</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2906,22 +2885,22 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <v>conformance-epub10-wcag20aa</v>
+        <v>conformance-epub10-wcag20a</v>
       </c>
       <c r="B65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C65" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.0 WCAG 2.0 Level A</v>
+        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.0 WCAG 2.0 Level</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E65" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F65" s="2" t="str">
@@ -2931,22 +2910,22 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <v>conformance-epub10-wcag20aaa</v>
+        <v>conformance-epub10-wcag20aa</v>
       </c>
       <c r="B66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C66" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.0 WCAG 2.0 Level AA</v>
+        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.0 WCAG 2.0 Level A</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E66" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F66" s="2" t="str">
@@ -2956,47 +2935,47 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <v>conformance-epub11-wcag20a</v>
+        <v>conformance-epub10-wcag20aaa</v>
       </c>
       <c r="B67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C67" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.0 Level</v>
+        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.0 WCAG 2.0 Level AA</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f t="shared" ref="D67:D109" si="2">IF($B67="","",EXACT($B67,C67))</f>
+        <f t="shared" ref="D67:D103" si="2">IF($B67="","",EXACT($B67,C67))</f>
         <v/>
       </c>
       <c r="E67" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F67" s="2" t="str">
-        <f t="shared" ref="F67:F109" si="3">IF($B67="","",EXACT($B67,E67))</f>
+        <f t="shared" ref="F67:F103" si="3">IF($B67="","",EXACT($B67,E67))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <v>conformance-epub11-wcag20aa</v>
+        <v>conformance-epub11-wcag20a</v>
       </c>
       <c r="B68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C68" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.0 Level A</v>
+        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.0 Level</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E68" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F68" s="2" t="str">
@@ -3006,22 +2985,22 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <v>conformance-epub11-wcag20aaa</v>
+        <v>conformance-epub11-wcag20aa</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C69" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.0 Level AA</v>
+        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.0 Level A</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E69" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A69,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A69,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F69" s="2" t="str">
@@ -3031,22 +3010,22 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <v>conformance-epub11-wcag21a</v>
+        <v>conformance-epub11-wcag20aaa</v>
       </c>
       <c r="B70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C70" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.1 Level</v>
+        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.0 Level AA</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E70" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A70,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A70,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F70" s="2" t="str">
@@ -3056,22 +3035,22 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <v>conformance-epub11-wcag21aa</v>
+        <v>conformance-epub11-wcag21a</v>
       </c>
       <c r="B71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C71" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.1 Level A</v>
+        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.1 Level</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E71" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F71" s="2" t="str">
@@ -3081,22 +3060,22 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <v>conformance-epub11-wcag21aaa</v>
+        <v>conformance-epub11-wcag21aa</v>
       </c>
       <c r="B72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C72" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.1 Level AA</v>
+        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.1 Level A</v>
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E72" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F72" s="2" t="str">
@@ -3106,22 +3085,22 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <v>conformance-epub11-wcag22a</v>
+        <v>conformance-epub11-wcag21aaa</v>
       </c>
       <c r="B73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C73" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.2 Level</v>
+        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.1 Level AA</v>
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E73" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F73" s="2" t="str">
@@ -3131,22 +3110,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <v>conformance-epub11-wcag22aa</v>
+        <v>conformance-epub11-wcag22a</v>
       </c>
       <c r="B74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C74" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.2 Level A</v>
+        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.2 Level</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E74" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F74" s="2" t="str">
@@ -3156,22 +3135,22 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <v>conformance-epub11-wcag22aaa</v>
+        <v>conformance-epub11-wcag22aa</v>
       </c>
       <c r="B75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C75" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.2 Level AA</v>
+        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.2 Level A</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E75" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F75" s="2" t="str">
@@ -3181,22 +3160,22 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <v>conformance-certification-date-prefix</v>
+        <v>conformance-epub11-wcag22aaa</v>
       </c>
       <c r="B76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C76" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>on</v>
+        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>PUB Accessibility 1.1 WCAG 2.2 Level AA</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E76" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F76" s="2" t="str">
@@ -3206,23 +3185,23 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <v>prerecorded-audio-complementary</v>
+        <v>conformance-certification-date-prefix</v>
       </c>
       <c r="B77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C77" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>on</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E77" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3231,23 +3210,23 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <v>navigation-intro</v>
+        <v>prerecorded-audio-complementary</v>
       </c>
       <c r="B78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>Navigation by</v>
+        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>Complementary audio and text</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E78" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Complementary audio and text</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3256,22 +3235,22 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <v>rich-content-accessible-chemistry</v>
+        <v>navigation-intro</v>
       </c>
       <c r="B79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C79" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>Accessible chemistry content</v>
+        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>Navigation by</v>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E79" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F79" s="2" t="str">
@@ -3281,22 +3260,22 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <v>rich-content-accessible-math</v>
+        <v>rich-content-accessible-chemistry</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C80" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>Accessible math content</v>
+        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>Accessible chemistry content</v>
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E80" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F80" s="2" t="str">
@@ -3306,22 +3285,22 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>hazards-plural</v>
+        <v>rich-content-accessible-math</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C81" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>hazards</v>
+        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>Accessible math content</v>
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E81" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F81" s="2" t="str">
@@ -3331,22 +3310,22 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <v>hazards-singular</v>
+        <v>hazards-plural</v>
       </c>
       <c r="B82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C82" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>hazard</v>
+        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>hazards</v>
       </c>
       <c r="D82" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E82" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F82" s="2" t="str">
@@ -3356,23 +3335,23 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <v>tbd</v>
+        <v>hazards-singular</v>
       </c>
       <c r="B83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C83" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>TBD</v>
+        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>hazard</v>
       </c>
       <c r="D83" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E83" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>TBD</v>
+        <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3381,23 +3360,23 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <v>legal-considerations-no-metadata</v>
+        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
       </c>
       <c r="B84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C84" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>No legal considerations</v>
+        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>audio descriptions</v>
       </c>
       <c r="D84" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E84" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>No legal considerations</v>
+        <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3406,22 +3385,22 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
+        <v>additional-accessibility-information-adaptation-braille</v>
       </c>
       <c r="B85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C85" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>audio descriptions</v>
+        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>braille</v>
       </c>
       <c r="D85" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E85" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F85" s="2" t="str">
@@ -3431,22 +3410,22 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <v>additional-accessibility-information-adaptation-braille</v>
+        <v>additional-accessibility-information-adaptation-tactile_graphic</v>
       </c>
       <c r="B86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C86" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>braille</v>
+        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>tactile graphic</v>
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E86" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F86" s="2" t="str">
@@ -3456,23 +3435,23 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <v>additional-accessibility-information-adaptation-closed-captions</v>
+        <v>additional-accessibility-information-adaptation-tactile_object</v>
       </c>
       <c r="B87" s="5" t="str">
         <f>IFERROR(VLOOKUP($A87&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C87" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>closed captions</v>
+        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>tactile 3D object</v>
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E87" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>closed captions</v>
+        <f>IFERROR(VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3481,23 +3460,23 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <v>additional-accessibility-information-adaptation-open-captions</v>
+        <v>additional-accessibility-information-adaptation-sign-language</v>
       </c>
       <c r="B88" s="5" t="str">
         <f>IFERROR(VLOOKUP($A88&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C88" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>open captions</v>
+        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>sign language</v>
       </c>
       <c r="D88" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E88" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>open captions</v>
+        <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Sign language</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3506,22 +3485,22 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_graphic</v>
+        <v>additional-accessibility-information-clarity-aria</v>
       </c>
       <c r="B89" s="5" t="str">
         <f>IFERROR(VLOOKUP($A89&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C89" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>tactile graphic</v>
+        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>aria</v>
       </c>
       <c r="D89" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E89" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F89" s="2" t="str">
@@ -3531,22 +3510,22 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_object</v>
+        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
       </c>
       <c r="B90" s="5" t="str">
         <f>IFERROR(VLOOKUP($A90&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C90" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>tactile 3D object</v>
+        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>full ruby annotations</v>
       </c>
       <c r="D90" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E90" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A90,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A90,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F90" s="2" t="str">
@@ -3556,23 +3535,23 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <v>additional-accessibility-information-adaptation-transcript</v>
+        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
       </c>
       <c r="B91" s="5" t="str">
         <f>IFERROR(VLOOKUP($A91&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C91" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>transcript</v>
+        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>text-to-speech hinting provided</v>
       </c>
       <c r="D91" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E91" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3581,23 +3560,23 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <v>additional-accessibility-information-adaptation-sign-language</v>
+        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
       </c>
       <c r="B92" s="5" t="str">
         <f>IFERROR(VLOOKUP($A92&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C92" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>sign language</v>
+        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>high contrast between foreground and background audio</v>
       </c>
       <c r="D92" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E92" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A92,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>sign language</v>
+        <f>IFERROR(VLOOKUP($A92,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3606,23 +3585,23 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
+        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
       </c>
       <c r="B93" s="5" t="str">
         <f>IFERROR(VLOOKUP($A93&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C93" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>aria</v>
+        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>high contrast between text and background</v>
       </c>
       <c r="D93" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E93" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>High contrast between text and background</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3631,22 +3610,22 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
+        <v>additional-accessibility-information-clarity-large-print</v>
       </c>
       <c r="B94" s="5" t="str">
         <f>IFERROR(VLOOKUP($A94&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C94" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>full ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>large print</v>
       </c>
       <c r="D94" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E94" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="F94" s="2" t="str">
@@ -3656,23 +3635,23 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
+        <v>additional-accessibility-information-clarity-page-breaks</v>
       </c>
       <c r="B95" s="5" t="str">
         <f>IFERROR(VLOOKUP($A95&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C95" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>text-to-speech hinting provided</v>
+        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>page breaks</v>
       </c>
       <c r="D95" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E95" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>text-to-speech hinting provided</v>
+        <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3681,23 +3660,23 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
+        <v>additional-accessibility-information-clarity-ruby-annotations</v>
       </c>
       <c r="B96" s="5" t="str">
         <f>IFERROR(VLOOKUP($A96&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C96" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>high contrast between foreground and background audio</v>
+        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v>ruby annotations</v>
       </c>
       <c r="D96" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E96" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>high contrast between foreground and background audio</v>
+        <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="F96" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3706,23 +3685,23 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
+        <v>conformance-wcag-2-0</v>
       </c>
       <c r="B97" s="5" t="str">
         <f>IFERROR(VLOOKUP($A97&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C97" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>high contrast between text and background</v>
+        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D97" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E97" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>high contrast between text and background</v>
+        <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>WCAG 2.0</v>
       </c>
       <c r="F97" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3731,23 +3710,23 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <v>additional-accessibility-information-clarity-large-print</v>
+        <v>conformance-level-aaa</v>
       </c>
       <c r="B98" s="5" t="str">
         <f>IFERROR(VLOOKUP($A98&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C98" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>large print</v>
+        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D98" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E98" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Level AAA</v>
       </c>
       <c r="F98" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3756,23 +3735,23 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
+        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
       </c>
       <c r="B99" s="5" t="str">
         <f>IFERROR(VLOOKUP($A99&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C99" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>page breaks</v>
+        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D99" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E99" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A99,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A99,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Dyslexia readability</v>
       </c>
       <c r="F99" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3781,23 +3760,23 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
-        <v>additional-accessibility-information-clarity-ruby-annotations</v>
+        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B100" s="5" t="str">
         <f>IFERROR(VLOOKUP($A100&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C100" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v>ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D100" s="2" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="E100" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Color is not the sole means of conveying information</v>
       </c>
       <c r="F100" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3806,14 +3785,14 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
-        <v>conformance-wcag-2-0</v>
+        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
       </c>
       <c r="B101" s="5" t="str">
         <f>IFERROR(VLOOKUP($A101&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C101" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D101" s="2" t="str">
@@ -3821,8 +3800,8 @@
         <v/>
       </c>
       <c r="E101" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
+        <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Ultra high contrast between text and background</v>
       </c>
       <c r="F101" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3831,14 +3810,14 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
-        <v>conformance-level-aaa</v>
+        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
       </c>
       <c r="B102" s="5" t="str">
         <f>IFERROR(VLOOKUP($A102&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C102" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D102" s="2" t="str">
@@ -3846,8 +3825,8 @@
         <v/>
       </c>
       <c r="E102" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Visible page numbering</v>
       </c>
       <c r="F102" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3856,14 +3835,14 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
+        <v>additional-accessibility-information-clarity-without-background-sounds</v>
       </c>
       <c r="B103" s="5" t="str">
         <f>IFERROR(VLOOKUP($A103&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C103" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D103" s="2" t="str">
@@ -3871,8 +3850,8 @@
         <v/>
       </c>
       <c r="E103" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>dyslexia readability</v>
+        <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
+        <v>Without background sounds</v>
       </c>
       <c r="F103" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3880,151 +3859,46 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="str">
-        <v>additional-accessibility-information-adaptation-full-transcript</v>
-      </c>
-      <c r="B104" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A104&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C104" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A104,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D104" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E104" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A104,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>full transcript</v>
-      </c>
-      <c r="F104" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="str">
-        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
-      </c>
-      <c r="B105" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A105&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C105" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A105,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D105" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E105" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A105,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>color is not the sole means of conveying information</v>
-      </c>
-      <c r="F105" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="str">
-        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
-      </c>
-      <c r="B106" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A106&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C106" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A106,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D106" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E106" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A106,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>ultra high contrast between text and background</v>
-      </c>
-      <c r="F106" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="str">
-        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
-      </c>
-      <c r="B107" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A107&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C107" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A107,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D107" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E107" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A107,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>visible page numbering</v>
-      </c>
-      <c r="F107" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="str">
-        <v>additional-accessibility-information-clarity-without-background-sounds</v>
-      </c>
-      <c r="B108" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A108&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C108" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A108,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D108" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E108" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A108,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v>without background sounds</v>
-      </c>
-      <c r="F108" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A109&amp;"-compact",'principles-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C109" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A109,'epub-metadata-strings'!$D$2:$E$990,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D109" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E109" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A109,'onix-metadata-strings'!$D$2:$E$988,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F109" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
@@ -4313,51 +4187,9 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F109" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
-  <conditionalFormatting sqref="D2:D109">
+  <autoFilter ref="A1:F103" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
+  <conditionalFormatting sqref="D2:D103">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4365,7 +4197,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F109">
+  <conditionalFormatting sqref="F2:F103">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4379,10 +4211,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G112"/>
+    <sheetView topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4394,25 +4226,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4421,16 +4253,16 @@
         <v>visual-adjustments-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4439,16 +4271,16 @@
         <v>visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4457,16 +4289,16 @@
         <v>visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4475,16 +4307,16 @@
         <v>visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -4493,16 +4325,16 @@
         <v>visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4511,13 +4343,13 @@
         <v>visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
         <v>1</v>
@@ -4529,16 +4361,16 @@
         <v>visual-adjustments-unknown-compact</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4547,13 +4379,13 @@
         <v>nonvisual-reading-title-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4562,16 +4394,16 @@
         <v>nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4580,16 +4412,16 @@
         <v>nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4598,16 +4430,16 @@
         <v>nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4616,16 +4448,16 @@
         <v>nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4634,16 +4466,16 @@
         <v>nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4652,16 +4484,16 @@
         <v>nonvisual-reading-readable-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4670,16 +4502,16 @@
         <v>nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G16" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4688,16 +4520,16 @@
         <v>nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4706,13 +4538,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
         <v>112</v>
       </c>
-      <c r="E18" t="s">
-        <v>128</v>
-      </c>
       <c r="G18" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4721,13 +4553,13 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
         <v>6</v>
@@ -4739,16 +4571,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4757,13 +4589,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -4775,16 +4607,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
         <v>141</v>
-      </c>
-      <c r="G22" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4793,13 +4625,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -4811,16 +4643,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4829,16 +4661,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4847,13 +4679,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -4865,16 +4697,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4883,13 +4715,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E28" t="s">
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -4901,13 +4733,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
         <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4916,7 +4748,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
         <v>19</v>
@@ -4931,7 +4763,7 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
         <v>23</v>
@@ -4946,16 +4778,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
         <v>27</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G32" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -4964,7 +4796,7 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -4979,16 +4811,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
         <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G34" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4997,13 +4829,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
         <v>40</v>
       </c>
       <c r="G35" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -5012,13 +4844,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
         <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -5030,16 +4862,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G37" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -5048,13 +4880,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
         <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G38" t="s">
         <v>16</v>
@@ -5066,13 +4898,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -5081,7 +4913,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -5096,7 +4928,7 @@
         <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
         <v>21</v>
@@ -5111,16 +4943,16 @@
         <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
         <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G42" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -5129,7 +4961,7 @@
         <v>conformance-level-a-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
         <v>35</v>
@@ -5144,16 +4976,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
         <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G44" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -5162,7 +4994,7 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
         <v>15</v>
@@ -5177,13 +5009,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D46" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
         <v>40</v>
       </c>
       <c r="G46" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,10 +5024,10 @@
         <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="G47" t="s">
         <v>11</v>
@@ -5207,7 +5039,7 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
         <v>13</v>
@@ -5222,7 +5054,7 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
@@ -5237,13 +5069,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -5252,16 +5084,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G51" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -5270,13 +5102,13 @@
         <v>prerecorded-audio-title-compact</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -5285,16 +5117,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F53" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G53" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -5303,16 +5135,16 @@
         <v>prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F54" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5321,16 +5153,16 @@
         <v>prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F55" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G55" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -5339,16 +5171,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F56" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G56" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5357,16 +5189,16 @@
         <v>prerecorded-audio-only-compact</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5375,16 +5207,16 @@
         <v>prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5393,16 +5225,16 @@
         <v>prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F59" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G59" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5411,13 +5243,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="G60" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5426,16 +5258,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
         <v>51</v>
       </c>
       <c r="F61" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5444,16 +5276,16 @@
         <v>navigation-toc-descriptive</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
         <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G62" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5462,16 +5294,16 @@
         <v>navigation-index-descriptive</v>
       </c>
       <c r="D63" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G63" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5480,16 +5312,16 @@
         <v>navigation-structural-descriptive</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
         <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5498,16 +5330,16 @@
         <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
         <v>46</v>
       </c>
       <c r="F65" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G65" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5516,34 +5348,34 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
         <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G66" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
-        <f t="shared" ref="A67:A112" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
+        <f t="shared" ref="A67:A113" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
         <v>navigation-toc-compact</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
         <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G67" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5552,16 +5384,16 @@
         <v>navigation-index-compact</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G68" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5570,16 +5402,16 @@
         <v>navigation-structural-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E69" t="s">
         <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G69" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5588,16 +5420,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s">
         <v>46</v>
       </c>
       <c r="F70" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G70" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5606,16 +5438,16 @@
         <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
         <v>51</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G71" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5624,13 +5456,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D72" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="G72" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5639,16 +5471,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D73" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E73" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F73" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5657,16 +5489,16 @@
         <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D74" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E74" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F74" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G74" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5675,16 +5507,16 @@
         <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F75" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G75" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -5693,16 +5525,16 @@
         <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E76" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F76" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G76" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5711,16 +5543,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G77" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5729,16 +5561,16 @@
         <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F78" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5747,16 +5579,16 @@
         <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F79" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G79" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5765,16 +5597,16 @@
         <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D80" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F80" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G80" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5783,16 +5615,16 @@
         <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F81" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G81" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5801,16 +5633,16 @@
         <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D82" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E82" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F82" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G82" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5819,16 +5651,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F83" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G83" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5837,16 +5669,16 @@
         <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E84" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F84" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -5855,16 +5687,16 @@
         <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D85" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E85" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F85" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G85" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -5873,16 +5705,16 @@
         <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E86" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F86" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G86" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5891,16 +5723,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5909,16 +5741,16 @@
         <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F88" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G88" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5927,16 +5759,16 @@
         <v>rich-content-extended-compact</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F89" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G89" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -5945,16 +5777,16 @@
         <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F90" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G90" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5963,16 +5795,16 @@
         <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G91" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5981,16 +5813,16 @@
         <v>rich-content-transcript-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F92" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G92" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5999,16 +5831,16 @@
         <v>rich-content-unknown-compact</v>
       </c>
       <c r="D93" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F93" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G93" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -6017,13 +5849,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D94" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -6032,16 +5864,16 @@
         <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D95" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E95" t="s">
         <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G95" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -6050,13 +5882,13 @@
         <v>hazards-none-descriptive</v>
       </c>
       <c r="D96" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E96" t="s">
         <v>54</v>
       </c>
       <c r="F96" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G96" t="s">
         <v>55</v>
@@ -6068,16 +5900,16 @@
         <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D97" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s">
         <v>56</v>
       </c>
       <c r="F97" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G97" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -6086,16 +5918,16 @@
         <v>hazards-motion-descriptive</v>
       </c>
       <c r="D98" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E98" t="s">
         <v>57</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G98" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -6104,16 +5936,16 @@
         <v>hazards-sound-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E99" t="s">
         <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G99" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -6122,16 +5954,16 @@
         <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E100" t="s">
         <v>63</v>
       </c>
       <c r="F100" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G100" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -6140,16 +5972,16 @@
         <v>hazards-no-metadata].-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F101" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G101" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -6158,13 +5990,13 @@
         <v>hazards-none-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E102" t="s">
         <v>54</v>
       </c>
       <c r="F102" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G102" t="s">
         <v>55</v>
@@ -6176,16 +6008,16 @@
         <v>hazards-flashing-compact</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E103" t="s">
         <v>56</v>
       </c>
       <c r="F103" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G103" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -6194,16 +6026,16 @@
         <v>hazards-motion-compact</v>
       </c>
       <c r="D104" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E104" t="s">
         <v>57</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G104" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -6212,16 +6044,16 @@
         <v>hazards-sound-compact</v>
       </c>
       <c r="D105" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E105" t="s">
         <v>58</v>
       </c>
       <c r="F105" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G105" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -6230,16 +6062,16 @@
         <v>hazards-unknown-compact</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E106" t="s">
         <v>63</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G106" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -6248,16 +6080,16 @@
         <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E107" t="s">
         <v>64</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G107" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -6266,13 +6098,13 @@
         <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E108" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G108" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -6281,16 +6113,16 @@
         <v>accessibility-summary-no-metadata-descriptive</v>
       </c>
       <c r="D109" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E109" t="s">
         <v>65</v>
       </c>
       <c r="F109" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G109" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -6299,13 +6131,13 @@
         <v>legal-considerations-title-compact</v>
       </c>
       <c r="D110" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E110" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="G110" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -6314,31 +6146,49 @@
         <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D111" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E111" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="F111" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="G111" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f t="shared" si="1"/>
+        <v>legal-considerations-no-metadata-compact</v>
+      </c>
+      <c r="D112" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" t="s">
+        <v>126</v>
+      </c>
+      <c r="G112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>additional-accessibility-information-title-compact</v>
       </c>
-      <c r="D112" t="s">
-        <v>112</v>
-      </c>
-      <c r="E112" t="s">
-        <v>136</v>
-      </c>
-      <c r="G112" t="s">
-        <v>137</v>
+      <c r="D113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" t="s">
+        <v>120</v>
+      </c>
+      <c r="G113" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -6348,10 +6198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:E72"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6362,52 +6212,52 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -6415,62 +6265,62 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -6481,7 +6331,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -6492,7 +6342,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -6503,18 +6353,18 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -6525,7 +6375,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -6536,7 +6386,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -6547,139 +6397,139 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E22" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
@@ -6690,10 +6540,10 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
         <v>39</v>
@@ -6701,21 +6551,21 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
       </c>
       <c r="E31" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -6723,21 +6573,21 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
@@ -6745,62 +6595,62 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
         <v>44</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
         <v>49</v>
@@ -6811,32 +6661,32 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E43" t="s">
         <v>52</v>
@@ -6844,10 +6694,10 @@
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E44" t="s">
         <v>53</v>
@@ -6855,18 +6705,18 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>54</v>
@@ -6877,40 +6727,40 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
         <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
         <v>59</v>
@@ -6921,7 +6771,7 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
         <v>61</v>
@@ -6932,233 +6782,200 @@
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
         <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E58" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="E60" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="E65" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" t="s">
-        <v>86</v>
-      </c>
-      <c r="E70" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C71" t="s">
-        <v>112</v>
-      </c>
-      <c r="D71" t="s">
-        <v>105</v>
-      </c>
-      <c r="E71" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C72" t="s">
-        <v>112</v>
-      </c>
-      <c r="D72" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7168,10 +6985,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7182,52 +6999,52 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -7235,62 +7052,62 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -7301,7 +7118,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -7312,7 +7129,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -7323,29 +7140,29 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -7356,18 +7173,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -7378,7 +7195,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -7389,7 +7206,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -7400,7 +7217,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>29</v>
@@ -7411,7 +7228,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -7422,7 +7239,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -7433,7 +7250,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
@@ -7444,7 +7261,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -7455,7 +7272,7 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -7466,32 +7283,32 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E28" t="s">
         <v>41</v>
@@ -7499,10 +7316,10 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
         <v>42</v>
@@ -7510,183 +7327,183 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
         <v>47</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D37" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="E38" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D39" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D40" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D42" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D45" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D46" t="s">
         <v>54</v>
@@ -7697,222 +7514,189 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D47" t="s">
         <v>56</v>
       </c>
       <c r="E47" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D48" t="s">
         <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
         <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
         <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
         <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
         <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>208</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E59" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>81</v>
+        <v>248</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C64" t="s">
-        <v>112</v>
-      </c>
-      <c r="D64" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D65" t="s">
-        <v>82</v>
-      </c>
-      <c r="E65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C66" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" t="s">
-        <v>104</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBEBFBE-26C8-1E4F-B84D-22DC1D2DE023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED2EBA-D02D-324A-9952-2699D7D45C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="onix-metadata-strings" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$97</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="225">
   <si>
     <t>id</t>
   </si>
@@ -309,9 +309,6 @@
     <t>additional-accessibility-information-clarity-ruby-annotations</t>
   </si>
   <si>
-    <t>Visual adjustments</t>
-  </si>
-  <si>
     <t>conformance-title</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>No information is available</t>
   </si>
   <si>
-    <t>Support for nonvisual reading</t>
-  </si>
-  <si>
     <t>All content can be read as read aloud speech or dynamic braille</t>
   </si>
   <si>
@@ -444,9 +438,6 @@
     <t>The publication was certified on</t>
   </si>
   <si>
-    <t>Prerecorded audio</t>
-  </si>
-  <si>
     <t>prerecorded-audio-no-metadata</t>
   </si>
   <si>
@@ -537,9 +528,6 @@
     <t>Chemical formulas in MathML</t>
   </si>
   <si>
-    <t>Chemical formulas in LaTex</t>
-  </si>
-  <si>
     <t>Videos have closed captions</t>
   </si>
   <si>
@@ -576,78 +564,6 @@
     <t>This publication claims an accessibility exemption in some jurisdictions</t>
   </si>
   <si>
-    <t>conformance-epub10-wcag20a</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.0 WCAG 2.0 Level</t>
-  </si>
-  <si>
-    <t>conformance-epub10-wcag20aa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.0 WCAG 2.0 Level A</t>
-  </si>
-  <si>
-    <t>conformance-epub10-wcag20aaa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.0 WCAG 2.0 Level AA</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag20a</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.0 Level</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag20aa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.0 Level A</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag20aaa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.0 Level AA</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag21a</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.1 Level</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag21aa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.1 Level A</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag21aaa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.1 Level AA</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag22a</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.2 Level</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag22aa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.2 Level A</t>
-  </si>
-  <si>
-    <t>conformance-epub11-wcag22aaa</t>
-  </si>
-  <si>
-    <t>PUB Accessibility 1.1 WCAG 2.2 Level AA</t>
-  </si>
-  <si>
     <t>prerecorded-audio-complementary</t>
   </si>
   <si>
@@ -723,15 +639,6 @@
     <t>Ways of reading</t>
   </si>
   <si>
-    <t>ways-to-read-visual-adjustments-title</t>
-  </si>
-  <si>
-    <t>ways-of-reading-nonvisual-reading-title</t>
-  </si>
-  <si>
-    <t>ways-to-read-prerecorded-audio-title</t>
-  </si>
-  <si>
     <t>ways-of-reading-visual-adjustments-modifiable</t>
   </si>
   <si>
@@ -783,15 +690,9 @@
     <t>Math formulas in accessible format (LaTeX)</t>
   </si>
   <si>
-    <t>text descriptions of math is provided</t>
-  </si>
-  <si>
     <t>Chemical formulas in accessible format (LaTeX)</t>
   </si>
   <si>
-    <t>Transcript(s) provided)</t>
-  </si>
-  <si>
     <t>Math as LaTeX</t>
   </si>
   <si>
@@ -801,18 +702,12 @@
     <t>The publication contains sounds which can be uncomfortable</t>
   </si>
   <si>
-    <t>sounds</t>
-  </si>
-  <si>
     <t>#additional-accessibility-information-title</t>
   </si>
   <si>
     <t>Prerecorded audio only</t>
   </si>
   <si>
-    <t>No information is available about pre-recorded audio.</t>
-  </si>
-  <si>
     <t>Braille</t>
   </si>
   <si>
@@ -826,6 +721,24 @@
   </si>
   <si>
     <t>Tactile 3D objects</t>
+  </si>
+  <si>
+    <t>Text descriptions of math are provided</t>
+  </si>
+  <si>
+    <t>Transcript(s) provided</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>The publication contains no hazards</t>
+  </si>
+  <si>
+    <t>legal-title</t>
+  </si>
+  <si>
+    <t>add-info-title</t>
   </si>
 </sst>
 </file>
@@ -1276,13 +1189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1298,24 +1211,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A109">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$135,'epub-metadata-strings'!$D$2:$D$79,'onix-metadata-strings'!$D$2:$D$70))</f>
+        <f t="array" ref="A2:A96">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$144,'epub-metadata-strings'!$D$2:$D$76,'onix-metadata-strings'!$D$2:$D$70))</f>
         <v>ways-of-reading-title</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -1323,7 +1236,7 @@
         <v>Ways of reading</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v>Ways of reading</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -1341,19 +1254,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
-        <v>ways-to-read-visual-adjustments-title</v>
+        <v>ways-of-reading-visual-adjustments-modifiable</v>
       </c>
       <c r="B3" s="5" t="str">
         <f>IFERROR(VLOOKUP($A3&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Visual adjustments</v>
+        <v>Appearance can be modified</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Appearance can be modified</v>
       </c>
       <c r="D3" s="2" t="b">
         <f t="shared" ref="D3:D67" si="0">IF($B3="","",EXACT($B3,C3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>IFERROR(VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
@@ -1366,19 +1279,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
-        <v>ways-of-reading-nonvisual-reading-title</v>
+        <v>ways-of-reading-visual-adjustments-unmodifiable</v>
       </c>
       <c r="B4" s="5" t="str">
         <f>IFERROR(VLOOKUP($A4&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Support for nonvisual reading</v>
+        <v>Appearance cannot be modified</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Appearance cannot be modified</v>
       </c>
       <c r="D4" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>IFERROR(VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
@@ -1391,19 +1304,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
-        <v>ways-to-read-prerecorded-audio-title</v>
+        <v>ways-of-reading-visual-adjustments-unknown</v>
       </c>
       <c r="B5" s="5" t="str">
         <f>IFERROR(VLOOKUP($A5&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Prerecorded audio</v>
+        <v>No information about appearance modifiability is available</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No information about appearance modifiability is available</v>
       </c>
       <c r="D5" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
@@ -1416,40 +1329,40 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <v>prerecorded-audio-no-metadata</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>IFERROR(VLOOKUP($A6&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Has alternative text</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Has alternative text</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E6" s="5" t="str">
         <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v/>
+      </c>
+      <c r="F6" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <v>ways-of-reading-visual-adjustments-modifiable</v>
+        <v>ways-of-reading-nonvisual-reading-readable</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IFERROR(VLOOKUP($A7&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Appearance can be modified</v>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Appearance can be modified</v>
+        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="D7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1466,15 +1379,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <v>ways-of-reading-visual-adjustments-unmodifiable</v>
+        <v>ways-of-reading-nonvisual-reading-may-not-fully</v>
       </c>
       <c r="B8" s="5" t="str">
         <f>IFERROR(VLOOKUP($A8&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Appearance cannot be modified</v>
+        <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Appearance cannot be modified</v>
+        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D8" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1491,15 +1404,15 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <v>ways-of-reading-visual-adjustments-unknown</v>
+        <v>ways-of-reading-nonvisual-reading-not-fully</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>IFERROR(VLOOKUP($A9&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information about appearance modifiability is available</v>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No information about appearance modifiability is available</v>
+        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D9" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1516,40 +1429,40 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <v>ways-of-reading-nonvisual-reading-alt-text</v>
+        <v>prerecorded-audio-no-metadata</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Has alternative text</v>
+        <v/>
       </c>
       <c r="C10" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Has alternative text</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>No information is available</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <v>ways-of-reading-nonvisual-reading-readable</v>
+        <v>ways-of-reading-prerecorded-audio-only</v>
       </c>
       <c r="B11" s="5" t="str">
         <f>IFERROR(VLOOKUP($A11&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Readable in read aloud or dynamic braille</v>
+        <v>Prerecorded audio only</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Readable in read aloud or dynamic braille</v>
+        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Prerecorded audio only</v>
       </c>
       <c r="D11" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1566,15 +1479,15 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <v>ways-of-reading-nonvisual-reading-may-not-fully</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized</v>
       </c>
       <c r="B12" s="5" t="str">
         <f>IFERROR(VLOOKUP($A12&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>May not be fully readable in read aloud or dynamic braille</v>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>May not be fully readable in read aloud or dynamic braille</v>
+        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="D12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1591,44 +1504,44 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <v>ways-of-reading-nonvisual-reading-not-fully</v>
+        <v>ways-of-reading-prerecorded-audio-complementary</v>
       </c>
       <c r="B13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Not fully readable in read aloud or dynamic braille</v>
+        <v/>
       </c>
       <c r="C13" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Not fully readable in read aloud or dynamic braille</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Complementary audio and text</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F13" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>ways-of-reading-prerecorded-audio-only</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata</v>
       </c>
       <c r="B14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Audio only</v>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Prerecorded audio only</v>
+        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="D14" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
@@ -1641,15 +1554,15 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>ways-of-reading-prerecorded-audio-synchronized</v>
+        <v>conformance-title</v>
       </c>
       <c r="B15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Prerecorded audio synchronized with text</v>
+        <v>Conformance</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Prerecorded audio synchronized with text</v>
+        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Conformance</v>
       </c>
       <c r="D15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1657,74 +1570,74 @@
       </c>
       <c r="E15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Conformance</v>
       </c>
       <c r="F15" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <v>ways-of-reading-prerecorded-audio-complementary</v>
+        <v>conformance-a</v>
       </c>
       <c r="B16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>This publication meets minimum accessibility standards</v>
+      </c>
+      <c r="D16" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>This publication meets minimum accessibility standards</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <v>ways-of-reading-prerecorded-audio-no-metadata</v>
+        <v>conformance-aa</v>
       </c>
       <c r="B17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C17" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No information is available about pre-recorded audio.</v>
+        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="D17" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="F17" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <v>conformance-title</v>
+        <v>conformance-aaa</v>
       </c>
       <c r="B18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C18" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="D18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1732,7 +1645,7 @@
       </c>
       <c r="E18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="F18" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1741,15 +1654,15 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <v>conformance-aaa</v>
+        <v>conformance-no</v>
       </c>
       <c r="B19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>No information is available</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1757,7 +1670,7 @@
       </c>
       <c r="E19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>No information is available</v>
       </c>
       <c r="F19" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1766,15 +1679,15 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <v>conformance-aa</v>
+        <v>conformance-claim</v>
       </c>
       <c r="B20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication claims to meet</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>This publication claims to meet</v>
       </c>
       <c r="D20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1782,7 +1695,7 @@
       </c>
       <c r="E20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication claims to meet</v>
       </c>
       <c r="F20" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1791,15 +1704,15 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <v>conformance-a</v>
+        <v>conformance-certifier</v>
       </c>
       <c r="B21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="C21" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>The publication was certified by</v>
       </c>
       <c r="D21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1807,7 +1720,7 @@
       </c>
       <c r="E21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="F21" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1816,15 +1729,15 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>conformance-no</v>
+        <v>conformance-certifier-credentials</v>
       </c>
       <c r="B22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="C22" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>The certifier's credential is</v>
       </c>
       <c r="D22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1832,7 +1745,7 @@
       </c>
       <c r="E22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="F22" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1841,40 +1754,40 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <v>conformance-certifier</v>
+        <v>conformance-certification-info</v>
       </c>
       <c r="B23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v/>
       </c>
       <c r="C23" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
-      </c>
-      <c r="D23" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>The publication was certified on</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
-      </c>
-      <c r="F23" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>The publication was certified on</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>conformance-certifier-credentials</v>
+        <v>conformance-certifier-report</v>
       </c>
       <c r="B24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C24" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="D24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1882,7 +1795,7 @@
       </c>
       <c r="E24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="F24" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1898,7 +1811,7 @@
         <v>Detailed conformance information</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v>Detailed conformance information</v>
       </c>
       <c r="D25" s="2" t="b">
@@ -1916,15 +1829,15 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>conformance-claim</v>
+        <v>conformance-epub-accessibility-1-1</v>
       </c>
       <c r="B26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="D26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1932,7 +1845,7 @@
       </c>
       <c r="E26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="F26" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1941,73 +1854,73 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <v>conformance-epub-accessibility-1-1</v>
+        <v>conformance-wcag-2-1</v>
       </c>
       <c r="B27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v/>
       </c>
       <c r="C27" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D27" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>WCAG 2.1</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
-      </c>
-      <c r="F27" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.1</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>conformance-wcag-2-1</v>
+        <v>conformance-level-aa</v>
       </c>
       <c r="B28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Level AA</v>
       </c>
       <c r="C28" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Level AA</v>
+      </c>
+      <c r="D28" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
-      </c>
-      <c r="F28" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>Level AA</v>
+      </c>
+      <c r="F28" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>conformance-level-aa</v>
+        <v>conformance-epub-accessibility-1-0</v>
       </c>
       <c r="B29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="C29" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="D29" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="F29" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2016,15 +1929,15 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>conformance-certification-info</v>
+        <v>conformance-wcag-2-2</v>
       </c>
       <c r="B30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C30" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
+        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>WCAG 2.2</v>
       </c>
       <c r="D30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2032,7 +1945,7 @@
       </c>
       <c r="E30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
+        <v>WCAG 2.2</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2041,15 +1954,15 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>conformance-certifier-report</v>
+        <v>conformance-level-a</v>
       </c>
       <c r="B31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>Level A</v>
       </c>
       <c r="C31" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Level A</v>
       </c>
       <c r="D31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2057,7 +1970,7 @@
       </c>
       <c r="E31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>Level A</v>
       </c>
       <c r="F31" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2066,73 +1979,73 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>conformance-epub-accessibility-1-0</v>
+        <v>conformance-unknown-standard</v>
       </c>
       <c r="B32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="C32" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="D32" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v/>
       </c>
       <c r="F32" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>conformance-wcag-2-2</v>
+        <v>navigation-title</v>
       </c>
       <c r="B33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Navigation</v>
       </c>
       <c r="C33" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Navigation</v>
+      </c>
+      <c r="D33" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
-      </c>
-      <c r="F33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>Navigation</v>
+      </c>
+      <c r="F33" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>conformance-level-a</v>
+        <v>navigation-no-metadata</v>
       </c>
       <c r="B34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level A</v>
+        <v>No information is available</v>
       </c>
       <c r="C34" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D34" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level A</v>
+        <v>No information is available</v>
       </c>
       <c r="F34" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2141,40 +2054,40 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>conformance-unknown-standard</v>
+        <v>navigation-toc</v>
       </c>
       <c r="B35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
+        <v>Table of contents</v>
       </c>
       <c r="C35" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Table of contents</v>
       </c>
       <c r="D35" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Table of contents</v>
       </c>
       <c r="F35" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>navigation-title</v>
+        <v>navigation-index</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Index</v>
       </c>
       <c r="C36" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Index</v>
       </c>
       <c r="D36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2182,7 +2095,7 @@
       </c>
       <c r="E36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Index</v>
       </c>
       <c r="F36" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2191,15 +2104,15 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>navigation-no-metadata</v>
+        <v>navigation-structural</v>
       </c>
       <c r="B37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Headings</v>
       </c>
       <c r="C37" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Headings</v>
       </c>
       <c r="D37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2207,7 +2120,7 @@
       </c>
       <c r="E37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Headings</v>
       </c>
       <c r="F37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2216,15 +2129,15 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>navigation-toc</v>
+        <v>navigation-page-navigation</v>
       </c>
       <c r="B38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>Go to page</v>
       </c>
       <c r="C38" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Go to page</v>
       </c>
       <c r="D38" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2232,7 +2145,7 @@
       </c>
       <c r="E38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>Go to page</v>
       </c>
       <c r="F38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2241,15 +2154,15 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>navigation-index</v>
+        <v>rich-content-title</v>
       </c>
       <c r="B39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Index</v>
+        <v>Rich content</v>
       </c>
       <c r="C39" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Index</v>
+        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Rich content</v>
       </c>
       <c r="D39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2257,7 +2170,7 @@
       </c>
       <c r="E39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Index</v>
+        <v>Rich content</v>
       </c>
       <c r="F39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2266,15 +2179,15 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>navigation-structural</v>
+        <v>rich-content-unknown</v>
       </c>
       <c r="B40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Headings</v>
+        <v>No information is available</v>
       </c>
       <c r="C40" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Headings</v>
+        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D40" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2282,7 +2195,7 @@
       </c>
       <c r="E40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Headings</v>
+        <v>No information is available</v>
       </c>
       <c r="F40" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2291,15 +2204,15 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>navigation-page-navigation</v>
+        <v>rich-content-accessible-math-as-mathml</v>
       </c>
       <c r="B41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Math as MathML</v>
       </c>
       <c r="C41" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Math as MathML</v>
       </c>
       <c r="D41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2307,7 +2220,7 @@
       </c>
       <c r="E41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Math as MathML</v>
       </c>
       <c r="F41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2316,15 +2229,15 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>rich-content-title</v>
+        <v>rich-content-accessible-math-as-latex</v>
       </c>
       <c r="B42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="C42" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Math as LaTeX</v>
       </c>
       <c r="D42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2332,24 +2245,24 @@
       </c>
       <c r="E42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>Math as LaTex</v>
       </c>
       <c r="F42" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <v>rich-content-unknown</v>
+        <v>rich-content-accessible-math-described</v>
       </c>
       <c r="B43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="C43" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="D43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2357,24 +2270,24 @@
       </c>
       <c r="E43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Math as images with text description</v>
       </c>
       <c r="F43" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <v>rich-content-accessible-math-as-mathml</v>
+        <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
       <c r="B44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="C44" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="D44" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2382,7 +2295,7 @@
       </c>
       <c r="E44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="F44" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2391,23 +2304,23 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>rich-content-accessible-math-as-latex</v>
+        <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
       <c r="B45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="C45" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Math as LaTex</v>
+        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="D45" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as LaTex</v>
+        <v/>
       </c>
       <c r="F45" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2416,40 +2329,40 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>rich-content-accessible-math-described</v>
+        <v>rich-content-extended</v>
       </c>
       <c r="B46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>text descriptions of math is provided</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C46" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Math as images with text description</v>
+        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="D46" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as images with text description</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="F46" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>rich-content-accessible-chemistry-as-mathml</v>
+        <v>rich-content-closed-captions</v>
       </c>
       <c r="B47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="C47" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Videos have closed captions</v>
       </c>
       <c r="D47" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2457,7 +2370,7 @@
       </c>
       <c r="E47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="F47" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2466,40 +2379,40 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <v>rich-content-accessible-chemistry-as-latex</v>
+        <v>rich-content-open-captions</v>
       </c>
       <c r="B48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in LaTeX</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="C48" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Chemical formulas in LaTex</v>
+        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Videos have open captions</v>
       </c>
       <c r="D48" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Videos have open captions</v>
       </c>
       <c r="F48" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <v>rich-content-extended</v>
+        <v>rich-content-transcript</v>
       </c>
       <c r="B49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="C49" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="D49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2507,24 +2420,24 @@
       </c>
       <c r="E49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Has transcript</v>
       </c>
       <c r="F49" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <v>rich-content-closed-captions</v>
+        <v>hazards-title</v>
       </c>
       <c r="B50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Hazards</v>
       </c>
       <c r="C50" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Hazards</v>
       </c>
       <c r="D50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2532,7 +2445,7 @@
       </c>
       <c r="E50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Hazards</v>
       </c>
       <c r="F50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2541,15 +2454,15 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <v>rich-content-open-captions</v>
+        <v>hazards-no-metadata</v>
       </c>
       <c r="B51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>No information is available</v>
       </c>
       <c r="C51" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D51" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2557,7 +2470,7 @@
       </c>
       <c r="E51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>No information is available</v>
       </c>
       <c r="F51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2566,40 +2479,40 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <v>rich-content-transcript</v>
+        <v>hazards-none</v>
       </c>
       <c r="B52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Transcript(s) provided)</v>
+        <v>No hazards</v>
       </c>
       <c r="C52" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Has transcript</v>
+        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No hazards</v>
       </c>
       <c r="D52" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Has transcript</v>
+        <v>No hazards</v>
       </c>
       <c r="F52" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <v>hazards-title</v>
+        <v>hazards-flashing</v>
       </c>
       <c r="B53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>Flashing content</v>
       </c>
       <c r="C53" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Flashing content</v>
       </c>
       <c r="D53" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2607,7 +2520,7 @@
       </c>
       <c r="E53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>Flashing content</v>
       </c>
       <c r="F53" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2616,15 +2529,15 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <v>hazards-no-metadata</v>
+        <v>hazards-motion</v>
       </c>
       <c r="B54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Motion simulation</v>
       </c>
       <c r="C54" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Motion simulation</v>
       </c>
       <c r="D54" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2632,7 +2545,7 @@
       </c>
       <c r="E54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Motion simulation</v>
       </c>
       <c r="F54" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2641,15 +2554,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <v>hazards-none</v>
+        <v>hazards-sound</v>
       </c>
       <c r="B55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Sounds</v>
       </c>
       <c r="C55" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Sounds</v>
       </c>
       <c r="D55" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2657,24 +2570,24 @@
       </c>
       <c r="E55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Loud sounds</v>
       </c>
       <c r="F55" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <v>hazards-flashing</v>
+        <v>hazards-unknown</v>
       </c>
       <c r="B56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="C56" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="D56" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2682,7 +2595,7 @@
       </c>
       <c r="E56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="F56" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2691,65 +2604,65 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <v>hazards-motion</v>
+        <v>hazards-no-metadata].</v>
       </c>
       <c r="B57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v/>
       </c>
       <c r="C57" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Motion simulation</v>
-      </c>
-      <c r="D57" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Motion simulation</v>
-      </c>
-      <c r="F57" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <v>hazards-sound</v>
+        <v>accessibility-summary-title</v>
       </c>
       <c r="B58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>sounds</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="C58" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Loud sounds</v>
+        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Accessibility summary</v>
       </c>
       <c r="D58" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Loud sounds</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="F58" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <v>hazards-unknown</v>
+        <v>accessibility-summary-no-metadata</v>
       </c>
       <c r="B59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>No information is available</v>
       </c>
       <c r="C59" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D59" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2757,7 +2670,7 @@
       </c>
       <c r="E59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>No information is available</v>
       </c>
       <c r="F59" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2766,40 +2679,40 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <v>hazards-no-metadata].</v>
+        <v>legal-considerations-title</v>
       </c>
       <c r="B60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Legal considerations</v>
       </c>
       <c r="C60" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D60" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Legal considerations</v>
+      </c>
+      <c r="D60" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F60" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>Legal considerations</v>
+      </c>
+      <c r="F60" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <v>accessibility-summary-title</v>
+        <v>legal-considerations-exempt</v>
       </c>
       <c r="B61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="C61" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="D61" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2807,7 +2720,7 @@
       </c>
       <c r="E61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="F61" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2816,14 +2729,14 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <v>accessibility-summary-no-metadata</v>
+        <v>legal-considerations-no-metadata</v>
       </c>
       <c r="B62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="C62" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D62" s="2" t="b">
@@ -2841,40 +2754,40 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <v>legal-considerations-title</v>
+        <v>legal-title</v>
       </c>
       <c r="B63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v>Legal considerations</v>
       </c>
       <c r="C63" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D63" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v/>
       </c>
       <c r="F63" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <v>legal-considerations-exempt</v>
+        <v>additional-accessibility-information-title</v>
       </c>
       <c r="B64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="C64" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Additional accessibility information</v>
       </c>
       <c r="D64" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2882,74 +2795,74 @@
       </c>
       <c r="E64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v/>
       </c>
       <c r="F64" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <v>legal-considerations-no-metadata</v>
+        <v>add-info-title</v>
       </c>
       <c r="B65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="C65" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D65" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v/>
       </c>
       <c r="F65" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <v>additional-accessibility-information-title</v>
+        <v>conformance-wcag-2-0</v>
       </c>
       <c r="B66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v/>
       </c>
       <c r="C66" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D66" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>WCAG 2.0</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F66" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>WCAG 2.0</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <v>#additional-accessibility-information-title</v>
+        <v>conformance-level-aaa</v>
       </c>
       <c r="B67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C67" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Level AAA</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2957,7 +2870,7 @@
       </c>
       <c r="E67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>Level AAA</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2966,18 +2879,18 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <v>conformance-epub10-wcag20a</v>
+        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
       </c>
       <c r="B68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C68" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.0 WCAG 2.0 Level</v>
+        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Audio descriptions</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" ref="D68:D98" si="2">IF($B68="","",EXACT($B68,C68))</f>
+        <f t="shared" ref="D68:D96" si="2">IF($B68="","",EXACT($B68,C68))</f>
         <v/>
       </c>
       <c r="E68" s="5" t="str">
@@ -2985,21 +2898,21 @@
         <v/>
       </c>
       <c r="F68" s="2" t="str">
-        <f t="shared" ref="F68:F98" si="3">IF($B68="","",EXACT($B68,E68))</f>
+        <f t="shared" ref="F68:F96" si="3">IF($B68="","",EXACT($B68,E68))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <v>conformance-epub10-wcag20aa</v>
+        <v>additional-accessibility-information-adaptation-braille</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C69" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.0 WCAG 2.0 Level A</v>
+        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Braille</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3016,15 +2929,15 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <v>conformance-epub10-wcag20aaa</v>
+        <v>additional-accessibility-information-adaptation-tactile_graphics</v>
       </c>
       <c r="B70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C70" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.0 WCAG 2.0 Level AA</v>
+        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Tactile graphics</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3041,15 +2954,15 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <v>conformance-epub11-wcag20a</v>
+        <v>additional-accessibility-information-adaptation-tactile_objects</v>
       </c>
       <c r="B71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C71" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.0 Level</v>
+        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Tactile 3D objects</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3066,15 +2979,15 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <v>conformance-epub11-wcag20aa</v>
+        <v>additional-accessibility-information-adaptation-sign-language</v>
       </c>
       <c r="B72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C72" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.0 Level A</v>
+        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Sign language</v>
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3082,7 +2995,7 @@
       </c>
       <c r="E72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Sign language</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3091,15 +3004,15 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <v>conformance-epub11-wcag20aaa</v>
+        <v>additional-accessibility-information-clarity-aria</v>
       </c>
       <c r="B73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C73" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.0 Level AA</v>
+        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>ARIA</v>
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3116,15 +3029,15 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <v>conformance-epub11-wcag21a</v>
+        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
       </c>
       <c r="B74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C74" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.1 Level</v>
+        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Full ruby annotations</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3141,15 +3054,15 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <v>conformance-epub11-wcag21aa</v>
+        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
       </c>
       <c r="B75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C75" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.1 Level A</v>
+        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3157,7 +3070,7 @@
       </c>
       <c r="E75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3166,15 +3079,15 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <v>conformance-epub11-wcag21aaa</v>
+        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
       </c>
       <c r="B76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C76" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.1 Level AA</v>
+        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3182,7 +3095,7 @@
       </c>
       <c r="E76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3191,15 +3104,15 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <v>conformance-epub11-wcag22a</v>
+        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
       </c>
       <c r="B77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C77" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.2 Level</v>
+        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>High contrast between foreground text and background</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3207,7 +3120,7 @@
       </c>
       <c r="E77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>High contrast between text and background</v>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3216,15 +3129,15 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <v>conformance-epub11-wcag22aa</v>
+        <v>additional-accessibility-information-clarity-large-print</v>
       </c>
       <c r="B78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.2 Level A</v>
+        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Large print</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3241,15 +3154,15 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <v>conformance-epub11-wcag22aaa</v>
+        <v>additional-accessibility-information-clarity-page-breaks</v>
       </c>
       <c r="B79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C79" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>PUB Accessibility 1.1 WCAG 2.2 Level AA</v>
+        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Visible page breaks</v>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3266,15 +3179,15 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
+        <v>additional-accessibility-information-clarity-ruby-annotations</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C80" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Audio descriptions</v>
+        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v>Some Ruby annotations</v>
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3291,15 +3204,15 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>additional-accessibility-information-adaptation-braille</v>
+        <v>#additional-accessibility-information-title</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C81" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Braille</v>
+        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3307,7 +3220,7 @@
       </c>
       <c r="E81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Additional accessibility information</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3316,15 +3229,15 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_graphics</v>
+        <v>visual-adjustments-modifiable</v>
       </c>
       <c r="B82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C82" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Tactile graphics</v>
+        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D82" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3332,7 +3245,7 @@
       </c>
       <c r="E82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Appearance can be modified</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3341,15 +3254,15 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_objects</v>
+        <v>visual-adjustments-unmodifiable</v>
       </c>
       <c r="B83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C83" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Tactile 3D objects</v>
+        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D83" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3357,7 +3270,7 @@
       </c>
       <c r="E83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Appearance cannot be modified</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3366,15 +3279,15 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <v>additional-accessibility-information-adaptation-sign-language</v>
+        <v>visual-adjustments-unknown</v>
       </c>
       <c r="B84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C84" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D84" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3382,7 +3295,7 @@
       </c>
       <c r="E84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v>No information is available</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3391,15 +3304,15 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
+        <v>nonvisual-reading-readable</v>
       </c>
       <c r="B85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C85" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>ARIA</v>
+        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D85" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3407,7 +3320,7 @@
       </c>
       <c r="E85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3416,15 +3329,15 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
-        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
+        <v>nonvisual-reading-alt-text</v>
       </c>
       <c r="B86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C86" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Full ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D86" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3432,7 +3345,7 @@
       </c>
       <c r="E86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Has alt text</v>
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3441,15 +3354,15 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
-        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
+        <v>nonvisual-reading-not-fully</v>
       </c>
       <c r="B87" s="5" t="str">
         <f>IFERROR(VLOOKUP($A87&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C87" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D87" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3457,7 +3370,7 @@
       </c>
       <c r="E87" s="5" t="str">
         <f>IFERROR(VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3466,15 +3379,15 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
+        <v>nonvisual-reading-may-not-fully</v>
       </c>
       <c r="B88" s="5" t="str">
         <f>IFERROR(VLOOKUP($A88&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C88" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D88" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3482,7 +3395,7 @@
       </c>
       <c r="E88" s="5" t="str">
         <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3491,15 +3404,15 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
+        <v>prerecorded-audio-only</v>
       </c>
       <c r="B89" s="5" t="str">
         <f>IFERROR(VLOOKUP($A89&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C89" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>High contrast between foreground text and background</v>
+        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D89" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3507,7 +3420,7 @@
       </c>
       <c r="E89" s="5" t="str">
         <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between text and background</v>
+        <v>Audio only</v>
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3516,15 +3429,15 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
-        <v>additional-accessibility-information-clarity-large-print</v>
+        <v>prerecorded-audio-complementary</v>
       </c>
       <c r="B90" s="5" t="str">
         <f>IFERROR(VLOOKUP($A90&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C90" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Large print</v>
+        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D90" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3532,7 +3445,7 @@
       </c>
       <c r="E90" s="5" t="str">
         <f>IFERROR(VLOOKUP($A90,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Complementary audio and text</v>
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3541,15 +3454,15 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
+        <v>prerecorded-audio-synchronized</v>
       </c>
       <c r="B91" s="5" t="str">
         <f>IFERROR(VLOOKUP($A91&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C91" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Visible page breaks</v>
+        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D91" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3557,7 +3470,7 @@
       </c>
       <c r="E91" s="5" t="str">
         <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3566,15 +3479,15 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <v>additional-accessibility-information-clarity-ruby-annotations</v>
+        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
       </c>
       <c r="B92" s="5" t="str">
         <f>IFERROR(VLOOKUP($A92&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C92" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v>Some Ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D92" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3582,7 +3495,7 @@
       </c>
       <c r="E92" s="5" t="str">
         <f>IFERROR(VLOOKUP($A92,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Dyslexia readability</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3591,14 +3504,14 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
-        <v>visual-adjustments-modifiable</v>
+        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B93" s="5" t="str">
         <f>IFERROR(VLOOKUP($A93&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C93" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D93" s="2" t="str">
@@ -3607,7 +3520,7 @@
       </c>
       <c r="E93" s="5" t="str">
         <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Appearance can be modified</v>
+        <v>Color is not the sole means of conveying information</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3616,14 +3529,14 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
-        <v>visual-adjustments-unmodifiable</v>
+        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
       </c>
       <c r="B94" s="5" t="str">
         <f>IFERROR(VLOOKUP($A94&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C94" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D94" s="2" t="str">
@@ -3632,7 +3545,7 @@
       </c>
       <c r="E94" s="5" t="str">
         <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Appearance cannot be modified</v>
+        <v>Ultra high contrast between text and background</v>
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3641,14 +3554,14 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
-        <v>visual-adjustments-unknown</v>
+        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
       </c>
       <c r="B95" s="5" t="str">
         <f>IFERROR(VLOOKUP($A95&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C95" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D95" s="2" t="str">
@@ -3657,7 +3570,7 @@
       </c>
       <c r="E95" s="5" t="str">
         <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Visible page numbering</v>
       </c>
       <c r="F95" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3666,14 +3579,14 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
-        <v>nonvisual-reading-readable</v>
+        <v>additional-accessibility-information-clarity-without-background-sounds</v>
       </c>
       <c r="B96" s="5" t="str">
         <f>IFERROR(VLOOKUP($A96&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C96" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D96" s="2" t="str">
@@ -3682,290 +3595,221 @@
       </c>
       <c r="E96" s="5" t="str">
         <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Readable in read aloud or dynamic braille</v>
+        <v>Without background sounds</v>
       </c>
       <c r="F96" s="2" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="str">
-        <v>nonvisual-reading-alt-text</v>
-      </c>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="5" t="str">
         <f>IFERROR(VLOOKUP($A97&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C97" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D97" s="2"/>
       <c r="E97" s="5" t="str">
         <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Has alt text</v>
-      </c>
-      <c r="F97" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="str">
-        <v>nonvisual-reading-not-fully</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="5" t="str">
         <f>IFERROR(VLOOKUP($A98&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C98" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D98" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D98" s="2"/>
       <c r="E98" s="5" t="str">
         <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Not fully readable in read aloud or dynamic braille</v>
-      </c>
-      <c r="F98" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="str">
-        <v>nonvisual-reading-may-not-fully</v>
-      </c>
+        <v/>
+      </c>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="5" t="str">
         <f>IFERROR(VLOOKUP($A99&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C99" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="5" t="str">
         <f>IFERROR(VLOOKUP($A99,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>May not be fully readable in read aloud or dynamic braille</v>
+        <v/>
       </c>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="str">
-        <v>prerecorded-audio-only</v>
-      </c>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="str">
         <f>IFERROR(VLOOKUP($A100&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C100" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="5" t="str">
         <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Audio only</v>
+        <v/>
       </c>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="str">
-        <v>prerecorded-audio-complementary</v>
-      </c>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="5" t="str">
         <f>IFERROR(VLOOKUP($A101&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C101" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="5" t="str">
         <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <v/>
       </c>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="str">
-        <v>prerecorded-audio-synchronized</v>
-      </c>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="5" t="str">
         <f>IFERROR(VLOOKUP($A102&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C102" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="5" t="str">
         <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Prerecorded audio synchronized with text</v>
+        <v/>
       </c>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="str">
-        <v>conformance-wcag-2-0</v>
-      </c>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="5" t="str">
         <f>IFERROR(VLOOKUP($A103&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C103" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="5" t="str">
         <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
+        <v/>
       </c>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="str">
-        <v>conformance-level-aaa</v>
-      </c>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="5" t="str">
         <f>IFERROR(VLOOKUP($A104&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C104" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A104,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A104,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="5" t="str">
         <f>IFERROR(VLOOKUP($A104,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <v/>
       </c>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
-      </c>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="5" t="str">
         <f>IFERROR(VLOOKUP($A105&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C105" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A105,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A105,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="5" t="str">
         <f>IFERROR(VLOOKUP($A105,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Dyslexia readability</v>
+        <v/>
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" t="str">
-        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
-      </c>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="5" t="str">
         <f>IFERROR(VLOOKUP($A106&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C106" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A106,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A106,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="5" t="str">
         <f>IFERROR(VLOOKUP($A106,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Color is not the sole means of conveying information</v>
+        <v/>
       </c>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" t="str">
-        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
-      </c>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="5" t="str">
         <f>IFERROR(VLOOKUP($A107&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C107" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A107,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A107,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="5" t="str">
         <f>IFERROR(VLOOKUP($A107,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Ultra high contrast between text and background</v>
+        <v/>
       </c>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" t="str">
-        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
-      </c>
-      <c r="B108" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A108&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C108" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A108,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="5" t="str">
         <f>IFERROR(VLOOKUP($A108,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Visible page numbering</v>
+        <v/>
       </c>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" t="str">
-        <v>additional-accessibility-information-clarity-without-background-sounds</v>
-      </c>
-      <c r="B109" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A109&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C109" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A109,'epub-metadata-strings'!$D$2:$E$985,2,FALSE),"")</f>
-        <v/>
-      </c>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A109,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Without background sounds</v>
-      </c>
+      <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A110,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4175,23 +4019,9 @@
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F99" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
-  <conditionalFormatting sqref="D2:D98">
+  <autoFilter ref="A1:F97" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
+  <conditionalFormatting sqref="D2:D96">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4199,7 +4029,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F98">
+  <conditionalFormatting sqref="F2:F96">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4213,10 +4043,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4228,7 +4058,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>70</v>
@@ -4243,7 +4073,7 @@
         <v>73</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>74</v>
@@ -4261,160 +4091,172 @@
         <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f t="shared" ref="A3:A66" si="0">E3&amp;"-"&amp;IF(ISBLANK(F3),"compact",F3)</f>
-        <v>ways-to-read-visual-adjustments-title-compact</v>
+        <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D3" t="s">
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>191</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-title-compact</v>
+        <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-to-read-prerecorded-audio-title-compact</v>
+        <v>ways-of-reading-visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D5" t="s">
         <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>192</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>prerecorded-audio-no-metadata-descriptive</v>
+        <v>ways-of-reading-visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D6" t="s">
         <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>ways-of-reading-visual-adjustments-unknown-compact</v>
       </c>
       <c r="D7" t="s">
         <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>193</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
+        <v>ways-of-reading-visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D8" t="s">
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-unmodifiable-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D9" t="s">
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
         <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-unknown-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="F11" t="s">
         <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4426,367 +4268,370 @@
         <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-may-not-fully-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D13" t="s">
         <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
         <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>199</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
+        <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D16" t="s">
         <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-unmodifiable-compact</v>
+        <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D17" t="s">
         <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-unknown-compact</v>
+        <v>ways-of-reading-prerecorded-audio-only-compact</v>
       </c>
       <c r="D18" t="s">
         <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
+        <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D19" t="s">
         <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-readable-compact</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D20" t="s">
         <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-may-not-fully-compact</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D21" t="s">
         <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
+        <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
       </c>
       <c r="D22" t="s">
         <v>76</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="F22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>205</v>
+      </c>
+      <c r="F23" t="s">
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D24" t="s">
         <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
+        <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D25" t="s">
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
-      </c>
-      <c r="F25" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
+        <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D26" t="s">
         <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D27" t="s">
         <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>236</v>
-      </c>
-      <c r="F27" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D28" t="s">
         <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-only-compact</v>
+        <v>conformance-a-descriptive</v>
       </c>
       <c r="D29" t="s">
         <v>76</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D30" t="s">
         <v>76</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D31" t="s">
         <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>237</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-aaa-compact</v>
       </c>
       <c r="D32" t="s">
         <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-compact</v>
+        <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D33" t="s">
         <v>76</v>
@@ -4795,739 +4640,739 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-descriptive</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D34" t="s">
         <v>76</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
         <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-no-descriptive</v>
       </c>
       <c r="D35" t="s">
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-descriptive</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D36" t="s">
         <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-certifier-descriptive</v>
       </c>
       <c r="D37" t="s">
         <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-descriptive</v>
+        <v>conformance-certifier-credentials-descriptive</v>
       </c>
       <c r="D38" t="s">
         <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-aaa-compact</v>
       </c>
       <c r="D41" t="s">
         <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D42" t="s">
         <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G42" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D43" t="s">
         <v>76</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D44" t="s">
         <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D45" t="s">
         <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-1-compact</v>
+        <v>conformance-a-descriptive</v>
       </c>
       <c r="D46" t="s">
         <v>76</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>93</v>
       </c>
       <c r="G46" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-1-descriptive</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D47" t="s">
         <v>76</v>
       </c>
       <c r="E47" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
         <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-level-aa-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D48" t="s">
         <v>76</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-descriptive</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D49" t="s">
         <v>76</v>
       </c>
       <c r="E49" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F49" t="s">
         <v>94</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D50" t="s">
         <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D51" t="s">
         <v>76</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D52" t="s">
         <v>76</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D53" t="s">
         <v>76</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D54" t="s">
         <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D55" t="s">
         <v>76</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>93</v>
       </c>
       <c r="G55" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-level-aa-compact</v>
       </c>
       <c r="D56" t="s">
         <v>76</v>
       </c>
       <c r="E56" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-0-compact</v>
+        <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D57" t="s">
         <v>76</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>93</v>
       </c>
       <c r="G57" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-2-descriptive</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D58" t="s">
         <v>76</v>
       </c>
       <c r="E58" t="s">
-        <v>28</v>
-      </c>
-      <c r="F58" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-level-a-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D59" t="s">
         <v>76</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-descriptive</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D60" t="s">
         <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
         <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D61" t="s">
         <v>76</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D62" t="s">
         <v>76</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D63" t="s">
         <v>76</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-unknown-standard-compact</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D64" t="s">
         <v>76</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="G64" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D65" t="s">
         <v>76</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D66" t="s">
         <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="F66" t="s">
+        <v>93</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" ref="A67:A130" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
-        <v>conformance-details-compact</v>
+        <v>conformance-level-a-compact</v>
       </c>
       <c r="D67" t="s">
         <v>76</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D68" t="s">
         <v>76</v>
       </c>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>36</v>
+      </c>
+      <c r="F68" t="s">
+        <v>93</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D69" t="s">
         <v>76</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="G69" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D70" t="s">
         <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D71" t="s">
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
-      </c>
-      <c r="F71" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D72" t="s">
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-descriptive</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D73" t="s">
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
-      </c>
-      <c r="F73" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-descriptive</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
-      </c>
-      <c r="F74" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-descriptive</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D75" t="s">
         <v>76</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
-      </c>
-      <c r="F75" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-descriptive</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D76" t="s">
         <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G76" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D77" t="s">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
         <v>94</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5539,316 +5384,313 @@
         <v>76</v>
       </c>
       <c r="E78" t="s">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s">
         <v>84</v>
-      </c>
-      <c r="G78" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D79" t="s">
         <v>76</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G79" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-compact</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D80" t="s">
         <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G80" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-compact</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D81" t="s">
         <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-index-compact</v>
       </c>
       <c r="D82" t="s">
         <v>76</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-compact</v>
+        <v>navigation-index-descriptive</v>
       </c>
       <c r="D83" t="s">
         <v>76</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>navigation-structural-compact</v>
       </c>
       <c r="D84" t="s">
         <v>76</v>
       </c>
       <c r="E84" t="s">
-        <v>195</v>
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>94</v>
       </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>navigation-structural-descriptive</v>
       </c>
       <c r="D85" t="s">
         <v>76</v>
       </c>
       <c r="E85" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D86" t="s">
         <v>76</v>
       </c>
       <c r="E86" t="s">
-        <v>195</v>
+        <v>42</v>
+      </c>
+      <c r="F86" t="s">
+        <v>94</v>
       </c>
       <c r="G86" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-descriptive</v>
+        <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D87" t="s">
         <v>76</v>
       </c>
       <c r="E87" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G87" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-descriptive</v>
+        <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D88" t="s">
         <v>76</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
         <v>94</v>
       </c>
       <c r="G88" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-descriptive</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D89" t="s">
         <v>76</v>
       </c>
       <c r="E89" t="s">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G89" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D90" t="s">
         <v>76</v>
       </c>
       <c r="E90" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G90" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D91" t="s">
         <v>76</v>
       </c>
       <c r="E91" t="s">
-        <v>148</v>
-      </c>
-      <c r="F91" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G91" t="s">
-        <v>240</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D92" t="s">
         <v>76</v>
       </c>
       <c r="E92" t="s">
-        <v>149</v>
-      </c>
-      <c r="F92" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="G92" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-descriptive</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D93" t="s">
         <v>76</v>
       </c>
       <c r="E93" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G93" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-descriptive</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D94" t="s">
         <v>76</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="F94" t="s">
         <v>94</v>
       </c>
       <c r="G94" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-descriptive</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D95" t="s">
         <v>76</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="F95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D96" t="s">
         <v>76</v>
@@ -5860,28 +5702,31 @@
         <v>94</v>
       </c>
       <c r="G96" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D97" t="s">
         <v>76</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>141</v>
+      </c>
+      <c r="F97" t="s">
+        <v>93</v>
       </c>
       <c r="G97" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-compact</v>
+        <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D98" t="s">
         <v>76</v>
@@ -5890,64 +5735,64 @@
         <v>142</v>
       </c>
       <c r="F98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G98" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-compact</v>
+        <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D99" t="s">
         <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G99" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D100" t="s">
         <v>76</v>
       </c>
       <c r="E100" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G100" t="s">
-        <v>239</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D101" t="s">
         <v>76</v>
       </c>
       <c r="E101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G101" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5959,274 +5804,274 @@
         <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F102" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G102" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-compact</v>
+        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D103" t="s">
         <v>76</v>
       </c>
       <c r="E103" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F103" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G103" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-compact</v>
+        <v>rich-content-extended-compact</v>
       </c>
       <c r="D104" t="s">
         <v>76</v>
       </c>
       <c r="E104" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="F104" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G104" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-compact</v>
+        <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D105" t="s">
         <v>76</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="F105" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G105" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D106" t="s">
         <v>76</v>
       </c>
       <c r="E106" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="F106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G106" t="s">
-        <v>241</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-compact</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D107" t="s">
         <v>76</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="F107" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G107" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D108" t="s">
         <v>76</v>
       </c>
       <c r="E108" t="s">
-        <v>86</v>
+        <v>169</v>
+      </c>
+      <c r="F108" t="s">
+        <v>94</v>
       </c>
       <c r="G108" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D109" t="s">
         <v>76</v>
       </c>
       <c r="E109" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="F109" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G109" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D110" t="s">
         <v>76</v>
       </c>
       <c r="E110" t="s">
-        <v>86</v>
+        <v>170</v>
+      </c>
+      <c r="F110" t="s">
+        <v>94</v>
       </c>
       <c r="G110" t="s">
-        <v>87</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-descriptive</v>
+        <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D111" t="s">
         <v>76</v>
       </c>
       <c r="E111" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="F111" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-descriptive</v>
+        <v>rich-content-unknown-compact</v>
       </c>
       <c r="D112" t="s">
         <v>76</v>
       </c>
       <c r="E112" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="F112" t="s">
         <v>94</v>
       </c>
       <c r="G112" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-descriptive</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D113" t="s">
         <v>76</v>
       </c>
       <c r="E113" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="F113" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G113" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-sound-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D114" t="s">
         <v>76</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
-      </c>
-      <c r="F114" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="G114" t="s">
-        <v>244</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D115" t="s">
         <v>76</v>
       </c>
       <c r="E115" t="s">
-        <v>50</v>
-      </c>
-      <c r="F115" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="G115" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata].-descriptive</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D116" t="s">
         <v>76</v>
       </c>
       <c r="E116" t="s">
-        <v>164</v>
-      </c>
-      <c r="F116" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G116" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D117" t="s">
         <v>76</v>
       </c>
       <c r="E117" t="s">
-        <v>86</v>
+        <v>51</v>
+      </c>
+      <c r="F117" t="s">
+        <v>93</v>
       </c>
       <c r="G117" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -6241,7 +6086,7 @@
         <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -6250,286 +6095,439 @@
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D119" t="s">
         <v>76</v>
       </c>
       <c r="E119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G119" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-compact</v>
+        <v>hazards-flashing-compact</v>
       </c>
       <c r="D120" t="s">
         <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G120" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-sound-compact</v>
+        <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D121" t="s">
         <v>76</v>
       </c>
       <c r="E121" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F121" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G121" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-compact</v>
+        <v>hazards-motion-compact</v>
       </c>
       <c r="D122" t="s">
         <v>76</v>
       </c>
       <c r="E122" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F122" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G122" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-compact</v>
+        <v>hazards-motion-descriptive</v>
       </c>
       <c r="D123" t="s">
         <v>76</v>
       </c>
       <c r="E123" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F123" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G123" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>hazards-sound-compact</v>
       </c>
       <c r="D124" t="s">
         <v>76</v>
       </c>
       <c r="E124" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="F124" t="s">
+        <v>94</v>
       </c>
       <c r="G124" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>accessibility-summary-no-metadata-compact</v>
+        <v>hazards-sound-descriptive</v>
       </c>
       <c r="D125" t="s">
         <v>76</v>
       </c>
       <c r="E125" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F125" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G125" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>hazards-unknown-compact</v>
       </c>
       <c r="D126" t="s">
         <v>76</v>
       </c>
       <c r="E126" t="s">
-        <v>88</v>
+        <v>50</v>
+      </c>
+      <c r="F126" t="s">
+        <v>94</v>
       </c>
       <c r="G126" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>legal-considerations-title-compact</v>
+        <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D127" t="s">
         <v>76</v>
       </c>
       <c r="E127" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="F127" t="s">
+        <v>93</v>
       </c>
       <c r="G127" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>legal-considerations-title-compact</v>
+        <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D128" t="s">
         <v>76</v>
       </c>
       <c r="E128" t="s">
-        <v>97</v>
+        <v>51</v>
+      </c>
+      <c r="F128" t="s">
+        <v>94</v>
       </c>
       <c r="G128" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>legal-considerations-exempt-descriptive</v>
+        <v>hazards-no-metadata].-descriptive</v>
       </c>
       <c r="D129" t="s">
         <v>76</v>
       </c>
       <c r="E129" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F129" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G129" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>legal-considerations-no-metadata-descriptive</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D130" t="s">
         <v>76</v>
       </c>
       <c r="E130" t="s">
-        <v>53</v>
-      </c>
-      <c r="F130" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G130" t="s">
-        <v>114</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
-        <f t="shared" ref="A131:A135" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
-        <v>legal-considerations-exempt-compact</v>
+        <f t="shared" ref="A131:A144" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D131" t="s">
         <v>76</v>
       </c>
       <c r="E131" t="s">
-        <v>168</v>
-      </c>
-      <c r="F131" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G131" t="s">
-        <v>209</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-compact</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D132" t="s">
         <v>76</v>
       </c>
       <c r="E132" t="s">
-        <v>53</v>
-      </c>
-      <c r="F132" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G132" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>accessibility-summary-no-metadata-compact</v>
       </c>
       <c r="D133" t="s">
         <v>76</v>
       </c>
       <c r="E133" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+      <c r="F133" t="s">
+        <v>94</v>
       </c>
       <c r="G133" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D134" t="s">
         <v>76</v>
       </c>
       <c r="E134" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G134" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f t="shared" si="2"/>
+        <v>legal-considerations-title-compact</v>
+      </c>
+      <c r="D135" t="s">
+        <v>76</v>
+      </c>
+      <c r="E135" t="s">
+        <v>96</v>
+      </c>
+      <c r="G135" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-exempt-compact</v>
+      </c>
+      <c r="D136" t="s">
+        <v>76</v>
+      </c>
+      <c r="E136" t="s">
+        <v>164</v>
+      </c>
+      <c r="F136" t="s">
+        <v>94</v>
+      </c>
+      <c r="G136" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-exempt-descriptive</v>
+      </c>
+      <c r="D137" t="s">
+        <v>76</v>
+      </c>
+      <c r="E137" t="s">
+        <v>164</v>
+      </c>
+      <c r="F137" t="s">
+        <v>93</v>
+      </c>
+      <c r="G137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-no-metadata-compact</v>
+      </c>
+      <c r="D138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E138" t="s">
+        <v>53</v>
+      </c>
+      <c r="F138" t="s">
+        <v>94</v>
+      </c>
+      <c r="G138" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-no-metadata-descriptive</v>
+      </c>
+      <c r="D139" t="s">
+        <v>76</v>
+      </c>
+      <c r="E139" t="s">
+        <v>53</v>
+      </c>
+      <c r="F139" t="s">
+        <v>93</v>
+      </c>
+      <c r="G139" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-title-compact</v>
+      </c>
+      <c r="D140" t="s">
+        <v>76</v>
+      </c>
+      <c r="E140" t="s">
+        <v>223</v>
+      </c>
+      <c r="G140" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-title-compact</v>
+      </c>
+      <c r="D141" t="s">
+        <v>76</v>
+      </c>
+      <c r="E141" t="s">
+        <v>223</v>
+      </c>
+      <c r="G141" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>additional-accessibility-information-title-compact</v>
       </c>
-      <c r="D135" t="s">
-        <v>76</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D142" t="s">
+        <v>76</v>
+      </c>
+      <c r="E142" t="s">
+        <v>89</v>
+      </c>
+      <c r="G142" t="s">
         <v>90</v>
       </c>
-      <c r="G135" t="s">
-        <v>91</v>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>add-info-title-compact</v>
+      </c>
+      <c r="D143" t="s">
+        <v>76</v>
+      </c>
+      <c r="E143" t="s">
+        <v>224</v>
+      </c>
+      <c r="G143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>add-info-title-compact</v>
+      </c>
+      <c r="D144" t="s">
+        <v>76</v>
+      </c>
+      <c r="E144" t="s">
+        <v>224</v>
+      </c>
+      <c r="G144" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -6539,10 +6537,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection sqref="A1:E79"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6576,10 +6574,10 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6587,10 +6585,10 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -6598,10 +6596,10 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -6609,10 +6607,10 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6620,10 +6618,10 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6631,10 +6629,10 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6642,10 +6640,10 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
         <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6653,10 +6651,10 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6664,7 +6662,7 @@
         <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
         <v>60</v>
@@ -6675,7 +6673,7 @@
         <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -6686,10 +6684,10 @@
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6697,10 +6695,10 @@
         <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6708,10 +6706,10 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6719,10 +6717,10 @@
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6730,10 +6728,10 @@
         <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -6741,10 +6739,10 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>247</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -6752,10 +6750,10 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="E18" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -6763,7 +6761,7 @@
         <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
@@ -6774,10 +6772,10 @@
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -6788,7 +6786,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -6829,10 +6827,10 @@
         <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -6840,10 +6838,10 @@
         <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -6851,10 +6849,10 @@
         <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -6862,10 +6860,10 @@
         <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
@@ -6873,10 +6871,10 @@
         <v>76</v>
       </c>
       <c r="D29" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
@@ -6884,10 +6882,10 @@
         <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
@@ -6895,10 +6893,10 @@
         <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>175</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
@@ -6906,10 +6904,10 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
@@ -6917,10 +6915,10 @@
         <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -6928,10 +6926,10 @@
         <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
@@ -6939,10 +6937,10 @@
         <v>76</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -6950,10 +6948,10 @@
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -6961,10 +6959,10 @@
         <v>76</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -6972,10 +6970,10 @@
         <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -6983,10 +6981,10 @@
         <v>76</v>
       </c>
       <c r="D39" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -6994,10 +6992,10 @@
         <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -7005,10 +7003,10 @@
         <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -7016,10 +7014,10 @@
         <v>76</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -7027,10 +7025,10 @@
         <v>76</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -7038,10 +7036,10 @@
         <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -7049,10 +7047,10 @@
         <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -7060,10 +7058,10 @@
         <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -7071,10 +7069,10 @@
         <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -7082,7 +7080,7 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
         <v>153</v>
@@ -7093,10 +7091,10 @@
         <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -7104,10 +7102,10 @@
         <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -7115,10 +7113,10 @@
         <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -7126,10 +7124,10 @@
         <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="E52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
@@ -7137,10 +7135,10 @@
         <v>76</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
@@ -7148,10 +7146,10 @@
         <v>76</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
@@ -7159,10 +7157,10 @@
         <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>159</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -7170,10 +7168,10 @@
         <v>76</v>
       </c>
       <c r="D56" t="s">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
@@ -7181,10 +7179,10 @@
         <v>76</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="E57" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
@@ -7192,10 +7190,10 @@
         <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
@@ -7203,10 +7201,10 @@
         <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
@@ -7214,10 +7212,10 @@
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
@@ -7225,10 +7223,10 @@
         <v>76</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E61" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
@@ -7236,10 +7234,10 @@
         <v>76</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="E62" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
@@ -7247,10 +7245,10 @@
         <v>76</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
@@ -7258,10 +7256,10 @@
         <v>76</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E64" t="s">
-        <v>114</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
@@ -7269,10 +7267,10 @@
         <v>76</v>
       </c>
       <c r="D65" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="E65" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
@@ -7280,10 +7278,10 @@
         <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -7291,10 +7289,10 @@
         <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="E67" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -7302,10 +7300,10 @@
         <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
@@ -7313,10 +7311,10 @@
         <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="E69" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
@@ -7324,10 +7322,10 @@
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>253</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
@@ -7335,10 +7333,10 @@
         <v>76</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
@@ -7346,10 +7344,10 @@
         <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
@@ -7357,10 +7355,10 @@
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
@@ -7368,10 +7366,10 @@
         <v>76</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
@@ -7379,10 +7377,10 @@
         <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
@@ -7390,43 +7388,10 @@
         <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" t="s">
-        <v>59</v>
-      </c>
-      <c r="E77" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" t="s">
-        <v>69</v>
-      </c>
-      <c r="E78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" t="s">
-        <v>80</v>
-      </c>
-      <c r="E79" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -7438,8 +7403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection sqref="A1:E70"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7473,10 +7438,10 @@
         <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7484,10 +7449,10 @@
         <v>76</v>
       </c>
       <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
         <v>82</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7495,10 +7460,10 @@
         <v>76</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -7506,10 +7471,10 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7517,10 +7482,10 @@
         <v>76</v>
       </c>
       <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -7528,10 +7493,10 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" t="s">
         <v>88</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -7539,10 +7504,10 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" t="s">
         <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -7550,10 +7515,10 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -7586,7 +7551,7 @@
         <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7597,7 +7562,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7605,10 +7570,10 @@
         <v>76</v>
       </c>
       <c r="D14" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7619,7 +7584,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7630,7 +7595,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -7638,7 +7603,7 @@
         <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -7649,7 +7614,7 @@
         <v>76</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
         <v>39</v>
@@ -7660,10 +7625,10 @@
         <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -7671,10 +7636,10 @@
         <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -7718,7 +7683,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
@@ -7729,7 +7694,7 @@
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -7751,7 +7716,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -7861,7 +7826,7 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -7872,7 +7837,7 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -7883,7 +7848,7 @@
         <v>40</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -7894,7 +7859,7 @@
         <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -7905,7 +7870,7 @@
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -7916,7 +7881,7 @@
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -7927,7 +7892,7 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -7935,10 +7900,10 @@
         <v>76</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -7946,10 +7911,10 @@
         <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -7957,10 +7922,10 @@
         <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -7968,10 +7933,10 @@
         <v>76</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E47" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -7979,10 +7944,10 @@
         <v>76</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -7990,10 +7955,10 @@
         <v>76</v>
       </c>
       <c r="D49" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E49" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -8001,10 +7966,10 @@
         <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -8012,10 +7977,10 @@
         <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E51" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -8023,10 +7988,10 @@
         <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
@@ -8048,7 +8013,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
@@ -8059,7 +8024,7 @@
         <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -8070,7 +8035,7 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
@@ -8081,7 +8046,7 @@
         <v>50</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
@@ -8092,7 +8057,7 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
@@ -8103,7 +8068,7 @@
         <v>52</v>
       </c>
       <c r="E59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
@@ -8111,10 +8076,10 @@
         <v>76</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
@@ -8125,7 +8090,7 @@
         <v>53</v>
       </c>
       <c r="E61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
@@ -8136,7 +8101,7 @@
         <v>64</v>
       </c>
       <c r="E62" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
@@ -8147,7 +8112,7 @@
         <v>55</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
@@ -8158,7 +8123,7 @@
         <v>56</v>
       </c>
       <c r="E64" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
@@ -8169,7 +8134,7 @@
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
@@ -8180,7 +8145,7 @@
         <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -8191,7 +8156,7 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -8202,7 +8167,7 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
@@ -8213,7 +8178,7 @@
         <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
@@ -8224,7 +8189,7 @@
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ED2EBA-D02D-324A-9952-2699D7D45C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A6EAF2-641A-9147-A1CA-C3390C1D650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="onix-metadata-strings" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="210">
   <si>
     <t>id</t>
   </si>
@@ -72,15 +72,6 @@
     <t>Appearance cannot be modified</t>
   </si>
   <si>
-    <t>nonvisual-reading-readable</t>
-  </si>
-  <si>
-    <t>nonvisual-reading-not-fully</t>
-  </si>
-  <si>
-    <t>nonvisual-reading-may-not-fully</t>
-  </si>
-  <si>
     <t>conformance-aaa</t>
   </si>
   <si>
@@ -249,15 +240,6 @@
     <t>Appearance can be modified</t>
   </si>
   <si>
-    <t>visual-adjustments-modifiable</t>
-  </si>
-  <si>
-    <t>visual-adjustments-unmodifiable</t>
-  </si>
-  <si>
-    <t>visual-adjustments-unknown</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-adaptation-dyslexia-readability</t>
   </si>
   <si>
@@ -441,12 +423,6 @@
     <t>prerecorded-audio-no-metadata</t>
   </si>
   <si>
-    <t>prerecorded-audio-only</t>
-  </si>
-  <si>
-    <t>prerecorded-audio-synchronized</t>
-  </si>
-  <si>
     <t>All the content is available as prerecorded audio synchronized with text</t>
   </si>
   <si>
@@ -519,12 +495,6 @@
     <t>Math as MathML</t>
   </si>
   <si>
-    <t>Math as LaTex</t>
-  </si>
-  <si>
-    <t>Math as images with text description</t>
-  </si>
-  <si>
     <t>Chemical formulas in MathML</t>
   </si>
   <si>
@@ -534,9 +504,6 @@
     <t>Videos have open captions</t>
   </si>
   <si>
-    <t>Has transcript</t>
-  </si>
-  <si>
     <t>The publication contains flashing content which can cause photosensitive seizures</t>
   </si>
   <si>
@@ -555,18 +522,12 @@
     <t>Motion simulation</t>
   </si>
   <si>
-    <t>Loud sounds</t>
-  </si>
-  <si>
     <t>legal-considerations-exempt</t>
   </si>
   <si>
     <t>This publication claims an accessibility exemption in some jurisdictions</t>
   </si>
   <si>
-    <t>prerecorded-audio-complementary</t>
-  </si>
-  <si>
     <t>rich-content-title</t>
   </si>
   <si>
@@ -579,9 +540,6 @@
     <t>rich-content-transcript</t>
   </si>
   <si>
-    <t>nonvisual-reading-alt-text</t>
-  </si>
-  <si>
     <t>Dyslexia readability</t>
   </si>
   <si>
@@ -700,9 +658,6 @@
   </si>
   <si>
     <t>The publication contains sounds which can be uncomfortable</t>
-  </si>
-  <si>
-    <t>#additional-accessibility-information-title</t>
   </si>
   <si>
     <t>Prerecorded audio only</t>
@@ -1189,13 +1144,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,24 +1166,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A96">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$144,'epub-metadata-strings'!$D$2:$D$76,'onix-metadata-strings'!$D$2:$D$70))</f>
+        <f t="array" ref="A2:A85">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$144,'epub-metadata-strings'!$D$2:$D$76,'onix-metadata-strings'!$D$2:$D$70))</f>
         <v>ways-of-reading-title</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -1270,11 +1225,11 @@
       </c>
       <c r="E3" s="5" t="str">
         <f>IFERROR(VLOOKUP($A3,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Appearance can be modified</v>
       </c>
       <c r="F3" s="2" t="b">
         <f t="shared" ref="F3:F67" si="1">IF($B3="","",EXACT($B3,E3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1295,11 +1250,11 @@
       </c>
       <c r="E4" s="5" t="str">
         <f>IFERROR(VLOOKUP($A4,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Appearance cannot be modified</v>
       </c>
       <c r="F4" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1320,7 +1275,7 @@
       </c>
       <c r="E5" s="5" t="str">
         <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>No information is available</v>
       </c>
       <c r="F5" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1345,7 +1300,7 @@
       </c>
       <c r="E6" s="5" t="str">
         <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Has alt text</v>
       </c>
       <c r="F6" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1370,11 +1325,11 @@
       </c>
       <c r="E7" s="5" t="str">
         <f>IFERROR(VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="F7" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,11 +1350,11 @@
       </c>
       <c r="E8" s="5" t="str">
         <f>IFERROR(VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F8" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1420,11 +1375,11 @@
       </c>
       <c r="E9" s="5" t="str">
         <f>IFERROR(VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F9" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1470,7 +1425,7 @@
       </c>
       <c r="E11" s="5" t="str">
         <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Audio only</v>
       </c>
       <c r="F11" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1495,11 +1450,11 @@
       </c>
       <c r="E12" s="5" t="str">
         <f>IFERROR(VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="F12" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1520,7 +1475,7 @@
       </c>
       <c r="E13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Complementary audio and text</v>
       </c>
       <c r="F13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2245,11 +2200,11 @@
       </c>
       <c r="E42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as LaTex</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="F42" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2270,11 +2225,11 @@
       </c>
       <c r="E43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as images with text description</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="F43" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -2420,11 +2375,11 @@
       </c>
       <c r="E49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Has transcript</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="F49" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2570,11 +2525,11 @@
       </c>
       <c r="E55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Loud sounds</v>
+        <v>Sounds</v>
       </c>
       <c r="F55" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -2795,11 +2750,11 @@
       </c>
       <c r="E64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Additional accessibility information</v>
       </c>
       <c r="F64" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -2890,7 +2845,7 @@
         <v>Audio descriptions</v>
       </c>
       <c r="D68" s="2" t="str">
-        <f t="shared" ref="D68:D96" si="2">IF($B68="","",EXACT($B68,C68))</f>
+        <f t="shared" ref="D68:D85" si="2">IF($B68="","",EXACT($B68,C68))</f>
         <v/>
       </c>
       <c r="E68" s="5" t="str">
@@ -2898,7 +2853,7 @@
         <v/>
       </c>
       <c r="F68" s="2" t="str">
-        <f t="shared" ref="F68:F96" si="3">IF($B68="","",EXACT($B68,E68))</f>
+        <f t="shared" ref="F68:F85" si="3">IF($B68="","",EXACT($B68,E68))</f>
         <v/>
       </c>
     </row>
@@ -3204,7 +3159,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>#additional-accessibility-information-title</v>
+        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3220,7 +3175,7 @@
       </c>
       <c r="E81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>Dyslexia readability</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3229,7 +3184,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <v>visual-adjustments-modifiable</v>
+        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3245,7 +3200,7 @@
       </c>
       <c r="E82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Appearance can be modified</v>
+        <v>Color is not the sole means of conveying information</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3254,7 +3209,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <v>visual-adjustments-unmodifiable</v>
+        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
       </c>
       <c r="B83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3270,7 +3225,7 @@
       </c>
       <c r="E83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Appearance cannot be modified</v>
+        <v>Ultra high contrast between text and background</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3279,7 +3234,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <v>visual-adjustments-unknown</v>
+        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
       </c>
       <c r="B84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3295,7 +3250,7 @@
       </c>
       <c r="E84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Visible page numbering</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3304,7 +3259,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
-        <v>nonvisual-reading-readable</v>
+        <v>additional-accessibility-information-clarity-without-background-sounds</v>
       </c>
       <c r="B85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3320,7 +3275,7 @@
       </c>
       <c r="E85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Readable in read aloud or dynamic braille</v>
+        <v>Without background sounds</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3328,9 +3283,6 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <v>nonvisual-reading-alt-text</v>
-      </c>
       <c r="B86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3339,23 +3291,14 @@
         <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D86" s="2"/>
       <c r="E86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Has alt text</v>
-      </c>
-      <c r="F86" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" t="str">
-        <v>nonvisual-reading-not-fully</v>
-      </c>
       <c r="B87" s="5" t="str">
         <f>IFERROR(VLOOKUP($A87&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3364,23 +3307,14 @@
         <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D87" s="2"/>
       <c r="E87" s="5" t="str">
         <f>IFERROR(VLOOKUP($A87,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Not fully readable in read aloud or dynamic braille</v>
-      </c>
-      <c r="F87" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" t="str">
-        <v>nonvisual-reading-may-not-fully</v>
-      </c>
       <c r="B88" s="5" t="str">
         <f>IFERROR(VLOOKUP($A88&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3389,23 +3323,14 @@
         <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D88" s="2"/>
       <c r="E88" s="5" t="str">
         <f>IFERROR(VLOOKUP($A88,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>May not be fully readable in read aloud or dynamic braille</v>
-      </c>
-      <c r="F88" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="str">
-        <v>prerecorded-audio-only</v>
-      </c>
       <c r="B89" s="5" t="str">
         <f>IFERROR(VLOOKUP($A89&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3414,23 +3339,14 @@
         <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D89" s="2"/>
       <c r="E89" s="5" t="str">
         <f>IFERROR(VLOOKUP($A89,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Audio only</v>
-      </c>
-      <c r="F89" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <v>prerecorded-audio-complementary</v>
-      </c>
       <c r="B90" s="5" t="str">
         <f>IFERROR(VLOOKUP($A90&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3439,23 +3355,14 @@
         <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D90" s="2"/>
       <c r="E90" s="5" t="str">
         <f>IFERROR(VLOOKUP($A90,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
-      </c>
-      <c r="F90" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" t="str">
-        <v>prerecorded-audio-synchronized</v>
-      </c>
       <c r="B91" s="5" t="str">
         <f>IFERROR(VLOOKUP($A91&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3464,23 +3371,14 @@
         <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D91" s="2"/>
       <c r="E91" s="5" t="str">
         <f>IFERROR(VLOOKUP($A91,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Prerecorded audio synchronized with text</v>
-      </c>
-      <c r="F91" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
-      </c>
       <c r="B92" s="5" t="str">
         <f>IFERROR(VLOOKUP($A92&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3489,23 +3387,14 @@
         <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D92" s="2"/>
       <c r="E92" s="5" t="str">
         <f>IFERROR(VLOOKUP($A92,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Dyslexia readability</v>
-      </c>
-      <c r="F92" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" t="str">
-        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
-      </c>
       <c r="B93" s="5" t="str">
         <f>IFERROR(VLOOKUP($A93&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3514,278 +3403,119 @@
         <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="D93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="D93" s="2"/>
       <c r="E93" s="5" t="str">
         <f>IFERROR(VLOOKUP($A93,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Color is not the sole means of conveying information</v>
-      </c>
-      <c r="F93" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="str">
-        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
-      </c>
-      <c r="B94" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A94&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C94" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A94,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
       <c r="E94" s="5" t="str">
         <f>IFERROR(VLOOKUP($A94,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Ultra high contrast between text and background</v>
-      </c>
-      <c r="F94" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+        <v/>
+      </c>
+      <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" t="str">
-        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
-      </c>
-      <c r="B95" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A95&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C95" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A95,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E95" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A95,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Visible page numbering</v>
-      </c>
-      <c r="F95" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" t="str">
-        <v>additional-accessibility-information-clarity-without-background-sounds</v>
-      </c>
-      <c r="B96" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A96&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C96" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A96,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E96" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A96,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Without background sounds</v>
-      </c>
-      <c r="F96" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A97&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C97" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A97,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="E97" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A97,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A98&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C98" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A98,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
       <c r="D98" s="2"/>
-      <c r="E98" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A98,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A99&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C99" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A99,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A99,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A100&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C100" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A100,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
       <c r="D100" s="2"/>
-      <c r="E100" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A100,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A101&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C101" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A101,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="E101" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A101,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A102&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C102" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A102,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A102,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B103" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A103&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C103" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A103,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
       <c r="D103" s="2"/>
-      <c r="E103" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A103,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B104" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A104&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C104" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A104,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A104,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B105" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A105&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C105" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A105,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
       <c r="D105" s="2"/>
-      <c r="E105" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A105,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A106&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C106" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A106,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
       <c r="D106" s="2"/>
-      <c r="E106" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A106,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A107&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="C107" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A107,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A107,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A108,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
+      <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
@@ -3921,107 +3651,9 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F97" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
-  <conditionalFormatting sqref="D2:D96">
+  <autoFilter ref="A1:F85" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
+  <conditionalFormatting sqref="D2:D85">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4029,7 +3661,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F96">
+  <conditionalFormatting sqref="F2:F85">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -4045,8 +3677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4058,25 +3690,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4085,16 +3717,16 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4103,16 +3735,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4121,16 +3753,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4139,13 +3771,13 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -4157,16 +3789,16 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -4175,16 +3807,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -4193,16 +3825,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4211,16 +3843,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -4229,16 +3861,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -4247,16 +3879,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -4265,16 +3897,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -4283,16 +3915,16 @@
         <v>ways-of-reading-nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -4301,16 +3933,16 @@
         <v>ways-of-reading-nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4319,16 +3951,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4337,16 +3969,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4355,16 +3987,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4373,16 +4005,16 @@
         <v>ways-of-reading-prerecorded-audio-only-compact</v>
       </c>
       <c r="D18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4391,16 +4023,16 @@
         <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4409,16 +4041,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4427,16 +4059,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="F21" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4445,16 +4077,16 @@
         <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
       </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4463,16 +4095,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4481,16 +4113,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4499,13 +4131,13 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G25" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4514,13 +4146,13 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4529,13 +4161,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" t="s">
         <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4544,16 +4176,16 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4562,16 +4194,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4580,16 +4212,16 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4598,16 +4230,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4616,16 +4248,16 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -4634,16 +4266,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4652,16 +4284,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4670,16 +4302,16 @@
         <v>conformance-no-descriptive</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4688,13 +4320,13 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4703,16 +4335,16 @@
         <v>conformance-certifier-descriptive</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G37" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4721,16 +4353,16 @@
         <v>conformance-certifier-credentials-descriptive</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4739,16 +4371,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G39" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4757,13 +4389,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4772,16 +4404,16 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -4790,16 +4422,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4808,16 +4440,16 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -4826,16 +4458,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4844,16 +4476,16 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4862,16 +4494,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4880,16 +4512,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G47" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4898,13 +4530,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" t="s">
         <v>76</v>
-      </c>
-      <c r="E48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4913,16 +4545,16 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -4931,16 +4563,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4949,16 +4581,16 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4967,13 +4599,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4982,13 +4614,13 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D53" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4997,13 +4629,13 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -5012,16 +4644,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G55" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -5030,13 +4662,13 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -5045,16 +4677,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -5063,13 +4695,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -5078,13 +4710,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D59" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G59" t="s">
         <v>76</v>
-      </c>
-      <c r="E59" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -5093,16 +4725,16 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -5111,16 +4743,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -5129,16 +4761,16 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
@@ -5147,13 +4779,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E63" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -5162,13 +4794,13 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D64" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -5177,13 +4809,13 @@
         <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D65" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -5192,16 +4824,16 @@
         <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D66" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -5210,13 +4842,13 @@
         <v>conformance-level-a-compact</v>
       </c>
       <c r="D67" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -5225,16 +4857,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G68" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5243,13 +4875,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5258,13 +4890,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5273,13 +4905,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" t="s">
         <v>76</v>
-      </c>
-      <c r="E71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -5288,13 +4920,13 @@
         <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -5303,13 +4935,13 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D73" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -5318,13 +4950,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D74" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5333,13 +4965,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -5348,13 +4980,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D76" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G76" t="s">
         <v>76</v>
-      </c>
-      <c r="E76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5363,16 +4995,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5381,13 +5013,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5396,16 +5028,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G79" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5414,16 +5046,16 @@
         <v>navigation-toc-compact</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5432,16 +5064,16 @@
         <v>navigation-toc-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5450,16 +5082,16 @@
         <v>navigation-index-compact</v>
       </c>
       <c r="D82" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5468,16 +5100,16 @@
         <v>navigation-index-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5486,16 +5118,16 @@
         <v>navigation-structural-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -5504,16 +5136,16 @@
         <v>navigation-structural-descriptive</v>
       </c>
       <c r="D85" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -5522,16 +5154,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5540,16 +5172,16 @@
         <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D87" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5558,16 +5190,16 @@
         <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5576,16 +5208,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D89" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -5594,13 +5226,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5609,13 +5241,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D91" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G91" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5624,13 +5256,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G92" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5639,16 +5271,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F93" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G93" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -5657,16 +5289,16 @@
         <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D94" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E94" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -5675,16 +5307,16 @@
         <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E95" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F95" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -5693,16 +5325,16 @@
         <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D96" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -5711,16 +5343,16 @@
         <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D97" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E97" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -5729,16 +5361,16 @@
         <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D98" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -5747,16 +5379,16 @@
         <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F99" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -5765,16 +5397,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D100" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
+        <v>135</v>
+      </c>
+      <c r="F100" t="s">
+        <v>88</v>
+      </c>
+      <c r="G100" t="s">
         <v>143</v>
-      </c>
-      <c r="F100" t="s">
-        <v>94</v>
-      </c>
-      <c r="G100" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -5783,16 +5415,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F101" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G101" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5801,16 +5433,16 @@
         <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E102" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F102" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5819,16 +5451,16 @@
         <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D103" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E103" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F103" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -5837,16 +5469,16 @@
         <v>rich-content-extended-compact</v>
       </c>
       <c r="D104" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E104" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F104" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5855,16 +5487,16 @@
         <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D105" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E105" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F105" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -5873,16 +5505,16 @@
         <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D106" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F106" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G106" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5891,16 +5523,16 @@
         <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D107" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E107" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="F107" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5909,16 +5541,16 @@
         <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D108" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F108" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G108" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5927,16 +5559,16 @@
         <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D109" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="F109" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G109" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5945,16 +5577,16 @@
         <v>rich-content-transcript-compact</v>
       </c>
       <c r="D110" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E110" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F110" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5963,16 +5595,16 @@
         <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D111" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E111" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="F111" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5981,16 +5613,16 @@
         <v>rich-content-unknown-compact</v>
       </c>
       <c r="D112" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E112" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F112" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G112" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5999,16 +5631,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D113" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E113" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G113" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -6017,13 +5649,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D114" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E114" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G114" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -6032,13 +5664,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D115" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E115" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G115" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -6047,13 +5679,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E116" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -6062,16 +5694,16 @@
         <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D117" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E117" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F117" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G117" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -6080,16 +5712,16 @@
         <v>hazards-none-compact</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E118" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -6098,16 +5730,16 @@
         <v>hazards-none-descriptive</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -6116,16 +5748,16 @@
         <v>hazards-flashing-compact</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G120" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -6134,16 +5766,16 @@
         <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F121" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G121" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -6152,16 +5784,16 @@
         <v>hazards-motion-compact</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E122" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F122" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G122" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -6170,16 +5802,16 @@
         <v>hazards-motion-descriptive</v>
       </c>
       <c r="D123" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E123" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F123" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G123" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -6188,16 +5820,16 @@
         <v>hazards-sound-compact</v>
       </c>
       <c r="D124" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E124" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F124" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -6206,16 +5838,16 @@
         <v>hazards-sound-descriptive</v>
       </c>
       <c r="D125" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E125" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F125" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G125" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -6224,16 +5856,16 @@
         <v>hazards-unknown-compact</v>
       </c>
       <c r="D126" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E126" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F126" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -6242,16 +5874,16 @@
         <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D127" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -6260,16 +5892,16 @@
         <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D128" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F128" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G128" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -6278,16 +5910,16 @@
         <v>hazards-no-metadata].-descriptive</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E129" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F129" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G129" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -6296,13 +5928,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D130" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E130" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G130" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -6311,13 +5943,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D131" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E131" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G131" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -6326,13 +5958,13 @@
         <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D132" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E132" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G132" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -6341,16 +5973,16 @@
         <v>accessibility-summary-no-metadata-compact</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E133" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F133" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G133" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -6359,13 +5991,13 @@
         <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D134" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E134" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G134" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -6374,13 +6006,13 @@
         <v>legal-considerations-title-compact</v>
       </c>
       <c r="D135" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E135" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G135" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -6389,16 +6021,16 @@
         <v>legal-considerations-exempt-compact</v>
       </c>
       <c r="D136" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E136" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F136" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6407,16 +6039,16 @@
         <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D137" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E137" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F137" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -6425,16 +6057,16 @@
         <v>legal-considerations-no-metadata-compact</v>
       </c>
       <c r="D138" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F138" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -6443,16 +6075,16 @@
         <v>legal-considerations-no-metadata-descriptive</v>
       </c>
       <c r="D139" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E139" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F139" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G139" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -6461,13 +6093,13 @@
         <v>legal-title-compact</v>
       </c>
       <c r="D140" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E140" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G140" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -6476,13 +6108,13 @@
         <v>legal-title-compact</v>
       </c>
       <c r="D141" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E141" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="G141" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -6491,13 +6123,13 @@
         <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D142" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G142" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -6506,13 +6138,13 @@
         <v>add-info-title-compact</v>
       </c>
       <c r="D143" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E143" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G143" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -6521,13 +6153,13 @@
         <v>add-info-title-compact</v>
       </c>
       <c r="D144" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E144" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G144" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6539,8 +6171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6551,129 +6183,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -6681,717 +6313,717 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
         <v>143</v>
-      </c>
-      <c r="E48" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E49" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E52" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="E66" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E74" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -7403,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7415,129 +7047,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
         <v>76</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -7545,651 +7177,651 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>183</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="E19" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" t="s">
         <v>143</v>
-      </c>
-      <c r="E47" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D58" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D59" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E63" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E65" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D68" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E70" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A6EAF2-641A-9147-A1CA-C3390C1D650B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519D389-CBC0-1447-978D-C4D6E466BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="onix-metadata-strings" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="208">
   <si>
     <t>id</t>
   </si>
@@ -171,9 +171,6 @@
     <t>conformance-certifier-report</t>
   </si>
   <si>
-    <t>Audio only</t>
-  </si>
-  <si>
     <t>Complementary audio and text</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
   </si>
   <si>
     <t>Not all of the content will be readable as read aloud speech or dynamic braille</t>
-  </si>
-  <si>
-    <t>Has alt text</t>
   </si>
   <si>
     <t>Readable in read aloud or dynamic braille</t>
@@ -1150,7 +1144,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1166,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1275,11 +1269,11 @@
       </c>
       <c r="E5" s="5" t="str">
         <f>IFERROR(VLOOKUP($A5,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>No information about appearance modifiability is available</v>
       </c>
       <c r="F5" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1300,11 +1294,11 @@
       </c>
       <c r="E6" s="5" t="str">
         <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Has alt text</v>
+        <v>Has alternative text</v>
       </c>
       <c r="F6" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1400,7 +1394,7 @@
       </c>
       <c r="E10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v/>
       </c>
       <c r="F10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1425,11 +1419,11 @@
       </c>
       <c r="E11" s="5" t="str">
         <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Audio only</v>
+        <v>Prerecorded audio only</v>
       </c>
       <c r="F11" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1500,11 +1494,11 @@
       </c>
       <c r="E14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="F14" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3652,7 +3646,7 @@
       <c r="F127" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F85" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
+  <autoFilter ref="A1:F94" xr:uid="{3A9EDDE9-AF31-2D43-AC52-4CD1D03679BB}"/>
   <conditionalFormatting sqref="D2:D85">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
@@ -3677,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G144"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3690,25 +3684,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
         <v>67</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3717,16 +3711,16 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3735,16 +3729,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3753,16 +3747,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3771,13 +3765,13 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -3789,16 +3783,16 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3807,16 +3801,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3825,16 +3819,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,16 +3837,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3861,16 +3855,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3879,16 +3873,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3897,16 +3891,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3915,16 +3909,16 @@
         <v>ways-of-reading-nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3933,16 +3927,16 @@
         <v>ways-of-reading-nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3951,16 +3945,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3969,16 +3963,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3987,16 +3981,16 @@
         <v>prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4005,16 +3999,16 @@
         <v>ways-of-reading-prerecorded-audio-only-compact</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4023,16 +4017,16 @@
         <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4041,16 +4035,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4059,16 +4053,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4077,16 +4071,16 @@
         <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4095,16 +4089,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4113,16 +4107,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4131,13 +4125,13 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4146,13 +4140,13 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4161,13 +4155,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
         <v>75</v>
-      </c>
-      <c r="G27" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4176,13 +4170,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -4194,16 +4188,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4212,13 +4206,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
@@ -4230,16 +4224,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4248,13 +4242,13 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
@@ -4266,16 +4260,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4284,16 +4278,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4302,16 +4296,16 @@
         <v>conformance-no-descriptive</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4320,7 +4314,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E36" t="s">
         <v>15</v>
@@ -4335,16 +4329,16 @@
         <v>conformance-certifier-descriptive</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4353,13 +4347,13 @@
         <v>conformance-certifier-credentials-descriptive</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s">
         <v>13</v>
@@ -4371,16 +4365,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -4389,13 +4383,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4404,13 +4398,13 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" t="s">
         <v>3</v>
@@ -4422,16 +4416,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4440,13 +4434,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G43" t="s">
         <v>5</v>
@@ -4458,16 +4452,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4476,13 +4470,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s">
         <v>7</v>
@@ -4494,16 +4488,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4512,16 +4506,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4530,13 +4524,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" t="s">
         <v>75</v>
-      </c>
-      <c r="G48" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -4545,13 +4539,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G49" t="s">
         <v>5</v>
@@ -4563,16 +4557,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -4581,13 +4575,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -4599,13 +4593,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4614,7 +4608,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -4629,7 +4623,7 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
@@ -4644,16 +4638,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
         <v>23</v>
       </c>
       <c r="F55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4662,7 +4656,7 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E56" t="s">
         <v>29</v>
@@ -4677,16 +4671,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -4695,13 +4689,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4710,13 +4704,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G59" t="s">
         <v>75</v>
-      </c>
-      <c r="G59" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
@@ -4725,13 +4719,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s">
         <v>7</v>
@@ -4743,16 +4737,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
@@ -4761,13 +4755,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E62" t="s">
         <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
@@ -4779,13 +4773,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4794,7 +4788,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" t="s">
         <v>15</v>
@@ -4809,7 +4803,7 @@
         <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" t="s">
         <v>17</v>
@@ -4824,16 +4818,16 @@
         <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E66" t="s">
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4842,7 +4836,7 @@
         <v>conformance-level-a-compact</v>
       </c>
       <c r="D67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E67" t="s">
         <v>31</v>
@@ -4857,16 +4851,16 @@
         <v>conformance-certification-info-descriptive</v>
       </c>
       <c r="D68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4875,7 +4869,7 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
@@ -4890,13 +4884,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E70" t="s">
         <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -4905,13 +4899,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" t="s">
         <v>75</v>
-      </c>
-      <c r="G71" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4920,10 +4914,10 @@
         <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s">
         <v>8</v>
@@ -4935,7 +4929,7 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E73" t="s">
         <v>10</v>
@@ -4950,7 +4944,7 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
@@ -4965,13 +4959,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -4980,13 +4974,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" t="s">
         <v>75</v>
-      </c>
-      <c r="G76" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -4995,16 +4989,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5013,13 +5007,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
+        <v>76</v>
+      </c>
+      <c r="G78" t="s">
         <v>77</v>
-      </c>
-      <c r="G78" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5028,16 +5022,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5046,16 +5040,16 @@
         <v>navigation-toc-compact</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G80" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5064,16 +5058,16 @@
         <v>navigation-toc-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5082,16 +5076,16 @@
         <v>navigation-index-compact</v>
       </c>
       <c r="D82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5100,16 +5094,16 @@
         <v>navigation-index-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5118,16 +5112,16 @@
         <v>navigation-structural-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -5136,16 +5130,16 @@
         <v>navigation-structural-descriptive</v>
       </c>
       <c r="D85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -5154,16 +5148,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5172,16 +5166,16 @@
         <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5190,16 +5184,16 @@
         <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5208,16 +5202,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -5226,13 +5220,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E90" t="s">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s">
         <v>77</v>
-      </c>
-      <c r="G90" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5241,13 +5235,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E91" t="s">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s">
         <v>77</v>
-      </c>
-      <c r="G91" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5256,13 +5250,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G92" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5271,16 +5265,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -5289,16 +5283,16 @@
         <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G94" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -5307,16 +5301,16 @@
         <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E95" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -5325,16 +5319,16 @@
         <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G96" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -5343,16 +5337,16 @@
         <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -5361,16 +5355,16 @@
         <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -5379,16 +5373,16 @@
         <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -5397,16 +5391,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F100" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -5415,16 +5409,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E101" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F101" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G101" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5433,16 +5427,16 @@
         <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F102" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G102" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5451,16 +5445,16 @@
         <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F103" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -5469,16 +5463,16 @@
         <v>rich-content-extended-compact</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E104" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5487,16 +5481,16 @@
         <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E105" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F105" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G105" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -5505,16 +5499,16 @@
         <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E106" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G106" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5523,16 +5517,16 @@
         <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D107" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F107" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G107" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5541,16 +5535,16 @@
         <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F108" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5559,16 +5553,16 @@
         <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E109" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F109" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5577,16 +5571,16 @@
         <v>rich-content-transcript-compact</v>
       </c>
       <c r="D110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F110" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5595,16 +5589,16 @@
         <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F111" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5613,16 +5607,16 @@
         <v>rich-content-unknown-compact</v>
       </c>
       <c r="D112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F112" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5631,16 +5625,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5649,13 +5643,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G114" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5664,13 +5658,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G115" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5679,13 +5673,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E116" t="s">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s">
         <v>79</v>
-      </c>
-      <c r="G116" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5694,16 +5688,16 @@
         <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E117" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F117" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5712,16 +5706,16 @@
         <v>hazards-none-compact</v>
       </c>
       <c r="D118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E118" t="s">
+        <v>41</v>
+      </c>
+      <c r="F118" t="s">
+        <v>87</v>
+      </c>
+      <c r="G118" t="s">
         <v>42</v>
-      </c>
-      <c r="F118" t="s">
-        <v>88</v>
-      </c>
-      <c r="G118" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5730,16 +5724,16 @@
         <v>hazards-none-descriptive</v>
       </c>
       <c r="D119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G119" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -5748,16 +5742,16 @@
         <v>hazards-flashing-compact</v>
       </c>
       <c r="D120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G120" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5766,16 +5760,16 @@
         <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5784,16 +5778,16 @@
         <v>hazards-motion-compact</v>
       </c>
       <c r="D122" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G122" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5802,16 +5796,16 @@
         <v>hazards-motion-descriptive</v>
       </c>
       <c r="D123" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -5820,16 +5814,16 @@
         <v>hazards-sound-compact</v>
       </c>
       <c r="D124" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E124" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G124" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5838,16 +5832,16 @@
         <v>hazards-sound-descriptive</v>
       </c>
       <c r="D125" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G125" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -5856,16 +5850,16 @@
         <v>hazards-unknown-compact</v>
       </c>
       <c r="D126" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F126" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G126" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -5874,16 +5868,16 @@
         <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D127" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G127" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -5892,16 +5886,16 @@
         <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D128" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F128" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G128" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -5910,16 +5904,16 @@
         <v>hazards-no-metadata].-descriptive</v>
       </c>
       <c r="D129" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E129" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F129" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G129" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -5928,13 +5922,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D130" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E130" t="s">
+        <v>78</v>
+      </c>
+      <c r="G130" t="s">
         <v>79</v>
-      </c>
-      <c r="G130" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -5943,13 +5937,13 @@
         <v>hazards-title-compact</v>
       </c>
       <c r="D131" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E131" t="s">
+        <v>78</v>
+      </c>
+      <c r="G131" t="s">
         <v>79</v>
-      </c>
-      <c r="G131" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -5958,13 +5952,13 @@
         <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D132" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E132" t="s">
+        <v>80</v>
+      </c>
+      <c r="G132" t="s">
         <v>81</v>
-      </c>
-      <c r="G132" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -5973,16 +5967,16 @@
         <v>accessibility-summary-no-metadata-compact</v>
       </c>
       <c r="D133" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E133" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F133" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -5991,13 +5985,13 @@
         <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D134" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E134" t="s">
+        <v>80</v>
+      </c>
+      <c r="G134" t="s">
         <v>81</v>
-      </c>
-      <c r="G134" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -6006,13 +6000,13 @@
         <v>legal-considerations-title-compact</v>
       </c>
       <c r="D135" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E135" t="s">
+        <v>89</v>
+      </c>
+      <c r="G135" t="s">
         <v>90</v>
-      </c>
-      <c r="G135" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -6021,16 +6015,16 @@
         <v>legal-considerations-exempt-compact</v>
       </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E136" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F136" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6039,16 +6033,16 @@
         <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -6057,16 +6051,16 @@
         <v>legal-considerations-no-metadata-compact</v>
       </c>
       <c r="D138" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F138" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -6075,16 +6069,16 @@
         <v>legal-considerations-no-metadata-descriptive</v>
       </c>
       <c r="D139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -6093,13 +6087,13 @@
         <v>legal-title-compact</v>
       </c>
       <c r="D140" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E140" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G140" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -6108,13 +6102,13 @@
         <v>legal-title-compact</v>
       </c>
       <c r="D141" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E141" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G141" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -6123,13 +6117,13 @@
         <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E142" t="s">
+        <v>82</v>
+      </c>
+      <c r="G142" t="s">
         <v>83</v>
-      </c>
-      <c r="G142" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -6138,13 +6132,13 @@
         <v>add-info-title-compact</v>
       </c>
       <c r="D143" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E143" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G143" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -6153,13 +6147,13 @@
         <v>add-info-title-compact</v>
       </c>
       <c r="D144" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E144" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G144" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -6171,8 +6165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:E76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6183,129 +6177,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
         <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -6313,117 +6307,117 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -6434,7 +6428,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -6445,7 +6439,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -6456,10 +6450,10 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -6467,18 +6461,18 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
@@ -6489,18 +6483,18 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -6511,7 +6505,7 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -6522,7 +6516,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -6533,7 +6527,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -6544,7 +6538,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
         <v>23</v>
@@ -6555,7 +6549,7 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -6566,7 +6560,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>27</v>
@@ -6577,7 +6571,7 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>29</v>
@@ -6588,7 +6582,7 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
@@ -6599,431 +6593,431 @@
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>34</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E53" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
         <v>42</v>
-      </c>
-      <c r="E55" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
         <v>70</v>
       </c>
-      <c r="D65" t="s">
-        <v>71</v>
-      </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E75" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7035,8 +7029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7047,129 +7041,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
         <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
         <v>77</v>
-      </c>
-      <c r="E4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
         <v>79</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -7177,106 +7171,106 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -7287,7 +7281,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -7298,7 +7292,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -7309,29 +7303,29 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
@@ -7342,18 +7336,18 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -7364,7 +7358,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -7375,7 +7369,7 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>19</v>
@@ -7386,7 +7380,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -7397,7 +7391,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" t="s">
         <v>23</v>
@@ -7408,7 +7402,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -7419,7 +7413,7 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
         <v>27</v>
@@ -7430,7 +7424,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
         <v>29</v>
@@ -7441,7 +7435,7 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
@@ -7452,376 +7446,376 @@
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" t="s">
         <v>34</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
         <v>42</v>
-      </c>
-      <c r="E53" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8519D389-CBC0-1447-978D-C4D6E466BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151BA1E5-01E2-A143-8FFB-F3FD943D53FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
   <sheets>
     <sheet name="crosscheck" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="204">
   <si>
     <t>id</t>
   </si>
@@ -414,9 +414,6 @@
     <t>The publication was certified on</t>
   </si>
   <si>
-    <t>prerecorded-audio-no-metadata</t>
-  </si>
-  <si>
     <t>All the content is available as prerecorded audio synchronized with text</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>The presents of hazards is unknown</t>
   </si>
   <si>
-    <t>hazards-no-metadata].</t>
-  </si>
-  <si>
     <t>Flashing content</t>
   </si>
   <si>
@@ -682,12 +676,6 @@
   </si>
   <si>
     <t>The publication contains no hazards</t>
-  </si>
-  <si>
-    <t>legal-title</t>
-  </si>
-  <si>
-    <t>add-info-title</t>
   </si>
 </sst>
 </file>
@@ -749,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -763,6 +751,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1144,7 +1133,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1166,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A85">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$144,'epub-metadata-strings'!$D$2:$D$76,'onix-metadata-strings'!$D$2:$D$70))</f>
+        <f t="array" ref="A2:A81">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$145,'epub-metadata-strings'!$D$2:$D$76,'onix-metadata-strings'!$D$2:$D$70))</f>
         <v>ways-of-reading-title</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -1377,28 +1366,28 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="str">
-        <v>prerecorded-audio-no-metadata</v>
+      <c r="A10" s="7" t="str">
+        <v>ways-of-reading-prerecorded-audio-no-metadata</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>No information about prerecorded audio is available</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>No information about prerecorded audio is available</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1452,41 +1441,41 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
+      <c r="A13" s="7" t="str">
         <v>ways-of-reading-prerecorded-audio-complementary</v>
       </c>
       <c r="B13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Complementary audio and text</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
         <v>Complementary audio and text</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="D13" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v>Complementary audio and text</v>
       </c>
-      <c r="F13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F13" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>ways-of-reading-prerecorded-audio-no-metadata</v>
+        <v>conformance-title</v>
       </c>
       <c r="B14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>Conformance</v>
       </c>
       <c r="C14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>Conformance</v>
       </c>
       <c r="D14" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1494,7 +1483,7 @@
       </c>
       <c r="E14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>Conformance</v>
       </c>
       <c r="F14" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1503,15 +1492,15 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>conformance-title</v>
+        <v>conformance-a</v>
       </c>
       <c r="B15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="D15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1519,7 +1508,7 @@
       </c>
       <c r="E15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="F15" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1528,15 +1517,15 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <v>conformance-a</v>
+        <v>conformance-aa</v>
       </c>
       <c r="B16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="D16" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1544,7 +1533,7 @@
       </c>
       <c r="E16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="F16" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1553,15 +1542,15 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <v>conformance-aa</v>
+        <v>conformance-aaa</v>
       </c>
       <c r="B17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="D17" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1569,7 +1558,7 @@
       </c>
       <c r="E17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="F17" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1578,15 +1567,15 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <v>conformance-aaa</v>
+        <v>conformance-no</v>
       </c>
       <c r="B18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>No information is available</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>No information is available</v>
       </c>
       <c r="D18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1594,7 +1583,7 @@
       </c>
       <c r="E18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>No information is available</v>
       </c>
       <c r="F18" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1603,15 +1592,15 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <v>conformance-no</v>
+        <v>conformance-claim</v>
       </c>
       <c r="B19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>This publication claims to meet</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>This publication claims to meet</v>
       </c>
       <c r="D19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1619,7 +1608,7 @@
       </c>
       <c r="E19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>This publication claims to meet</v>
       </c>
       <c r="F19" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1628,15 +1617,15 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <v>conformance-claim</v>
+        <v>conformance-certifier</v>
       </c>
       <c r="B20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="C20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="D20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1644,7 +1633,7 @@
       </c>
       <c r="E20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="F20" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1653,15 +1642,15 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <v>conformance-certifier</v>
+        <v>conformance-certifier-credentials</v>
       </c>
       <c r="B21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="D21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1669,7 +1658,7 @@
       </c>
       <c r="E21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="F21" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1678,15 +1667,15 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>conformance-certifier-credentials</v>
+        <v>conformance-certification-info</v>
       </c>
       <c r="B22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="D22" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1694,7 +1683,7 @@
       </c>
       <c r="E22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="F22" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1702,41 +1691,41 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <v>conformance-certification-info</v>
+      <c r="A23" s="7" t="str">
+        <v>conformance-certifier-report</v>
       </c>
       <c r="B23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
-      </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>For more information refer to the certifier's report</v>
+      </c>
+      <c r="D23" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
-      </c>
-      <c r="F23" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>For more information refer to the certifier's report</v>
+      </c>
+      <c r="F23" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>conformance-certifier-report</v>
+        <v>conformance-details</v>
       </c>
       <c r="B24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="D24" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1744,7 +1733,7 @@
       </c>
       <c r="E24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="F24" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1753,15 +1742,15 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>conformance-details</v>
+        <v>conformance-epub-accessibility-1-1</v>
       </c>
       <c r="B25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Detailed conformance information</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Detailed conformance information</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="D25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1769,7 +1758,7 @@
       </c>
       <c r="E25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Detailed conformance information</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="F25" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1778,65 +1767,65 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>conformance-epub-accessibility-1-1</v>
+        <v>conformance-wcag-2-1</v>
       </c>
       <c r="B26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v/>
       </c>
       <c r="C26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
-      </c>
-      <c r="D26" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>WCAG 2.1</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
-      </c>
-      <c r="F26" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.1</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <v>conformance-wcag-2-1</v>
+      <c r="A27" s="7" t="str">
+        <v>conformance-level-aa</v>
       </c>
       <c r="B27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Level AA</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Level AA</v>
+      </c>
+      <c r="D27" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>Level AA</v>
+      </c>
+      <c r="F27" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>conformance-level-aa</v>
+        <v>conformance-epub-accessibility-1-0</v>
       </c>
       <c r="B28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="C28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="D28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1844,7 +1833,7 @@
       </c>
       <c r="E28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="F28" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1853,65 +1842,65 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>conformance-epub-accessibility-1-0</v>
+        <v>conformance-wcag-2-2</v>
       </c>
       <c r="B29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v/>
       </c>
       <c r="C29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
-      </c>
-      <c r="D29" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>WCAG 2.2</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
-      </c>
-      <c r="F29" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.2</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>conformance-wcag-2-2</v>
+        <v>conformance-level-a</v>
       </c>
       <c r="B30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Level A</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
-      </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>Level A</v>
+      </c>
+      <c r="D30" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
-      </c>
-      <c r="F30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>Level A</v>
+      </c>
+      <c r="F30" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>conformance-level-a</v>
+        <v>conformance-unknown-standard</v>
       </c>
       <c r="B31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level A</v>
+        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Level A</v>
+        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="D31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1919,24 +1908,24 @@
       </c>
       <c r="E31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level A</v>
+        <v/>
       </c>
       <c r="F31" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>conformance-unknown-standard</v>
+        <v>navigation-title</v>
       </c>
       <c r="B32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
+        <v>Navigation</v>
       </c>
       <c r="C32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
+        <v>Navigation</v>
       </c>
       <c r="D32" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1944,24 +1933,24 @@
       </c>
       <c r="E32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Navigation</v>
       </c>
       <c r="F32" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>navigation-title</v>
+        <v>navigation-no-metadata</v>
       </c>
       <c r="B33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>No information is available</v>
       </c>
       <c r="C33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>No information is available</v>
       </c>
       <c r="D33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1969,7 +1958,7 @@
       </c>
       <c r="E33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>No information is available</v>
       </c>
       <c r="F33" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1978,15 +1967,15 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>navigation-no-metadata</v>
+        <v>navigation-toc</v>
       </c>
       <c r="B34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Table of contents</v>
       </c>
       <c r="C34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Table of contents</v>
       </c>
       <c r="D34" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1994,7 +1983,7 @@
       </c>
       <c r="E34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Table of contents</v>
       </c>
       <c r="F34" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2003,15 +1992,15 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>navigation-toc</v>
+        <v>navigation-index</v>
       </c>
       <c r="B35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>Index</v>
       </c>
       <c r="C35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>Index</v>
       </c>
       <c r="D35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2019,7 +2008,7 @@
       </c>
       <c r="E35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>Index</v>
       </c>
       <c r="F35" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2028,15 +2017,15 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>navigation-index</v>
+        <v>navigation-structural</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Index</v>
+        <v>Headings</v>
       </c>
       <c r="C36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Index</v>
+        <v>Headings</v>
       </c>
       <c r="D36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2044,7 +2033,7 @@
       </c>
       <c r="E36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Index</v>
+        <v>Headings</v>
       </c>
       <c r="F36" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2053,15 +2042,15 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>navigation-structural</v>
+        <v>navigation-page-navigation</v>
       </c>
       <c r="B37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Go to page</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Go to page</v>
       </c>
       <c r="D37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2069,7 +2058,7 @@
       </c>
       <c r="E37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Go to page</v>
       </c>
       <c r="F37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2078,15 +2067,15 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>navigation-page-navigation</v>
+        <v>rich-content-title</v>
       </c>
       <c r="B38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Rich content</v>
       </c>
       <c r="C38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Rich content</v>
       </c>
       <c r="D38" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2094,7 +2083,7 @@
       </c>
       <c r="E38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Rich content</v>
       </c>
       <c r="F38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2103,15 +2092,15 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>rich-content-title</v>
+        <v>rich-content-unknown</v>
       </c>
       <c r="B39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>No information is available</v>
       </c>
       <c r="C39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>No information is available</v>
       </c>
       <c r="D39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2119,7 +2108,7 @@
       </c>
       <c r="E39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>No information is available</v>
       </c>
       <c r="F39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2128,15 +2117,15 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>rich-content-unknown</v>
+        <v>rich-content-accessible-math-as-mathml</v>
       </c>
       <c r="B40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Math as MathML</v>
       </c>
       <c r="C40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Math as MathML</v>
       </c>
       <c r="D40" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2144,7 +2133,7 @@
       </c>
       <c r="E40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Math as MathML</v>
       </c>
       <c r="F40" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2153,15 +2142,15 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>rich-content-accessible-math-as-mathml</v>
+        <v>rich-content-accessible-math-as-latex</v>
       </c>
       <c r="B41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="D41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2169,7 +2158,7 @@
       </c>
       <c r="E41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="F41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2178,15 +2167,15 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>rich-content-accessible-math-as-latex</v>
+        <v>rich-content-accessible-math-described</v>
       </c>
       <c r="B42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="C42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="D42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2194,7 +2183,7 @@
       </c>
       <c r="E42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="F42" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2203,15 +2192,15 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <v>rich-content-accessible-math-described</v>
+        <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
       <c r="B43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="C43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="D43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2219,7 +2208,7 @@
       </c>
       <c r="E43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="F43" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2228,15 +2217,15 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <v>rich-content-accessible-chemistry-as-mathml</v>
+        <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
       <c r="B44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="C44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="D44" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2244,24 +2233,24 @@
       </c>
       <c r="E44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v/>
       </c>
       <c r="F44" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>rich-content-accessible-chemistry-as-latex</v>
+        <v>rich-content-extended</v>
       </c>
       <c r="B45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in LaTeX</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Chemical formulas in LaTeX</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="D45" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2269,24 +2258,24 @@
       </c>
       <c r="E45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="F45" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>rich-content-extended</v>
+        <v>rich-content-closed-captions</v>
       </c>
       <c r="B46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="C46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="D46" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2294,7 +2283,7 @@
       </c>
       <c r="E46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="F46" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2303,15 +2292,15 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>rich-content-closed-captions</v>
+        <v>rich-content-open-captions</v>
       </c>
       <c r="B47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="C47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="D47" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2319,7 +2308,7 @@
       </c>
       <c r="E47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="F47" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2328,15 +2317,15 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <v>rich-content-open-captions</v>
+        <v>rich-content-transcript</v>
       </c>
       <c r="B48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="D48" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2344,7 +2333,7 @@
       </c>
       <c r="E48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="F48" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2353,15 +2342,15 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <v>rich-content-transcript</v>
+        <v>hazards-title</v>
       </c>
       <c r="B49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>Hazards</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>Hazards</v>
       </c>
       <c r="D49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2369,7 +2358,7 @@
       </c>
       <c r="E49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>Hazards</v>
       </c>
       <c r="F49" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2378,15 +2367,15 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <v>hazards-title</v>
+        <v>hazards-no-metadata</v>
       </c>
       <c r="B50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>No information is available</v>
       </c>
       <c r="C50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>No information is available</v>
       </c>
       <c r="D50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2394,7 +2383,7 @@
       </c>
       <c r="E50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>No information is available</v>
       </c>
       <c r="F50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2403,15 +2392,15 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <v>hazards-no-metadata</v>
+        <v>hazards-none</v>
       </c>
       <c r="B51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>No hazards</v>
       </c>
       <c r="C51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>No hazards</v>
       </c>
       <c r="D51" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2419,7 +2408,7 @@
       </c>
       <c r="E51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>No hazards</v>
       </c>
       <c r="F51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2428,15 +2417,15 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <v>hazards-none</v>
+        <v>hazards-flashing</v>
       </c>
       <c r="B52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Flashing content</v>
       </c>
       <c r="C52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Flashing content</v>
       </c>
       <c r="D52" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2444,7 +2433,7 @@
       </c>
       <c r="E52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Flashing content</v>
       </c>
       <c r="F52" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2453,15 +2442,15 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <v>hazards-flashing</v>
+        <v>hazards-motion</v>
       </c>
       <c r="B53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>Motion simulation</v>
       </c>
       <c r="C53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>Motion simulation</v>
       </c>
       <c r="D53" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2469,7 +2458,7 @@
       </c>
       <c r="E53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>Motion simulation</v>
       </c>
       <c r="F53" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2478,15 +2467,15 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <v>hazards-motion</v>
+        <v>hazards-sound</v>
       </c>
       <c r="B54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>Sounds</v>
       </c>
       <c r="C54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>Sounds</v>
       </c>
       <c r="D54" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2494,7 +2483,7 @@
       </c>
       <c r="E54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>Sounds</v>
       </c>
       <c r="F54" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2503,15 +2492,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <v>hazards-sound</v>
+        <v>hazards-unknown</v>
       </c>
       <c r="B55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="C55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="D55" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2519,7 +2508,7 @@
       </c>
       <c r="E55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="F55" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2528,15 +2517,15 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <v>hazards-unknown</v>
+        <v>accessibility-summary-title</v>
       </c>
       <c r="B56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="C56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="D56" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2544,7 +2533,7 @@
       </c>
       <c r="E56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="F56" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2553,40 +2542,40 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <v>hazards-no-metadata].</v>
+        <v>accessibility-summary-no-metadata</v>
       </c>
       <c r="B57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>No information is available</v>
       </c>
       <c r="C57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>No information is available</v>
+      </c>
+      <c r="D57" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>No information is available</v>
+      </c>
+      <c r="F57" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <v>accessibility-summary-title</v>
+        <v>legal-considerations-title</v>
       </c>
       <c r="B58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>Legal considerations</v>
       </c>
       <c r="C58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>Legal considerations</v>
       </c>
       <c r="D58" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2594,7 +2583,7 @@
       </c>
       <c r="E58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>Legal considerations</v>
       </c>
       <c r="F58" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2603,15 +2592,15 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <v>accessibility-summary-no-metadata</v>
+        <v>legal-considerations-exempt</v>
       </c>
       <c r="B59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="C59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="D59" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2619,7 +2608,7 @@
       </c>
       <c r="E59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="F59" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2628,15 +2617,15 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <v>legal-considerations-title</v>
+        <v>legal-considerations-no-metadata</v>
       </c>
       <c r="B60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="C60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="D60" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2644,7 +2633,7 @@
       </c>
       <c r="E60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="F60" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2653,15 +2642,15 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <v>legal-considerations-exempt</v>
+        <v>additional-accessibility-information-title</v>
       </c>
       <c r="B61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="C61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="D61" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2669,7 +2658,7 @@
       </c>
       <c r="E61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="F61" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2678,107 +2667,107 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <v>legal-considerations-no-metadata</v>
+        <v>conformance-wcag-2-0</v>
       </c>
       <c r="B62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v/>
       </c>
       <c r="C62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
-      </c>
-      <c r="D62" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>WCAG 2.0</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
-      </c>
-      <c r="F62" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.0</v>
+      </c>
+      <c r="F62" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <v>legal-title</v>
+        <v>conformance-level-aaa</v>
       </c>
       <c r="B63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v/>
       </c>
       <c r="C63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D63" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Level AAA</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="F63" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>Level AAA</v>
+      </c>
+      <c r="F63" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <v>additional-accessibility-information-title</v>
+        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
       </c>
       <c r="B64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v/>
       </c>
       <c r="C64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
-      </c>
-      <c r="D64" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>Audio descriptions</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
-      </c>
-      <c r="F64" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <v>add-info-title</v>
+        <v>additional-accessibility-information-adaptation-braille</v>
       </c>
       <c r="B65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v/>
       </c>
       <c r="C65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
-      </c>
-      <c r="D65" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>Braille</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F65" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="F65" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <v>conformance-wcag-2-0</v>
+        <v>additional-accessibility-information-adaptation-tactile_graphics</v>
       </c>
       <c r="B66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2786,7 +2775,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
+        <v>Tactile graphics</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2794,7 +2783,7 @@
       </c>
       <c r="E66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
+        <v/>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2803,7 +2792,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <v>conformance-level-aaa</v>
+        <v>additional-accessibility-information-adaptation-tactile_objects</v>
       </c>
       <c r="B67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2811,7 +2800,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <v>Tactile 3D objects</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2819,7 +2808,7 @@
       </c>
       <c r="E67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <v/>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2828,7 +2817,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
+        <v>additional-accessibility-information-adaptation-sign-language</v>
       </c>
       <c r="B68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2836,7 +2825,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Audio descriptions</v>
+        <v>Sign language</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" ref="D68:D85" si="2">IF($B68="","",EXACT($B68,C68))</f>
@@ -2844,7 +2833,7 @@
       </c>
       <c r="E68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Sign language</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" ref="F68:F85" si="3">IF($B68="","",EXACT($B68,E68))</f>
@@ -2853,7 +2842,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <v>additional-accessibility-information-adaptation-braille</v>
+        <v>additional-accessibility-information-clarity-aria</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2861,7 +2850,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Braille</v>
+        <v>ARIA</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2878,7 +2867,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_graphics</v>
+        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
       </c>
       <c r="B70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2886,7 +2875,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Tactile graphics</v>
+        <v>Full ruby annotations</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2903,7 +2892,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_objects</v>
+        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
       </c>
       <c r="B71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2911,7 +2900,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Tactile 3D objects</v>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2919,7 +2908,7 @@
       </c>
       <c r="E71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2928,7 +2917,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <v>additional-accessibility-information-adaptation-sign-language</v>
+        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
       </c>
       <c r="B72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2936,7 +2925,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2944,7 +2933,7 @@
       </c>
       <c r="E72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2953,7 +2942,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
+        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
       </c>
       <c r="B73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2961,7 +2950,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>ARIA</v>
+        <v>High contrast between foreground text and background</v>
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2969,7 +2958,7 @@
       </c>
       <c r="E73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>High contrast between text and background</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2978,7 +2967,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
+        <v>additional-accessibility-information-clarity-large-print</v>
       </c>
       <c r="B74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2986,7 +2975,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Full ruby annotations</v>
+        <v>Large print</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3003,7 +2992,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
+        <v>additional-accessibility-information-clarity-page-breaks</v>
       </c>
       <c r="B75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3011,7 +3000,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v>Visible page breaks</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3019,7 +3008,7 @@
       </c>
       <c r="E75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v/>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3028,7 +3017,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
+        <v>additional-accessibility-information-clarity-ruby-annotations</v>
       </c>
       <c r="B76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3036,7 +3025,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <v>Some Ruby annotations</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3044,7 +3033,7 @@
       </c>
       <c r="E76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <v/>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3053,7 +3042,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
+        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
       </c>
       <c r="B77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3061,7 +3050,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>High contrast between foreground text and background</v>
+        <v/>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3069,7 +3058,7 @@
       </c>
       <c r="E77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between text and background</v>
+        <v>Dyslexia readability</v>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3078,7 +3067,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <v>additional-accessibility-information-clarity-large-print</v>
+        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3086,7 +3075,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Large print</v>
+        <v/>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3094,7 +3083,7 @@
       </c>
       <c r="E78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Color is not the sole means of conveying information</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3103,7 +3092,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
+        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
       </c>
       <c r="B79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3111,7 +3100,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Visible page breaks</v>
+        <v/>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3119,7 +3108,7 @@
       </c>
       <c r="E79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Ultra high contrast between text and background</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3128,7 +3117,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <v>additional-accessibility-information-clarity-ruby-annotations</v>
+        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3136,7 +3125,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Some Ruby annotations</v>
+        <v/>
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3144,7 +3133,7 @@
       </c>
       <c r="E80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Visible page numbering</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3153,7 +3142,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
+        <v>additional-accessibility-information-clarity-without-background-sounds</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3169,7 +3158,7 @@
       </c>
       <c r="E81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Dyslexia readability</v>
+        <v>Without background sounds</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3177,9 +3166,6 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" t="str">
-        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
-      </c>
       <c r="B82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3194,7 +3180,7 @@
       </c>
       <c r="E82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Color is not the sole means of conveying information</v>
+        <v/>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3202,9 +3188,6 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" t="str">
-        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
-      </c>
       <c r="B83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3219,7 +3202,7 @@
       </c>
       <c r="E83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Ultra high contrast between text and background</v>
+        <v/>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3227,9 +3210,6 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="str">
-        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
-      </c>
       <c r="B84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3244,7 +3224,7 @@
       </c>
       <c r="E84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Visible page numbering</v>
+        <v/>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3252,9 +3232,6 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="str">
-        <v>additional-accessibility-information-clarity-without-background-sounds</v>
-      </c>
       <c r="B85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3269,7 +3246,7 @@
       </c>
       <c r="E85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Without background sounds</v>
+        <v/>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3669,10 +3646,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3717,10 +3694,10 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3732,7 +3709,7 @@
         <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
         <v>87</v>
@@ -3750,7 +3727,7 @@
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
         <v>86</v>
@@ -3768,7 +3745,7 @@
         <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
         <v>87</v>
@@ -3786,7 +3763,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -3804,13 +3781,13 @@
         <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" t="s">
         <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3822,13 +3799,13 @@
         <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F8" t="s">
         <v>86</v>
       </c>
       <c r="G8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3840,13 +3817,13 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F9" t="s">
         <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3858,13 +3835,13 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3876,7 +3853,7 @@
         <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F11" t="s">
         <v>87</v>
@@ -3894,7 +3871,7 @@
         <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F12" t="s">
         <v>86</v>
@@ -3912,7 +3889,7 @@
         <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
         <v>87</v>
@@ -3930,7 +3907,7 @@
         <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -3948,7 +3925,7 @@
         <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -3966,7 +3943,7 @@
         <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
         <v>86</v>
@@ -3978,19 +3955,19 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>prerecorded-audio-no-metadata-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D17" t="s">
         <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="F17" t="s">
         <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4002,13 +3979,13 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
         <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4020,7 +3997,7 @@
         <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F19" t="s">
         <v>86</v>
@@ -4038,13 +4015,13 @@
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F20" t="s">
         <v>87</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4056,82 +4033,85 @@
         <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F21" t="s">
         <v>86</v>
       </c>
       <c r="G21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-complementary-compact</v>
       </c>
       <c r="D22" t="s">
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>188</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
+        <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
       </c>
       <c r="D23" t="s">
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D24" t="s">
         <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D25" t="s">
         <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>173</v>
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4143,49 +4123,46 @@
         <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D27" t="s">
         <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D28" t="s">
         <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-descriptive</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D29" t="s">
         <v>69</v>
@@ -4194,34 +4171,34 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-a-descriptive</v>
       </c>
       <c r="D30" t="s">
         <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-descriptive</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D31" t="s">
         <v>69</v>
@@ -4230,34 +4207,34 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-compact</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D32" t="s">
         <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-descriptive</v>
+        <v>conformance-aaa-compact</v>
       </c>
       <c r="D33" t="s">
         <v>69</v>
@@ -4266,34 +4243,34 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D34" t="s">
         <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-descriptive</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D35" t="s">
         <v>69</v>
@@ -4302,7 +4279,7 @@
         <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
         <v>106</v>
@@ -4311,109 +4288,106 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-no-descriptive</v>
       </c>
       <c r="D36" t="s">
         <v>69</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-descriptive</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D37" t="s">
         <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-descriptive</v>
+        <v>conformance-certifier-descriptive</v>
       </c>
       <c r="D38" t="s">
         <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>86</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-descriptive</v>
+        <v>conformance-certifier-credentials-descriptive</v>
       </c>
       <c r="D39" t="s">
         <v>69</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
         <v>86</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D40" t="s">
         <v>69</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D41" t="s">
         <v>69</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-descriptive</v>
+        <v>conformance-aaa-compact</v>
       </c>
       <c r="D42" t="s">
         <v>69</v>
@@ -4422,34 +4396,34 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G42" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D43" t="s">
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-descriptive</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D44" t="s">
         <v>69</v>
@@ -4458,34 +4432,34 @@
         <v>4</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D45" t="s">
         <v>69</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-descriptive</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D46" t="s">
         <v>69</v>
@@ -4494,568 +4468,562 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-a-descriptive</v>
       </c>
       <c r="D47" t="s">
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D48" t="s">
         <v>69</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
       </c>
       <c r="G48" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D49" t="s">
         <v>69</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G49" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D50" t="s">
         <v>69</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D51" t="s">
         <v>69</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F51" t="s">
         <v>87</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D52" t="s">
         <v>69</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>87</v>
       </c>
       <c r="G52" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D53" t="s">
         <v>69</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-1-compact</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D54" t="s">
         <v>69</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-1-descriptive</v>
+        <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D55" t="s">
         <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
-      </c>
-      <c r="F55" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-level-aa-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D56" t="s">
         <v>69</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>86</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-descriptive</v>
+        <v>conformance-level-aa-compact</v>
       </c>
       <c r="D57" t="s">
         <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
-      </c>
-      <c r="F57" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D58" t="s">
         <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D59" t="s">
         <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D60" t="s">
         <v>69</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D61" t="s">
         <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
         <v>87</v>
       </c>
       <c r="G61" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D62" t="s">
         <v>69</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
         <v>87</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D63" t="s">
         <v>69</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>87</v>
       </c>
       <c r="G63" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D64" t="s">
         <v>69</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-0-compact</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D65" t="s">
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-2-descriptive</v>
+        <v>conformance-epub-accessibility-1-0-compact</v>
       </c>
       <c r="D66" t="s">
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
-      </c>
-      <c r="F66" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" ref="A67:A130" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
-        <v>conformance-level-a-compact</v>
+        <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>86</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certification-info-descriptive</v>
+        <v>conformance-level-a-compact</v>
       </c>
       <c r="D68" t="s">
         <v>69</v>
       </c>
       <c r="E68" t="s">
-        <v>33</v>
-      </c>
-      <c r="F68" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D69" t="s">
         <v>69</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D70" t="s">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D71" t="s">
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-unknown-standard-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D72" t="s">
         <v>69</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-unknown-standard-compact</v>
       </c>
       <c r="D73" t="s">
         <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="G73" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D74" t="s">
         <v>69</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D75" t="s">
         <v>69</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D76" t="s">
         <v>69</v>
       </c>
       <c r="E76" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D77" t="s">
         <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G77" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D78" t="s">
         <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>76</v>
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>87</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D79" t="s">
         <v>69</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G79" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D80" t="s">
         <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G80" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-descriptive</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D81" t="s">
         <v>69</v>
@@ -5064,34 +5032,34 @@
         <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-compact</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D82" t="s">
         <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G82" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-descriptive</v>
+        <v>navigation-index-compact</v>
       </c>
       <c r="D83" t="s">
         <v>69</v>
@@ -5100,34 +5068,34 @@
         <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G83" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-compact</v>
+        <v>navigation-index-descriptive</v>
       </c>
       <c r="D84" t="s">
         <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-descriptive</v>
+        <v>navigation-structural-compact</v>
       </c>
       <c r="D85" t="s">
         <v>69</v>
@@ -5136,34 +5104,34 @@
         <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-structural-descriptive</v>
       </c>
       <c r="D86" t="s">
         <v>69</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-descriptive</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D87" t="s">
         <v>69</v>
@@ -5172,34 +5140,34 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G87" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-compact</v>
+        <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D88" t="s">
         <v>69</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D89" t="s">
         <v>69</v>
@@ -5208,7 +5176,7 @@
         <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G89" t="s">
         <v>106</v>
@@ -5217,16 +5185,19 @@
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D90" t="s">
         <v>69</v>
       </c>
       <c r="E90" t="s">
-        <v>76</v>
+        <v>40</v>
+      </c>
+      <c r="F90" t="s">
+        <v>86</v>
       </c>
       <c r="G90" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5247,103 +5218,100 @@
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D92" t="s">
         <v>69</v>
       </c>
       <c r="E92" t="s">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="G92" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D93" t="s">
         <v>69</v>
       </c>
       <c r="E93" t="s">
-        <v>128</v>
-      </c>
-      <c r="F93" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="G93" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D94" t="s">
         <v>69</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G94" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-descriptive</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D95" t="s">
         <v>69</v>
       </c>
       <c r="E95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G95" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-compact</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D96" t="s">
         <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F96" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G96" t="s">
-        <v>193</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-descriptive</v>
+        <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D97" t="s">
         <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F97" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G97" t="s">
         <v>191</v>
@@ -5352,106 +5320,106 @@
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-compact</v>
+        <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D98" t="s">
         <v>69</v>
       </c>
       <c r="E98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-descriptive</v>
+        <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D99" t="s">
         <v>69</v>
       </c>
       <c r="E99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F99" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
+        <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D100" t="s">
         <v>69</v>
       </c>
       <c r="E100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G100" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D101" t="s">
         <v>69</v>
       </c>
       <c r="E101" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F101" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G101" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D102" t="s">
         <v>69</v>
       </c>
       <c r="E102" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F102" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G102" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D103" t="s">
         <v>69</v>
       </c>
       <c r="E103" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F103" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G103" t="s">
         <v>192</v>
@@ -5460,178 +5428,178 @@
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-compact</v>
+        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D104" t="s">
         <v>69</v>
       </c>
       <c r="E104" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G104" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-descriptive</v>
+        <v>rich-content-extended-compact</v>
       </c>
       <c r="D105" t="s">
         <v>69</v>
       </c>
       <c r="E105" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" t="s">
+        <v>87</v>
+      </c>
+      <c r="G105" t="s">
         <v>136</v>
-      </c>
-      <c r="F105" t="s">
-        <v>86</v>
-      </c>
-      <c r="G105" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-compact</v>
+        <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D106" t="s">
         <v>69</v>
       </c>
       <c r="E106" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F106" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G106" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-descriptive</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D107" t="s">
         <v>69</v>
       </c>
       <c r="E107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F107" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G107" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-compact</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D108" t="s">
         <v>69</v>
       </c>
       <c r="E108" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F108" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G108" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-descriptive</v>
+        <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D109" t="s">
         <v>69</v>
       </c>
       <c r="E109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F109" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G109" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D110" t="s">
         <v>69</v>
       </c>
       <c r="E110" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F110" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G110" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-descriptive</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D111" t="s">
         <v>69</v>
       </c>
       <c r="E111" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-compact</v>
+        <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D112" t="s">
         <v>69</v>
       </c>
       <c r="E112" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="F112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G112" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>rich-content-unknown-compact</v>
       </c>
       <c r="D113" t="s">
         <v>69</v>
       </c>
       <c r="E113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F113" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G113" t="s">
         <v>106</v>
@@ -5640,16 +5608,19 @@
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D114" t="s">
         <v>69</v>
       </c>
       <c r="E114" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+      <c r="F114" t="s">
+        <v>86</v>
       </c>
       <c r="G114" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5661,67 +5632,64 @@
         <v>69</v>
       </c>
       <c r="E115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G115" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D116" t="s">
         <v>69</v>
       </c>
       <c r="E116" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="G116" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D117" t="s">
         <v>69</v>
       </c>
       <c r="E117" t="s">
-        <v>47</v>
-      </c>
-      <c r="F117" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G117" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D118" t="s">
         <v>69</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F118" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G118" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-descriptive</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D119" t="s">
         <v>69</v>
@@ -5730,34 +5698,34 @@
         <v>41</v>
       </c>
       <c r="F119" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G119" t="s">
-        <v>205</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D120" t="s">
         <v>69</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G120" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-descriptive</v>
+        <v>hazards-flashing-compact</v>
       </c>
       <c r="D121" t="s">
         <v>69</v>
@@ -5766,34 +5734,34 @@
         <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G121" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-compact</v>
+        <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D122" t="s">
         <v>69</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F122" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G122" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-descriptive</v>
+        <v>hazards-motion-compact</v>
       </c>
       <c r="D123" t="s">
         <v>69</v>
@@ -5802,34 +5770,34 @@
         <v>44</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G123" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-sound-compact</v>
+        <v>hazards-motion-descriptive</v>
       </c>
       <c r="D124" t="s">
         <v>69</v>
       </c>
       <c r="E124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F124" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G124" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-sound-descriptive</v>
+        <v>hazards-sound-compact</v>
       </c>
       <c r="D125" t="s">
         <v>69</v>
@@ -5838,34 +5806,34 @@
         <v>45</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G125" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-compact</v>
+        <v>hazards-sound-descriptive</v>
       </c>
       <c r="D126" t="s">
         <v>69</v>
       </c>
       <c r="E126" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G126" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-descriptive</v>
+        <v>hazards-unknown-compact</v>
       </c>
       <c r="D127" t="s">
         <v>69</v>
@@ -5874,43 +5842,43 @@
         <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G127" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-compact</v>
+        <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D128" t="s">
         <v>69</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G128" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata].-descriptive</v>
+        <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D129" t="s">
         <v>69</v>
       </c>
       <c r="E129" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="F129" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G129" t="s">
         <v>106</v>
@@ -5919,21 +5887,24 @@
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D130" t="s">
         <v>69</v>
       </c>
       <c r="E130" t="s">
-        <v>78</v>
+        <v>47</v>
+      </c>
+      <c r="F130" t="s">
+        <v>86</v>
       </c>
       <c r="G130" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
-        <f t="shared" ref="A131:A144" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
+        <f t="shared" ref="A131:A145" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
         <v>hazards-title-compact</v>
       </c>
       <c r="D131" t="s">
@@ -5949,124 +5920,121 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D132" t="s">
         <v>69</v>
       </c>
       <c r="E132" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G132" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-no-metadata-compact</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D133" t="s">
         <v>69</v>
       </c>
       <c r="E133" t="s">
-        <v>48</v>
-      </c>
-      <c r="F133" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G133" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>accessibility-summary-no-metadata-compact</v>
       </c>
       <c r="D134" t="s">
         <v>69</v>
       </c>
       <c r="E134" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="F134" t="s">
+        <v>87</v>
       </c>
       <c r="G134" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D135" t="s">
         <v>69</v>
       </c>
       <c r="E135" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G135" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-compact</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D136" t="s">
         <v>69</v>
       </c>
       <c r="E136" t="s">
-        <v>150</v>
-      </c>
-      <c r="F136" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G136" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-descriptive</v>
+        <v>legal-considerations-exempt-compact</v>
       </c>
       <c r="D137" t="s">
         <v>69</v>
       </c>
       <c r="E137" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F137" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G137" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-compact</v>
+        <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D138" t="s">
         <v>69</v>
       </c>
       <c r="E138" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="F138" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G138" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-descriptive</v>
+        <v>legal-considerations-no-metadata-compact</v>
       </c>
       <c r="D139" t="s">
         <v>69</v>
@@ -6075,7 +6043,7 @@
         <v>49</v>
       </c>
       <c r="F139" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G139" t="s">
         <v>106</v>
@@ -6084,28 +6052,31 @@
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-title-compact</v>
+        <v>legal-considerations-no-metadata-descriptive</v>
       </c>
       <c r="D140" t="s">
         <v>69</v>
       </c>
       <c r="E140" t="s">
-        <v>206</v>
+        <v>49</v>
+      </c>
+      <c r="F140" t="s">
+        <v>86</v>
       </c>
       <c r="G140" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-title-compact</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D141" t="s">
         <v>69</v>
       </c>
       <c r="E141" t="s">
-        <v>206</v>
+        <v>89</v>
       </c>
       <c r="G141" t="s">
         <v>90</v>
@@ -6114,28 +6085,28 @@
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D142" t="s">
         <v>69</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G142" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>add-info-title-compact</v>
+        <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D143" t="s">
         <v>69</v>
       </c>
       <c r="E143" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="G143" t="s">
         <v>83</v>
@@ -6144,15 +6115,30 @@
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>add-info-title-compact</v>
+        <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D144" t="s">
         <v>69</v>
       </c>
       <c r="E144" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="G144" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-title-compact</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" t="s">
+        <v>82</v>
+      </c>
+      <c r="G145" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6165,8 +6151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection sqref="A1:E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6200,10 +6186,10 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6233,10 +6219,10 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6288,7 +6274,7 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
@@ -6299,7 +6285,7 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -6310,10 +6296,10 @@
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6321,10 +6307,10 @@
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6332,7 +6318,7 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
         <v>110</v>
@@ -6343,7 +6329,7 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
         <v>112</v>
@@ -6354,7 +6340,7 @@
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
         <v>111</v>
@@ -6365,10 +6351,10 @@
         <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -6376,10 +6362,10 @@
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -6387,7 +6373,7 @@
         <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -6398,10 +6384,10 @@
         <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -6621,7 +6607,7 @@
         <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -6632,7 +6618,7 @@
         <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -6643,7 +6629,7 @@
         <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -6654,7 +6640,7 @@
         <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -6673,10 +6659,10 @@
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -6684,10 +6670,10 @@
         <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -6695,10 +6681,10 @@
         <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -6706,10 +6692,10 @@
         <v>69</v>
       </c>
       <c r="D48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -6717,10 +6703,10 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -6728,10 +6714,10 @@
         <v>69</v>
       </c>
       <c r="D50" t="s">
+        <v>135</v>
+      </c>
+      <c r="E50" t="s">
         <v>136</v>
-      </c>
-      <c r="E50" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -6739,10 +6725,10 @@
         <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -6750,10 +6736,10 @@
         <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
@@ -6761,10 +6747,10 @@
         <v>69</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
@@ -6772,7 +6758,7 @@
         <v>69</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E54" t="s">
         <v>106</v>
@@ -6797,7 +6783,7 @@
         <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
@@ -6808,7 +6794,7 @@
         <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
@@ -6819,7 +6805,7 @@
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
@@ -6860,10 +6846,10 @@
         <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
@@ -6885,7 +6871,7 @@
         <v>50</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
@@ -6896,7 +6882,7 @@
         <v>70</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
@@ -6904,10 +6890,10 @@
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -6915,10 +6901,10 @@
         <v>69</v>
       </c>
       <c r="D67" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -6929,7 +6915,7 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
@@ -6940,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="E69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
@@ -6951,7 +6937,7 @@
         <v>72</v>
       </c>
       <c r="E70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
@@ -6962,7 +6948,7 @@
         <v>52</v>
       </c>
       <c r="E71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
@@ -6973,7 +6959,7 @@
         <v>53</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
@@ -6984,7 +6970,7 @@
         <v>54</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
@@ -6995,7 +6981,7 @@
         <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
@@ -7006,7 +6992,7 @@
         <v>62</v>
       </c>
       <c r="E75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.2">
@@ -7017,7 +7003,7 @@
         <v>73</v>
       </c>
       <c r="E76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -7029,8 +7015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7064,10 +7050,10 @@
         <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7097,10 +7083,10 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7152,7 +7138,7 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
@@ -7163,7 +7149,7 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -7174,10 +7160,10 @@
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7185,7 +7171,7 @@
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E13" t="s">
         <v>110</v>
@@ -7196,10 +7182,10 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7207,7 +7193,7 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15" t="s">
         <v>112</v>
@@ -7218,7 +7204,7 @@
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
         <v>111</v>
@@ -7229,10 +7215,10 @@
         <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -7240,7 +7226,7 @@
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
@@ -7251,10 +7237,10 @@
         <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -7262,10 +7248,10 @@
         <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -7474,7 +7460,7 @@
         <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -7485,7 +7471,7 @@
         <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -7496,7 +7482,7 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -7507,7 +7493,7 @@
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -7526,10 +7512,10 @@
         <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -7537,10 +7523,10 @@
         <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -7548,10 +7534,10 @@
         <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -7559,10 +7545,10 @@
         <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -7570,10 +7556,10 @@
         <v>69</v>
       </c>
       <c r="D48" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" t="s">
         <v>136</v>
-      </c>
-      <c r="E48" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -7581,10 +7567,10 @@
         <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -7592,10 +7578,10 @@
         <v>69</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -7603,10 +7589,10 @@
         <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -7614,7 +7600,7 @@
         <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
         <v>106</v>
@@ -7639,7 +7625,7 @@
         <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
@@ -7650,7 +7636,7 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -7661,7 +7647,7 @@
         <v>45</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
@@ -7702,10 +7688,10 @@
         <v>69</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
@@ -7727,7 +7713,7 @@
         <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
@@ -7738,7 +7724,7 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
@@ -7749,7 +7735,7 @@
         <v>52</v>
       </c>
       <c r="E64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
@@ -7760,7 +7746,7 @@
         <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
@@ -7771,7 +7757,7 @@
         <v>54</v>
       </c>
       <c r="E66" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -7782,7 +7768,7 @@
         <v>59</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -7793,7 +7779,7 @@
         <v>60</v>
       </c>
       <c r="E68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
@@ -7804,7 +7790,7 @@
         <v>53</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
@@ -7815,7 +7801,7 @@
         <v>61</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151BA1E5-01E2-A143-8FFB-F3FD943D53FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B4B394-A505-984D-AD71-51FB9018860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1020" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
   <sheets>
     <sheet name="crosscheck" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$94</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -99,9 +99,6 @@
     <t>conformance-certifier</t>
   </si>
   <si>
-    <t>This publication is certified by</t>
-  </si>
-  <si>
     <t>conformance-certifier-credentials</t>
   </si>
   <si>
@@ -216,42 +213,9 @@
     <t>legal-considerations-no-metadata</t>
   </si>
   <si>
-    <t>additional-accessibility-information-adaptation-audio-descriptions</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-adaptation-sign-language</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-text-to-speech-hinting</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-high-contrast-between-text-and-background</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-large-print</t>
-  </si>
-  <si>
     <t>Appearance can be modified</t>
   </si>
   <si>
-    <t>additional-accessibility-information-adaptation-dyslexia-readability</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-visible-page-numbering</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-without-background-sounds</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-page-breaks</t>
   </si>
   <si>
@@ -276,18 +240,9 @@
     <t/>
   </si>
   <si>
-    <t>additional-accessibility-information-adaptation-braille</t>
-  </si>
-  <si>
     <t>additional-accessibility-information-clarity-aria</t>
   </si>
   <si>
-    <t>additional-accessibility-information-clarity-full-ruby-annotations</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-clarity-ruby-annotations</t>
-  </si>
-  <si>
     <t>conformance-title</t>
   </si>
   <si>
@@ -330,9 +285,6 @@
     <t>compact</t>
   </si>
   <si>
-    <t>Web Content Accessibility Guidelines (WCAG) 2.2</t>
-  </si>
-  <si>
     <t>legal-considerations-title</t>
   </si>
   <si>
@@ -573,9 +525,6 @@
     <t>Large print</t>
   </si>
   <si>
-    <t>Visible page breaks</t>
-  </si>
-  <si>
     <t>Some Ruby annotations</t>
   </si>
   <si>
@@ -654,15 +603,9 @@
     <t>Braille</t>
   </si>
   <si>
-    <t>additional-accessibility-information-adaptation-tactile_graphics</t>
-  </si>
-  <si>
     <t>Tactile graphics</t>
   </si>
   <si>
-    <t>additional-accessibility-information-adaptation-tactile_objects</t>
-  </si>
-  <si>
     <t>Tactile 3D objects</t>
   </si>
   <si>
@@ -676,6 +619,99 @@
   </si>
   <si>
     <t>The publication contains no hazards</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines (WCAG ) 2.0</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines (WCAG ) 2.1</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guidelines (WCAG ) 2.2</t>
+  </si>
+  <si>
+    <t>The publication contains a conformance statement that it meets the EPUB Accessibility and WCAG 2 Level AA standard.</t>
+  </si>
+  <si>
+    <t>Transcript(s) provided)</t>
+  </si>
+  <si>
+    <t>ARIA roles included</t>
+  </si>
+  <si>
+    <t>Content is enhanced with ARIA roles to optimize organization and facilitate navigation</t>
+  </si>
+  <si>
+    <t>Page breaks included</t>
+  </si>
+  <si>
+    <t>Page breaks included from the original print source</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-adaptation-tactile-graphics</t>
+  </si>
+  <si>
+    <t>Tactile graphics included</t>
+  </si>
+  <si>
+    <t>Tactile graphics have been integrated to facilitate access to visual elements for blind people</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-color-not-sole-means-of-conveying-information</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-dyslexia-readability</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-high-contrast-between-foreground-and-background-audio</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-high-contrast-between-text-and-background</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-sign-language</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-text-to-speech-hinting</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-ultra-high-contrast-between-text-and-background</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-visible-page-numbering</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-without-background-sounds</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-page-breaks</t>
+  </si>
+  <si>
+    <t>Page breaks</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-aria</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-audio-descriptions</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-braille</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-full-ruby-annotations</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-large-print</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-ruby-annotations</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-tactile-graphics</t>
+  </si>
+  <si>
+    <t>additional-accessibility-information-tactile-objects</t>
   </si>
 </sst>
 </file>
@@ -737,7 +773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -751,7 +787,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1133,7 +1168,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1149,24 +1184,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A81">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$145,'epub-metadata-strings'!$D$2:$D$76,'onix-metadata-strings'!$D$2:$D$70))</f>
+        <f t="array" ref="A2:A84">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$168,'epub-metadata-strings'!$D$2:$D$75,'onix-metadata-strings'!$D$2:$D$70))</f>
         <v>ways-of-reading-title</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -1174,7 +1209,7 @@
         <v>Ways of reading</v>
       </c>
       <c r="C2" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A2,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Ways of reading</v>
       </c>
       <c r="D2" s="2" t="b">
@@ -1199,7 +1234,7 @@
         <v>Appearance can be modified</v>
       </c>
       <c r="C3" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A3,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Appearance can be modified</v>
       </c>
       <c r="D3" s="2" t="b">
@@ -1224,7 +1259,7 @@
         <v>Appearance cannot be modified</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A4,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Appearance cannot be modified</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -1249,7 +1284,7 @@
         <v>No information about appearance modifiability is available</v>
       </c>
       <c r="C5" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A5,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>No information about appearance modifiability is available</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -1274,7 +1309,7 @@
         <v>Has alternative text</v>
       </c>
       <c r="C6" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Has alternative text</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -1299,7 +1334,7 @@
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="D7" s="2" t="b">
@@ -1324,7 +1359,7 @@
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C8" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>May not be fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D8" s="2" t="b">
@@ -1349,7 +1384,7 @@
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C9" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D9" s="2" t="b">
@@ -1366,7 +1401,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="str">
+      <c r="A10" t="str">
         <v>ways-of-reading-prerecorded-audio-no-metadata</v>
       </c>
       <c r="B10" s="5" t="str">
@@ -1374,7 +1409,7 @@
         <v>No information about prerecorded audio is available</v>
       </c>
       <c r="C10" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>No information about prerecorded audio is available</v>
       </c>
       <c r="D10" s="2" t="b">
@@ -1399,7 +1434,7 @@
         <v>Prerecorded audio only</v>
       </c>
       <c r="C11" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Prerecorded audio only</v>
       </c>
       <c r="D11" s="2" t="b">
@@ -1424,7 +1459,7 @@
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C12" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="D12" s="2" t="b">
@@ -1441,7 +1476,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="str">
+      <c r="A13" t="str">
         <v>ways-of-reading-prerecorded-audio-complementary</v>
       </c>
       <c r="B13" s="5" t="str">
@@ -1449,7 +1484,7 @@
         <v>Complementary audio and text</v>
       </c>
       <c r="C13" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Complementary audio and text</v>
       </c>
       <c r="D13" s="2" t="b">
@@ -1474,7 +1509,7 @@
         <v>Conformance</v>
       </c>
       <c r="C14" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Conformance</v>
       </c>
       <c r="D14" s="2" t="b">
@@ -1499,7 +1534,7 @@
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C15" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="D15" s="2" t="b">
@@ -1524,7 +1559,7 @@
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C16" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="D16" s="2" t="b">
@@ -1549,7 +1584,7 @@
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C17" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="D17" s="2" t="b">
@@ -1574,7 +1609,7 @@
         <v>No information is available</v>
       </c>
       <c r="C18" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>No information is available</v>
       </c>
       <c r="D18" s="2" t="b">
@@ -1592,15 +1627,15 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <v>conformance-claim</v>
+        <v>conformance-certifier</v>
       </c>
       <c r="B19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="C19" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>The publication was certified by</v>
       </c>
       <c r="D19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1608,7 +1643,7 @@
       </c>
       <c r="E19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="F19" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1617,15 +1652,15 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <v>conformance-certifier</v>
+        <v>conformance-certifier-credentials</v>
       </c>
       <c r="B20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>The certifier's credential is</v>
       </c>
       <c r="D20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1633,7 +1668,7 @@
       </c>
       <c r="E20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="F20" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1642,15 +1677,15 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <v>conformance-certifier-credentials</v>
+        <v>conformance-claim</v>
       </c>
       <c r="B21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>This publication claims to meet</v>
       </c>
       <c r="C21" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>This publication claims to meet</v>
       </c>
       <c r="D21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1658,7 +1693,7 @@
       </c>
       <c r="E21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>This publication claims to meet</v>
       </c>
       <c r="F21" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1667,90 +1702,90 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>conformance-certification-info</v>
+        <v>conformance-wcag-2-0</v>
       </c>
       <c r="B22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified on</v>
+        <v/>
       </c>
       <c r="C22" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>WCAG 2.0</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
-      </c>
-      <c r="F22" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.0</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="str">
-        <v>conformance-certifier-report</v>
+      <c r="A23" t="str">
+        <v>conformance-wcag-2-1</v>
       </c>
       <c r="B23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v/>
       </c>
       <c r="C23" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
-      </c>
-      <c r="D23" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>WCAG 2.1</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
-      </c>
-      <c r="F23" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.1</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>conformance-details</v>
+        <v>conformance-wcag-2-2</v>
       </c>
       <c r="B24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Detailed conformance information</v>
+        <v/>
       </c>
       <c r="C24" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Detailed conformance information</v>
-      </c>
-      <c r="D24" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>WCAG 2.2</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Detailed conformance information</v>
-      </c>
-      <c r="F24" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.2</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>conformance-epub-accessibility-1-1</v>
+        <v>conformance-certification-info</v>
       </c>
       <c r="B25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="C25" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>The publication was certified on</v>
       </c>
       <c r="D25" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1758,7 +1793,7 @@
       </c>
       <c r="E25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="F25" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1767,40 +1802,40 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>conformance-wcag-2-1</v>
+        <v>conformance-certifier-report</v>
       </c>
       <c r="B26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C26" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
-      </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>For more information refer to the certifier's report</v>
+      </c>
+      <c r="D26" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
-      </c>
-      <c r="F26" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>For more information refer to the certifier's report</v>
+      </c>
+      <c r="F26" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="str">
-        <v>conformance-level-aa</v>
+      <c r="A27" t="str">
+        <v>conformance-details</v>
       </c>
       <c r="B27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="C27" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Detailed conformance information</v>
       </c>
       <c r="D27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1808,7 +1843,7 @@
       </c>
       <c r="E27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="F27" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1817,15 +1852,15 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>conformance-epub-accessibility-1-0</v>
+        <v>conformance-epub-accessibility-1-1</v>
       </c>
       <c r="B28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C28" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="D28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1833,7 +1868,7 @@
       </c>
       <c r="E28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="F28" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1842,40 +1877,40 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>conformance-wcag-2-2</v>
+        <v>conformance-level-aa</v>
       </c>
       <c r="B29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Level AA</v>
       </c>
       <c r="C29" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
-      </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Level AA</v>
+      </c>
+      <c r="D29" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
-      </c>
-      <c r="F29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>Level AA</v>
+      </c>
+      <c r="F29" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>conformance-level-a</v>
+        <v>navigation-title</v>
       </c>
       <c r="B30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level A</v>
+        <v>Navigation</v>
       </c>
       <c r="C30" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Level A</v>
+        <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Navigation</v>
       </c>
       <c r="D30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1883,7 +1918,7 @@
       </c>
       <c r="E30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level A</v>
+        <v>Navigation</v>
       </c>
       <c r="F30" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1892,15 +1927,15 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>conformance-unknown-standard</v>
+        <v>navigation-no-metadata</v>
       </c>
       <c r="B31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
+        <v>No information is available</v>
       </c>
       <c r="C31" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
+        <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1908,24 +1943,24 @@
       </c>
       <c r="E31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>No information is available</v>
       </c>
       <c r="F31" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>navigation-title</v>
+        <v>navigation-toc</v>
       </c>
       <c r="B32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Table of contents</v>
       </c>
       <c r="C32" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Table of contents</v>
       </c>
       <c r="D32" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1933,7 +1968,7 @@
       </c>
       <c r="E32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Table of contents</v>
       </c>
       <c r="F32" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1942,15 +1977,15 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>navigation-no-metadata</v>
+        <v>navigation-index</v>
       </c>
       <c r="B33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Index</v>
       </c>
       <c r="C33" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Index</v>
       </c>
       <c r="D33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1958,7 +1993,7 @@
       </c>
       <c r="E33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Index</v>
       </c>
       <c r="F33" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1967,15 +2002,15 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>navigation-toc</v>
+        <v>navigation-structural</v>
       </c>
       <c r="B34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>Headings</v>
       </c>
       <c r="C34" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Headings</v>
       </c>
       <c r="D34" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1983,7 +2018,7 @@
       </c>
       <c r="E34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>Headings</v>
       </c>
       <c r="F34" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1992,15 +2027,15 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>navigation-index</v>
+        <v>navigation-page-navigation</v>
       </c>
       <c r="B35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Index</v>
+        <v>Go to page</v>
       </c>
       <c r="C35" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Index</v>
+        <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Go to page</v>
       </c>
       <c r="D35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2008,7 +2043,7 @@
       </c>
       <c r="E35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Index</v>
+        <v>Go to page</v>
       </c>
       <c r="F35" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2017,15 +2052,15 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>navigation-structural</v>
+        <v>rich-content-title</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Rich content</v>
       </c>
       <c r="C36" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Headings</v>
+        <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Rich content</v>
       </c>
       <c r="D36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2033,7 +2068,7 @@
       </c>
       <c r="E36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Rich content</v>
       </c>
       <c r="F36" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2042,15 +2077,15 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>navigation-page-navigation</v>
+        <v>rich-content-unknown</v>
       </c>
       <c r="B37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>No information is available</v>
       </c>
       <c r="C37" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2058,7 +2093,7 @@
       </c>
       <c r="E37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>No information is available</v>
       </c>
       <c r="F37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2067,15 +2102,15 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>rich-content-title</v>
+        <v>rich-content-accessible-math-as-mathml</v>
       </c>
       <c r="B38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>Math as MathML</v>
       </c>
       <c r="C38" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Math as MathML</v>
       </c>
       <c r="D38" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2083,7 +2118,7 @@
       </c>
       <c r="E38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>Math as MathML</v>
       </c>
       <c r="F38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2092,15 +2127,15 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>rich-content-unknown</v>
+        <v>rich-content-accessible-math-as-latex</v>
       </c>
       <c r="B39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="C39" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Math as LaTeX</v>
       </c>
       <c r="D39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2108,7 +2143,7 @@
       </c>
       <c r="E39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="F39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2117,23 +2152,23 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>rich-content-accessible-math-as-mathml</v>
+        <v>rich-content-accessible-math-described</v>
       </c>
       <c r="B40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="C40" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D40" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="F40" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2142,15 +2177,15 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>rich-content-accessible-math-as-latex</v>
+        <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
       <c r="B41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="C41" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="D41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2158,7 +2193,7 @@
       </c>
       <c r="E41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="F41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2167,15 +2202,15 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>rich-content-accessible-math-described</v>
+        <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
       <c r="B42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="C42" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="D42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2183,24 +2218,24 @@
       </c>
       <c r="E42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <v/>
       </c>
       <c r="F42" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <v>rich-content-accessible-chemistry-as-mathml</v>
+        <v>rich-content-extended</v>
       </c>
       <c r="B43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C43" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="D43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2208,7 +2243,7 @@
       </c>
       <c r="E43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="F43" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2217,15 +2252,15 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <v>rich-content-accessible-chemistry-as-latex</v>
+        <v>rich-content-closed-captions</v>
       </c>
       <c r="B44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in LaTeX</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="C44" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Chemical formulas in LaTeX</v>
+        <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Videos have closed captions</v>
       </c>
       <c r="D44" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2233,24 +2268,24 @@
       </c>
       <c r="E44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Videos have closed captions</v>
       </c>
       <c r="F44" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>rich-content-extended</v>
+        <v>rich-content-open-captions</v>
       </c>
       <c r="B45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="C45" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Videos have open captions</v>
       </c>
       <c r="D45" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2258,7 +2293,7 @@
       </c>
       <c r="E45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="F45" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2267,15 +2302,15 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>rich-content-closed-captions</v>
+        <v>rich-content-transcript</v>
       </c>
       <c r="B46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="C46" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="D46" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2283,7 +2318,7 @@
       </c>
       <c r="E46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="F46" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2292,15 +2327,15 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>rich-content-open-captions</v>
+        <v>hazards-title</v>
       </c>
       <c r="B47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Hazards</v>
       </c>
       <c r="C47" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Hazards</v>
       </c>
       <c r="D47" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2308,7 +2343,7 @@
       </c>
       <c r="E47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Hazards</v>
       </c>
       <c r="F47" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2317,15 +2352,15 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <v>rich-content-transcript</v>
+        <v>hazards-no-metadata</v>
       </c>
       <c r="B48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>No information is available</v>
       </c>
       <c r="C48" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D48" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2333,7 +2368,7 @@
       </c>
       <c r="E48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>No information is available</v>
       </c>
       <c r="F48" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2342,15 +2377,15 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <v>hazards-title</v>
+        <v>hazards-none</v>
       </c>
       <c r="B49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>No hazards</v>
       </c>
       <c r="C49" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>No hazards</v>
       </c>
       <c r="D49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2358,7 +2393,7 @@
       </c>
       <c r="E49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>No hazards</v>
       </c>
       <c r="F49" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2367,15 +2402,15 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <v>hazards-no-metadata</v>
+        <v>hazards-flashing</v>
       </c>
       <c r="B50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Flashing content</v>
       </c>
       <c r="C50" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Flashing content</v>
       </c>
       <c r="D50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2383,7 +2418,7 @@
       </c>
       <c r="E50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Flashing content</v>
       </c>
       <c r="F50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2392,15 +2427,15 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <v>hazards-none</v>
+        <v>hazards-motion</v>
       </c>
       <c r="B51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Motion simulation</v>
       </c>
       <c r="C51" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Motion simulation</v>
       </c>
       <c r="D51" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2408,7 +2443,7 @@
       </c>
       <c r="E51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>Motion simulation</v>
       </c>
       <c r="F51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2417,15 +2452,15 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <v>hazards-flashing</v>
+        <v>hazards-sound</v>
       </c>
       <c r="B52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>Sounds</v>
       </c>
       <c r="C52" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Sounds</v>
       </c>
       <c r="D52" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2433,7 +2468,7 @@
       </c>
       <c r="E52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>Sounds</v>
       </c>
       <c r="F52" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2442,15 +2477,15 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <v>hazards-motion</v>
+        <v>hazards-unknown</v>
       </c>
       <c r="B53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="C53" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="D53" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2458,7 +2493,7 @@
       </c>
       <c r="E53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="F53" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2467,15 +2502,15 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <v>hazards-sound</v>
+        <v>accessibility-summary-title</v>
       </c>
       <c r="B54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="C54" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Sounds</v>
+        <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Accessibility summary</v>
       </c>
       <c r="D54" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2483,7 +2518,7 @@
       </c>
       <c r="E54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="F54" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2492,15 +2527,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <v>hazards-unknown</v>
+        <v>accessibility-summary-no-metadata</v>
       </c>
       <c r="B55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>No information is available</v>
       </c>
       <c r="C55" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D55" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2508,7 +2543,7 @@
       </c>
       <c r="E55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>No information is available</v>
       </c>
       <c r="F55" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2517,15 +2552,15 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <v>accessibility-summary-title</v>
+        <v>legal-considerations-title</v>
       </c>
       <c r="B56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>Legal considerations</v>
       </c>
       <c r="C56" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Legal considerations</v>
       </c>
       <c r="D56" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2533,7 +2568,7 @@
       </c>
       <c r="E56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>Legal considerations</v>
       </c>
       <c r="F56" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2542,15 +2577,15 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <v>accessibility-summary-no-metadata</v>
+        <v>legal-considerations-exempt</v>
       </c>
       <c r="B57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="C57" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="D57" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="E57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="F57" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2567,15 +2602,15 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <v>legal-considerations-title</v>
+        <v>legal-considerations-no-metadata</v>
       </c>
       <c r="B58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="C58" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>No information is available</v>
       </c>
       <c r="D58" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2583,7 +2618,7 @@
       </c>
       <c r="E58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="F58" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2592,15 +2627,15 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <v>legal-considerations-exempt</v>
+        <v>additional-accessibility-information-title</v>
       </c>
       <c r="B59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="C59" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Additional accessibility information</v>
       </c>
       <c r="D59" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2608,7 +2643,7 @@
       </c>
       <c r="E59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="F59" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2617,90 +2652,90 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <v>legal-considerations-no-metadata</v>
+        <v>additional-accessibility-information-clarity-aria</v>
       </c>
       <c r="B60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>ARIA roles included</v>
       </c>
       <c r="C60" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D60" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v/>
       </c>
       <c r="F60" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <v>additional-accessibility-information-title</v>
+        <v>additional-accessibility-information-clarity-page-breaks</v>
       </c>
       <c r="B61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>Page breaks included</v>
       </c>
       <c r="C61" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v/>
       </c>
       <c r="D61" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v/>
       </c>
       <c r="F61" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <v>conformance-wcag-2-0</v>
+        <v>additional-accessibility-information-adaptation-tactile-graphics</v>
       </c>
       <c r="B62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Tactile graphics included</v>
       </c>
       <c r="C62" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
-      </c>
-      <c r="D62" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D62" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
-      </c>
-      <c r="F62" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v/>
+      </c>
+      <c r="F62" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <v>conformance-level-aaa</v>
+        <v>conformance-unknown-standard</v>
       </c>
       <c r="B63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C63" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="D63" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2708,7 +2743,7 @@
       </c>
       <c r="E63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <v/>
       </c>
       <c r="F63" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2717,15 +2752,15 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <v>additional-accessibility-information-adaptation-audio-descriptions</v>
+        <v>conformance-epub-accessibility-1-0</v>
       </c>
       <c r="B64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C64" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Audio descriptions</v>
+        <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2733,7 +2768,7 @@
       </c>
       <c r="E64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2742,15 +2777,15 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <v>additional-accessibility-information-adaptation-braille</v>
+        <v>conformance-level-aaa</v>
       </c>
       <c r="B65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C65" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Braille</v>
+        <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Level AAA</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2758,7 +2793,7 @@
       </c>
       <c r="E65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Level AAA</v>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2767,15 +2802,15 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_graphics</v>
+        <v>conformance-level-a</v>
       </c>
       <c r="B66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C66" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Tactile graphics</v>
+        <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Level A</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2783,7 +2818,7 @@
       </c>
       <c r="E66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Level A</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2792,15 +2827,15 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <v>additional-accessibility-information-adaptation-tactile_objects</v>
+        <v>additional-accessibility-information-page-breaks</v>
       </c>
       <c r="B67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C67" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Tactile 3D objects</v>
+        <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Page breaks</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2817,15 +2852,15 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <v>additional-accessibility-information-adaptation-sign-language</v>
+        <v>additional-accessibility-information-aria</v>
       </c>
       <c r="B68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C68" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>ARIA</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" ref="D68:D85" si="2">IF($B68="","",EXACT($B68,C68))</f>
@@ -2833,7 +2868,7 @@
       </c>
       <c r="E68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v/>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" ref="F68:F85" si="3">IF($B68="","",EXACT($B68,E68))</f>
@@ -2842,15 +2877,15 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
+        <v>additional-accessibility-information-audio-descriptions</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C69" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>ARIA</v>
+        <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Audio descriptions</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2867,15 +2902,15 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <v>additional-accessibility-information-clarity-full-ruby-annotations</v>
+        <v>additional-accessibility-information-braille</v>
       </c>
       <c r="B70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C70" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Full ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Braille</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2892,15 +2927,15 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <v>additional-accessibility-information-clarity-text-to-speech-hinting</v>
+        <v>additional-accessibility-information-full-ruby-annotations</v>
       </c>
       <c r="B71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C71" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Full ruby annotations</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="E71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v/>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2917,14 +2952,14 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-foreground-and-background-audio</v>
+        <v>additional-accessibility-information-high-contrast-between-foreground-and-background-audio</v>
       </c>
       <c r="B72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C72" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>High contrast between foreground and background audio</v>
       </c>
       <c r="D72" s="2" t="str">
@@ -2942,14 +2977,14 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <v>additional-accessibility-information-clarity-high-contrast-between-text-and-background</v>
+        <v>additional-accessibility-information-high-contrast-between-text-and-background</v>
       </c>
       <c r="B73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C73" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>High contrast between foreground text and background</v>
       </c>
       <c r="D73" s="2" t="str">
@@ -2967,14 +3002,14 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <v>additional-accessibility-information-clarity-large-print</v>
+        <v>additional-accessibility-information-large-print</v>
       </c>
       <c r="B74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C74" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v>Large print</v>
       </c>
       <c r="D74" s="2" t="str">
@@ -2992,15 +3027,15 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
+        <v>additional-accessibility-information-ruby-annotations</v>
       </c>
       <c r="B75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C75" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Visible page breaks</v>
+        <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Some Ruby annotations</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3017,15 +3052,15 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <v>additional-accessibility-information-clarity-ruby-annotations</v>
+        <v>additional-accessibility-information-sign-language</v>
       </c>
       <c r="B76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C76" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v>Some Ruby annotations</v>
+        <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Sign language</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3033,7 +3068,7 @@
       </c>
       <c r="E76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Sign language</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3042,15 +3077,15 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <v>additional-accessibility-information-adaptation-dyslexia-readability</v>
+        <v>additional-accessibility-information-tactile-graphics</v>
       </c>
       <c r="B77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C77" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Tactile graphics</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3058,7 +3093,7 @@
       </c>
       <c r="E77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Dyslexia readability</v>
+        <v/>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3067,15 +3102,15 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <v>additional-accessibility-information-clarity-color-not-sole-means-of-conveying-information</v>
+        <v>additional-accessibility-information-tactile-objects</v>
       </c>
       <c r="B78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C78" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Tactile 3D objects</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3083,7 +3118,7 @@
       </c>
       <c r="E78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Color is not the sole means of conveying information</v>
+        <v/>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3092,15 +3127,15 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <v>additional-accessibility-information-clarity-ultra-high-contrast-between-text-and-background</v>
+        <v>additional-accessibility-information-text-to-speech-hinting</v>
       </c>
       <c r="B79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C79" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
-        <v/>
+        <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3108,7 +3143,7 @@
       </c>
       <c r="E79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Ultra high contrast between text and background</v>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3117,14 +3152,14 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <v>additional-accessibility-information-clarity-visible-page-numbering</v>
+        <v>additional-accessibility-information-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C80" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D80" s="2" t="str">
@@ -3133,7 +3168,7 @@
       </c>
       <c r="E80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Visible page numbering</v>
+        <v>Color is not the sole means of conveying information</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3142,14 +3177,14 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>additional-accessibility-information-clarity-without-background-sounds</v>
+        <v>additional-accessibility-information-dyslexia-readability</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C81" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D81" s="2" t="str">
@@ -3158,7 +3193,7 @@
       </c>
       <c r="E81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Without background sounds</v>
+        <v>Dyslexia readability</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3166,12 +3201,15 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <v>additional-accessibility-information-ultra-high-contrast-between-text-and-background</v>
+      </c>
       <c r="B82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C82" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A82,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D82" s="2" t="str">
@@ -3180,7 +3218,7 @@
       </c>
       <c r="E82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Ultra high contrast between text and background</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3188,12 +3226,15 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <v>additional-accessibility-information-visible-page-numbering</v>
+      </c>
       <c r="B83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C83" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A83,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D83" s="2" t="str">
@@ -3202,7 +3243,7 @@
       </c>
       <c r="E83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Visible page numbering</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3210,12 +3251,15 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <v>additional-accessibility-information-without-background-sounds</v>
+      </c>
       <c r="B84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
       </c>
       <c r="C84" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A84,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D84" s="2" t="str">
@@ -3224,7 +3268,7 @@
       </c>
       <c r="E84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Without background sounds</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3237,7 +3281,7 @@
         <v/>
       </c>
       <c r="C85" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A85,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D85" s="2" t="str">
@@ -3259,7 +3303,7 @@
         <v/>
       </c>
       <c r="C86" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A86,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D86" s="2"/>
@@ -3275,7 +3319,7 @@
         <v/>
       </c>
       <c r="C87" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A87,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D87" s="2"/>
@@ -3291,7 +3335,7 @@
         <v/>
       </c>
       <c r="C88" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A88,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D88" s="2"/>
@@ -3307,7 +3351,7 @@
         <v/>
       </c>
       <c r="C89" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A89,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D89" s="2"/>
@@ -3323,7 +3367,7 @@
         <v/>
       </c>
       <c r="C90" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A90,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D90" s="2"/>
@@ -3339,7 +3383,7 @@
         <v/>
       </c>
       <c r="C91" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A91,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D91" s="2"/>
@@ -3355,7 +3399,7 @@
         <v/>
       </c>
       <c r="C92" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A92,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D92" s="2"/>
@@ -3371,7 +3415,7 @@
         <v/>
       </c>
       <c r="C93" s="5" t="str">
-        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$980,2,FALSE),"")</f>
+        <f>IFERROR(VLOOKUP($A93,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="D93" s="2"/>
@@ -3646,10 +3690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3661,25 +3705,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3688,16 +3732,16 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3706,16 +3750,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3724,16 +3768,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3742,13 +3786,13 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -3760,16 +3804,16 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3778,16 +3822,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3796,16 +3840,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3814,16 +3858,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3832,16 +3876,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F10" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3850,16 +3894,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3868,16 +3912,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3886,16 +3930,16 @@
         <v>ways-of-reading-nonvisual-reading-may-not-fully-compact</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3904,16 +3948,16 @@
         <v>ways-of-reading-nonvisual-reading-may-not-fully-descriptive</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3922,16 +3966,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3940,16 +3984,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3958,16 +4002,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3976,16 +4020,16 @@
         <v>ways-of-reading-prerecorded-audio-only-compact</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3994,16 +4038,16 @@
         <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4012,16 +4056,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4030,16 +4074,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4048,16 +4092,16 @@
         <v>ways-of-reading-prerecorded-audio-complementary-compact</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4066,16 +4110,16 @@
         <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4084,16 +4128,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4102,16 +4146,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4120,901 +4164,928 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="F27" t="s">
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>162</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>160</v>
       </c>
       <c r="F29" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="G31" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-descriptive</v>
+        <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-compact</v>
+        <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>2</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>2</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-descriptive</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G36" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-descriptive</v>
+        <v>conformance-a-descriptive</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" t="s">
         <v>86</v>
-      </c>
-      <c r="G38" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-descriptive</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-aaa-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-compact</v>
+        <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-descriptive</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-no-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-descriptive</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-descriptive</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F47" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-claim-descriptive</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G48" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-wcag-2-0-descriptive</v>
       </c>
       <c r="D49" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
+        <v>71</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>5</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>72</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-1-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-1-descriptive</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D56" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-level-aa-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D59" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G60" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D61" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s">
         <v>69</v>
-      </c>
-      <c r="E61" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-level-aa-compact</v>
       </c>
       <c r="D62" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="G62" t="s">
-        <v>113</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-0-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D66" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>72</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" ref="A67:A130" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
-        <v>conformance-wcag-2-2-descriptive</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G67" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-level-a-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G71" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" t="s">
         <v>69</v>
-      </c>
-      <c r="E72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G72" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-unknown-standard-compact</v>
+        <v>conformance-level-aa-compact</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G76" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E77" t="s">
-        <v>74</v>
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>72</v>
       </c>
       <c r="G77" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-no-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E79" t="s">
-        <v>76</v>
+        <v>39</v>
+      </c>
+      <c r="F79" t="s">
+        <v>71</v>
       </c>
       <c r="G79" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G80" t="s">
         <v>106</v>
@@ -5023,1123 +5094,1537 @@
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G81" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-descriptive</v>
+        <v>navigation-index-compact</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E82" t="s">
         <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G82" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-compact</v>
+        <v>navigation-index-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G83" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-descriptive</v>
+        <v>navigation-structural-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G84" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-compact</v>
+        <v>navigation-structural-descriptive</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G85" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-descriptive</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G86" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G87" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-descriptive</v>
+        <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G88" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G89" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
-      </c>
-      <c r="F90" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="G90" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>76</v>
+        <v>35</v>
+      </c>
+      <c r="F91" t="s">
+        <v>72</v>
       </c>
       <c r="G91" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>72</v>
       </c>
       <c r="G92" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="G93" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>127</v>
+        <v>35</v>
       </c>
       <c r="F94" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G94" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-compact</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E95" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G95" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E96" t="s">
-        <v>128</v>
-      </c>
-      <c r="F96" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="G96" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E97" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G97" t="s">
-        <v>191</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-descriptive</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E98" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G98" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-compact</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-descriptive</v>
+        <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E100" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="F100" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
+        <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="F101" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G101" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
+        <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E102" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F102" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-compact</v>
+        <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D103" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E103" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F103" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G103" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D104" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G104" t="s">
-        <v>190</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="F105" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G105" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D106" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E106" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F106" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G106" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-compact</v>
+        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D107" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F107" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G107" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-descriptive</v>
+        <v>rich-content-extended-compact</v>
       </c>
       <c r="D108" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E108" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="F108" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G108" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-compact</v>
+        <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D109" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F109" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G109" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-descriptive</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D110" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E110" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F110" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G110" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D111" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E111" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F111" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G111" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-descriptive</v>
+        <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D112" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E112" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="F112" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G112" t="s">
-        <v>201</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-compact</v>
+        <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D113" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E113" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F113" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G113" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D114" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E114" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F114" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G114" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D115" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E115" t="s">
-        <v>150</v>
+        <v>137</v>
+      </c>
+      <c r="F115" t="s">
+        <v>71</v>
       </c>
       <c r="G115" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-unknown-compact</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E116" t="s">
-        <v>150</v>
+        <v>111</v>
+      </c>
+      <c r="F116" t="s">
+        <v>72</v>
       </c>
       <c r="G116" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D117" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>78</v>
+        <v>111</v>
+      </c>
+      <c r="F117" t="s">
+        <v>71</v>
       </c>
       <c r="G117" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D118" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E118" t="s">
-        <v>47</v>
-      </c>
-      <c r="F118" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="G118" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-compact</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D119" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="F119" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-descriptive</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D120" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="F120" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G120" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-compact</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D121" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="F121" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G121" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D122" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="G122" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-compact</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D123" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-motion-descriptive</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D124" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E124" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="F124" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="G124" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-sound-compact</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D125" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E125" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="F125" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G125" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-sound-descriptive</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D126" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
-      </c>
-      <c r="F126" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G126" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D127" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E127" t="s">
         <v>46</v>
       </c>
       <c r="F127" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G127" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-unknown-descriptive</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D128" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E128" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F128" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G128" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D129" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E129" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G129" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>hazards-flashing-compact</v>
       </c>
       <c r="D130" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E130" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G130" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
-        <f t="shared" ref="A131:A145" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
-        <v>hazards-title-compact</v>
+        <f t="shared" ref="A131:A168" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
+        <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D131" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E131" t="s">
-        <v>78</v>
+        <v>42</v>
+      </c>
+      <c r="F131" t="s">
+        <v>71</v>
       </c>
       <c r="G131" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-title-compact</v>
+        <v>hazards-motion-compact</v>
       </c>
       <c r="D132" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E132" t="s">
-        <v>78</v>
+        <v>43</v>
+      </c>
+      <c r="F132" t="s">
+        <v>72</v>
       </c>
       <c r="G132" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>hazards-motion-descriptive</v>
       </c>
       <c r="D133" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E133" t="s">
-        <v>80</v>
+        <v>43</v>
+      </c>
+      <c r="F133" t="s">
+        <v>71</v>
       </c>
       <c r="G133" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-no-metadata-compact</v>
+        <v>hazards-sound-compact</v>
       </c>
       <c r="D134" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E134" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F134" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="G134" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>hazards-sound-descriptive</v>
       </c>
       <c r="D135" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E135" t="s">
-        <v>80</v>
+        <v>44</v>
+      </c>
+      <c r="F135" t="s">
+        <v>71</v>
       </c>
       <c r="G135" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>hazards-unknown-compact</v>
       </c>
       <c r="D136" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E136" t="s">
-        <v>89</v>
+        <v>45</v>
+      </c>
+      <c r="F136" t="s">
+        <v>72</v>
       </c>
       <c r="G136" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-compact</v>
+        <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D137" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E137" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
       <c r="F137" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G137" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-descriptive</v>
+        <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D138" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E138" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F138" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="G138" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D139" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E139" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F139" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G139" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-descriptive</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D140" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>49</v>
-      </c>
-      <c r="F140" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="G140" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D141" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E141" t="s">
-        <v>89</v>
+        <v>40</v>
+      </c>
+      <c r="F141" t="s">
+        <v>72</v>
       </c>
       <c r="G141" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D142" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E142" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G142" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D143" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E143" t="s">
-        <v>82</v>
+        <v>40</v>
+      </c>
+      <c r="F143" t="s">
+        <v>71</v>
       </c>
       <c r="G143" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D144" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E144" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G144" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="str">
         <f t="shared" si="2"/>
+        <v>accessibility-summary-no-metadata-compact</v>
+      </c>
+      <c r="D145" t="s">
+        <v>57</v>
+      </c>
+      <c r="E145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" t="s">
+        <v>72</v>
+      </c>
+      <c r="G145" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>accessibility-summary-title-compact</v>
+      </c>
+      <c r="D146" t="s">
+        <v>57</v>
+      </c>
+      <c r="E146" t="s">
+        <v>65</v>
+      </c>
+      <c r="G146" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-title-compact</v>
+      </c>
+      <c r="D147" t="s">
+        <v>57</v>
+      </c>
+      <c r="E147" t="s">
+        <v>73</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-exempt-compact</v>
+      </c>
+      <c r="D148" t="s">
+        <v>57</v>
+      </c>
+      <c r="E148" t="s">
+        <v>132</v>
+      </c>
+      <c r="F148" t="s">
+        <v>72</v>
+      </c>
+      <c r="G148" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-exempt-descriptive</v>
+      </c>
+      <c r="D149" t="s">
+        <v>57</v>
+      </c>
+      <c r="E149" t="s">
+        <v>132</v>
+      </c>
+      <c r="F149" t="s">
+        <v>71</v>
+      </c>
+      <c r="G149" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-no-metadata-compact</v>
+      </c>
+      <c r="D150" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" t="s">
+        <v>48</v>
+      </c>
+      <c r="F150" t="s">
+        <v>72</v>
+      </c>
+      <c r="G150" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-no-metadata-descriptive</v>
+      </c>
+      <c r="D151" t="s">
+        <v>57</v>
+      </c>
+      <c r="E151" t="s">
+        <v>48</v>
+      </c>
+      <c r="F151" t="s">
+        <v>71</v>
+      </c>
+      <c r="G151" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-title-compact</v>
+      </c>
+      <c r="D152" t="s">
+        <v>57</v>
+      </c>
+      <c r="E152" t="s">
+        <v>73</v>
+      </c>
+      <c r="G152" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-exempt-compact</v>
+      </c>
+      <c r="D153" t="s">
+        <v>57</v>
+      </c>
+      <c r="E153" t="s">
+        <v>132</v>
+      </c>
+      <c r="F153" t="s">
+        <v>72</v>
+      </c>
+      <c r="G153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-title-compact</v>
+      </c>
+      <c r="D154" t="s">
+        <v>57</v>
+      </c>
+      <c r="E154" t="s">
+        <v>73</v>
+      </c>
+      <c r="G154" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>legal-considerations-exempt-descriptive</v>
+      </c>
+      <c r="D155" t="s">
+        <v>57</v>
+      </c>
+      <c r="E155" t="s">
+        <v>132</v>
+      </c>
+      <c r="F155" t="s">
+        <v>71</v>
+      </c>
+      <c r="G155" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>additional-accessibility-information-title-compact</v>
       </c>
-      <c r="D145" t="s">
-        <v>69</v>
-      </c>
-      <c r="E145" t="s">
-        <v>82</v>
-      </c>
-      <c r="G145" t="s">
-        <v>83</v>
+      <c r="D156" t="s">
+        <v>57</v>
+      </c>
+      <c r="E156" t="s">
+        <v>67</v>
+      </c>
+      <c r="G156" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-aria-compact</v>
+      </c>
+      <c r="D157" t="s">
+        <v>57</v>
+      </c>
+      <c r="E157" t="s">
+        <v>58</v>
+      </c>
+      <c r="F157" t="s">
+        <v>72</v>
+      </c>
+      <c r="G157" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-aria-descriptive</v>
+      </c>
+      <c r="D158" t="s">
+        <v>57</v>
+      </c>
+      <c r="E158" t="s">
+        <v>58</v>
+      </c>
+      <c r="F158" t="s">
+        <v>71</v>
+      </c>
+      <c r="G158" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-page-breaks-compact</v>
+      </c>
+      <c r="D159" t="s">
+        <v>57</v>
+      </c>
+      <c r="E159" t="s">
+        <v>50</v>
+      </c>
+      <c r="F159" t="s">
+        <v>72</v>
+      </c>
+      <c r="G159" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-page-breaks-descriptive</v>
+      </c>
+      <c r="D160" t="s">
+        <v>57</v>
+      </c>
+      <c r="E160" t="s">
+        <v>50</v>
+      </c>
+      <c r="F160" t="s">
+        <v>71</v>
+      </c>
+      <c r="G160" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-adaptation-tactile-graphics-compact</v>
+      </c>
+      <c r="D161" t="s">
+        <v>57</v>
+      </c>
+      <c r="E161" t="s">
+        <v>194</v>
+      </c>
+      <c r="F161" t="s">
+        <v>72</v>
+      </c>
+      <c r="G161" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-adaptation-tactile-graphics-descriptive</v>
+      </c>
+      <c r="D162" t="s">
+        <v>57</v>
+      </c>
+      <c r="E162" t="s">
+        <v>194</v>
+      </c>
+      <c r="F162" t="s">
+        <v>71</v>
+      </c>
+      <c r="G162" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-title-compact</v>
+      </c>
+      <c r="D163" t="s">
+        <v>57</v>
+      </c>
+      <c r="E163" t="s">
+        <v>67</v>
+      </c>
+      <c r="G163" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-aria-compact</v>
+      </c>
+      <c r="D164" t="s">
+        <v>57</v>
+      </c>
+      <c r="E164" t="s">
+        <v>58</v>
+      </c>
+      <c r="F164" t="s">
+        <v>72</v>
+      </c>
+      <c r="G164" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-page-breaks-compact</v>
+      </c>
+      <c r="D165" t="s">
+        <v>57</v>
+      </c>
+      <c r="E165" t="s">
+        <v>50</v>
+      </c>
+      <c r="F165" t="s">
+        <v>72</v>
+      </c>
+      <c r="G165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-title-compact</v>
+      </c>
+      <c r="D166" t="s">
+        <v>57</v>
+      </c>
+      <c r="E166" t="s">
+        <v>67</v>
+      </c>
+      <c r="G166" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-aria-descriptive</v>
+      </c>
+      <c r="D167" t="s">
+        <v>57</v>
+      </c>
+      <c r="E167" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167" t="s">
+        <v>71</v>
+      </c>
+      <c r="G167" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-page-breaks-descriptive</v>
+      </c>
+      <c r="D168" t="s">
+        <v>57</v>
+      </c>
+      <c r="E168" t="s">
+        <v>50</v>
+      </c>
+      <c r="F168" t="s">
+        <v>71</v>
+      </c>
+      <c r="G168" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -6149,10 +6634,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection sqref="A1:E76"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6163,129 +6648,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -6293,117 +6778,117 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -6414,7 +6899,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -6425,7 +6910,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -6436,10 +6921,10 @@
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -6447,563 +6932,552 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
         <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
         <v>15</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
         <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
         <v>19</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
         <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
         <v>27</v>
-      </c>
-      <c r="E35" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" t="s">
         <v>29</v>
-      </c>
-      <c r="E36" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
         <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
         <v>135</v>
       </c>
       <c r="E50" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
         <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
         <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
         <v>46</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
-        <v>106</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="E65" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>51</v>
+        <v>199</v>
       </c>
       <c r="E68" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="E71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>214</v>
       </c>
       <c r="E73" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="E74" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D76" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7015,8 +7489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7027,129 +7501,129 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -7157,106 +7631,106 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
@@ -7267,7 +7741,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -7278,7 +7752,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -7289,519 +7763,519 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
         <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s">
         <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
         <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
         <v>19</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
         <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
         <v>27</v>
-      </c>
-      <c r="E34" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
         <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" t="s">
         <v>31</v>
-      </c>
-      <c r="E36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E46" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53" t="s">
         <v>41</v>
-      </c>
-      <c r="E53" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c r="E63" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>58</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>204</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="E70" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B4B394-A505-984D-AD71-51FB9018860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED5F49-C2EF-544F-A9EE-69865D5F33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">crosscheck!$A$1:$F$94</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="220">
   <si>
     <t>id</t>
   </si>
@@ -342,18 +342,12 @@
     <t>All content can be read as read aloud speech or dynamic braille</t>
   </si>
   <si>
-    <t>Portions of the content may not be readable as read aloud speech or dynamic braille</t>
-  </si>
-  <si>
     <t>Not all of the content will be readable as read aloud speech or dynamic braille</t>
   </si>
   <si>
     <t>Readable in read aloud or dynamic braille</t>
   </si>
   <si>
-    <t>May not be fully readable in read aloud or dynamic braille</t>
-  </si>
-  <si>
     <t>Not fully readable in read aloud or dynamic braille</t>
   </si>
   <si>
@@ -555,9 +549,6 @@
     <t>ways-of-reading-nonvisual-reading-readable</t>
   </si>
   <si>
-    <t>ways-of-reading-nonvisual-reading-may-not-fully</t>
-  </si>
-  <si>
     <t>ways-of-reading-nonvisual-reading-not-fully</t>
   </si>
   <si>
@@ -573,9 +564,6 @@
     <t>ways-of-reading-prerecorded-audio-complementary</t>
   </si>
   <si>
-    <t>Portions of prerecorded audio are available</t>
-  </si>
-  <si>
     <t>ways-of-reading-prerecorded-audio-no-metadata</t>
   </si>
   <si>
@@ -712,6 +700,30 @@
   </si>
   <si>
     <t>additional-accessibility-information-tactile-objects</t>
+  </si>
+  <si>
+    <t>ways-of-reading-nonvisual-reading-none</t>
+  </si>
+  <si>
+    <t>Not readable in read aloud or dynamic braille</t>
+  </si>
+  <si>
+    <t>The content is not readable as read aloud speech or dynamic braille</t>
+  </si>
+  <si>
+    <t>ways-of-reading-nonvisual-reading-no-metadata</t>
+  </si>
+  <si>
+    <t>No information about nonvisual reading is available</t>
+  </si>
+  <si>
+    <t>Prerecorded audio clips</t>
+  </si>
+  <si>
+    <t>Prerecorded audio clips are embedded in the content</t>
+  </si>
+  <si>
+    <t>ways-of-reading-nonvisual-no-metadata</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1180,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1201,7 +1213,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A84">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$168,'epub-metadata-strings'!$D$2:$D$75,'onix-metadata-strings'!$D$2:$D$70))</f>
+        <f t="array" ref="A2:A86">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$170,'epub-metadata-strings'!$D$2:$D$77,'onix-metadata-strings'!$D$2:$D$71))</f>
         <v>ways-of-reading-title</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -1302,15 +1314,15 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
-        <v>ways-of-reading-nonvisual-reading-alt-text</v>
+        <v>ways-of-reading-nonvisual-reading-readable</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>IFERROR(VLOOKUP($A6&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Has alternative text</v>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>IFERROR(VLOOKUP($A6,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Has alternative text</v>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="D6" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1318,7 +1330,7 @@
       </c>
       <c r="E6" s="5" t="str">
         <f>IFERROR(VLOOKUP($A6,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Has alternative text</v>
+        <v>Readable in read aloud or dynamic braille</v>
       </c>
       <c r="F6" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1327,15 +1339,15 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
-        <v>ways-of-reading-nonvisual-reading-readable</v>
+        <v>ways-of-reading-nonvisual-reading-not-fully</v>
       </c>
       <c r="B7" s="5" t="str">
         <f>IFERROR(VLOOKUP($A7&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Readable in read aloud or dynamic braille</v>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>IFERROR(VLOOKUP($A7,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Readable in read aloud or dynamic braille</v>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="D7" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1343,7 +1355,7 @@
       </c>
       <c r="E7" s="5" t="str">
         <f>IFERROR(VLOOKUP($A7,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Readable in read aloud or dynamic braille</v>
+        <v>Not fully readable in read aloud or dynamic braille</v>
       </c>
       <c r="F7" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1352,15 +1364,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
-        <v>ways-of-reading-nonvisual-reading-may-not-fully</v>
+        <v>ways-of-reading-nonvisual-reading-none</v>
       </c>
       <c r="B8" s="5" t="str">
         <f>IFERROR(VLOOKUP($A8&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>May not be fully readable in read aloud or dynamic braille</v>
+        <v>Not readable in read aloud or dynamic braille</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>IFERROR(VLOOKUP($A8,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>May not be fully readable in read aloud or dynamic braille</v>
+        <v>Not readable in read aloud or dynamic braille</v>
       </c>
       <c r="D8" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1368,7 +1380,7 @@
       </c>
       <c r="E8" s="5" t="str">
         <f>IFERROR(VLOOKUP($A8,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>May not be fully readable in read aloud or dynamic braille</v>
+        <v>Not readable in read aloud or dynamic braille</v>
       </c>
       <c r="F8" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1377,40 +1389,40 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
-        <v>ways-of-reading-nonvisual-reading-not-fully</v>
+        <v>ways-of-reading-nonvisual-reading-no-metadata</v>
       </c>
       <c r="B9" s="5" t="str">
         <f>IFERROR(VLOOKUP($A9&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Not fully readable in read aloud or dynamic braille</v>
+        <v>No information about nonvisual reading is available</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>IFERROR(VLOOKUP($A9,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Not fully readable in read aloud or dynamic braille</v>
+        <v/>
       </c>
       <c r="D9" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>IFERROR(VLOOKUP($A9,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Not fully readable in read aloud or dynamic braille</v>
+        <v/>
       </c>
       <c r="F9" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
-        <v>ways-of-reading-prerecorded-audio-no-metadata</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text</v>
       </c>
       <c r="B10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>Has alternative text</v>
       </c>
       <c r="C10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>Has alternative text</v>
       </c>
       <c r="D10" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1418,7 +1430,7 @@
       </c>
       <c r="E10" s="5" t="str">
         <f>IFERROR(VLOOKUP($A10,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information about prerecorded audio is available</v>
+        <v>Has alternative text</v>
       </c>
       <c r="F10" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1427,15 +1439,15 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
-        <v>ways-of-reading-prerecorded-audio-only</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata</v>
       </c>
       <c r="B11" s="5" t="str">
         <f>IFERROR(VLOOKUP($A11&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Prerecorded audio only</v>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="C11" s="5" t="str">
         <f>IFERROR(VLOOKUP($A11,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Prerecorded audio only</v>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="D11" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1443,7 +1455,7 @@
       </c>
       <c r="E11" s="5" t="str">
         <f>IFERROR(VLOOKUP($A11,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Prerecorded audio only</v>
+        <v>No information about prerecorded audio is available</v>
       </c>
       <c r="F11" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1452,15 +1464,15 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
-        <v>ways-of-reading-prerecorded-audio-synchronized</v>
+        <v>ways-of-reading-prerecorded-audio-only</v>
       </c>
       <c r="B12" s="5" t="str">
         <f>IFERROR(VLOOKUP($A12&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Prerecorded audio synchronized with text</v>
+        <v>Prerecorded audio only</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>IFERROR(VLOOKUP($A12,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Prerecorded audio synchronized with text</v>
+        <v>Prerecorded audio only</v>
       </c>
       <c r="D12" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1468,7 +1480,7 @@
       </c>
       <c r="E12" s="5" t="str">
         <f>IFERROR(VLOOKUP($A12,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Prerecorded audio synchronized with text</v>
+        <v>Prerecorded audio only</v>
       </c>
       <c r="F12" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1477,15 +1489,15 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
-        <v>ways-of-reading-prerecorded-audio-complementary</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized</v>
       </c>
       <c r="B13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="D13" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1493,7 +1505,7 @@
       </c>
       <c r="E13" s="5" t="str">
         <f>IFERROR(VLOOKUP($A13,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <v>Prerecorded audio synchronized with text</v>
       </c>
       <c r="F13" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1502,15 +1514,15 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
-        <v>conformance-title</v>
+        <v>ways-of-reading-prerecorded-audio-complementary</v>
       </c>
       <c r="B14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>Prerecorded audio clips</v>
       </c>
       <c r="C14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>Prerecorded audio clips</v>
       </c>
       <c r="D14" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1518,24 +1530,24 @@
       </c>
       <c r="E14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Conformance</v>
+        <v>Complementary audio and text</v>
       </c>
       <c r="F14" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
-        <v>conformance-a</v>
+        <v>conformance-title</v>
       </c>
       <c r="B15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>Conformance</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>Conformance</v>
       </c>
       <c r="D15" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1543,7 +1555,7 @@
       </c>
       <c r="E15" s="5" t="str">
         <f>IFERROR(VLOOKUP($A15,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication meets minimum accessibility standards</v>
+        <v>Conformance</v>
       </c>
       <c r="F15" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1552,15 +1564,15 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
-        <v>conformance-aa</v>
+        <v>conformance-a</v>
       </c>
       <c r="B16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="D16" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1568,7 +1580,7 @@
       </c>
       <c r="E16" s="5" t="str">
         <f>IFERROR(VLOOKUP($A16,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication meets accepted accessibility standards</v>
+        <v>This publication meets minimum accessibility standards</v>
       </c>
       <c r="F16" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1577,15 +1589,15 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
-        <v>conformance-aaa</v>
+        <v>conformance-aa</v>
       </c>
       <c r="B17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="C17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="D17" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1593,7 +1605,7 @@
       </c>
       <c r="E17" s="5" t="str">
         <f>IFERROR(VLOOKUP($A17,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication exceeds accepted accessibility standards</v>
+        <v>This publication meets accepted accessibility standards</v>
       </c>
       <c r="F17" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1602,15 +1614,15 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
-        <v>conformance-no</v>
+        <v>conformance-aaa</v>
       </c>
       <c r="B18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="D18" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1618,7 +1630,7 @@
       </c>
       <c r="E18" s="5" t="str">
         <f>IFERROR(VLOOKUP($A18,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>This publication exceeds accepted accessibility standards</v>
       </c>
       <c r="F18" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1627,15 +1639,15 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
-        <v>conformance-certifier</v>
+        <v>conformance-no</v>
       </c>
       <c r="B19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>No information is available</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>No information is available</v>
       </c>
       <c r="D19" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1643,7 +1655,7 @@
       </c>
       <c r="E19" s="5" t="str">
         <f>IFERROR(VLOOKUP($A19,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified by</v>
+        <v>No information is available</v>
       </c>
       <c r="F19" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1652,15 +1664,15 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
-        <v>conformance-certifier-credentials</v>
+        <v>conformance-certifier</v>
       </c>
       <c r="B20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="C20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="D20" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1668,7 +1680,7 @@
       </c>
       <c r="E20" s="5" t="str">
         <f>IFERROR(VLOOKUP($A20,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The certifier's credential is</v>
+        <v>The publication was certified by</v>
       </c>
       <c r="F20" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1677,15 +1689,15 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
-        <v>conformance-claim</v>
+        <v>conformance-certifier-credentials</v>
       </c>
       <c r="B21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="D21" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1693,7 +1705,7 @@
       </c>
       <c r="E21" s="5" t="str">
         <f>IFERROR(VLOOKUP($A21,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>This publication claims to meet</v>
+        <v>The certifier's credential is</v>
       </c>
       <c r="F21" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1702,32 +1714,32 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
-        <v>conformance-wcag-2-0</v>
+        <v>conformance-claim</v>
       </c>
       <c r="B22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>This publication claims to meet</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
-      </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>This publication claims to meet</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="E22" s="5" t="str">
         <f>IFERROR(VLOOKUP($A22,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.0</v>
-      </c>
-      <c r="F22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>This publication claims to meet</v>
+      </c>
+      <c r="F22" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <v>conformance-wcag-2-1</v>
+        <v>conformance-wcag-2-0</v>
       </c>
       <c r="B23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -1735,7 +1747,7 @@
       </c>
       <c r="C23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
+        <v>WCAG 2.0</v>
       </c>
       <c r="D23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1743,7 +1755,7 @@
       </c>
       <c r="E23" s="5" t="str">
         <f>IFERROR(VLOOKUP($A23,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.1</v>
+        <v>WCAG 2.0</v>
       </c>
       <c r="F23" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1752,7 +1764,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <v>conformance-wcag-2-2</v>
+        <v>conformance-wcag-2-1</v>
       </c>
       <c r="B24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -1760,7 +1772,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
+        <v>WCAG 2.1</v>
       </c>
       <c r="D24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1768,7 +1780,7 @@
       </c>
       <c r="E24" s="5" t="str">
         <f>IFERROR(VLOOKUP($A24,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>WCAG 2.2</v>
+        <v>WCAG 2.1</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1777,40 +1789,40 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <v>conformance-certification-info</v>
+        <v>conformance-wcag-2-2</v>
       </c>
       <c r="B25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The publication was certified on</v>
+        <v/>
       </c>
       <c r="C25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
-      </c>
-      <c r="D25" s="2" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>WCAG 2.2</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="E25" s="5" t="str">
         <f>IFERROR(VLOOKUP($A25,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The publication was certified on</v>
-      </c>
-      <c r="F25" s="2" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>WCAG 2.2</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
-        <v>conformance-certifier-report</v>
+        <v>conformance-certification-info</v>
       </c>
       <c r="B26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="D26" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1818,7 +1830,7 @@
       </c>
       <c r="E26" s="5" t="str">
         <f>IFERROR(VLOOKUP($A26,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>For more information refer to the certifier's report</v>
+        <v>The publication was certified on</v>
       </c>
       <c r="F26" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1827,15 +1839,15 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
-        <v>conformance-details</v>
+        <v>conformance-certifier-report</v>
       </c>
       <c r="B27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Detailed conformance information</v>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Detailed conformance information</v>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="D27" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1843,7 +1855,7 @@
       </c>
       <c r="E27" s="5" t="str">
         <f>IFERROR(VLOOKUP($A27,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Detailed conformance information</v>
+        <v>For more information refer to the certifier's report</v>
       </c>
       <c r="F27" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1852,15 +1864,15 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
-        <v>conformance-epub-accessibility-1-1</v>
+        <v>conformance-details</v>
       </c>
       <c r="B28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="C28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="D28" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1868,7 +1880,7 @@
       </c>
       <c r="E28" s="5" t="str">
         <f>IFERROR(VLOOKUP($A28,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.1</v>
+        <v>Detailed conformance information</v>
       </c>
       <c r="F28" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1877,15 +1889,15 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
-        <v>conformance-level-aa</v>
+        <v>conformance-epub-accessibility-1-1</v>
       </c>
       <c r="B29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="C29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="D29" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1893,7 +1905,7 @@
       </c>
       <c r="E29" s="5" t="str">
         <f>IFERROR(VLOOKUP($A29,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AA</v>
+        <v>EPUB Accessibility 1.1</v>
       </c>
       <c r="F29" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1902,15 +1914,15 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
-        <v>navigation-title</v>
+        <v>conformance-level-aa</v>
       </c>
       <c r="B30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Level AA</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Level AA</v>
       </c>
       <c r="D30" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1918,7 +1930,7 @@
       </c>
       <c r="E30" s="5" t="str">
         <f>IFERROR(VLOOKUP($A30,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Navigation</v>
+        <v>Level AA</v>
       </c>
       <c r="F30" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1927,15 +1939,15 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
-        <v>navigation-no-metadata</v>
+        <v>navigation-title</v>
       </c>
       <c r="B31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Navigation</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Navigation</v>
       </c>
       <c r="D31" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1943,7 +1955,7 @@
       </c>
       <c r="E31" s="5" t="str">
         <f>IFERROR(VLOOKUP($A31,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Navigation</v>
       </c>
       <c r="F31" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1952,15 +1964,15 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
-        <v>navigation-toc</v>
+        <v>navigation-no-metadata</v>
       </c>
       <c r="B32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>No information is available</v>
       </c>
       <c r="C32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>No information is available</v>
       </c>
       <c r="D32" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1968,7 +1980,7 @@
       </c>
       <c r="E32" s="5" t="str">
         <f>IFERROR(VLOOKUP($A32,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Table of contents</v>
+        <v>No information is available</v>
       </c>
       <c r="F32" s="2" t="b">
         <f t="shared" si="1"/>
@@ -1977,15 +1989,15 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
-        <v>navigation-index</v>
+        <v>navigation-toc</v>
       </c>
       <c r="B33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Index</v>
+        <v>Table of contents</v>
       </c>
       <c r="C33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Index</v>
+        <v>Table of contents</v>
       </c>
       <c r="D33" s="2" t="b">
         <f t="shared" si="0"/>
@@ -1993,7 +2005,7 @@
       </c>
       <c r="E33" s="5" t="str">
         <f>IFERROR(VLOOKUP($A33,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Index</v>
+        <v>Table of contents</v>
       </c>
       <c r="F33" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2002,15 +2014,15 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
-        <v>navigation-structural</v>
+        <v>navigation-index</v>
       </c>
       <c r="B34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Index</v>
       </c>
       <c r="C34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Index</v>
       </c>
       <c r="D34" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2018,7 +2030,7 @@
       </c>
       <c r="E34" s="5" t="str">
         <f>IFERROR(VLOOKUP($A34,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Headings</v>
+        <v>Index</v>
       </c>
       <c r="F34" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2027,15 +2039,15 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <v>navigation-page-navigation</v>
+        <v>navigation-structural</v>
       </c>
       <c r="B35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Headings</v>
       </c>
       <c r="C35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Headings</v>
       </c>
       <c r="D35" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2043,7 +2055,7 @@
       </c>
       <c r="E35" s="5" t="str">
         <f>IFERROR(VLOOKUP($A35,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Go to page</v>
+        <v>Headings</v>
       </c>
       <c r="F35" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2052,15 +2064,15 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
-        <v>rich-content-title</v>
+        <v>navigation-page-navigation</v>
       </c>
       <c r="B36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>Go to page</v>
       </c>
       <c r="C36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>Go to page</v>
       </c>
       <c r="D36" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2068,7 +2080,7 @@
       </c>
       <c r="E36" s="5" t="str">
         <f>IFERROR(VLOOKUP($A36,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Rich content</v>
+        <v>Go to page</v>
       </c>
       <c r="F36" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2077,15 +2089,15 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
-        <v>rich-content-unknown</v>
+        <v>rich-content-title</v>
       </c>
       <c r="B37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Rich content</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Rich content</v>
       </c>
       <c r="D37" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2093,7 +2105,7 @@
       </c>
       <c r="E37" s="5" t="str">
         <f>IFERROR(VLOOKUP($A37,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Rich content</v>
       </c>
       <c r="F37" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2102,15 +2114,15 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
-        <v>rich-content-accessible-math-as-mathml</v>
+        <v>rich-content-unknown</v>
       </c>
       <c r="B38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>No information is available</v>
       </c>
       <c r="C38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>No information is available</v>
       </c>
       <c r="D38" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2118,7 +2130,7 @@
       </c>
       <c r="E38" s="5" t="str">
         <f>IFERROR(VLOOKUP($A38,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as MathML</v>
+        <v>No information is available</v>
       </c>
       <c r="F38" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2127,15 +2139,15 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
-        <v>rich-content-accessible-math-as-latex</v>
+        <v>rich-content-accessible-math-as-mathml</v>
       </c>
       <c r="B39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Math as MathML</v>
       </c>
       <c r="C39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Math as MathML</v>
       </c>
       <c r="D39" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2143,7 +2155,7 @@
       </c>
       <c r="E39" s="5" t="str">
         <f>IFERROR(VLOOKUP($A39,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Math as LaTeX</v>
+        <v>Math as MathML</v>
       </c>
       <c r="F39" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2152,23 +2164,23 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
-        <v>rich-content-accessible-math-described</v>
+        <v>rich-content-accessible-math-as-latex</v>
       </c>
       <c r="B40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="C40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v/>
+        <v>Math as LaTeX</v>
       </c>
       <c r="D40" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="5" t="str">
         <f>IFERROR(VLOOKUP($A40,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text descriptions of math are provided</v>
+        <v>Math as LaTeX</v>
       </c>
       <c r="F40" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2177,15 +2189,15 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
-        <v>rich-content-accessible-chemistry-as-mathml</v>
+        <v>rich-content-accessible-math-described</v>
       </c>
       <c r="B41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="D41" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2193,7 +2205,7 @@
       </c>
       <c r="E41" s="5" t="str">
         <f>IFERROR(VLOOKUP($A41,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Chemical formulas in MathML</v>
+        <v>Text descriptions of math are provided</v>
       </c>
       <c r="F41" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2202,15 +2214,15 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
-        <v>rich-content-accessible-chemistry-as-latex</v>
+        <v>rich-content-accessible-chemistry-as-mathml</v>
       </c>
       <c r="B42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Chemical formulas in LaTeX</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="C42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Chemical formulas in LaTeX</v>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="D42" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2218,24 +2230,24 @@
       </c>
       <c r="E42" s="5" t="str">
         <f>IFERROR(VLOOKUP($A42,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Chemical formulas in MathML</v>
       </c>
       <c r="F42" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
-        <v>rich-content-extended</v>
+        <v>rich-content-accessible-chemistry-as-latex</v>
       </c>
       <c r="B43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="C43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v>Chemical formulas in LaTeX</v>
       </c>
       <c r="D43" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2243,24 +2255,24 @@
       </c>
       <c r="E43" s="5" t="str">
         <f>IFERROR(VLOOKUP($A43,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Information-rich images are described by extended descriptions</v>
+        <v/>
       </c>
       <c r="F43" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
-        <v>rich-content-closed-captions</v>
+        <v>rich-content-extended</v>
       </c>
       <c r="B44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="C44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="D44" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2268,7 +2280,7 @@
       </c>
       <c r="E44" s="5" t="str">
         <f>IFERROR(VLOOKUP($A44,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have closed captions</v>
+        <v>Information-rich images are described by extended descriptions</v>
       </c>
       <c r="F44" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2277,15 +2289,15 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
-        <v>rich-content-open-captions</v>
+        <v>rich-content-closed-captions</v>
       </c>
       <c r="B45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="D45" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2293,7 +2305,7 @@
       </c>
       <c r="E45" s="5" t="str">
         <f>IFERROR(VLOOKUP($A45,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Videos have open captions</v>
+        <v>Videos have closed captions</v>
       </c>
       <c r="F45" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2302,15 +2314,15 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
-        <v>rich-content-transcript</v>
+        <v>rich-content-open-captions</v>
       </c>
       <c r="B46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="C46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="D46" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2318,7 +2330,7 @@
       </c>
       <c r="E46" s="5" t="str">
         <f>IFERROR(VLOOKUP($A46,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Transcript(s) provided</v>
+        <v>Videos have open captions</v>
       </c>
       <c r="F46" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2327,15 +2339,15 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
-        <v>hazards-title</v>
+        <v>rich-content-transcript</v>
       </c>
       <c r="B47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="C47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="D47" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2343,7 +2355,7 @@
       </c>
       <c r="E47" s="5" t="str">
         <f>IFERROR(VLOOKUP($A47,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Hazards</v>
+        <v>Transcript(s) provided</v>
       </c>
       <c r="F47" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2352,15 +2364,15 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
-        <v>hazards-no-metadata</v>
+        <v>hazards-title</v>
       </c>
       <c r="B48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Hazards</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Hazards</v>
       </c>
       <c r="D48" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2368,7 +2380,7 @@
       </c>
       <c r="E48" s="5" t="str">
         <f>IFERROR(VLOOKUP($A48,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Hazards</v>
       </c>
       <c r="F48" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2377,15 +2389,15 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
-        <v>hazards-none</v>
+        <v>hazards-no-metadata</v>
       </c>
       <c r="B49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>No information is available</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>No information is available</v>
       </c>
       <c r="D49" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2393,7 +2405,7 @@
       </c>
       <c r="E49" s="5" t="str">
         <f>IFERROR(VLOOKUP($A49,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No hazards</v>
+        <v>No information is available</v>
       </c>
       <c r="F49" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2402,15 +2414,15 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
-        <v>hazards-flashing</v>
+        <v>hazards-none</v>
       </c>
       <c r="B50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>No hazards</v>
       </c>
       <c r="C50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>No hazards</v>
       </c>
       <c r="D50" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2418,7 +2430,7 @@
       </c>
       <c r="E50" s="5" t="str">
         <f>IFERROR(VLOOKUP($A50,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Flashing content</v>
+        <v>No hazards</v>
       </c>
       <c r="F50" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2427,15 +2439,15 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
-        <v>hazards-motion</v>
+        <v>hazards-flashing</v>
       </c>
       <c r="B51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>Flashing content</v>
       </c>
       <c r="C51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>Flashing content</v>
       </c>
       <c r="D51" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2443,7 +2455,7 @@
       </c>
       <c r="E51" s="5" t="str">
         <f>IFERROR(VLOOKUP($A51,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Motion simulation</v>
+        <v>Flashing content</v>
       </c>
       <c r="F51" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2452,15 +2464,15 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
-        <v>hazards-sound</v>
+        <v>hazards-motion</v>
       </c>
       <c r="B52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>Motion simulation</v>
       </c>
       <c r="C52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>Motion simulation</v>
       </c>
       <c r="D52" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2468,7 +2480,7 @@
       </c>
       <c r="E52" s="5" t="str">
         <f>IFERROR(VLOOKUP($A52,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sounds</v>
+        <v>Motion simulation</v>
       </c>
       <c r="F52" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2477,15 +2489,15 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
-        <v>hazards-unknown</v>
+        <v>hazards-sound</v>
       </c>
       <c r="B53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>Sounds</v>
       </c>
       <c r="C53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>Sounds</v>
       </c>
       <c r="D53" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2493,7 +2505,7 @@
       </c>
       <c r="E53" s="5" t="str">
         <f>IFERROR(VLOOKUP($A53,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>The presence of hazards is unknown</v>
+        <v>Sounds</v>
       </c>
       <c r="F53" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2502,15 +2514,15 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
-        <v>accessibility-summary-title</v>
+        <v>hazards-unknown</v>
       </c>
       <c r="B54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="C54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="D54" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2518,7 +2530,7 @@
       </c>
       <c r="E54" s="5" t="str">
         <f>IFERROR(VLOOKUP($A54,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Accessibility summary</v>
+        <v>The presence of hazards is unknown</v>
       </c>
       <c r="F54" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2527,15 +2539,15 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
-        <v>accessibility-summary-no-metadata</v>
+        <v>accessibility-summary-title</v>
       </c>
       <c r="B55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="C55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="D55" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2543,7 +2555,7 @@
       </c>
       <c r="E55" s="5" t="str">
         <f>IFERROR(VLOOKUP($A55,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Accessibility summary</v>
       </c>
       <c r="F55" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2552,15 +2564,15 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
-        <v>legal-considerations-title</v>
+        <v>accessibility-summary-no-metadata</v>
       </c>
       <c r="B56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="C56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="D56" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2568,7 +2580,7 @@
       </c>
       <c r="E56" s="5" t="str">
         <f>IFERROR(VLOOKUP($A56,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Legal considerations</v>
+        <v>No information is available</v>
       </c>
       <c r="F56" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2577,15 +2589,15 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
-        <v>legal-considerations-exempt</v>
+        <v>legal-considerations-title</v>
       </c>
       <c r="B57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Legal considerations</v>
       </c>
       <c r="C57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Legal considerations</v>
       </c>
       <c r="D57" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2593,7 +2605,7 @@
       </c>
       <c r="E57" s="5" t="str">
         <f>IFERROR(VLOOKUP($A57,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Claims an accessibility exemption in some jurisdictions</v>
+        <v>Legal considerations</v>
       </c>
       <c r="F57" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2602,15 +2614,15 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
-        <v>legal-considerations-no-metadata</v>
+        <v>legal-considerations-exempt</v>
       </c>
       <c r="B58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="C58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="D58" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2618,7 +2630,7 @@
       </c>
       <c r="E58" s="5" t="str">
         <f>IFERROR(VLOOKUP($A58,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>No information is available</v>
+        <v>Claims an accessibility exemption in some jurisdictions</v>
       </c>
       <c r="F58" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2627,15 +2639,15 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
-        <v>additional-accessibility-information-title</v>
+        <v>legal-considerations-no-metadata</v>
       </c>
       <c r="B59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>No information is available</v>
       </c>
       <c r="C59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>No information is available</v>
       </c>
       <c r="D59" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2643,7 +2655,7 @@
       </c>
       <c r="E59" s="5" t="str">
         <f>IFERROR(VLOOKUP($A59,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Additional accessibility information</v>
+        <v>No information is available</v>
       </c>
       <c r="F59" s="2" t="b">
         <f t="shared" si="1"/>
@@ -2652,36 +2664,36 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
+        <v>additional-accessibility-information-title</v>
       </c>
       <c r="B60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>ARIA roles included</v>
+        <v>Additional accessibility information</v>
       </c>
       <c r="C60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v/>
+        <v>Additional accessibility information</v>
       </c>
       <c r="D60" s="2" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="5" t="str">
         <f>IFERROR(VLOOKUP($A60,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Additional accessibility information</v>
       </c>
       <c r="F60" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
+        <v>additional-accessibility-information-clarity-aria</v>
       </c>
       <c r="B61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Page breaks included</v>
+        <v>ARIA roles included</v>
       </c>
       <c r="C61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
@@ -2702,11 +2714,11 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <v>additional-accessibility-information-adaptation-tactile-graphics</v>
+        <v>additional-accessibility-information-clarity-page-breaks</v>
       </c>
       <c r="B62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v>Tactile graphics included</v>
+        <v>Page breaks included</v>
       </c>
       <c r="C62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
@@ -2727,32 +2739,32 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <v>conformance-unknown-standard</v>
+        <v>additional-accessibility-information-adaptation-tactile-graphics</v>
       </c>
       <c r="B63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
-        <v/>
+        <v>Tactile graphics included</v>
       </c>
       <c r="C63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
-      </c>
-      <c r="D63" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v/>
+      </c>
+      <c r="D63" s="2" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="F63" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="F63" s="2" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
-        <v>conformance-epub-accessibility-1-0</v>
+        <v>ways-of-reading-nonvisual-no-metadata</v>
       </c>
       <c r="B64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2760,7 +2772,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v>No information about nonvisual reading is available</v>
       </c>
       <c r="D64" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2768,7 +2780,7 @@
       </c>
       <c r="E64" s="5" t="str">
         <f>IFERROR(VLOOKUP($A64,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>EPUB Accessibility 1.0</v>
+        <v>No information about nonvisual reading is available</v>
       </c>
       <c r="F64" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2777,7 +2789,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
-        <v>conformance-level-aaa</v>
+        <v>conformance-unknown-standard</v>
       </c>
       <c r="B65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2785,7 +2797,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <v>Conformance to accepted standards for accessibility of this publication cannot be determined</v>
       </c>
       <c r="D65" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2793,7 +2805,7 @@
       </c>
       <c r="E65" s="5" t="str">
         <f>IFERROR(VLOOKUP($A65,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level AAA</v>
+        <v/>
       </c>
       <c r="F65" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2802,7 +2814,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
-        <v>conformance-level-a</v>
+        <v>conformance-epub-accessibility-1-0</v>
       </c>
       <c r="B66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2810,7 +2822,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Level A</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="D66" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2818,7 +2830,7 @@
       </c>
       <c r="E66" s="5" t="str">
         <f>IFERROR(VLOOKUP($A66,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Level A</v>
+        <v>EPUB Accessibility 1.0</v>
       </c>
       <c r="F66" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2827,7 +2839,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <v>additional-accessibility-information-page-breaks</v>
+        <v>conformance-level-aaa</v>
       </c>
       <c r="B67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2835,7 +2847,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Page breaks</v>
+        <v>Level AAA</v>
       </c>
       <c r="D67" s="2" t="str">
         <f t="shared" si="0"/>
@@ -2843,7 +2855,7 @@
       </c>
       <c r="E67" s="5" t="str">
         <f>IFERROR(VLOOKUP($A67,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Level AAA</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" si="1"/>
@@ -2852,7 +2864,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <v>additional-accessibility-information-aria</v>
+        <v>conformance-level-a</v>
       </c>
       <c r="B68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2860,7 +2872,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>ARIA</v>
+        <v>Level A</v>
       </c>
       <c r="D68" s="2" t="str">
         <f t="shared" ref="D68:D85" si="2">IF($B68="","",EXACT($B68,C68))</f>
@@ -2868,7 +2880,7 @@
       </c>
       <c r="E68" s="5" t="str">
         <f>IFERROR(VLOOKUP($A68,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Level A</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" ref="F68:F85" si="3">IF($B68="","",EXACT($B68,E68))</f>
@@ -2877,7 +2889,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <v>additional-accessibility-information-audio-descriptions</v>
+        <v>additional-accessibility-information-page-breaks</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2885,7 +2897,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Audio descriptions</v>
+        <v>Page breaks</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2902,7 +2914,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <v>additional-accessibility-information-braille</v>
+        <v>additional-accessibility-information-aria</v>
       </c>
       <c r="B70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2910,7 +2922,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Braille</v>
+        <v>ARIA</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2927,7 +2939,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <v>additional-accessibility-information-full-ruby-annotations</v>
+        <v>additional-accessibility-information-audio-descriptions</v>
       </c>
       <c r="B71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2935,7 +2947,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Full ruby annotations</v>
+        <v>Audio descriptions</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2952,7 +2964,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <v>additional-accessibility-information-high-contrast-between-foreground-and-background-audio</v>
+        <v>additional-accessibility-information-braille</v>
       </c>
       <c r="B72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2960,7 +2972,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <v>Braille</v>
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2968,7 +2980,7 @@
       </c>
       <c r="E72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <v/>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2977,7 +2989,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <v>additional-accessibility-information-high-contrast-between-text-and-background</v>
+        <v>additional-accessibility-information-full-ruby-annotations</v>
       </c>
       <c r="B73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2985,7 +2997,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>High contrast between foreground text and background</v>
+        <v>Full ruby annotations</v>
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2993,7 +3005,7 @@
       </c>
       <c r="E73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between text and background</v>
+        <v/>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3002,7 +3014,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <v>additional-accessibility-information-large-print</v>
+        <v>additional-accessibility-information-high-contrast-between-foreground-and-background-audio</v>
       </c>
       <c r="B74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3010,7 +3022,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Large print</v>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3018,7 +3030,7 @@
       </c>
       <c r="E74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3027,7 +3039,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <v>additional-accessibility-information-ruby-annotations</v>
+        <v>additional-accessibility-information-high-contrast-between-text-and-background</v>
       </c>
       <c r="B75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3035,7 +3047,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Some Ruby annotations</v>
+        <v>High contrast between foreground text and background</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3043,7 +3055,7 @@
       </c>
       <c r="E75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>High contrast between text and background</v>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3052,7 +3064,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <v>additional-accessibility-information-sign-language</v>
+        <v>additional-accessibility-information-large-print</v>
       </c>
       <c r="B76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3060,7 +3072,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v>Large print</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3068,7 +3080,7 @@
       </c>
       <c r="E76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v/>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3077,7 +3089,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <v>additional-accessibility-information-tactile-graphics</v>
+        <v>additional-accessibility-information-ruby-annotations</v>
       </c>
       <c r="B77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3085,7 +3097,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Tactile graphics</v>
+        <v>Some Ruby annotations</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3102,7 +3114,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <v>additional-accessibility-information-tactile-objects</v>
+        <v>additional-accessibility-information-sign-language</v>
       </c>
       <c r="B78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3110,7 +3122,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Tactile 3D objects</v>
+        <v>Sign language</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3118,7 +3130,7 @@
       </c>
       <c r="E78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Sign language</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3127,7 +3139,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <v>additional-accessibility-information-text-to-speech-hinting</v>
+        <v>additional-accessibility-information-tactile-graphics</v>
       </c>
       <c r="B79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3135,7 +3147,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v>Tactile graphics</v>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3143,7 +3155,7 @@
       </c>
       <c r="E79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v/>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3152,7 +3164,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <v>additional-accessibility-information-color-not-sole-means-of-conveying-information</v>
+        <v>additional-accessibility-information-tactile-objects</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3160,7 +3172,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v/>
+        <v>Tactile 3D objects</v>
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3168,7 +3180,7 @@
       </c>
       <c r="E80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Color is not the sole means of conveying information</v>
+        <v/>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3177,7 +3189,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>additional-accessibility-information-dyslexia-readability</v>
+        <v>additional-accessibility-information-text-to-speech-hinting</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3185,7 +3197,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v/>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3193,7 +3205,7 @@
       </c>
       <c r="E81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Dyslexia readability</v>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3202,7 +3214,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <v>additional-accessibility-information-ultra-high-contrast-between-text-and-background</v>
+        <v>additional-accessibility-information-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3218,7 +3230,7 @@
       </c>
       <c r="E82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Ultra high contrast between text and background</v>
+        <v>Color is not the sole means of conveying information</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3227,7 +3239,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <v>additional-accessibility-information-visible-page-numbering</v>
+        <v>additional-accessibility-information-dyslexia-readability</v>
       </c>
       <c r="B83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3243,7 +3255,7 @@
       </c>
       <c r="E83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Visible page numbering</v>
+        <v>Dyslexia readability</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3252,7 +3264,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
-        <v>additional-accessibility-information-without-background-sounds</v>
+        <v>additional-accessibility-information-ultra-high-contrast-between-text-and-background</v>
       </c>
       <c r="B84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3268,7 +3280,7 @@
       </c>
       <c r="E84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Without background sounds</v>
+        <v>Ultra high contrast between text and background</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3276,6 +3288,9 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <v>additional-accessibility-information-visible-page-numbering</v>
+      </c>
       <c r="B85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3290,7 +3305,7 @@
       </c>
       <c r="E85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Visible page numbering</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3298,6 +3313,9 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <v>additional-accessibility-information-without-background-sounds</v>
+      </c>
       <c r="B86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3309,7 +3327,7 @@
       <c r="D86" s="2"/>
       <c r="E86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Without background sounds</v>
       </c>
       <c r="F86" s="2"/>
     </row>
@@ -3690,10 +3708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3738,10 +3756,10 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3753,7 +3771,7 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -3771,7 +3789,7 @@
         <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
         <v>71</v>
@@ -3789,7 +3807,7 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" t="s">
         <v>72</v>
@@ -3807,7 +3825,7 @@
         <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3825,13 +3843,13 @@
         <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F7" t="s">
         <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3843,19 +3861,19 @@
         <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
         <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
+        <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -3867,13 +3885,13 @@
         <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D10" t="s">
         <v>57</v>
@@ -3885,19 +3903,19 @@
         <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-readable-compact</v>
+        <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D11" t="s">
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -3909,133 +3927,133 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D12" t="s">
         <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
         <v>71</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-may-not-fully-compact</v>
+        <v>ways-of-reading-nonvisual-reading-none-compact</v>
       </c>
       <c r="D13" t="s">
         <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="F13" t="s">
         <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-may-not-fully-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-none-descriptive</v>
       </c>
       <c r="D14" t="s">
         <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="F14" t="s">
         <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>92</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
+        <v>ways-of-reading-nonvisual-reading-no-metadata-compact</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="F15" t="s">
         <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-no-metadata-descriptive</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>71</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D17" t="s">
         <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-only-compact</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G18" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D19" t="s">
         <v>57</v>
@@ -4047,1027 +4065,1030 @@
         <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
+        <v>ways-of-reading-prerecorded-audio-only-compact</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F20" t="s">
         <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D21" t="s">
         <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F21" t="s">
         <v>71</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-complementary-compact</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D22" t="s">
         <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F22" t="s">
         <v>72</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F23" t="s">
         <v>71</v>
       </c>
       <c r="G23" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
+        <v>ways-of-reading-prerecorded-audio-complementary-compact</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F24" t="s">
         <v>72</v>
       </c>
       <c r="G24" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
+        <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F25" t="s">
         <v>71</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
+        <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-readable-compact</v>
+        <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" t="s">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
+        <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D29" t="s">
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
         <v>72</v>
       </c>
       <c r="G29" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
+        <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
         <v>72</v>
       </c>
       <c r="G30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-title-compact</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D31" t="s">
         <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="F31" t="s">
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D32" t="s">
         <v>57</v>
       </c>
       <c r="E32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
+        <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D33" t="s">
         <v>57</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="G33" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
+        <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D34" t="s">
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F34" t="s">
         <v>71</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
+        <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D35" t="s">
         <v>57</v>
       </c>
       <c r="E35" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F35" t="s">
         <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D36" t="s">
         <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>164</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-compact</v>
+        <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D37" t="s">
         <v>57</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-a-descriptive</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D38" t="s">
         <v>57</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-a-compact</v>
       </c>
       <c r="D39" t="s">
         <v>57</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-descriptive</v>
+        <v>conformance-a-descriptive</v>
       </c>
       <c r="D40" t="s">
         <v>57</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>71</v>
       </c>
       <c r="G40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aaa-descriptive</v>
+        <v>conformance-aa-descriptive</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-aaa-compact</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>72</v>
       </c>
       <c r="G43" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-no-descriptive</v>
+        <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D44" t="s">
         <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D45" t="s">
         <v>57</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
         <v>72</v>
       </c>
       <c r="G45" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-no-descriptive</v>
       </c>
       <c r="D46" t="s">
         <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F47" t="s">
         <v>72</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-descriptive</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D48" t="s">
         <v>57</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-0-descriptive</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D49" t="s">
         <v>57</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-1-descriptive</v>
+        <v>conformance-claim-descriptive</v>
       </c>
       <c r="D50" t="s">
         <v>57</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
         <v>71</v>
       </c>
       <c r="G50" t="s">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-2-descriptive</v>
+        <v>conformance-wcag-2-0-descriptive</v>
       </c>
       <c r="D51" t="s">
         <v>57</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F51" t="s">
         <v>71</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D52" t="s">
         <v>57</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D53" t="s">
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53" t="s">
-        <v>89</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>32</v>
+      </c>
+      <c r="F54" t="s">
+        <v>72</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F55" t="s">
         <v>72</v>
       </c>
       <c r="G55" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D57" t="s">
         <v>57</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>72</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D58" t="s">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>72</v>
       </c>
       <c r="G58" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D59" t="s">
         <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>72</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-epub-accessibility-1-1-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D60" t="s">
         <v>57</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-wcag-2-1-descriptive</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D61" t="s">
         <v>57</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-level-aa-compact</v>
+        <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D62" t="s">
         <v>57</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D63" t="s">
         <v>57</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-level-aa-compact</v>
       </c>
       <c r="D64" t="s">
         <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D65" t="s">
         <v>57</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>conformance-aa-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D66" t="s">
         <v>57</v>
       </c>
       <c r="E66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" ref="A67:A130" si="1">E67&amp;"-"&amp;IF(ISBLANK(F67),"compact",F67)</f>
-        <v>conformance-certifier-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D67" t="s">
         <v>57</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G67" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-credentials-compact</v>
+        <v>conformance-aa-compact</v>
       </c>
       <c r="D68" t="s">
         <v>57</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>72</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-details-compact</v>
+        <v>conformance-certifier-compact</v>
       </c>
       <c r="D69" t="s">
         <v>57</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>72</v>
       </c>
       <c r="G69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-claim-compact</v>
+        <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D70" t="s">
         <v>57</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>72</v>
       </c>
       <c r="G70" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-epub-accessibility-1-1-compact</v>
+        <v>conformance-details-compact</v>
       </c>
       <c r="D71" t="s">
         <v>57</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-wcag-2-1-descriptive</v>
+        <v>conformance-claim-compact</v>
       </c>
       <c r="D72" t="s">
         <v>57</v>
       </c>
       <c r="E72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-level-aa-compact</v>
+        <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D73" t="s">
         <v>57</v>
       </c>
       <c r="E73" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certification-info-compact</v>
+        <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D74" t="s">
         <v>57</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>71</v>
       </c>
       <c r="G74" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-certifier-report-compact</v>
+        <v>conformance-level-aa-compact</v>
       </c>
       <c r="D75" t="s">
         <v>57</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-title-compact</v>
+        <v>conformance-certification-info-compact</v>
       </c>
       <c r="D76" t="s">
         <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>conformance-no-compact</v>
+        <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D77" t="s">
         <v>57</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>conformance-title-compact</v>
       </c>
       <c r="D78" t="s">
         <v>57</v>
       </c>
       <c r="E78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G78" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>conformance-no-compact</v>
       </c>
       <c r="D79" t="s">
         <v>57</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G79" t="s">
         <v>90</v>
@@ -5076,1096 +5097,1096 @@
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D80" t="s">
         <v>57</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G80" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-descriptive</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D81" t="s">
         <v>57</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
         <v>71</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-compact</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D82" t="s">
         <v>57</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F82" t="s">
         <v>72</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-index-descriptive</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D83" t="s">
         <v>57</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
         <v>71</v>
       </c>
       <c r="G83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-compact</v>
+        <v>navigation-index-compact</v>
       </c>
       <c r="D84" t="s">
         <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
         <v>72</v>
       </c>
       <c r="G84" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-structural-descriptive</v>
+        <v>navigation-index-descriptive</v>
       </c>
       <c r="D85" t="s">
         <v>57</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
         <v>71</v>
       </c>
       <c r="G85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-structural-compact</v>
       </c>
       <c r="D86" t="s">
         <v>57</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F86" t="s">
         <v>72</v>
       </c>
       <c r="G86" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-descriptive</v>
+        <v>navigation-structural-descriptive</v>
       </c>
       <c r="D87" t="s">
         <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F87" t="s">
         <v>71</v>
       </c>
       <c r="G87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-compact</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D88" t="s">
         <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
         <v>72</v>
       </c>
       <c r="G88" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-no-metadata-descriptive</v>
+        <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D89" t="s">
         <v>57</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
         <v>71</v>
       </c>
       <c r="G89" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D90" t="s">
         <v>57</v>
       </c>
       <c r="E90" t="s">
-        <v>61</v>
+        <v>39</v>
+      </c>
+      <c r="F90" t="s">
+        <v>72</v>
       </c>
       <c r="G90" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-compact</v>
+        <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D91" t="s">
         <v>57</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G91" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D92" t="s">
         <v>57</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
-      </c>
-      <c r="F92" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G92" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-title-compact</v>
+        <v>navigation-toc-compact</v>
       </c>
       <c r="D93" t="s">
         <v>57</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>35</v>
+      </c>
+      <c r="F93" t="s">
+        <v>72</v>
       </c>
       <c r="G93" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-toc-descriptive</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D94" t="s">
         <v>57</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G94" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>navigation-page-navigation-compact</v>
+        <v>navigation-title-compact</v>
       </c>
       <c r="D95" t="s">
         <v>57</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
-      </c>
-      <c r="F95" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G95" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>navigation-toc-descriptive</v>
       </c>
       <c r="D96" t="s">
         <v>57</v>
       </c>
       <c r="E96" t="s">
-        <v>134</v>
+        <v>35</v>
+      </c>
+      <c r="F96" t="s">
+        <v>71</v>
       </c>
       <c r="G96" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D97" t="s">
         <v>57</v>
       </c>
       <c r="E97" t="s">
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G97" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-compact</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D98" t="s">
         <v>57</v>
       </c>
       <c r="E98" t="s">
-        <v>112</v>
-      </c>
-      <c r="F98" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-descriptive</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D99" t="s">
         <v>57</v>
       </c>
       <c r="E99" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F99" t="s">
         <v>71</v>
       </c>
       <c r="G99" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-compact</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D100" t="s">
         <v>57</v>
       </c>
       <c r="E100" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F100" t="s">
         <v>72</v>
       </c>
       <c r="G100" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-latex-descriptive</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D101" t="s">
         <v>57</v>
       </c>
       <c r="E101" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F101" t="s">
         <v>71</v>
       </c>
       <c r="G101" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-compact</v>
+        <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D102" t="s">
         <v>57</v>
       </c>
       <c r="E102" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F102" t="s">
         <v>72</v>
       </c>
       <c r="G102" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-described-descriptive</v>
+        <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D103" t="s">
         <v>57</v>
       </c>
       <c r="E103" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F103" t="s">
         <v>71</v>
       </c>
       <c r="G103" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
+        <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D104" t="s">
         <v>57</v>
       </c>
       <c r="E104" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F104" t="s">
         <v>72</v>
       </c>
       <c r="G104" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
+        <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D105" t="s">
         <v>57</v>
       </c>
       <c r="E105" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F105" t="s">
         <v>71</v>
       </c>
       <c r="G105" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-compact</v>
+        <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D106" t="s">
         <v>57</v>
       </c>
       <c r="E106" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F106" t="s">
         <v>72</v>
       </c>
       <c r="G106" t="s">
-        <v>175</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D107" t="s">
         <v>57</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F107" t="s">
         <v>71</v>
       </c>
       <c r="G107" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-compact</v>
+        <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D108" t="s">
         <v>57</v>
       </c>
       <c r="E108" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F108" t="s">
         <v>72</v>
       </c>
       <c r="G108" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-extended-descriptive</v>
+        <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D109" t="s">
         <v>57</v>
       </c>
       <c r="E109" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F109" t="s">
         <v>71</v>
       </c>
       <c r="G109" t="s">
-        <v>120</v>
+        <v>169</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-compact</v>
+        <v>rich-content-extended-compact</v>
       </c>
       <c r="D110" t="s">
         <v>57</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F110" t="s">
         <v>72</v>
       </c>
       <c r="G110" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-descriptive</v>
+        <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D111" t="s">
         <v>57</v>
       </c>
       <c r="E111" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F111" t="s">
         <v>71</v>
       </c>
       <c r="G111" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-compact</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D112" t="s">
         <v>57</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F112" t="s">
         <v>72</v>
       </c>
       <c r="G112" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-open-captions-descriptive</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D113" t="s">
         <v>57</v>
       </c>
       <c r="E113" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F113" t="s">
         <v>71</v>
       </c>
       <c r="G113" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D114" t="s">
         <v>57</v>
       </c>
       <c r="E114" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F114" t="s">
         <v>72</v>
       </c>
       <c r="G114" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-descriptive</v>
+        <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D115" t="s">
         <v>57</v>
       </c>
       <c r="E115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F115" t="s">
         <v>71</v>
       </c>
       <c r="G115" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-compact</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D116" t="s">
         <v>57</v>
       </c>
       <c r="E116" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F116" t="s">
         <v>72</v>
       </c>
       <c r="G116" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-unknown-descriptive</v>
+        <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D117" t="s">
         <v>57</v>
       </c>
       <c r="E117" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="F117" t="s">
         <v>71</v>
       </c>
       <c r="G117" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-unknown-compact</v>
       </c>
       <c r="D118" t="s">
         <v>57</v>
       </c>
       <c r="E118" t="s">
-        <v>134</v>
+        <v>109</v>
+      </c>
+      <c r="F118" t="s">
+        <v>72</v>
       </c>
       <c r="G118" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-compact</v>
+        <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D119" t="s">
         <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F119" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G119" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-compact</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D120" t="s">
         <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
-      </c>
-      <c r="F120" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="G120" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D121" t="s">
         <v>57</v>
       </c>
       <c r="E121" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F121" t="s">
         <v>72</v>
       </c>
       <c r="G121" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-title-compact</v>
+        <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D122" t="s">
         <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="F122" t="s">
+        <v>72</v>
       </c>
       <c r="G122" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-accessible-math-as-mathml-descriptive</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D123" t="s">
         <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="F123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G123" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-closed-captions-descriptive</v>
+        <v>rich-content-title-compact</v>
       </c>
       <c r="D124" t="s">
         <v>57</v>
       </c>
       <c r="E124" t="s">
-        <v>135</v>
-      </c>
-      <c r="F124" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="G124" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>rich-content-transcript-compact</v>
+        <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D125" t="s">
         <v>57</v>
       </c>
       <c r="E125" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F125" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G125" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-title-compact</v>
+        <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D126" t="s">
         <v>57</v>
       </c>
       <c r="E126" t="s">
-        <v>63</v>
+        <v>133</v>
+      </c>
+      <c r="F126" t="s">
+        <v>71</v>
       </c>
       <c r="G126" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>rich-content-transcript-compact</v>
       </c>
       <c r="D127" t="s">
         <v>57</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="F127" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G127" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-compact</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D128" t="s">
         <v>57</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
-      </c>
-      <c r="F128" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-none-descriptive</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D129" t="s">
         <v>57</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F129" t="s">
         <v>71</v>
       </c>
       <c r="G129" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>hazards-flashing-compact</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D130" t="s">
         <v>57</v>
       </c>
       <c r="E130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
         <v>72</v>
       </c>
       <c r="G130" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="str">
-        <f t="shared" ref="A131:A168" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
-        <v>hazards-flashing-descriptive</v>
+        <f t="shared" ref="A131:A170" si="2">E131&amp;"-"&amp;IF(ISBLANK(F131),"compact",F131)</f>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D131" t="s">
         <v>57</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F131" t="s">
         <v>71</v>
       </c>
       <c r="G131" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-compact</v>
+        <v>hazards-flashing-compact</v>
       </c>
       <c r="D132" t="s">
         <v>57</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
         <v>72</v>
       </c>
       <c r="G132" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-motion-descriptive</v>
+        <v>hazards-flashing-descriptive</v>
       </c>
       <c r="D133" t="s">
         <v>57</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
         <v>71</v>
       </c>
       <c r="G133" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-compact</v>
+        <v>hazards-motion-compact</v>
       </c>
       <c r="D134" t="s">
         <v>57</v>
       </c>
       <c r="E134" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F134" t="s">
         <v>72</v>
       </c>
       <c r="G134" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-sound-descriptive</v>
+        <v>hazards-motion-descriptive</v>
       </c>
       <c r="D135" t="s">
         <v>57</v>
       </c>
       <c r="E135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F135" t="s">
         <v>71</v>
       </c>
       <c r="G135" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-unknown-compact</v>
+        <v>hazards-sound-compact</v>
       </c>
       <c r="D136" t="s">
         <v>57</v>
       </c>
       <c r="E136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F136" t="s">
         <v>72</v>
       </c>
       <c r="G136" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-unknown-descriptive</v>
+        <v>hazards-sound-descriptive</v>
       </c>
       <c r="D137" t="s">
         <v>57</v>
       </c>
       <c r="E137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F137" t="s">
         <v>71</v>
       </c>
       <c r="G137" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-no-metadata-compact</v>
+        <v>hazards-unknown-compact</v>
       </c>
       <c r="D138" t="s">
         <v>57</v>
       </c>
       <c r="E138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F138" t="s">
         <v>72</v>
       </c>
       <c r="G138" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-no-metadata-descriptive</v>
+        <v>hazards-unknown-descriptive</v>
       </c>
       <c r="D139" t="s">
         <v>57</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F139" t="s">
         <v>71</v>
       </c>
       <c r="G139" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-title-compact</v>
+        <v>hazards-no-metadata-compact</v>
       </c>
       <c r="D140" t="s">
         <v>57</v>
       </c>
       <c r="E140" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="F140" t="s">
+        <v>72</v>
       </c>
       <c r="G140" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-none-compact</v>
+        <v>hazards-no-metadata-descriptive</v>
       </c>
       <c r="D141" t="s">
         <v>57</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F141" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -6186,7 +6207,7 @@
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>hazards-none-descriptive</v>
+        <v>hazards-none-compact</v>
       </c>
       <c r="D143" t="s">
         <v>57</v>
@@ -6195,43 +6216,43 @@
         <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G143" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-title-compact</v>
+        <v>hazards-title-compact</v>
       </c>
       <c r="D144" t="s">
         <v>57</v>
       </c>
       <c r="E144" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G144" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>accessibility-summary-no-metadata-compact</v>
+        <v>hazards-none-descriptive</v>
       </c>
       <c r="D145" t="s">
         <v>57</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G145" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -6252,121 +6273,121 @@
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>accessibility-summary-no-metadata-compact</v>
       </c>
       <c r="D147" t="s">
         <v>57</v>
       </c>
       <c r="E147" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="F147" t="s">
+        <v>72</v>
       </c>
       <c r="G147" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-compact</v>
+        <v>accessibility-summary-title-compact</v>
       </c>
       <c r="D148" t="s">
         <v>57</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
-      </c>
-      <c r="F148" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G148" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-descriptive</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D149" t="s">
         <v>57</v>
       </c>
       <c r="E149" t="s">
-        <v>132</v>
-      </c>
-      <c r="F149" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G149" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-compact</v>
+        <v>legal-considerations-exempt-compact</v>
       </c>
       <c r="D150" t="s">
         <v>57</v>
       </c>
       <c r="E150" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F150" t="s">
         <v>72</v>
       </c>
       <c r="G150" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-no-metadata-descriptive</v>
+        <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D151" t="s">
         <v>57</v>
       </c>
       <c r="E151" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F151" t="s">
         <v>71</v>
       </c>
       <c r="G151" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-title-compact</v>
+        <v>legal-considerations-no-metadata-compact</v>
       </c>
       <c r="D152" t="s">
         <v>57</v>
       </c>
       <c r="E152" t="s">
-        <v>73</v>
+        <v>48</v>
+      </c>
+      <c r="F152" t="s">
+        <v>72</v>
       </c>
       <c r="G152" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-compact</v>
+        <v>legal-considerations-no-metadata-descriptive</v>
       </c>
       <c r="D153" t="s">
         <v>57</v>
       </c>
       <c r="E153" t="s">
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="F153" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G153" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -6387,244 +6408,277 @@
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>legal-considerations-exempt-descriptive</v>
+        <v>legal-considerations-exempt-compact</v>
       </c>
       <c r="D155" t="s">
         <v>57</v>
       </c>
       <c r="E155" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F155" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G155" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>legal-considerations-title-compact</v>
       </c>
       <c r="D156" t="s">
         <v>57</v>
       </c>
       <c r="E156" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G156" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-clarity-aria-compact</v>
+        <v>legal-considerations-exempt-descriptive</v>
       </c>
       <c r="D157" t="s">
         <v>57</v>
       </c>
       <c r="E157" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F157" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G157" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-clarity-aria-descriptive</v>
+        <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D158" t="s">
         <v>57</v>
       </c>
       <c r="E158" t="s">
-        <v>58</v>
-      </c>
-      <c r="F158" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G158" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-clarity-page-breaks-compact</v>
+        <v>additional-accessibility-information-clarity-aria-compact</v>
       </c>
       <c r="D159" t="s">
         <v>57</v>
       </c>
       <c r="E159" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F159" t="s">
         <v>72</v>
       </c>
       <c r="G159" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-clarity-page-breaks-descriptive</v>
+        <v>additional-accessibility-information-clarity-aria-descriptive</v>
       </c>
       <c r="D160" t="s">
         <v>57</v>
       </c>
       <c r="E160" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F160" t="s">
         <v>71</v>
       </c>
       <c r="G160" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-adaptation-tactile-graphics-compact</v>
+        <v>additional-accessibility-information-clarity-page-breaks-compact</v>
       </c>
       <c r="D161" t="s">
         <v>57</v>
       </c>
       <c r="E161" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="F161" t="s">
         <v>72</v>
       </c>
       <c r="G161" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-adaptation-tactile-graphics-descriptive</v>
+        <v>additional-accessibility-information-clarity-page-breaks-descriptive</v>
       </c>
       <c r="D162" t="s">
         <v>57</v>
       </c>
       <c r="E162" t="s">
-        <v>194</v>
+        <v>50</v>
       </c>
       <c r="F162" t="s">
         <v>71</v>
       </c>
       <c r="G162" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>additional-accessibility-information-adaptation-tactile-graphics-compact</v>
       </c>
       <c r="D163" t="s">
         <v>57</v>
       </c>
       <c r="E163" t="s">
-        <v>67</v>
+        <v>190</v>
+      </c>
+      <c r="F163" t="s">
+        <v>72</v>
       </c>
       <c r="G163" t="s">
-        <v>68</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-clarity-aria-compact</v>
+        <v>additional-accessibility-information-adaptation-tactile-graphics-descriptive</v>
       </c>
       <c r="D164" t="s">
         <v>57</v>
       </c>
       <c r="E164" t="s">
-        <v>58</v>
+        <v>190</v>
       </c>
       <c r="F164" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G164" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-clarity-page-breaks-compact</v>
+        <v>additional-accessibility-information-title-compact</v>
       </c>
       <c r="D165" t="s">
         <v>57</v>
       </c>
       <c r="E165" t="s">
-        <v>50</v>
-      </c>
-      <c r="F165" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G165" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-title-compact</v>
+        <v>additional-accessibility-information-clarity-aria-compact</v>
       </c>
       <c r="D166" t="s">
         <v>57</v>
       </c>
       <c r="E166" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+      <c r="F166" t="s">
+        <v>72</v>
       </c>
       <c r="G166" t="s">
-        <v>68</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>additional-accessibility-information-clarity-aria-descriptive</v>
+        <v>additional-accessibility-information-clarity-page-breaks-compact</v>
       </c>
       <c r="D167" t="s">
         <v>57</v>
       </c>
       <c r="E167" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F167" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G167" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="str">
         <f t="shared" si="2"/>
+        <v>additional-accessibility-information-title-compact</v>
+      </c>
+      <c r="D168" t="s">
+        <v>57</v>
+      </c>
+      <c r="E168" t="s">
+        <v>67</v>
+      </c>
+      <c r="G168" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>additional-accessibility-information-clarity-aria-descriptive</v>
+      </c>
+      <c r="D169" t="s">
+        <v>57</v>
+      </c>
+      <c r="E169" t="s">
+        <v>58</v>
+      </c>
+      <c r="F169" t="s">
+        <v>71</v>
+      </c>
+      <c r="G169" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>additional-accessibility-information-clarity-page-breaks-descriptive</v>
       </c>
-      <c r="D168" t="s">
-        <v>57</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="D170" t="s">
+        <v>57</v>
+      </c>
+      <c r="E170" t="s">
         <v>50</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F170" t="s">
         <v>71</v>
       </c>
-      <c r="G168" t="s">
-        <v>193</v>
+      <c r="G170" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -6634,10 +6688,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3555E2ED-EB14-6D43-B054-42CEC3458CC1}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6671,10 +6725,10 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6704,10 +6758,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6759,7 +6813,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -6770,7 +6824,7 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -6781,10 +6835,10 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6795,7 +6849,7 @@
         <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6803,7 +6857,7 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
@@ -6814,10 +6868,10 @@
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6825,10 +6879,10 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -6836,10 +6890,10 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -6847,10 +6901,10 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>177</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -6858,10 +6912,10 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -6869,10 +6923,10 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -6880,10 +6934,10 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -6891,10 +6945,10 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -6902,10 +6956,10 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
@@ -6913,10 +6967,10 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
@@ -6924,10 +6978,10 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -6935,10 +6989,10 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -6946,10 +7000,10 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -6957,10 +7011,10 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
@@ -6968,10 +7022,10 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
@@ -6979,10 +7033,10 @@
         <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
@@ -6990,10 +7044,10 @@
         <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
@@ -7001,10 +7055,10 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
@@ -7012,10 +7066,10 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -7023,10 +7077,10 @@
         <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
@@ -7034,10 +7088,10 @@
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -7045,10 +7099,10 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -7056,10 +7110,10 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -7067,10 +7121,10 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -7078,10 +7132,10 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -7089,10 +7143,10 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -7100,10 +7154,10 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -7111,10 +7165,10 @@
         <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -7122,10 +7176,10 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -7133,10 +7187,10 @@
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -7144,10 +7198,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -7155,10 +7209,10 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" t="s">
         <v>118</v>
-      </c>
-      <c r="E46" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -7169,7 +7223,7 @@
         <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -7180,7 +7234,7 @@
         <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -7188,10 +7242,10 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -7199,10 +7253,10 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -7210,10 +7264,10 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -7221,10 +7275,10 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
@@ -7232,10 +7286,10 @@
         <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
@@ -7243,10 +7297,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
@@ -7254,10 +7308,10 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -7265,10 +7319,10 @@
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
@@ -7276,10 +7330,10 @@
         <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E57" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
@@ -7287,10 +7341,10 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E58" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
@@ -7298,10 +7352,10 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.2">
@@ -7309,10 +7363,10 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
@@ -7320,10 +7374,10 @@
         <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="E61" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
@@ -7331,7 +7385,7 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E62" t="s">
         <v>90</v>
@@ -7342,10 +7396,10 @@
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="E63" t="s">
-        <v>207</v>
+        <v>145</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
@@ -7353,10 +7407,10 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>208</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
@@ -7364,10 +7418,10 @@
         <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>148</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
@@ -7375,10 +7429,10 @@
         <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -7386,10 +7440,10 @@
         <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -7397,10 +7451,10 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="E68" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
@@ -7408,10 +7462,10 @@
         <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E69" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
@@ -7419,10 +7473,10 @@
         <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
@@ -7430,10 +7484,10 @@
         <v>57</v>
       </c>
       <c r="D71" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
@@ -7441,10 +7495,10 @@
         <v>57</v>
       </c>
       <c r="D72" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.2">
@@ -7452,10 +7506,10 @@
         <v>57</v>
       </c>
       <c r="D73" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.2">
@@ -7463,10 +7517,10 @@
         <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.2">
@@ -7474,10 +7528,32 @@
         <v>57</v>
       </c>
       <c r="D75" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -7487,10 +7563,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5824B443-C64F-5248-8FD1-CED7D8535BBE}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7524,10 +7600,10 @@
         <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7557,10 +7633,10 @@
         <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -7612,7 +7688,7 @@
         <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
         <v>49</v>
@@ -7623,7 +7699,7 @@
         <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
@@ -7634,10 +7710,10 @@
         <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -7645,10 +7721,10 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -7656,10 +7732,10 @@
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -7667,10 +7743,10 @@
         <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -7678,10 +7754,10 @@
         <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
@@ -7689,10 +7765,10 @@
         <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
@@ -7700,10 +7776,10 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
@@ -7711,10 +7787,10 @@
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.2">
@@ -7722,10 +7798,10 @@
         <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.2">
@@ -7733,10 +7809,10 @@
         <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.2">
@@ -7744,10 +7820,10 @@
         <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.2">
@@ -7755,10 +7831,10 @@
         <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.2">
@@ -7766,10 +7842,10 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.2">
@@ -7777,10 +7853,10 @@
         <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.2">
@@ -7788,10 +7864,10 @@
         <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.2">
@@ -7799,10 +7875,10 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.2">
@@ -7810,10 +7886,10 @@
         <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.2">
@@ -7821,10 +7897,10 @@
         <v>57</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.2">
@@ -7832,10 +7908,10 @@
         <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.2">
@@ -7843,10 +7919,10 @@
         <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.2">
@@ -7854,10 +7930,10 @@
         <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
@@ -7865,10 +7941,10 @@
         <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
@@ -7876,10 +7952,10 @@
         <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
@@ -7887,10 +7963,10 @@
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
@@ -7898,10 +7974,10 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
@@ -7909,10 +7985,10 @@
         <v>57</v>
       </c>
       <c r="D37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -7920,10 +7996,10 @@
         <v>57</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
@@ -7931,10 +8007,10 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -7942,10 +8018,10 @@
         <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.2">
@@ -7953,10 +8029,10 @@
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.2">
@@ -7964,10 +8040,10 @@
         <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.2">
@@ -7975,10 +8051,10 @@
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.2">
@@ -7986,10 +8062,10 @@
         <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.2">
@@ -7997,10 +8073,10 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.2">
@@ -8008,10 +8084,10 @@
         <v>57</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.2">
@@ -8019,10 +8095,10 @@
         <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.2">
@@ -8030,10 +8106,10 @@
         <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.2">
@@ -8041,10 +8117,10 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.2">
@@ -8052,10 +8128,10 @@
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.2">
@@ -8063,10 +8139,10 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.2">
@@ -8074,10 +8150,10 @@
         <v>57</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.2">
@@ -8085,10 +8161,10 @@
         <v>57</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.2">
@@ -8096,10 +8172,10 @@
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.2">
@@ -8107,10 +8183,10 @@
         <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.2">
@@ -8118,10 +8194,10 @@
         <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E56" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.2">
@@ -8129,10 +8205,10 @@
         <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
-        <v>88</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.2">
@@ -8140,10 +8216,10 @@
         <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.2">
@@ -8151,7 +8227,7 @@
         <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59" t="s">
         <v>90</v>
@@ -8162,10 +8238,10 @@
         <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.2">
@@ -8173,10 +8249,10 @@
         <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.2">
@@ -8184,10 +8260,10 @@
         <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.2">
@@ -8195,10 +8271,10 @@
         <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.2">
@@ -8206,10 +8282,10 @@
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E64" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
@@ -8217,10 +8293,10 @@
         <v>57</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E65" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
@@ -8228,10 +8304,10 @@
         <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
@@ -8239,10 +8315,10 @@
         <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -8250,10 +8326,10 @@
         <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
@@ -8261,10 +8337,10 @@
         <v>57</v>
       </c>
       <c r="D69" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
@@ -8272,10 +8348,21 @@
         <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
+++ b/a11y-meta-display-guide/2.0/draft/localizations/crosscheck strings epub-onix-canonical_json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greg/Git/publ-a11y/a11y-meta-display-guide/2.0/draft/localizations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFED5F49-C2EF-544F-A9EE-69865D5F33E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74135CCC-9969-3E45-9857-D16694BEB5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" xr2:uid="{2FB70C81-061D-D945-B60D-ABB2568C93DD}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="216">
   <si>
     <t>id</t>
   </si>
@@ -168,9 +168,6 @@
     <t>conformance-certifier-report</t>
   </si>
   <si>
-    <t>Complementary audio and text</t>
-  </si>
-  <si>
     <t>navigation-toc</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Appearance can be modified</t>
   </si>
   <si>
-    <t>additional-accessibility-information-clarity-page-breaks</t>
-  </si>
-  <si>
     <t>/strings</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t/>
   </si>
   <si>
-    <t>additional-accessibility-information-clarity-aria</t>
-  </si>
-  <si>
     <t>conformance-title</t>
   </si>
   <si>
@@ -634,9 +625,6 @@
   </si>
   <si>
     <t>Page breaks included from the original print source</t>
-  </si>
-  <si>
-    <t>additional-accessibility-information-adaptation-tactile-graphics</t>
   </si>
   <si>
     <t>Tactile graphics included</t>
@@ -1177,10 +1165,10 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,24 +1184,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="str" cm="1">
-        <f t="array" ref="A2:A86">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$170,'epub-metadata-strings'!$D$2:$D$77,'onix-metadata-strings'!$D$2:$D$71))</f>
+        <f t="array" ref="A2:A83">_xlfn.UNIQUE(_xlfn.VSTACK('guidelines-string'!$E$2:$E$170,'epub-metadata-strings'!$D$2:$D$77,'onix-metadata-strings'!$D$2:$D$71))</f>
         <v>ways-of-reading-title</v>
       </c>
       <c r="B2" s="5" t="str">
@@ -1530,11 +1518,11 @@
       </c>
       <c r="E14" s="5" t="str">
         <f>IFERROR(VLOOKUP($A14,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Complementary audio and text</v>
+        <v>Prerecorded audio clips</v>
       </c>
       <c r="F14" s="2" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -2689,7 +2677,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
-        <v>additional-accessibility-information-clarity-aria</v>
+        <v>additional-accessibility-information-aria</v>
       </c>
       <c r="B61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2697,7 +2685,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f>IFERROR(VLOOKUP($A61,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v/>
+        <v>ARIA</v>
       </c>
       <c r="D61" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2714,7 +2702,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
-        <v>additional-accessibility-information-clarity-page-breaks</v>
+        <v>additional-accessibility-information-page-breaks</v>
       </c>
       <c r="B62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2722,7 +2710,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f>IFERROR(VLOOKUP($A62,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v/>
+        <v>Page breaks</v>
       </c>
       <c r="D62" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2739,7 +2727,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
-        <v>additional-accessibility-information-adaptation-tactile-graphics</v>
+        <v>additional-accessibility-information-tactile-graphics</v>
       </c>
       <c r="B63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2747,7 +2735,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f>IFERROR(VLOOKUP($A63,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v/>
+        <v>Tactile graphics</v>
       </c>
       <c r="D63" s="2" t="b">
         <f t="shared" si="0"/>
@@ -2889,7 +2877,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
-        <v>additional-accessibility-information-page-breaks</v>
+        <v>additional-accessibility-information-audio-descriptions</v>
       </c>
       <c r="B69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2897,7 +2885,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f>IFERROR(VLOOKUP($A69,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Page breaks</v>
+        <v>Audio descriptions</v>
       </c>
       <c r="D69" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2914,7 +2902,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
-        <v>additional-accessibility-information-aria</v>
+        <v>additional-accessibility-information-braille</v>
       </c>
       <c r="B70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2922,7 +2910,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f>IFERROR(VLOOKUP($A70,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>ARIA</v>
+        <v>Braille</v>
       </c>
       <c r="D70" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2939,7 +2927,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
-        <v>additional-accessibility-information-audio-descriptions</v>
+        <v>additional-accessibility-information-full-ruby-annotations</v>
       </c>
       <c r="B71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2947,7 +2935,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f>IFERROR(VLOOKUP($A71,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Audio descriptions</v>
+        <v>Full ruby annotations</v>
       </c>
       <c r="D71" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2964,7 +2952,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
-        <v>additional-accessibility-information-braille</v>
+        <v>additional-accessibility-information-high-contrast-between-foreground-and-background-audio</v>
       </c>
       <c r="B72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2972,7 +2960,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Braille</v>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="D72" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2980,7 +2968,7 @@
       </c>
       <c r="E72" s="5" t="str">
         <f>IFERROR(VLOOKUP($A72,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>High contrast between foreground and background audio</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2989,7 +2977,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
-        <v>additional-accessibility-information-full-ruby-annotations</v>
+        <v>additional-accessibility-information-high-contrast-between-text-and-background</v>
       </c>
       <c r="B73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -2997,7 +2985,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Full ruby annotations</v>
+        <v>High contrast between foreground text and background</v>
       </c>
       <c r="D73" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3005,7 +2993,7 @@
       </c>
       <c r="E73" s="5" t="str">
         <f>IFERROR(VLOOKUP($A73,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>High contrast between text and background</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3014,7 +3002,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
-        <v>additional-accessibility-information-high-contrast-between-foreground-and-background-audio</v>
+        <v>additional-accessibility-information-large-print</v>
       </c>
       <c r="B74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3022,7 +3010,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <v>Large print</v>
       </c>
       <c r="D74" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3030,7 +3018,7 @@
       </c>
       <c r="E74" s="5" t="str">
         <f>IFERROR(VLOOKUP($A74,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between foreground and background audio</v>
+        <v/>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3039,7 +3027,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
-        <v>additional-accessibility-information-high-contrast-between-text-and-background</v>
+        <v>additional-accessibility-information-ruby-annotations</v>
       </c>
       <c r="B75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3047,7 +3035,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>High contrast between foreground text and background</v>
+        <v>Some Ruby annotations</v>
       </c>
       <c r="D75" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3055,7 +3043,7 @@
       </c>
       <c r="E75" s="5" t="str">
         <f>IFERROR(VLOOKUP($A75,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>High contrast between text and background</v>
+        <v/>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3064,7 +3052,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
-        <v>additional-accessibility-information-large-print</v>
+        <v>additional-accessibility-information-sign-language</v>
       </c>
       <c r="B76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3072,7 +3060,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Large print</v>
+        <v>Sign language</v>
       </c>
       <c r="D76" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3080,7 +3068,7 @@
       </c>
       <c r="E76" s="5" t="str">
         <f>IFERROR(VLOOKUP($A76,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Sign language</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3089,7 +3077,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
-        <v>additional-accessibility-information-ruby-annotations</v>
+        <v>additional-accessibility-information-tactile-objects</v>
       </c>
       <c r="B77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3097,7 +3085,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f>IFERROR(VLOOKUP($A77,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Some Ruby annotations</v>
+        <v>Tactile 3D objects</v>
       </c>
       <c r="D77" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3114,7 +3102,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
-        <v>additional-accessibility-information-sign-language</v>
+        <v>additional-accessibility-information-text-to-speech-hinting</v>
       </c>
       <c r="B78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3122,7 +3110,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="D78" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3130,7 +3118,7 @@
       </c>
       <c r="E78" s="5" t="str">
         <f>IFERROR(VLOOKUP($A78,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Sign language</v>
+        <v>Text-to-speech hinting provided</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3139,7 +3127,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
-        <v>additional-accessibility-information-tactile-graphics</v>
+        <v>additional-accessibility-information-color-not-sole-means-of-conveying-information</v>
       </c>
       <c r="B79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3147,7 +3135,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Tactile graphics</v>
+        <v/>
       </c>
       <c r="D79" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3155,7 +3143,7 @@
       </c>
       <c r="E79" s="5" t="str">
         <f>IFERROR(VLOOKUP($A79,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Color is not the sole means of conveying information</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3164,7 +3152,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
-        <v>additional-accessibility-information-tactile-objects</v>
+        <v>additional-accessibility-information-dyslexia-readability</v>
       </c>
       <c r="B80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3172,7 +3160,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Tactile 3D objects</v>
+        <v/>
       </c>
       <c r="D80" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3180,7 +3168,7 @@
       </c>
       <c r="E80" s="5" t="str">
         <f>IFERROR(VLOOKUP($A80,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v/>
+        <v>Dyslexia readability</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3189,7 +3177,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
-        <v>additional-accessibility-information-text-to-speech-hinting</v>
+        <v>additional-accessibility-information-ultra-high-contrast-between-text-and-background</v>
       </c>
       <c r="B81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3197,7 +3185,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'epub-metadata-strings'!$D$2:$E$979,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v/>
       </c>
       <c r="D81" s="2" t="str">
         <f t="shared" si="2"/>
@@ -3205,7 +3193,7 @@
       </c>
       <c r="E81" s="5" t="str">
         <f>IFERROR(VLOOKUP($A81,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Text-to-speech hinting provided</v>
+        <v>Ultra high contrast between text and background</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3214,7 +3202,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
-        <v>additional-accessibility-information-color-not-sole-means-of-conveying-information</v>
+        <v>additional-accessibility-information-visible-page-numbering</v>
       </c>
       <c r="B82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3230,7 +3218,7 @@
       </c>
       <c r="E82" s="5" t="str">
         <f>IFERROR(VLOOKUP($A82,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Color is not the sole means of conveying information</v>
+        <v>Visible page numbering</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3239,7 +3227,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
-        <v>additional-accessibility-information-dyslexia-readability</v>
+        <v>additional-accessibility-information-without-background-sounds</v>
       </c>
       <c r="B83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
@@ -3255,7 +3243,7 @@
       </c>
       <c r="E83" s="5" t="str">
         <f>IFERROR(VLOOKUP($A83,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Dyslexia readability</v>
+        <v>Without background sounds</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3263,9 +3251,6 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" t="str">
-        <v>additional-accessibility-information-ultra-high-contrast-between-text-and-background</v>
-      </c>
       <c r="B84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3280,7 +3265,7 @@
       </c>
       <c r="E84" s="5" t="str">
         <f>IFERROR(VLOOKUP($A84,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Ultra high contrast between text and background</v>
+        <v/>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3288,9 +3273,6 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" t="str">
-        <v>additional-accessibility-information-visible-page-numbering</v>
-      </c>
       <c r="B85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3305,7 +3287,7 @@
       </c>
       <c r="E85" s="5" t="str">
         <f>IFERROR(VLOOKUP($A85,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Visible page numbering</v>
+        <v/>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" si="3"/>
@@ -3313,9 +3295,6 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" t="str">
-        <v>additional-accessibility-information-without-background-sounds</v>
-      </c>
       <c r="B86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86&amp;"-compact",'guidelines-string'!$A$2:$G$1000,7,FALSE),"")</f>
         <v/>
@@ -3327,7 +3306,7 @@
       <c r="D86" s="2"/>
       <c r="E86" s="5" t="str">
         <f>IFERROR(VLOOKUP($A86,'onix-metadata-strings'!$D$2:$E$983,2,FALSE),"")</f>
-        <v>Without background sounds</v>
+        <v/>
       </c>
       <c r="F86" s="2"/>
     </row>
@@ -3710,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAAE526-051A-2147-9F70-F78890C8D07D}">
   <dimension ref="A1:G170"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3723,25 +3702,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -3750,16 +3729,16 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -3768,16 +3747,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -3786,16 +3765,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -3804,13 +3783,13 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-compact</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
         <v>1</v>
@@ -3822,16 +3801,16 @@
         <v>ways-of-reading-visual-adjustments-unmodifiable-descriptive</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -3840,16 +3819,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-compact</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -3858,16 +3837,16 @@
         <v>ways-of-reading-visual-adjustments-unknown-descriptive</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -3876,16 +3855,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -3894,16 +3873,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -3912,16 +3891,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-compact</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3930,16 +3909,16 @@
         <v>ways-of-reading-nonvisual-reading-not-fully-descriptive</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -3948,16 +3927,16 @@
         <v>ways-of-reading-nonvisual-reading-none-compact</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3966,16 +3945,16 @@
         <v>ways-of-reading-nonvisual-reading-none-descriptive</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3984,16 +3963,16 @@
         <v>ways-of-reading-nonvisual-reading-no-metadata-compact</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -4002,16 +3981,16 @@
         <v>ways-of-reading-nonvisual-reading-no-metadata-descriptive</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -4020,16 +3999,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -4038,16 +4017,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -4056,16 +4035,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -4074,16 +4053,16 @@
         <v>ways-of-reading-prerecorded-audio-only-compact</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4092,16 +4071,16 @@
         <v>ways-of-reading-prerecorded-audio-only-descriptive</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4110,16 +4089,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4128,16 +4107,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4146,16 +4125,16 @@
         <v>ways-of-reading-prerecorded-audio-complementary-compact</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4164,16 +4143,16 @@
         <v>ways-of-reading-prerecorded-audio-complementary-descriptive</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4182,16 +4161,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-compact</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4200,16 +4179,16 @@
         <v>ways-of-reading-prerecorded-audio-no-metadata-descriptive</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -4218,13 +4197,13 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -4233,16 +4212,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-compact</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -4251,16 +4230,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-compact</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -4269,16 +4248,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-compact</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -4287,16 +4266,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-compact</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -4305,13 +4284,13 @@
         <v>ways-of-reading-title-compact</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4320,16 +4299,16 @@
         <v>ways-of-reading-visual-adjustments-modifiable-descriptive</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4338,16 +4317,16 @@
         <v>ways-of-reading-nonvisual-reading-readable-descriptive</v>
       </c>
       <c r="D35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -4356,16 +4335,16 @@
         <v>ways-of-reading-prerecorded-audio-synchronized-descriptive</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -4374,16 +4353,16 @@
         <v>ways-of-reading-nonvisual-reading-alt-text-descriptive</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -4392,13 +4371,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" t="s">
         <v>57</v>
-      </c>
-      <c r="E38" t="s">
-        <v>59</v>
-      </c>
-      <c r="G38" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -4407,13 +4386,13 @@
         <v>conformance-a-compact</v>
       </c>
       <c r="D39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G39" t="s">
         <v>7</v>
@@ -4425,16 +4404,16 @@
         <v>conformance-a-descriptive</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -4443,13 +4422,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G41" t="s">
         <v>5</v>
@@ -4461,16 +4440,16 @@
         <v>conformance-aa-descriptive</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -4479,13 +4458,13 @@
         <v>conformance-aaa-compact</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G43" t="s">
         <v>3</v>
@@ -4497,16 +4476,16 @@
         <v>conformance-aaa-descriptive</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -4515,16 +4494,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -4533,16 +4512,16 @@
         <v>conformance-no-descriptive</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
         <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -4551,16 +4530,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -4569,13 +4548,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G48" t="s">
         <v>12</v>
@@ -4587,13 +4566,13 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -4605,13 +4584,13 @@
         <v>conformance-claim-descriptive</v>
       </c>
       <c r="D50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
@@ -4623,16 +4602,16 @@
         <v>conformance-wcag-2-0-descriptive</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E51" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -4641,16 +4620,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E52" t="s">
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G52" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -4659,16 +4638,16 @@
         <v>conformance-wcag-2-2-descriptive</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E53" t="s">
         <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -4677,16 +4656,16 @@
         <v>conformance-certification-info-compact</v>
       </c>
       <c r="D54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E54" t="s">
         <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -4695,16 +4674,16 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E55" t="s">
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G55" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -4713,13 +4692,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
         <v>57</v>
-      </c>
-      <c r="E56" t="s">
-        <v>59</v>
-      </c>
-      <c r="G56" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -4728,13 +4707,13 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G57" t="s">
         <v>5</v>
@@ -4746,16 +4725,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G58" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -4764,13 +4743,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G59" t="s">
         <v>12</v>
@@ -4782,13 +4761,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
         <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
@@ -4797,7 +4776,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -4812,7 +4791,7 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -4827,16 +4806,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
@@ -4845,7 +4824,7 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E64" t="s">
         <v>28</v>
@@ -4860,13 +4839,13 @@
         <v>conformance-certification-info-compact</v>
       </c>
       <c r="D65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E65" t="s">
         <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
@@ -4875,13 +4854,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E66" t="s">
         <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -4890,13 +4869,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D67" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" t="s">
         <v>57</v>
-      </c>
-      <c r="E67" t="s">
-        <v>59</v>
-      </c>
-      <c r="G67" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -4905,16 +4884,16 @@
         <v>conformance-aa-compact</v>
       </c>
       <c r="D68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G68" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -4923,16 +4902,16 @@
         <v>conformance-certifier-compact</v>
       </c>
       <c r="D69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E69" t="s">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G69" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -4941,13 +4920,13 @@
         <v>conformance-certifier-credentials-compact</v>
       </c>
       <c r="D70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G70" t="s">
         <v>12</v>
@@ -4959,13 +4938,13 @@
         <v>conformance-details-compact</v>
       </c>
       <c r="D71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E71" t="s">
         <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -4974,7 +4953,7 @@
         <v>conformance-claim-compact</v>
       </c>
       <c r="D72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4989,7 +4968,7 @@
         <v>conformance-epub-accessibility-1-1-compact</v>
       </c>
       <c r="D73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
         <v>18</v>
@@ -5004,16 +4983,16 @@
         <v>conformance-wcag-2-1-descriptive</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -5022,7 +5001,7 @@
         <v>conformance-level-aa-compact</v>
       </c>
       <c r="D75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E75" t="s">
         <v>28</v>
@@ -5037,13 +5016,13 @@
         <v>conformance-certification-info-compact</v>
       </c>
       <c r="D76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E76" t="s">
         <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -5052,13 +5031,13 @@
         <v>conformance-certifier-report-compact</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E77" t="s">
         <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
@@ -5067,13 +5046,13 @@
         <v>conformance-title-compact</v>
       </c>
       <c r="D78" t="s">
+        <v>55</v>
+      </c>
+      <c r="E78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" t="s">
         <v>57</v>
-      </c>
-      <c r="E78" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
@@ -5082,16 +5061,16 @@
         <v>conformance-no-compact</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E79" t="s">
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -5100,13 +5079,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E80" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G80" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -5115,16 +5094,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G81" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -5133,16 +5112,16 @@
         <v>navigation-toc-compact</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -5151,16 +5130,16 @@
         <v>navigation-toc-descriptive</v>
       </c>
       <c r="D83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G83" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -5169,16 +5148,16 @@
         <v>navigation-index-compact</v>
       </c>
       <c r="D84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -5187,16 +5166,16 @@
         <v>navigation-index-descriptive</v>
       </c>
       <c r="D85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
@@ -5205,16 +5184,16 @@
         <v>navigation-structural-compact</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -5223,16 +5202,16 @@
         <v>navigation-structural-descriptive</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -5241,16 +5220,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -5259,16 +5238,16 @@
         <v>navigation-page-navigation-descriptive</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G89" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -5277,16 +5256,16 @@
         <v>navigation-no-metadata-compact</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G90" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -5295,16 +5274,16 @@
         <v>navigation-no-metadata-descriptive</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F91" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G91" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -5313,13 +5292,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G92" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -5328,16 +5307,16 @@
         <v>navigation-toc-compact</v>
       </c>
       <c r="D93" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G93" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -5346,16 +5325,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -5364,13 +5343,13 @@
         <v>navigation-title-compact</v>
       </c>
       <c r="D95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E95" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G95" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
@@ -5379,16 +5358,16 @@
         <v>navigation-toc-descriptive</v>
       </c>
       <c r="D96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G96" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
@@ -5397,16 +5376,16 @@
         <v>navigation-page-navigation-compact</v>
       </c>
       <c r="D97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
@@ -5415,13 +5394,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D98" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E98" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G98" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -5430,16 +5409,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D99" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E99" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F99" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G99" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -5448,16 +5427,16 @@
         <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E100" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F100" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -5466,16 +5445,16 @@
         <v>rich-content-accessible-math-as-mathml-descriptive</v>
       </c>
       <c r="D101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F101" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G101" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -5484,16 +5463,16 @@
         <v>rich-content-accessible-math-as-latex-compact</v>
       </c>
       <c r="D102" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E102" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F102" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G102" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -5502,16 +5481,16 @@
         <v>rich-content-accessible-math-as-latex-descriptive</v>
       </c>
       <c r="D103" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F103" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G103" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -5520,16 +5499,16 @@
         <v>rich-content-accessible-math-described-compact</v>
       </c>
       <c r="D104" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F104" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G104" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -5538,16 +5517,16 @@
         <v>rich-content-accessible-math-described-descriptive</v>
       </c>
       <c r="D105" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F105" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G105" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
@@ -5556,16 +5535,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-compact</v>
       </c>
       <c r="D106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E106" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F106" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G106" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -5574,16 +5553,16 @@
         <v>rich-content-accessible-chemistry-as-mathml-descriptive</v>
       </c>
       <c r="D107" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E107" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F107" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G107" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
@@ -5592,16 +5571,16 @@
         <v>rich-content-accessible-chemistry-as-latex-compact</v>
       </c>
       <c r="D108" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E108" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F108" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G108" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -5610,16 +5589,16 @@
         <v>rich-content-accessible-chemistry-as-latex-descriptive</v>
       </c>
       <c r="D109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E109" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F109" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -5628,16 +5607,16 @@
         <v>rich-content-extended-compact</v>
       </c>
       <c r="D110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E110" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F110" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G110" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -5646,16 +5625,16 @@
         <v>rich-content-extended-descriptive</v>
       </c>
       <c r="D111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E111" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F111" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G111" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -5664,16 +5643,16 @@
         <v>rich-content-closed-captions-compact</v>
       </c>
       <c r="D112" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G112" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5682,16 +5661,16 @@
         <v>rich-content-closed-captions-descriptive</v>
       </c>
       <c r="D113" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E113" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F113" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G113" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5700,16 +5679,16 @@
         <v>rich-content-open-captions-compact</v>
       </c>
       <c r="D114" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E114" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F114" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G114" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
@@ -5718,16 +5697,16 @@
         <v>rich-content-open-captions-descriptive</v>
       </c>
       <c r="D115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E115" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F115" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G115" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5736,16 +5715,16 @@
         <v>rich-content-transcript-compact</v>
       </c>
       <c r="D116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F116" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G116" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5754,16 +5733,16 @@
         <v>rich-content-transcript-descriptive</v>
       </c>
       <c r="D117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E117" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F117" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G117" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5772,16 +5751,16 @@
         <v>rich-content-unknown-compact</v>
       </c>
       <c r="D118" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E118" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F118" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G118" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5790,16 +5769,16 @@
         <v>rich-content-unknown-descriptive</v>
       </c>
       <c r="D119" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E119" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F119" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G119" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -5808,13 +5787,13 @@
         <v>rich-content-title-compact</v>
       </c>
       <c r="D120" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E120" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G120" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5823,16 +5802,16 @@
         <v>rich-content-accessible-math-as-mathml-compact</v>
       </c>
       <c r="D121" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E121" t="s">
